--- a/QuantLibXL/Data2/XLS/USD_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YC3MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="23955" windowHeight="10290" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="23955" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -16,89 +16,42 @@
   </sheets>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$23</definedName>
-    <definedName name="BondBasisDayCounter" localSheetId="4">#REF!</definedName>
-    <definedName name="BondBasisDayCounter" localSheetId="5">'General Settings'!$M$50</definedName>
-    <definedName name="BondBasisDayCounter">#REF!</definedName>
-    <definedName name="Calendar" localSheetId="3">#REF!</definedName>
-    <definedName name="Calendar" localSheetId="4">#REF!</definedName>
-    <definedName name="Calendar" localSheetId="5">'General Settings'!$M$52</definedName>
+    <definedName name="BondBasisDayCounter">'General Settings'!$M$13</definedName>
+    <definedName name="Calendar" localSheetId="5">'General Settings'!#REF!</definedName>
     <definedName name="Calendar">'General Settings'!$D$18</definedName>
     <definedName name="Conventions" localSheetId="5">'3M_Swaps'!$P$6:$R$10</definedName>
-    <definedName name="Currency" localSheetId="3">'General Settings'!$M$14</definedName>
-    <definedName name="Currency" localSheetId="4">'General Settings'!$M$31</definedName>
-    <definedName name="Currency" localSheetId="5">'General Settings'!$M$48</definedName>
     <definedName name="Currency">'General Settings'!$D$4</definedName>
     <definedName name="DayCounter">'General Settings'!$D$19</definedName>
     <definedName name="DepoInclusionCriteria">Selected!$B$5</definedName>
-    <definedName name="Discounting">'General Settings'!$M$54</definedName>
-    <definedName name="Discounting2">'General Settings'!$M$55</definedName>
+    <definedName name="Discounting">'General Settings'!$M$15</definedName>
+    <definedName name="Discounting2">'General Settings'!$M$16</definedName>
     <definedName name="DiscountingCurve" localSheetId="5">'3M_Swaps'!$L$2</definedName>
-    <definedName name="FamilyName" localSheetId="4">'General Settings'!$M$32</definedName>
-    <definedName name="FamilyName" localSheetId="5">'General Settings'!$M$49</definedName>
-    <definedName name="FamilyName">'General Settings'!$M$15</definedName>
-    <definedName name="FileOverwrite" localSheetId="4">'General Settings'!$M$26</definedName>
-    <definedName name="FileOverwrite" localSheetId="5">'General Settings'!$M$43</definedName>
-    <definedName name="FileOverwrite">'General Settings'!$M$9</definedName>
+    <definedName name="FamilyName">'General Settings'!$M$11</definedName>
+    <definedName name="FileOverwrite">'General Settings'!$M$6</definedName>
     <definedName name="FrontFuturesRollingDays">Selected!$B$4</definedName>
-    <definedName name="GENERAL_SETTINGS">'General Settings'!$K$12</definedName>
     <definedName name="IborType">'General Settings'!$D$7</definedName>
-    <definedName name="Index1M" localSheetId="4">#REF!</definedName>
-    <definedName name="Index1M">#REF!</definedName>
-    <definedName name="Index1Y" localSheetId="4">#REF!</definedName>
-    <definedName name="Index1Y">#REF!</definedName>
-    <definedName name="Index3M" localSheetId="4">#REF!</definedName>
-    <definedName name="Index3M">#REF!</definedName>
-    <definedName name="Index6M" localSheetId="4">#REF!</definedName>
-    <definedName name="Index6M">#REF!</definedName>
     <definedName name="IndexTenor">'General Settings'!$D$6</definedName>
     <definedName name="InterpolatorID">'General Settings'!$D$25</definedName>
     <definedName name="MinDistance">RateHelpers!$J$2:$J$169</definedName>
-    <definedName name="MoneyMarketDayCounter" localSheetId="4">#REF!</definedName>
-    <definedName name="MoneyMarketDayCounter" localSheetId="5">'General Settings'!$M$51</definedName>
-    <definedName name="MoneyMarketDayCounter">#REF!</definedName>
+    <definedName name="MoneyMarketDayCounter">'General Settings'!$M$14</definedName>
     <definedName name="Months">'General Settings'!$D$5</definedName>
     <definedName name="NDays">'General Settings'!$D$17</definedName>
     <definedName name="nIMMFutures">Selected!$B$2</definedName>
     <definedName name="nSerialFutures">Selected!$B$3</definedName>
-    <definedName name="ObjectOverwrite" localSheetId="3">'General Settings'!$M$6</definedName>
-    <definedName name="ObjectOverwrite" localSheetId="4">'General Settings'!$M$23</definedName>
-    <definedName name="ObjectOverwrite" localSheetId="5">'General Settings'!$M$40</definedName>
     <definedName name="ObjectOverwrite">'General Settings'!$D$12</definedName>
-    <definedName name="Permanent" localSheetId="3">'General Settings'!$M$5</definedName>
-    <definedName name="Permanent" localSheetId="4">'General Settings'!$M$22</definedName>
-    <definedName name="Permanent" localSheetId="5">'General Settings'!$M$39</definedName>
     <definedName name="Permanent">'General Settings'!$D$10</definedName>
-    <definedName name="QuoteSuffix" localSheetId="4">'General Settings'!$M$33</definedName>
-    <definedName name="QuoteSuffix" localSheetId="5">'General Settings'!$M$53</definedName>
-    <definedName name="QuoteSuffix">'General Settings'!$M$16</definedName>
-    <definedName name="RateHelperPrefix" localSheetId="3">#REF!</definedName>
-    <definedName name="RateHelperPrefix" localSheetId="4">#REF!</definedName>
+    <definedName name="QuoteSuffix">'General Settings'!$M$12</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$9</definedName>
     <definedName name="RateHelpers">RateHelpers!$E$2:$E$169</definedName>
     <definedName name="RateHelpersIncluded">RateHelpers!$H$2:$H$169</definedName>
     <definedName name="RateHelpersPriority">RateHelpers!$I$2:$I$169</definedName>
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
-    <definedName name="ReutersFloatingLegCode" localSheetId="4">#REF!</definedName>
-    <definedName name="ReutersFloatingLegCode">#REF!</definedName>
-    <definedName name="SerializationPath" localSheetId="4">'General Settings'!$M$25</definedName>
-    <definedName name="SerializationPath" localSheetId="5">'General Settings'!$M$42</definedName>
-    <definedName name="SerializationPath">'General Settings'!$M$8</definedName>
-    <definedName name="Serialize" localSheetId="4">'General Settings'!$M$24</definedName>
-    <definedName name="Serialize" localSheetId="5">'General Settings'!$M$41</definedName>
-    <definedName name="Serialize">'General Settings'!$M$7</definedName>
+    <definedName name="SerializationPath">'General Settings'!$M$5</definedName>
+    <definedName name="Serialize">'General Settings'!$M$4</definedName>
     <definedName name="SwapFixedFreq">'General Settings'!$D$8</definedName>
-    <definedName name="SwapMainSetConventions" localSheetId="4">#REF!</definedName>
-    <definedName name="SwapMainSetConventions">#REF!</definedName>
-    <definedName name="SwapSecondarySetConventions" localSheetId="4">#REF!</definedName>
-    <definedName name="SwapSecondarySetConventions">#REF!</definedName>
     <definedName name="TraitsID">'General Settings'!$D$24</definedName>
-    <definedName name="Trigger" localSheetId="3">'General Settings'!$M$4</definedName>
-    <definedName name="Trigger" localSheetId="4">'General Settings'!$M$21</definedName>
-    <definedName name="Trigger" localSheetId="5">'General Settings'!$M$38</definedName>
     <definedName name="Trigger">'General Settings'!$D$11</definedName>
     <definedName name="YieldCurve">'General Settings'!$D$14</definedName>
-    <definedName name="YieldCurveFrequency" localSheetId="4">#REF!</definedName>
-    <definedName name="YieldCurveFrequency">#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -266,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="186">
   <si>
     <t>60Y</t>
   </si>
@@ -806,9 +759,6 @@
   </si>
   <si>
     <t>Discounting</t>
-  </si>
-  <si>
-    <t>Target</t>
   </si>
   <si>
     <t>MoneyMarketDayCounter</t>
@@ -849,7 +799,7 @@
     <numFmt numFmtId="176" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="177" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -942,12 +892,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color indexed="9"/>
       <name val="Arial"/>
@@ -999,12 +943,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="23"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1027,8 +965,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1435,15 +1379,11 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1452,31 +1392,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1488,14 +1406,14 @@
     <xf numFmtId="38" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="175" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="14" fillId="10" borderId="0">
+    <xf numFmtId="176" fontId="14" fillId="9" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1623,8 +1541,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1712,12 +1628,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1734,7 +1644,7 @@
     <xf numFmtId="174" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="9" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="174" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1744,7 +1654,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1771,7 +1681,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="10" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1"/>
@@ -1797,8 +1706,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="2" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1811,7 +1720,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1833,13 +1742,13 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1878,7 +1787,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1895,31 +1804,18 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1935,9 +1831,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="10" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2250,2634 +2158,492 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG68"/>
+  <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="18" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="53" customWidth="1"/>
-    <col min="7" max="16384" width="8" style="53"/>
+    <col min="1" max="2" width="2.7109375" style="187" customWidth="1"/>
+    <col min="3" max="3" width="18" style="187" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="187" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="187" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="187" customWidth="1"/>
+    <col min="8" max="9" width="8" style="187"/>
+    <col min="10" max="11" width="2.7109375" style="187" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="187" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="187" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="187" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="187"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="54" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="54" t="str">
+    <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="187" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="193" t="s">
+    <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="195" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="195"/>
-      <c r="K2" s="190" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="197"/>
+      <c r="K2" s="195" t="s">
         <v>162</v>
       </c>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="192"/>
-    </row>
-    <row r="3" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="96" t="s">
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+    </row>
+    <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="60"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="56"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="129"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="60"/>
+      <c r="C4" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="95" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="56"/>
+      <c r="H4" s="190" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="135" t="s">
-        <v>100</v>
-      </c>
-      <c r="M4" s="129"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="89" t="s">
+      <c r="I4" s="191"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="M4" s="120" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="125"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="60"/>
+      <c r="C5" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="61">
         <v>3</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="93" t="s">
+      <c r="E5" s="57"/>
+      <c r="F5" s="56"/>
+      <c r="H5" s="188" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="92" t="s">
+      <c r="I5" s="189" t="s">
         <v>111</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="135" t="s">
-        <v>101</v>
-      </c>
-      <c r="M5" s="129" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="134"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="89" t="s">
+      <c r="K5" s="127"/>
+      <c r="L5" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="M5" s="128" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
+      </c>
+      <c r="N5" s="125"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="60"/>
+      <c r="C6" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="63" t="str">
+      <c r="D6" s="61" t="str">
         <f>_xll.qlPeriodEquivalent(D5&amp;"M")</f>
         <v>3M</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="93" t="s">
+      <c r="E6" s="57"/>
+      <c r="F6" s="56"/>
+      <c r="H6" s="188" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="189" t="s">
         <v>108</v>
       </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="135" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" s="129" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="134"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="54"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="89" t="s">
+      <c r="K6" s="127"/>
+      <c r="L6" s="126" t="s">
+        <v>159</v>
+      </c>
+      <c r="M6" s="117" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="125"/>
+    </row>
+    <row r="7" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="60"/>
+      <c r="C7" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="63" t="str">
+      <c r="D7" s="61" t="str">
         <f>Months&amp;IF(UPPER(Currency)="EUR","E","L")</f>
         <v>3L</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="93" t="s">
+      <c r="E7" s="57"/>
+      <c r="F7" s="56"/>
+      <c r="H7" s="188" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="135" t="s">
-        <v>161</v>
-      </c>
-      <c r="M7" s="129" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" s="134"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
-    </row>
-    <row r="8" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="89" t="s">
+      <c r="I7" s="189"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="122"/>
+    </row>
+    <row r="8" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="60"/>
+      <c r="C8" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="63" t="str">
+      <c r="D8" s="61" t="str">
         <f>VLOOKUP(Currency,H4:I8,2)</f>
         <v>AM</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="91" t="s">
+      <c r="E8" s="57"/>
+      <c r="F8" s="56"/>
+      <c r="H8" s="192" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="90" t="s">
+      <c r="I8" s="193" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="135" t="s">
-        <v>160</v>
-      </c>
-      <c r="M8" s="137" t="e">
-        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",#REF!),FIND("[",CELL("filename",#REF!),1)-1),"\XLS\","\XML\")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N8" s="134"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="89" t="s">
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+    </row>
+    <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="60"/>
+      <c r="C9" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="63" t="str">
+      <c r="D9" s="61" t="str">
         <f>Currency&amp;"_YC"&amp;IndexTenor&amp;"RH"</f>
         <v>USD_YC3MRH</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="135" t="s">
-        <v>159</v>
-      </c>
-      <c r="M9" s="126" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" s="134"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-    </row>
-    <row r="10" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="88" t="s">
+      <c r="E9" s="57"/>
+      <c r="F9" s="56"/>
+      <c r="K9" s="195" t="s">
+        <v>158</v>
+      </c>
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="196"/>
+    </row>
+    <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="60"/>
+      <c r="C10" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="63" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="54"/>
-    </row>
-    <row r="11" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="88" t="s">
+      <c r="D10" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="56"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="116"/>
+    </row>
+    <row r="11" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="60"/>
+      <c r="C11" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="87">
-        <v>41654.074756944443</v>
-      </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="54"/>
-    </row>
-    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="86" t="s">
+      <c r="D11" s="85">
+        <v>41654.209652777776</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="56"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="118" t="s">
+        <v>157</v>
+      </c>
+      <c r="M11" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="N11" s="116"/>
+    </row>
+    <row r="12" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="60"/>
+      <c r="C12" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="190" t="s">
-        <v>158</v>
-      </c>
-      <c r="L12" s="191"/>
-      <c r="M12" s="191"/>
-      <c r="N12" s="192"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="54"/>
-    </row>
-    <row r="13" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="54"/>
-    </row>
-    <row r="14" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="82" t="s">
+      <c r="D12" s="83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="56"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="M12" s="117" t="s">
+        <v>154</v>
+      </c>
+      <c r="N12" s="116"/>
+    </row>
+    <row r="13" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="60"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="56"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="118" t="s">
+        <v>182</v>
+      </c>
+      <c r="M13" s="120" t="s">
+        <v>181</v>
+      </c>
+      <c r="N13" s="116"/>
+    </row>
+    <row r="14" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="60"/>
+      <c r="C14" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="84" t="str">
+      <c r="D14" s="82" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYC3M#0005</v>
-      </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="127" t="s">
-        <v>115</v>
-      </c>
-      <c r="M14" s="129" t="s">
-        <v>104</v>
-      </c>
-      <c r="N14" s="125"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="54"/>
-    </row>
-    <row r="15" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="69" t="s">
+        <v>_USDYC3M#0009</v>
+      </c>
+      <c r="E14" s="57"/>
+      <c r="F14" s="56"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="118" t="s">
+        <v>180</v>
+      </c>
+      <c r="M14" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="N14" s="116"/>
+    </row>
+    <row r="15" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="60"/>
+      <c r="C15" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="83" t="str">
+      <c r="D15" s="81" t="str">
         <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="127" t="s">
-        <v>157</v>
-      </c>
-      <c r="M15" s="129" t="s">
-        <v>156</v>
-      </c>
-      <c r="N15" s="125"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
-    </row>
-    <row r="16" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="82" t="s">
+      <c r="E15" s="57"/>
+      <c r="F15" s="56"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="M15" s="120" t="str">
+        <f>PROPER(Currency)&amp;"YC"</f>
+        <v>UsdYC</v>
+      </c>
+      <c r="N15" s="116"/>
+    </row>
+    <row r="16" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="60"/>
+      <c r="C16" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="81" t="str">
+      <c r="D16" s="79" t="str">
         <f>"_"&amp;Currency&amp;"YC"&amp;IndexTenor</f>
         <v>_USDYC3M</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="127" t="s">
-        <v>155</v>
-      </c>
-      <c r="M16" s="126" t="s">
-        <v>154</v>
-      </c>
-      <c r="N16" s="125"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="54"/>
-    </row>
-    <row r="17" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="71" t="s">
+      <c r="E16" s="57"/>
+      <c r="F16" s="56"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="118" t="s">
+        <v>178</v>
+      </c>
+      <c r="M16" s="120" t="str">
+        <f>PROPER(Currency)&amp;"YCSTD"</f>
+        <v>UsdYCSTD</v>
+      </c>
+      <c r="N16" s="116"/>
+    </row>
+    <row r="17" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="60"/>
+      <c r="C17" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="78">
         <v>2</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="122"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-    </row>
-    <row r="18" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="71" t="s">
+      <c r="E17" s="57"/>
+      <c r="F17" s="56"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="113"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="60"/>
+      <c r="C18" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-    </row>
-    <row r="19" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="71" t="s">
+      <c r="E18" s="57"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="60"/>
+      <c r="C19" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="190" t="s">
-        <v>162</v>
-      </c>
-      <c r="L19" s="191"/>
-      <c r="M19" s="191"/>
-      <c r="N19" s="192"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54"/>
-      <c r="AB19" s="54"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="54"/>
-      <c r="AE19" s="54"/>
-      <c r="AF19" s="54"/>
-      <c r="AG19" s="54"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="71" t="s">
+      <c r="D19" s="77"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="60"/>
+      <c r="C20" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="78" t="str">
+      <c r="D20" s="76" t="str">
         <f>Currency&amp;"TOY_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
         <v>USDTOY_SYNTH3M_Quote</v>
       </c>
-      <c r="E20" s="77" t="str">
+      <c r="E20" s="75" t="str">
         <f>Currency&amp;"TOY2_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
         <v>USDTOY2_SYNTH3M_Quote</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="54"/>
-      <c r="AG20" s="54"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="71" t="s">
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="60"/>
+      <c r="C21" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="74">
         <f>DATE(YEAR(_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),NDays&amp;"D")),12,31)</f>
         <v>42004</v>
       </c>
-      <c r="E21" s="75">
+      <c r="E21" s="73">
         <f>DATE(YEAR(D21+1),12,31)</f>
         <v>42369</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="135" t="s">
-        <v>100</v>
-      </c>
-      <c r="M21" s="129">
-        <v>41215.669421296298</v>
-      </c>
-      <c r="N21" s="134"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="71" t="s">
+      <c r="F21" s="56"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="60"/>
+      <c r="C22" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="74" t="e">
+      <c r="D22" s="72" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E22" s="73" t="e">
+      <c r="E22" s="71" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="135" t="s">
-        <v>101</v>
-      </c>
-      <c r="M22" s="129" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" s="134"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="54"/>
-      <c r="AE22" s="54"/>
-      <c r="AF22" s="54"/>
-      <c r="AG22" s="54"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="71" t="s">
+      <c r="F22" s="56"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="60"/>
+      <c r="C23" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="135" t="s">
-        <v>99</v>
-      </c>
-      <c r="M23" s="129" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" s="134"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="54"/>
-      <c r="AE23" s="54"/>
-      <c r="AF23" s="54"/>
-      <c r="AG23" s="54"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="71" t="s">
+      <c r="D23" s="70"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="56"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="60"/>
+      <c r="C24" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="70" t="s">
+      <c r="D24" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="135" t="s">
-        <v>161</v>
-      </c>
-      <c r="M24" s="129" t="b">
-        <v>1</v>
-      </c>
-      <c r="N24" s="134"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
-      <c r="AA24" s="54"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="54"/>
-      <c r="AD24" s="54"/>
-      <c r="AE24" s="54"/>
-      <c r="AF24" s="54"/>
-      <c r="AG24" s="54"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="69" t="s">
+      <c r="E24" s="57"/>
+      <c r="F24" s="56"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="60"/>
+      <c r="C25" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="135" t="s">
-        <v>160</v>
-      </c>
-      <c r="M25" s="137" t="e">
-        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",#REF!),FIND("[",CELL("filename",#REF!),1)-1),"\XLS\","\XML\")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N25" s="134"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="54"/>
-      <c r="AF25" s="54"/>
-      <c r="AG25" s="54"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="135" t="s">
-        <v>159</v>
-      </c>
-      <c r="M26" s="126" t="b">
-        <v>1</v>
-      </c>
-      <c r="N26" s="134"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="54"/>
-      <c r="AG26" s="54"/>
-    </row>
-    <row r="27" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="66">
+      <c r="E25" s="57"/>
+      <c r="F25" s="56"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="60"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="56"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="60"/>
+      <c r="C27" s="64">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
         <v>41656</v>
       </c>
-      <c r="D27" s="65" t="e">
+      <c r="D27" s="63" t="e">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
         <v>#NUM!</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="54"/>
-      <c r="AG27" s="54"/>
-    </row>
-    <row r="28" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="64">
+      <c r="E27" s="57"/>
+      <c r="F27" s="56"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="60"/>
+      <c r="C28" s="62">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
         <v>59918</v>
       </c>
-      <c r="D28" s="63" t="e">
+      <c r="D28" s="61" t="e">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
         <v>#NUM!</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="54"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="54"/>
-      <c r="AF28" s="54"/>
-      <c r="AG28" s="54"/>
-    </row>
-    <row r="29" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="61" t="s">
+      <c r="E28" s="57"/>
+      <c r="F28" s="56"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="60"/>
+      <c r="C29" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="60" t="str">
+      <c r="D29" s="58" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(Selected!I1)</f>
         <v>qlPiecewiseYieldCurveData - 7th iteration: failed at 14th alive instrument, maturity January 17th, 2017, reference date January 17th, 2014: root not bracketed: f[0.0809127,0.976545] -&gt; [-5.446828e-001,-2.273666e-003]</v>
       </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="190" t="s">
-        <v>158</v>
-      </c>
-      <c r="L29" s="191"/>
-      <c r="M29" s="191"/>
-      <c r="N29" s="192"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="54"/>
-    </row>
-    <row r="30" spans="1:33" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="54"/>
-      <c r="AE30" s="54"/>
-      <c r="AF30" s="54"/>
-      <c r="AG30" s="54"/>
-    </row>
-    <row r="31" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="127" t="s">
-        <v>115</v>
-      </c>
-      <c r="M31" s="129" t="s">
-        <v>104</v>
-      </c>
-      <c r="N31" s="125"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="54"/>
-      <c r="AD31" s="54"/>
-      <c r="AE31" s="54"/>
-      <c r="AF31" s="54"/>
-      <c r="AG31" s="54"/>
-    </row>
-    <row r="32" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="127" t="s">
-        <v>157</v>
-      </c>
-      <c r="M32" s="129" t="s">
-        <v>156</v>
-      </c>
-      <c r="N32" s="125"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="54"/>
-      <c r="AE32" s="54"/>
-      <c r="AF32" s="54"/>
-      <c r="AG32" s="54"/>
-    </row>
-    <row r="33" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="127" t="s">
-        <v>155</v>
-      </c>
-      <c r="M33" s="126" t="s">
-        <v>154</v>
-      </c>
-      <c r="N33" s="125"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="54"/>
-      <c r="AE33" s="54"/>
-      <c r="AF33" s="54"/>
-      <c r="AG33" s="54"/>
-    </row>
-    <row r="34" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="122"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="54"/>
-      <c r="AE34" s="54"/>
-      <c r="AF34" s="54"/>
-      <c r="AG34" s="54"/>
-    </row>
-    <row r="35" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="54"/>
-      <c r="AE35" s="54"/>
-      <c r="AF35" s="54"/>
-      <c r="AG35" s="54"/>
-    </row>
-    <row r="36" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="190" t="s">
-        <v>162</v>
-      </c>
-      <c r="L36" s="191"/>
-      <c r="M36" s="191"/>
-      <c r="N36" s="192"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="54"/>
-      <c r="X36" s="54"/>
-      <c r="Y36" s="54"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="54"/>
-      <c r="AE36" s="54"/>
-      <c r="AF36" s="54"/>
-      <c r="AG36" s="54"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="136"/>
-      <c r="L37" s="139"/>
-      <c r="M37" s="139"/>
-      <c r="N37" s="138"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="54"/>
-      <c r="V37" s="54"/>
-      <c r="W37" s="54"/>
-      <c r="X37" s="54"/>
-      <c r="Y37" s="54"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="54"/>
-      <c r="AE37" s="54"/>
-      <c r="AF37" s="54"/>
-      <c r="AG37" s="54"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="136"/>
-      <c r="L38" s="135" t="s">
-        <v>100</v>
-      </c>
-      <c r="M38" s="129"/>
-      <c r="N38" s="134"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="54"/>
-      <c r="AD38" s="54"/>
-      <c r="AE38" s="54"/>
-      <c r="AF38" s="54"/>
-      <c r="AG38" s="54"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="136"/>
-      <c r="L39" s="135" t="s">
-        <v>101</v>
-      </c>
-      <c r="M39" s="129" t="b">
-        <v>1</v>
-      </c>
-      <c r="N39" s="134"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="54"/>
-      <c r="Y39" s="54"/>
-      <c r="Z39" s="54"/>
-      <c r="AA39" s="54"/>
-      <c r="AB39" s="54"/>
-      <c r="AC39" s="54"/>
-      <c r="AD39" s="54"/>
-      <c r="AE39" s="54"/>
-      <c r="AF39" s="54"/>
-      <c r="AG39" s="54"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="136"/>
-      <c r="L40" s="135" t="s">
-        <v>99</v>
-      </c>
-      <c r="M40" s="129" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40" s="134"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
-      <c r="AA40" s="54"/>
-      <c r="AB40" s="54"/>
-      <c r="AC40" s="54"/>
-      <c r="AD40" s="54"/>
-      <c r="AE40" s="54"/>
-      <c r="AF40" s="54"/>
-      <c r="AG40" s="54"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="136"/>
-      <c r="L41" s="135" t="s">
-        <v>161</v>
-      </c>
-      <c r="M41" s="129" t="b">
-        <v>1</v>
-      </c>
-      <c r="N41" s="134"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54"/>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="54"/>
-      <c r="AB41" s="54"/>
-      <c r="AC41" s="54"/>
-      <c r="AD41" s="54"/>
-      <c r="AE41" s="54"/>
-      <c r="AF41" s="54"/>
-      <c r="AG41" s="54"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="136"/>
-      <c r="L42" s="135" t="s">
-        <v>160</v>
-      </c>
-      <c r="M42" s="137" t="e">
-        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",#REF!),FIND("[",CELL("filename",#REF!),1)-1),"\XLS\","\XML\")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N42" s="134"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="54"/>
-      <c r="U42" s="54"/>
-      <c r="V42" s="54"/>
-      <c r="W42" s="54"/>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="54"/>
-      <c r="Z42" s="54"/>
-      <c r="AA42" s="54"/>
-      <c r="AB42" s="54"/>
-      <c r="AC42" s="54"/>
-      <c r="AD42" s="54"/>
-      <c r="AE42" s="54"/>
-      <c r="AF42" s="54"/>
-      <c r="AG42" s="54"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="136"/>
-      <c r="L43" s="135" t="s">
-        <v>159</v>
-      </c>
-      <c r="M43" s="126" t="b">
-        <v>1</v>
-      </c>
-      <c r="N43" s="134"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="54"/>
-      <c r="V43" s="54"/>
-      <c r="W43" s="54"/>
-      <c r="X43" s="54"/>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="54"/>
-      <c r="AB43" s="54"/>
-      <c r="AC43" s="54"/>
-      <c r="AD43" s="54"/>
-      <c r="AE43" s="54"/>
-      <c r="AF43" s="54"/>
-      <c r="AG43" s="54"/>
-    </row>
-    <row r="44" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="133"/>
-      <c r="L44" s="132"/>
-      <c r="M44" s="132"/>
-      <c r="N44" s="131"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="54"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="54"/>
-      <c r="X44" s="54"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="54"/>
-      <c r="AA44" s="54"/>
-      <c r="AB44" s="54"/>
-      <c r="AC44" s="54"/>
-      <c r="AD44" s="54"/>
-      <c r="AE44" s="54"/>
-      <c r="AF44" s="54"/>
-      <c r="AG44" s="54"/>
-    </row>
-    <row r="45" spans="1:33" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="121"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="121"/>
-      <c r="N45" s="121"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
-      <c r="V45" s="54"/>
-      <c r="W45" s="54"/>
-      <c r="X45" s="54"/>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="54"/>
-      <c r="AA45" s="54"/>
-      <c r="AB45" s="54"/>
-      <c r="AC45" s="54"/>
-      <c r="AD45" s="54"/>
-      <c r="AE45" s="54"/>
-      <c r="AF45" s="54"/>
-      <c r="AG45" s="54"/>
-    </row>
-    <row r="46" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="190" t="s">
-        <v>158</v>
-      </c>
-      <c r="L46" s="191"/>
-      <c r="M46" s="191"/>
-      <c r="N46" s="192"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="54"/>
-      <c r="V46" s="54"/>
-      <c r="W46" s="54"/>
-      <c r="X46" s="54"/>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="54"/>
-      <c r="AA46" s="54"/>
-      <c r="AB46" s="54"/>
-      <c r="AC46" s="54"/>
-      <c r="AD46" s="54"/>
-      <c r="AE46" s="54"/>
-      <c r="AF46" s="54"/>
-      <c r="AG46" s="54"/>
-    </row>
-    <row r="47" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="128"/>
-      <c r="L47" s="130"/>
-      <c r="M47" s="130"/>
-      <c r="N47" s="125"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="54"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="54"/>
-      <c r="V47" s="54"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54"/>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="54"/>
-      <c r="AA47" s="54"/>
-      <c r="AB47" s="54"/>
-      <c r="AC47" s="54"/>
-      <c r="AD47" s="54"/>
-      <c r="AE47" s="54"/>
-      <c r="AF47" s="54"/>
-      <c r="AG47" s="54"/>
-    </row>
-    <row r="48" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="128"/>
-      <c r="L48" s="127" t="s">
-        <v>115</v>
-      </c>
-      <c r="M48" s="129" t="s">
-        <v>104</v>
-      </c>
-      <c r="N48" s="125"/>
-      <c r="O48" s="54"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54"/>
-      <c r="T48" s="54"/>
-      <c r="U48" s="54"/>
-      <c r="V48" s="54"/>
-      <c r="W48" s="54"/>
-      <c r="X48" s="54"/>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="54"/>
-      <c r="AA48" s="54"/>
-      <c r="AB48" s="54"/>
-      <c r="AC48" s="54"/>
-      <c r="AD48" s="54"/>
-      <c r="AE48" s="54"/>
-      <c r="AF48" s="54"/>
-      <c r="AG48" s="54"/>
-    </row>
-    <row r="49" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="128"/>
-      <c r="L49" s="127" t="s">
-        <v>157</v>
-      </c>
-      <c r="M49" s="129" t="s">
-        <v>156</v>
-      </c>
-      <c r="N49" s="125"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="54"/>
-      <c r="V49" s="54"/>
-      <c r="W49" s="54"/>
-      <c r="X49" s="54"/>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="54"/>
-      <c r="AA49" s="54"/>
-      <c r="AB49" s="54"/>
-      <c r="AC49" s="54"/>
-      <c r="AD49" s="54"/>
-      <c r="AE49" s="54"/>
-      <c r="AF49" s="54"/>
-      <c r="AG49" s="54"/>
-    </row>
-    <row r="50" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="128"/>
-      <c r="L50" s="127" t="s">
-        <v>183</v>
-      </c>
-      <c r="M50" s="129" t="s">
-        <v>182</v>
-      </c>
-      <c r="N50" s="125"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="54"/>
-      <c r="S50" s="54"/>
-      <c r="T50" s="54"/>
-      <c r="U50" s="54"/>
-      <c r="V50" s="54"/>
-      <c r="W50" s="54"/>
-      <c r="X50" s="54"/>
-      <c r="Y50" s="54"/>
-      <c r="Z50" s="54"/>
-      <c r="AA50" s="54"/>
-      <c r="AB50" s="54"/>
-      <c r="AC50" s="54"/>
-      <c r="AD50" s="54"/>
-      <c r="AE50" s="54"/>
-      <c r="AF50" s="54"/>
-      <c r="AG50" s="54"/>
-    </row>
-    <row r="51" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="128"/>
-      <c r="L51" s="127" t="s">
-        <v>181</v>
-      </c>
-      <c r="M51" s="129" t="s">
-        <v>167</v>
-      </c>
-      <c r="N51" s="125"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="54"/>
-      <c r="U51" s="54"/>
-      <c r="V51" s="54"/>
-      <c r="W51" s="54"/>
-      <c r="X51" s="54"/>
-      <c r="Y51" s="54"/>
-      <c r="Z51" s="54"/>
-      <c r="AA51" s="54"/>
-      <c r="AB51" s="54"/>
-      <c r="AC51" s="54"/>
-      <c r="AD51" s="54"/>
-      <c r="AE51" s="54"/>
-      <c r="AF51" s="54"/>
-      <c r="AG51" s="54"/>
-    </row>
-    <row r="52" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="128"/>
-      <c r="L52" s="127" t="s">
-        <v>95</v>
-      </c>
-      <c r="M52" s="126" t="s">
-        <v>180</v>
-      </c>
-      <c r="N52" s="125"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="54"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="54"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="54"/>
-      <c r="W52" s="54"/>
-      <c r="X52" s="54"/>
-      <c r="Y52" s="54"/>
-      <c r="Z52" s="54"/>
-      <c r="AA52" s="54"/>
-      <c r="AB52" s="54"/>
-      <c r="AC52" s="54"/>
-      <c r="AD52" s="54"/>
-      <c r="AE52" s="54"/>
-      <c r="AF52" s="54"/>
-      <c r="AG52" s="54"/>
-    </row>
-    <row r="53" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="128"/>
-      <c r="L53" s="127" t="s">
-        <v>155</v>
-      </c>
-      <c r="M53" s="126" t="s">
-        <v>154</v>
-      </c>
-      <c r="N53" s="125"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54"/>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="54"/>
-      <c r="AA53" s="54"/>
-      <c r="AB53" s="54"/>
-      <c r="AC53" s="54"/>
-      <c r="AD53" s="54"/>
-      <c r="AE53" s="54"/>
-      <c r="AF53" s="54"/>
-      <c r="AG53" s="54"/>
-    </row>
-    <row r="54" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="128"/>
-      <c r="L54" s="127" t="s">
-        <v>179</v>
-      </c>
-      <c r="M54" s="129" t="str">
-        <f>PROPER(Currency)&amp;"YC"</f>
-        <v>UsdYC</v>
-      </c>
-      <c r="N54" s="125"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="54"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="54"/>
-      <c r="T54" s="54"/>
-      <c r="U54" s="54"/>
-      <c r="V54" s="54"/>
-      <c r="W54" s="54"/>
-      <c r="X54" s="54"/>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="54"/>
-      <c r="AA54" s="54"/>
-      <c r="AB54" s="54"/>
-      <c r="AC54" s="54"/>
-      <c r="AD54" s="54"/>
-      <c r="AE54" s="54"/>
-      <c r="AF54" s="54"/>
-      <c r="AG54" s="54"/>
-    </row>
-    <row r="55" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="128"/>
-      <c r="L55" s="127" t="s">
-        <v>178</v>
-      </c>
-      <c r="M55" s="129" t="str">
-        <f>PROPER(Currency)&amp;"YCSTD"</f>
-        <v>UsdYCSTD</v>
-      </c>
-      <c r="N55" s="125"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="54"/>
-      <c r="V55" s="54"/>
-      <c r="W55" s="54"/>
-      <c r="X55" s="54"/>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="54"/>
-      <c r="AA55" s="54"/>
-      <c r="AB55" s="54"/>
-      <c r="AC55" s="54"/>
-      <c r="AD55" s="54"/>
-      <c r="AE55" s="54"/>
-      <c r="AF55" s="54"/>
-      <c r="AG55" s="54"/>
-    </row>
-    <row r="56" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="124"/>
-      <c r="L56" s="123"/>
-      <c r="M56" s="123"/>
-      <c r="N56" s="122"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="54"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="54"/>
-      <c r="T56" s="54"/>
-      <c r="U56" s="54"/>
-      <c r="V56" s="54"/>
-      <c r="W56" s="54"/>
-      <c r="X56" s="54"/>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="54"/>
-      <c r="AA56" s="54"/>
-      <c r="AB56" s="54"/>
-      <c r="AC56" s="54"/>
-      <c r="AD56" s="54"/>
-      <c r="AE56" s="54"/>
-      <c r="AF56" s="54"/>
-      <c r="AG56" s="54"/>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="54"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="54"/>
-      <c r="V57" s="54"/>
-      <c r="W57" s="54"/>
-      <c r="X57" s="54"/>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54"/>
-      <c r="AA57" s="54"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="54"/>
-      <c r="AD57" s="54"/>
-      <c r="AE57" s="54"/>
-      <c r="AF57" s="54"/>
-      <c r="AG57" s="54"/>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="54"/>
-      <c r="R58" s="54"/>
-      <c r="S58" s="54"/>
-      <c r="T58" s="54"/>
-      <c r="U58" s="54"/>
-      <c r="V58" s="54"/>
-      <c r="W58" s="54"/>
-      <c r="X58" s="54"/>
-      <c r="Y58" s="54"/>
-      <c r="Z58" s="54"/>
-      <c r="AA58" s="54"/>
-      <c r="AB58" s="54"/>
-      <c r="AC58" s="54"/>
-      <c r="AD58" s="54"/>
-      <c r="AE58" s="54"/>
-      <c r="AF58" s="54"/>
-      <c r="AG58" s="54"/>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="54"/>
-      <c r="T59" s="54"/>
-      <c r="U59" s="54"/>
-      <c r="V59" s="54"/>
-      <c r="W59" s="54"/>
-      <c r="X59" s="54"/>
-      <c r="Y59" s="54"/>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="54"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="54"/>
-      <c r="AD59" s="54"/>
-      <c r="AE59" s="54"/>
-      <c r="AF59" s="54"/>
-      <c r="AG59" s="54"/>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="54"/>
-      <c r="U60" s="54"/>
-      <c r="V60" s="54"/>
-      <c r="W60" s="54"/>
-      <c r="X60" s="54"/>
-      <c r="Y60" s="54"/>
-      <c r="Z60" s="54"/>
-      <c r="AA60" s="54"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="54"/>
-      <c r="AD60" s="54"/>
-      <c r="AE60" s="54"/>
-      <c r="AF60" s="54"/>
-      <c r="AG60" s="54"/>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="54"/>
-      <c r="V61" s="54"/>
-      <c r="W61" s="54"/>
-      <c r="X61" s="54"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="54"/>
-      <c r="AB61" s="54"/>
-      <c r="AC61" s="54"/>
-      <c r="AD61" s="54"/>
-      <c r="AE61" s="54"/>
-      <c r="AF61" s="54"/>
-      <c r="AG61" s="54"/>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
-      <c r="V62" s="54"/>
-      <c r="W62" s="54"/>
-      <c r="X62" s="54"/>
-      <c r="Y62" s="54"/>
-      <c r="Z62" s="54"/>
-      <c r="AA62" s="54"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="54"/>
-      <c r="AD62" s="54"/>
-      <c r="AE62" s="54"/>
-      <c r="AF62" s="54"/>
-      <c r="AG62" s="54"/>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="54"/>
-      <c r="S63" s="54"/>
-      <c r="T63" s="54"/>
-      <c r="U63" s="54"/>
-      <c r="V63" s="54"/>
-      <c r="W63" s="54"/>
-      <c r="X63" s="54"/>
-      <c r="Y63" s="54"/>
-      <c r="Z63" s="54"/>
-      <c r="AA63" s="54"/>
-      <c r="AB63" s="54"/>
-      <c r="AC63" s="54"/>
-      <c r="AD63" s="54"/>
-      <c r="AE63" s="54"/>
-      <c r="AF63" s="54"/>
-      <c r="AG63" s="54"/>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="54"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="54"/>
-      <c r="V64" s="54"/>
-      <c r="W64" s="54"/>
-      <c r="X64" s="54"/>
-      <c r="Y64" s="54"/>
-      <c r="Z64" s="54"/>
-      <c r="AA64" s="54"/>
-      <c r="AB64" s="54"/>
-      <c r="AC64" s="54"/>
-      <c r="AD64" s="54"/>
-      <c r="AE64" s="54"/>
-      <c r="AF64" s="54"/>
-      <c r="AG64" s="54"/>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="54"/>
-      <c r="T65" s="54"/>
-      <c r="U65" s="54"/>
-      <c r="V65" s="54"/>
-      <c r="W65" s="54"/>
-      <c r="X65" s="54"/>
-      <c r="Y65" s="54"/>
-      <c r="Z65" s="54"/>
-      <c r="AA65" s="54"/>
-      <c r="AB65" s="54"/>
-      <c r="AC65" s="54"/>
-      <c r="AD65" s="54"/>
-      <c r="AE65" s="54"/>
-      <c r="AF65" s="54"/>
-      <c r="AG65" s="54"/>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="54"/>
-      <c r="R66" s="54"/>
-      <c r="S66" s="54"/>
-      <c r="T66" s="54"/>
-      <c r="U66" s="54"/>
-      <c r="V66" s="54"/>
-      <c r="W66" s="54"/>
-      <c r="X66" s="54"/>
-      <c r="Y66" s="54"/>
-      <c r="Z66" s="54"/>
-      <c r="AA66" s="54"/>
-      <c r="AB66" s="54"/>
-      <c r="AC66" s="54"/>
-      <c r="AD66" s="54"/>
-      <c r="AE66" s="54"/>
-      <c r="AF66" s="54"/>
-      <c r="AG66" s="54"/>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="54"/>
-      <c r="T67" s="54"/>
-      <c r="U67" s="54"/>
-      <c r="V67" s="54"/>
-      <c r="W67" s="54"/>
-      <c r="X67" s="54"/>
-      <c r="Y67" s="54"/>
-      <c r="Z67" s="54"/>
-      <c r="AA67" s="54"/>
-      <c r="AB67" s="54"/>
-      <c r="AC67" s="54"/>
-      <c r="AD67" s="54"/>
-      <c r="AE67" s="54"/>
-      <c r="AF67" s="54"/>
-      <c r="AG67" s="54"/>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="54"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="54"/>
-      <c r="U68" s="54"/>
-      <c r="V68" s="54"/>
-      <c r="W68" s="54"/>
-      <c r="X68" s="54"/>
-      <c r="Y68" s="54"/>
-      <c r="Z68" s="54"/>
-      <c r="AA68" s="54"/>
-      <c r="AB68" s="54"/>
-      <c r="AC68" s="54"/>
-      <c r="AD68" s="54"/>
-      <c r="AE68" s="54"/>
-      <c r="AF68" s="54"/>
-      <c r="AG68" s="54"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="56"/>
+    </row>
+    <row r="30" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="55"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="K46:N46"/>
+  <mergeCells count="3">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K9:N9"/>
   </mergeCells>
-  <dataValidations count="9">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25">
       <formula1>"Linear,BackwardFlat,ForwardFlat,Linear,LogLinear,CubicNaturalSpline,LogCubicNaturalSpline,MonotonicCubicNaturalSpline,MonotonicLogCubicNaturalSpline,FritschButlandCubic,FritschButlandLogCubic,KrugerCubic,KrugerLogCubic"</formula1>
     </dataValidation>
@@ -4890,19 +2656,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),'1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 M14 M31 M48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
       <formula1>"EUR,USD,GBP,JPY,CHF"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
       <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M15 M32 M49">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M11">
       <formula1>"Libor,ibor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M52">
-      <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M50:M51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M13:M14">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4941,11 +2704,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="198"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
       <c r="E1" s="31" t="s">
         <v>74</v>
       </c>
@@ -6253,7 +4016,7 @@
       </c>
       <c r="E36" s="14" t="str">
         <f>'3M_Futures'!I3</f>
-        <v>USD_YC3MRH_FUT3MF4#0002</v>
+        <v>USD_YC3MRH_FUT3MF4#0008</v>
       </c>
       <c r="F36" s="28">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -6298,7 +4061,7 @@
       </c>
       <c r="E37" s="14" t="str">
         <f>'3M_Futures'!I4</f>
-        <v>USD_YC3MRH_FUT3MG4#0002</v>
+        <v>USD_YC3MRH_FUT3MG4#0008</v>
       </c>
       <c r="F37" s="28">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -6343,7 +4106,7 @@
       </c>
       <c r="E38" s="14" t="str">
         <f>'3M_Futures'!I5</f>
-        <v>USD_YC3MRH_FUT3MH4#0002</v>
+        <v>USD_YC3MRH_FUT3MH4#0008</v>
       </c>
       <c r="F38" s="28">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -6388,7 +4151,7 @@
       </c>
       <c r="E39" s="14" t="str">
         <f>'3M_Futures'!I6</f>
-        <v>USD_YC3MRH_FUT3MJ4#0002</v>
+        <v>USD_YC3MRH_FUT3MJ4#0008</v>
       </c>
       <c r="F39" s="28">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -6433,7 +4196,7 @@
       </c>
       <c r="E40" s="14" t="str">
         <f>'3M_Futures'!I7</f>
-        <v>USD_YC3MRH_FUT3MK4#0002</v>
+        <v>USD_YC3MRH_FUT3MK4#0008</v>
       </c>
       <c r="F40" s="28">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -6478,7 +4241,7 @@
       </c>
       <c r="E41" s="14" t="str">
         <f>'3M_Futures'!I8</f>
-        <v>USD_YC3MRH_FUT3MM4#0002</v>
+        <v>USD_YC3MRH_FUT3MM4#0008</v>
       </c>
       <c r="F41" s="28">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -6523,7 +4286,7 @@
       </c>
       <c r="E42" s="14" t="str">
         <f>'3M_Futures'!I9</f>
-        <v>USD_YC3MRH_FUT3MN4#0002</v>
+        <v>USD_YC3MRH_FUT3MN4#0008</v>
       </c>
       <c r="F42" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -6533,7 +4296,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H42" s="201" t="b">
+      <c r="H42" s="181" t="b">
         <v>0</v>
       </c>
       <c r="I42" s="12">
@@ -6568,7 +4331,7 @@
       </c>
       <c r="E43" s="14" t="str">
         <f>'3M_Futures'!I10</f>
-        <v>USD_YC3MRH_FUT3MQ4#0002</v>
+        <v>USD_YC3MRH_FUT3MQ4#0008</v>
       </c>
       <c r="F43" s="28">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -6613,7 +4376,7 @@
       </c>
       <c r="E44" s="14" t="str">
         <f>'3M_Futures'!I11</f>
-        <v>USD_YC3MRH_FUT3MU4#0002</v>
+        <v>USD_YC3MRH_FUT3MU4#0008</v>
       </c>
       <c r="F44" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -6623,7 +4386,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H44" s="201" t="b">
+      <c r="H44" s="181" t="b">
         <v>0</v>
       </c>
       <c r="I44" s="12">
@@ -6658,7 +4421,7 @@
       </c>
       <c r="E45" s="14" t="str">
         <f>'3M_Futures'!I12</f>
-        <v>USD_YC3MRH_FUT3MV4#0002</v>
+        <v>USD_YC3MRH_FUT3MV4#0008</v>
       </c>
       <c r="F45" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -6668,7 +4431,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H45" s="201" t="b">
+      <c r="H45" s="181" t="b">
         <v>0</v>
       </c>
       <c r="I45" s="12">
@@ -6703,7 +4466,7 @@
       </c>
       <c r="E46" s="14" t="str">
         <f>'3M_Futures'!I13</f>
-        <v>USD_YC3MRH_FUT3MX4#0002</v>
+        <v>USD_YC3MRH_FUT3MX4#0008</v>
       </c>
       <c r="F46" s="28">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -6748,7 +4511,7 @@
       </c>
       <c r="E47" s="14" t="str">
         <f>'3M_Futures'!I14</f>
-        <v>USD_YC3MRH_FUT3MZ4#0002</v>
+        <v>USD_YC3MRH_FUT3MZ4#0008</v>
       </c>
       <c r="F47" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -6758,7 +4521,7 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H47" s="201" t="b">
+      <c r="H47" s="181" t="b">
         <v>0</v>
       </c>
       <c r="I47" s="12">
@@ -6793,7 +4556,7 @@
       </c>
       <c r="E48" s="14" t="str">
         <f>'3M_Futures'!I15</f>
-        <v>USD_YC3MRH_FUT3MH5#0002</v>
+        <v>USD_YC3MRH_FUT3MH5#0008</v>
       </c>
       <c r="F48" s="28">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -6838,7 +4601,7 @@
       </c>
       <c r="E49" s="14" t="str">
         <f>'3M_Futures'!I16</f>
-        <v>USD_YC3MRH_FUT3MM5#0002</v>
+        <v>USD_YC3MRH_FUT3MM5#0008</v>
       </c>
       <c r="F49" s="28">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -6883,7 +4646,7 @@
       </c>
       <c r="E50" s="14" t="str">
         <f>'3M_Futures'!I17</f>
-        <v>USD_YC3MRH_FUT3MU5#0002</v>
+        <v>USD_YC3MRH_FUT3MU5#0008</v>
       </c>
       <c r="F50" s="28">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -6928,7 +4691,7 @@
       </c>
       <c r="E51" s="14" t="str">
         <f>'3M_Futures'!I18</f>
-        <v>USD_YC3MRH_FUT3MZ5#0002</v>
+        <v>USD_YC3MRH_FUT3MZ5#0008</v>
       </c>
       <c r="F51" s="28">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -6973,7 +4736,7 @@
       </c>
       <c r="E52" s="14" t="str">
         <f>'3M_Futures'!I19</f>
-        <v>USD_YC3MRH_FUT3MH6#0002</v>
+        <v>USD_YC3MRH_FUT3MH6#0008</v>
       </c>
       <c r="F52" s="28">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
@@ -7018,7 +4781,7 @@
       </c>
       <c r="E53" s="14" t="str">
         <f>'3M_Futures'!I20</f>
-        <v>USD_YC3MRH_FUT3MM6#0002</v>
+        <v>USD_YC3MRH_FUT3MM6#0008</v>
       </c>
       <c r="F53" s="28">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
@@ -7063,7 +4826,7 @@
       </c>
       <c r="E54" s="14" t="str">
         <f>'3M_Futures'!I21</f>
-        <v>USD_YC3MRH_FUT3MU6#0002</v>
+        <v>USD_YC3MRH_FUT3MU6#0008</v>
       </c>
       <c r="F54" s="28">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
@@ -7108,7 +4871,7 @@
       </c>
       <c r="E55" s="14" t="str">
         <f>'3M_Futures'!I22</f>
-        <v>USD_YC3MRH_FUT3MZ6#0002</v>
+        <v>USD_YC3MRH_FUT3MZ6#0008</v>
       </c>
       <c r="F55" s="28">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
@@ -7153,7 +4916,7 @@
       </c>
       <c r="E56" s="14" t="str">
         <f>'3M_Futures'!I23</f>
-        <v>USD_YC3MRH_FUT3MH7#0002</v>
+        <v>USD_YC3MRH_FUT3MH7#0008</v>
       </c>
       <c r="F56" s="28">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
@@ -7198,7 +4961,7 @@
       </c>
       <c r="E57" s="14" t="str">
         <f>'3M_Futures'!I24</f>
-        <v>USD_YC3MRH_FUT3MM7#0002</v>
+        <v>USD_YC3MRH_FUT3MM7#0008</v>
       </c>
       <c r="F57" s="28">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
@@ -7243,7 +5006,7 @@
       </c>
       <c r="E58" s="14" t="str">
         <f>'3M_Futures'!I25</f>
-        <v>USD_YC3MRH_FUT3MU7#0002</v>
+        <v>USD_YC3MRH_FUT3MU7#0008</v>
       </c>
       <c r="F58" s="28">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
@@ -7288,7 +5051,7 @@
       </c>
       <c r="E59" s="14" t="str">
         <f>'3M_Futures'!I26</f>
-        <v>USD_YC3MRH_FUT3MZ7#0002</v>
+        <v>USD_YC3MRH_FUT3MZ7#0008</v>
       </c>
       <c r="F59" s="28">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
@@ -7333,7 +5096,7 @@
       </c>
       <c r="E60" s="14" t="str">
         <f>'3M_Futures'!I27</f>
-        <v>USD_YC3MRH_FUT3MH8#0002</v>
+        <v>USD_YC3MRH_FUT3MH8#0008</v>
       </c>
       <c r="F60" s="28">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
@@ -7378,7 +5141,7 @@
       </c>
       <c r="E61" s="14" t="str">
         <f>'3M_Futures'!I28</f>
-        <v>USD_YC3MRH_FUT3MM8#0002</v>
+        <v>USD_YC3MRH_FUT3MM8#0008</v>
       </c>
       <c r="F61" s="28">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -7423,7 +5186,7 @@
       </c>
       <c r="E62" s="14" t="str">
         <f>'3M_Futures'!I29</f>
-        <v>USD_YC3MRH_FUT3MU8#0002</v>
+        <v>USD_YC3MRH_FUT3MU8#0008</v>
       </c>
       <c r="F62" s="28">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -7468,7 +5231,7 @@
       </c>
       <c r="E63" s="14" t="str">
         <f>'3M_Futures'!I30</f>
-        <v>USD_YC3MRH_FUT3MZ8#0002</v>
+        <v>USD_YC3MRH_FUT3MZ8#0008</v>
       </c>
       <c r="F63" s="28">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -7513,7 +5276,7 @@
       </c>
       <c r="E64" s="14" t="str">
         <f>'3M_Futures'!I31</f>
-        <v>USD_YC3MRH_FUT3MH9#0002</v>
+        <v>USD_YC3MRH_FUT3MH9#0008</v>
       </c>
       <c r="F64" s="28">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -7558,7 +5321,7 @@
       </c>
       <c r="E65" s="14" t="str">
         <f>'3M_Futures'!I32</f>
-        <v>USD_YC3MRH_FUT3MM9#0002</v>
+        <v>USD_YC3MRH_FUT3MM9#0008</v>
       </c>
       <c r="F65" s="28">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -7603,7 +5366,7 @@
       </c>
       <c r="E66" s="14" t="str">
         <f>'3M_Futures'!I33</f>
-        <v>USD_YC3MRH_FUT3MU9#0002</v>
+        <v>USD_YC3MRH_FUT3MU9#0008</v>
       </c>
       <c r="F66" s="28">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -7648,7 +5411,7 @@
       </c>
       <c r="E67" s="14" t="str">
         <f>'3M_Futures'!I34</f>
-        <v>USD_YC3MRH_FUT3MZ9#0002</v>
+        <v>USD_YC3MRH_FUT3MZ9#0008</v>
       </c>
       <c r="F67" s="28">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -7693,7 +5456,7 @@
       </c>
       <c r="E68" s="14" t="str">
         <f>'3M_Futures'!I35</f>
-        <v>USD_YC3MRH_FUT3MH0#0002</v>
+        <v>USD_YC3MRH_FUT3MH0#0008</v>
       </c>
       <c r="F68" s="28">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -7738,7 +5501,7 @@
       </c>
       <c r="E69" s="14" t="str">
         <f>'3M_Futures'!I36</f>
-        <v>USD_YC3MRH_FUT3MM0#0002</v>
+        <v>USD_YC3MRH_FUT3MM0#0008</v>
       </c>
       <c r="F69" s="28">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -7783,7 +5546,7 @@
       </c>
       <c r="E70" s="14" t="str">
         <f>'3M_Futures'!I37</f>
-        <v>USD_YC3MRH_FUT3MU0#0002</v>
+        <v>USD_YC3MRH_FUT3MU0#0008</v>
       </c>
       <c r="F70" s="28">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -7828,7 +5591,7 @@
       </c>
       <c r="E71" s="14" t="str">
         <f>'3M_Futures'!I38</f>
-        <v>USD_YC3MRH_FUT3MZ0#0002</v>
+        <v>USD_YC3MRH_FUT3MZ0#0008</v>
       </c>
       <c r="F71" s="28">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
@@ -7873,7 +5636,7 @@
       </c>
       <c r="E72" s="14" t="str">
         <f>'3M_Futures'!I39</f>
-        <v>USD_YC3MRH_FUT3MH1#0002</v>
+        <v>USD_YC3MRH_FUT3MH1#0008</v>
       </c>
       <c r="F72" s="28">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
@@ -7918,7 +5681,7 @@
       </c>
       <c r="E73" s="14" t="str">
         <f>'3M_Futures'!I40</f>
-        <v>USD_YC3MRH_FUT3MM1#0002</v>
+        <v>USD_YC3MRH_FUT3MM1#0008</v>
       </c>
       <c r="F73" s="28">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
@@ -7963,7 +5726,7 @@
       </c>
       <c r="E74" s="14" t="str">
         <f>'3M_Futures'!I41</f>
-        <v>USD_YC3MRH_FUT3MU1#0002</v>
+        <v>USD_YC3MRH_FUT3MU1#0008</v>
       </c>
       <c r="F74" s="28">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
@@ -8008,7 +5771,7 @@
       </c>
       <c r="E75" s="14" t="str">
         <f>'3M_Futures'!I42</f>
-        <v>USD_YC3MRH_FUT3MZ1#0002</v>
+        <v>USD_YC3MRH_FUT3MZ1#0008</v>
       </c>
       <c r="F75" s="28">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
@@ -8053,7 +5816,7 @@
       </c>
       <c r="E76" s="14" t="str">
         <f>'3M_Futures'!I43</f>
-        <v>USD_YC3MRH_FUT3MH2#0002</v>
+        <v>USD_YC3MRH_FUT3MH2#0008</v>
       </c>
       <c r="F76" s="28">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
@@ -8098,7 +5861,7 @@
       </c>
       <c r="E77" s="7" t="str">
         <f>'3M_Futures'!I44</f>
-        <v>USD_YC3MRH_FUT3MM2#0002</v>
+        <v>USD_YC3MRH_FUT3MM2#0008</v>
       </c>
       <c r="F77" s="27">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
@@ -12088,7 +9851,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -12109,10 +9872,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="200"/>
+      <c r="B1" s="186"/>
       <c r="D1" s="52" t="s">
         <v>83</v>
       </c>
@@ -12316,7 +10079,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_RateHelpersSelected#0005</v>
+        <v>USD_YC3MRH_RateHelpersSelected#0008</v>
       </c>
       <c r="B7" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -15368,252 +13131,252 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="98" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="98" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="98" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="98" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="98" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="98" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="98" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="98" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="98"/>
+    <col min="1" max="1" width="3" style="90" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="90" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="90" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="90"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
+      <c r="A1" s="112" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="118" t="str">
+      <c r="E1" s="110" t="str">
         <f>Currency&amp;"_YC"&amp;$D$1&amp;"RH"</f>
         <v>USD_YC3MRH</v>
       </c>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="102"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="109"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="115" t="str">
+      <c r="E2" s="107" t="str">
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>USD_YC3MRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="114" t="e">
+      <c r="F2" s="106">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G2" s="113" t="str">
+        <v>7</v>
+      </c>
+      <c r="G2" s="105" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
-      <c r="H2" s="102"/>
+      <c r="H2" s="94"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="112" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="106" t="str">
+      <c r="C3" s="103"/>
+      <c r="D3" s="98" t="str">
         <f t="shared" ref="D3:D9" si="0">Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>USDSND_SYNTH3M_Quote</v>
       </c>
-      <c r="E3" s="105" t="str">
+      <c r="E3" s="97" t="str">
         <f t="shared" ref="E3:E9" si="1">$E$1&amp;"_"&amp;$B3&amp;"D"</f>
         <v>USD_YC3MRH_SND</v>
       </c>
-      <c r="F3" s="110" t="str">
+      <c r="F3" s="102" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_SND#0002</v>
-      </c>
-      <c r="G3" s="103" t="str">
+        <v>USD_YC3MRH_SND#0008</v>
+      </c>
+      <c r="G3" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
         <v/>
       </c>
-      <c r="H3" s="102"/>
+      <c r="H3" s="94"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="109"/>
-      <c r="B4" s="108" t="s">
+      <c r="A4" s="101"/>
+      <c r="B4" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="107" t="str">
+      <c r="C4" s="99" t="str">
         <f t="shared" ref="C4:C9" si="2">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
         <v>UsdLiborSW</v>
       </c>
-      <c r="D4" s="106" t="str">
+      <c r="D4" s="98" t="str">
         <f t="shared" si="0"/>
         <v>USDSWD_SYNTH3M_Quote</v>
       </c>
-      <c r="E4" s="105" t="str">
+      <c r="E4" s="97" t="str">
         <f t="shared" si="1"/>
         <v>USD_YC3MRH_SWD</v>
       </c>
-      <c r="F4" s="104" t="str">
+      <c r="F4" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_SWD#0002</v>
-      </c>
-      <c r="G4" s="103" t="str">
+        <v>USD_YC3MRH_SWD#0008</v>
+      </c>
+      <c r="G4" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
         <v/>
       </c>
-      <c r="H4" s="102"/>
+      <c r="H4" s="94"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="109"/>
-      <c r="B5" s="108" t="s">
+      <c r="A5" s="101"/>
+      <c r="B5" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="107" t="str">
+      <c r="C5" s="99" t="str">
         <f t="shared" si="2"/>
         <v>UsdLibor2W</v>
       </c>
-      <c r="D5" s="106" t="str">
+      <c r="D5" s="98" t="str">
         <f t="shared" si="0"/>
         <v>USD2WD_SYNTH3M_Quote</v>
       </c>
-      <c r="E5" s="105" t="str">
+      <c r="E5" s="97" t="str">
         <f t="shared" si="1"/>
         <v>USD_YC3MRH_2WD</v>
       </c>
-      <c r="F5" s="104" t="str">
+      <c r="F5" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_2WD#0002</v>
-      </c>
-      <c r="G5" s="103" t="str">
+        <v>USD_YC3MRH_2WD#0008</v>
+      </c>
+      <c r="G5" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
         <v/>
       </c>
-      <c r="H5" s="102"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="109"/>
-      <c r="B6" s="108" t="s">
+      <c r="A6" s="101"/>
+      <c r="B6" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="107" t="str">
+      <c r="C6" s="99" t="str">
         <f t="shared" si="2"/>
         <v>UsdLibor3W</v>
       </c>
-      <c r="D6" s="106" t="str">
+      <c r="D6" s="98" t="str">
         <f t="shared" si="0"/>
         <v>USD3WD_SYNTH3M_Quote</v>
       </c>
-      <c r="E6" s="105" t="str">
+      <c r="E6" s="97" t="str">
         <f t="shared" si="1"/>
         <v>USD_YC3MRH_3WD</v>
       </c>
-      <c r="F6" s="104" t="str">
+      <c r="F6" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_3WD#0002</v>
-      </c>
-      <c r="G6" s="103" t="str">
+        <v>USD_YC3MRH_3WD#0008</v>
+      </c>
+      <c r="G6" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
         <v/>
       </c>
-      <c r="H6" s="102"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="109"/>
-      <c r="B7" s="108" t="s">
+      <c r="A7" s="101"/>
+      <c r="B7" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="107" t="str">
+      <c r="C7" s="99" t="str">
         <f t="shared" si="2"/>
         <v>UsdLibor1M</v>
       </c>
-      <c r="D7" s="106" t="str">
+      <c r="D7" s="98" t="str">
         <f t="shared" si="0"/>
         <v>USD1MD_SYNTH3M_Quote</v>
       </c>
-      <c r="E7" s="105" t="str">
+      <c r="E7" s="97" t="str">
         <f t="shared" si="1"/>
         <v>USD_YC3MRH_1MD</v>
       </c>
-      <c r="F7" s="104" t="str">
+      <c r="F7" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_1MD#0002</v>
-      </c>
-      <c r="G7" s="103" t="str">
+        <v>USD_YC3MRH_1MD#0008</v>
+      </c>
+      <c r="G7" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
         <v/>
       </c>
-      <c r="H7" s="102"/>
+      <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="109"/>
-      <c r="B8" s="108" t="s">
+      <c r="A8" s="101"/>
+      <c r="B8" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="107" t="str">
+      <c r="C8" s="99" t="str">
         <f t="shared" si="2"/>
         <v>UsdLibor2M</v>
       </c>
-      <c r="D8" s="106" t="str">
+      <c r="D8" s="98" t="str">
         <f t="shared" si="0"/>
         <v>USD2MD_SYNTH3M_Quote</v>
       </c>
-      <c r="E8" s="105" t="str">
+      <c r="E8" s="97" t="str">
         <f t="shared" si="1"/>
         <v>USD_YC3MRH_2MD</v>
       </c>
-      <c r="F8" s="104" t="str">
+      <c r="F8" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_2MD#0002</v>
-      </c>
-      <c r="G8" s="103" t="str">
+        <v>USD_YC3MRH_2MD#0008</v>
+      </c>
+      <c r="G8" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
         <v/>
       </c>
-      <c r="H8" s="102"/>
+      <c r="H8" s="94"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="109"/>
-      <c r="B9" s="108" t="s">
+      <c r="A9" s="101"/>
+      <c r="B9" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="107" t="str">
+      <c r="C9" s="99" t="str">
         <f t="shared" si="2"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="D9" s="106" t="str">
+      <c r="D9" s="98" t="str">
         <f t="shared" si="0"/>
         <v>USD3MD_SYNTH3M_Quote</v>
       </c>
-      <c r="E9" s="105" t="str">
+      <c r="E9" s="97" t="str">
         <f t="shared" si="1"/>
         <v>USD_YC3MRH_3MD</v>
       </c>
-      <c r="F9" s="104" t="str">
+      <c r="F9" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_3MD#0002</v>
-      </c>
-      <c r="G9" s="103" t="str">
+        <v>USD_YC3MRH_3MD#0008</v>
+      </c>
+      <c r="G9" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
         <v/>
       </c>
-      <c r="H9" s="102"/>
+      <c r="H9" s="94"/>
     </row>
     <row r="10" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="101"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="99"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15633,1703 +13396,1703 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="98" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="98" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="98" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="98" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="98"/>
-    <col min="6" max="6" width="15.85546875" style="98" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="98" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="98" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" style="98" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="98" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" style="98" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="98"/>
+    <col min="1" max="1" width="2.28515625" style="90" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="90"/>
+    <col min="6" max="6" width="15.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="90" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="90" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" style="90" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="90"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="153" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
+      <c r="A1" s="144" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="155" t="str">
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="146" t="str">
         <f>Currency&amp;"_YC"&amp;$E$1&amp;"RH"</f>
         <v>USD_YC3MRH</v>
       </c>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="102"/>
-      <c r="M1" s="189"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="94"/>
+      <c r="M1" s="180"/>
     </row>
     <row r="2" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="153"/>
-      <c r="B2" s="112" t="s">
+      <c r="A2" s="144"/>
+      <c r="B2" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="108" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="152" t="s">
+      <c r="D2" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="116" t="s">
+      <c r="E2" s="108" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="115" t="str">
+      <c r="H2" s="107" t="str">
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>USD_YC3MRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="114" t="e">
+      <c r="I2" s="106">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(I3:I44,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J2" s="113" t="str">
+        <v>42</v>
+      </c>
+      <c r="J2" s="105" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
-      <c r="K2" s="102"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="147"/>
-      <c r="B3" s="151">
-        <v>1</v>
-      </c>
-      <c r="C3" s="145" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="145" t="str">
+      <c r="A3" s="138"/>
+      <c r="B3" s="142">
+        <v>1</v>
+      </c>
+      <c r="C3" s="136" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="136" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C44)</f>
         <v>F4</v>
       </c>
-      <c r="E3" s="145" t="str">
+      <c r="E3" s="136" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F3" s="144" t="str">
+      <c r="F3" s="135" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
         <v>USDFUT3MF4_Quote</v>
       </c>
-      <c r="G3" s="144" t="str">
+      <c r="G3" s="135" t="str">
         <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>USDFUT3MF4ConvAdj_Quote</v>
       </c>
-      <c r="H3" s="144" t="str">
+      <c r="H3" s="135" t="str">
         <f t="shared" ref="H3:H34" si="3">$H$1&amp;"_FUT"&amp;$E$1&amp;$D3</f>
         <v>USD_YC3MRH_FUT3MF4</v>
       </c>
-      <c r="I3" s="150" t="str">
+      <c r="I3" s="141" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MF4#0002</v>
-      </c>
-      <c r="J3" s="149" t="str">
+        <v>USD_YC3MRH_FUT3MF4#0008</v>
+      </c>
+      <c r="J3" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
         <v/>
       </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="148"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="139"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="147"/>
-      <c r="B4" s="108">
+      <c r="A4" s="138"/>
+      <c r="B4" s="100">
         <v>2</v>
       </c>
-      <c r="C4" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="146" t="str">
+      <c r="C4" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="137" t="str">
         <v>G4</v>
       </c>
-      <c r="E4" s="145" t="str">
+      <c r="E4" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F4" s="144" t="str">
+      <c r="F4" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MG4_Quote</v>
       </c>
-      <c r="G4" s="144" t="str">
+      <c r="G4" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MG4ConvAdj_Quote</v>
       </c>
-      <c r="H4" s="144" t="str">
+      <c r="H4" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MG4</v>
       </c>
-      <c r="I4" s="143" t="str">
+      <c r="I4" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MG4#0002</v>
-      </c>
-      <c r="J4" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MG4#0008</v>
+      </c>
+      <c r="J4" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
         <v/>
       </c>
-      <c r="K4" s="102"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="98">
+      <c r="K4" s="94"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="90">
         <f>_xll.qlQuoteValue(F4)</f>
         <v>99.747500000000002</v>
       </c>
-      <c r="N4" s="98">
+      <c r="N4" s="90">
         <f>_xll.qlQuoteValue(G4)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="98">
+      <c r="O4" s="90">
         <f>_xll.qlRateHelperRate(I4)</f>
         <v>2.5249999999999995E-3</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="147"/>
-      <c r="B5" s="108">
+      <c r="A5" s="138"/>
+      <c r="B5" s="100">
         <v>3</v>
       </c>
-      <c r="C5" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="146" t="str">
+      <c r="C5" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="137" t="str">
         <v>H4</v>
       </c>
-      <c r="E5" s="145" t="str">
+      <c r="E5" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F5" s="144" t="str">
+      <c r="F5" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MH4_Quote</v>
       </c>
-      <c r="G5" s="144" t="str">
+      <c r="G5" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MH4ConvAdj_Quote</v>
       </c>
-      <c r="H5" s="144" t="str">
+      <c r="H5" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MH4</v>
       </c>
-      <c r="I5" s="143" t="str">
+      <c r="I5" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH4#0002</v>
-      </c>
-      <c r="J5" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MH4#0008</v>
+      </c>
+      <c r="J5" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
         <v/>
       </c>
-      <c r="K5" s="102"/>
-      <c r="L5" s="148"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="139"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="147"/>
-      <c r="B6" s="108">
+      <c r="A6" s="138"/>
+      <c r="B6" s="100">
         <v>4</v>
       </c>
-      <c r="C6" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="146" t="str">
+      <c r="C6" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="137" t="str">
         <v>J4</v>
       </c>
-      <c r="E6" s="145" t="str">
+      <c r="E6" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F6" s="144" t="str">
+      <c r="F6" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MJ4_Quote</v>
       </c>
-      <c r="G6" s="144" t="str">
+      <c r="G6" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MJ4ConvAdj_Quote</v>
       </c>
-      <c r="H6" s="144" t="str">
+      <c r="H6" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MJ4</v>
       </c>
-      <c r="I6" s="143" t="str">
+      <c r="I6" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MJ4#0002</v>
-      </c>
-      <c r="J6" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MJ4#0008</v>
+      </c>
+      <c r="J6" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
         <v/>
       </c>
-      <c r="K6" s="102"/>
-      <c r="L6" s="148"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="139"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="147"/>
-      <c r="B7" s="108">
+      <c r="A7" s="138"/>
+      <c r="B7" s="100">
         <v>5</v>
       </c>
-      <c r="C7" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="146" t="str">
+      <c r="C7" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="137" t="str">
         <v>K4</v>
       </c>
-      <c r="E7" s="145" t="str">
+      <c r="E7" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F7" s="144" t="str">
+      <c r="F7" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MK4_Quote</v>
       </c>
-      <c r="G7" s="144" t="str">
+      <c r="G7" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MK4ConvAdj_Quote</v>
       </c>
-      <c r="H7" s="144" t="str">
+      <c r="H7" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MK4</v>
       </c>
-      <c r="I7" s="143" t="str">
+      <c r="I7" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MK4#0002</v>
-      </c>
-      <c r="J7" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MK4#0008</v>
+      </c>
+      <c r="J7" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
         <v/>
       </c>
-      <c r="K7" s="102"/>
-      <c r="L7" s="148"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="139"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="147"/>
-      <c r="B8" s="108">
+      <c r="A8" s="138"/>
+      <c r="B8" s="100">
         <v>6</v>
       </c>
-      <c r="C8" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="146" t="str">
+      <c r="C8" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="137" t="str">
         <v>M4</v>
       </c>
-      <c r="E8" s="145" t="str">
+      <c r="E8" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F8" s="144" t="str">
+      <c r="F8" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MM4_Quote</v>
       </c>
-      <c r="G8" s="144" t="str">
+      <c r="G8" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MM4ConvAdj_Quote</v>
       </c>
-      <c r="H8" s="144" t="str">
+      <c r="H8" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MM4</v>
       </c>
-      <c r="I8" s="143" t="str">
+      <c r="I8" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM4#0002</v>
-      </c>
-      <c r="J8" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MM4#0008</v>
+      </c>
+      <c r="J8" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
         <v/>
       </c>
-      <c r="K8" s="102"/>
-      <c r="L8" s="148"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="139"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="147"/>
-      <c r="B9" s="108">
+      <c r="A9" s="138"/>
+      <c r="B9" s="100">
         <v>7</v>
       </c>
-      <c r="C9" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="146" t="str">
+      <c r="C9" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="137" t="str">
         <v>N4</v>
       </c>
-      <c r="E9" s="145" t="str">
+      <c r="E9" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F9" s="144" t="str">
+      <c r="F9" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MN4_Quote</v>
       </c>
-      <c r="G9" s="144" t="str">
+      <c r="G9" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MN4ConvAdj_Quote</v>
       </c>
-      <c r="H9" s="144" t="str">
+      <c r="H9" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MN4</v>
       </c>
-      <c r="I9" s="143" t="str">
+      <c r="I9" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MN4#0002</v>
-      </c>
-      <c r="J9" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MN4#0008</v>
+      </c>
+      <c r="J9" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
         <v/>
       </c>
-      <c r="K9" s="102"/>
-      <c r="L9" s="148"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="139"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="147"/>
-      <c r="B10" s="108">
+      <c r="A10" s="138"/>
+      <c r="B10" s="100">
         <v>8</v>
       </c>
-      <c r="C10" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="146" t="str">
+      <c r="C10" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="137" t="str">
         <v>Q4</v>
       </c>
-      <c r="E10" s="145" t="str">
+      <c r="E10" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F10" s="144" t="str">
+      <c r="F10" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MQ4_Quote</v>
       </c>
-      <c r="G10" s="144" t="str">
+      <c r="G10" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MQ4ConvAdj_Quote</v>
       </c>
-      <c r="H10" s="144" t="str">
+      <c r="H10" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MQ4</v>
       </c>
-      <c r="I10" s="143" t="str">
+      <c r="I10" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MQ4#0002</v>
-      </c>
-      <c r="J10" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MQ4#0008</v>
+      </c>
+      <c r="J10" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
         <v/>
       </c>
-      <c r="K10" s="102"/>
-      <c r="L10" s="148"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="139"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="147"/>
-      <c r="B11" s="108">
+      <c r="A11" s="138"/>
+      <c r="B11" s="100">
         <v>9</v>
       </c>
-      <c r="C11" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="146" t="str">
+      <c r="C11" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="137" t="str">
         <v>U4</v>
       </c>
-      <c r="E11" s="145" t="str">
+      <c r="E11" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F11" s="144" t="str">
+      <c r="F11" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MU4_Quote</v>
       </c>
-      <c r="G11" s="144" t="str">
+      <c r="G11" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MU4ConvAdj_Quote</v>
       </c>
-      <c r="H11" s="144" t="str">
+      <c r="H11" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MU4</v>
       </c>
-      <c r="I11" s="143" t="str">
+      <c r="I11" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU4#0002</v>
-      </c>
-      <c r="J11" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MU4#0008</v>
+      </c>
+      <c r="J11" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
         <v/>
       </c>
-      <c r="K11" s="102"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="98" t="e">
+      <c r="K11" s="94"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="90" t="e">
         <f>_xll.qlQuoteValue(F11)</f>
         <v>#NUM!</v>
       </c>
-      <c r="N11" s="98" t="e">
+      <c r="N11" s="90" t="e">
         <f>_xll.qlQuoteValue(G11)</f>
         <v>#NUM!</v>
       </c>
-      <c r="O11" s="98" t="e">
+      <c r="O11" s="90" t="e">
         <f>_xll.qlRateHelperRate(I11)</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="147"/>
-      <c r="B12" s="108">
+      <c r="A12" s="138"/>
+      <c r="B12" s="100">
         <v>10</v>
       </c>
-      <c r="C12" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="146" t="str">
+      <c r="C12" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="137" t="str">
         <v>V4</v>
       </c>
-      <c r="E12" s="145" t="str">
+      <c r="E12" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F12" s="144" t="str">
+      <c r="F12" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MV4_Quote</v>
       </c>
-      <c r="G12" s="144" t="str">
+      <c r="G12" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MV4ConvAdj_Quote</v>
       </c>
-      <c r="H12" s="144" t="str">
+      <c r="H12" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MV4</v>
       </c>
-      <c r="I12" s="143" t="str">
+      <c r="I12" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MV4#0002</v>
-      </c>
-      <c r="J12" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MV4#0008</v>
+      </c>
+      <c r="J12" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
         <v/>
       </c>
-      <c r="K12" s="102"/>
-      <c r="L12" s="148"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="139"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="147"/>
-      <c r="B13" s="108">
+      <c r="A13" s="138"/>
+      <c r="B13" s="100">
         <v>11</v>
       </c>
-      <c r="C13" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="146" t="str">
+      <c r="C13" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="137" t="str">
         <v>X4</v>
       </c>
-      <c r="E13" s="145" t="str">
+      <c r="E13" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F13" s="144" t="str">
+      <c r="F13" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MX4_Quote</v>
       </c>
-      <c r="G13" s="144" t="str">
+      <c r="G13" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MX4ConvAdj_Quote</v>
       </c>
-      <c r="H13" s="144" t="str">
+      <c r="H13" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MX4</v>
       </c>
-      <c r="I13" s="143" t="str">
+      <c r="I13" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MX4#0002</v>
-      </c>
-      <c r="J13" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MX4#0008</v>
+      </c>
+      <c r="J13" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
         <v/>
       </c>
-      <c r="K13" s="102"/>
-      <c r="L13" s="148"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="139"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="147"/>
-      <c r="B14" s="108">
+      <c r="A14" s="138"/>
+      <c r="B14" s="100">
         <v>12</v>
       </c>
-      <c r="C14" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="146" t="str">
+      <c r="C14" s="137" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="137" t="str">
         <v>Z4</v>
       </c>
-      <c r="E14" s="145" t="str">
+      <c r="E14" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F14" s="144" t="str">
+      <c r="F14" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MZ4_Quote</v>
       </c>
-      <c r="G14" s="144" t="str">
+      <c r="G14" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MZ4ConvAdj_Quote</v>
       </c>
-      <c r="H14" s="144" t="str">
+      <c r="H14" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MZ4</v>
       </c>
-      <c r="I14" s="143" t="str">
+      <c r="I14" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ4#0002</v>
-      </c>
-      <c r="J14" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MZ4#0008</v>
+      </c>
+      <c r="J14" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
         <v/>
       </c>
-      <c r="K14" s="102"/>
-      <c r="L14" s="148"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="139"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="147"/>
-      <c r="B15" s="108">
+      <c r="A15" s="138"/>
+      <c r="B15" s="100">
         <v>13</v>
       </c>
-      <c r="C15" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="146" t="str">
+      <c r="C15" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="137" t="str">
         <v>H5</v>
       </c>
-      <c r="E15" s="145" t="str">
+      <c r="E15" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F15" s="144" t="str">
+      <c r="F15" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MH5_Quote</v>
       </c>
-      <c r="G15" s="144" t="str">
+      <c r="G15" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MH5ConvAdj_Quote</v>
       </c>
-      <c r="H15" s="144" t="str">
+      <c r="H15" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MH5</v>
       </c>
-      <c r="I15" s="143" t="str">
+      <c r="I15" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH5#0002</v>
-      </c>
-      <c r="J15" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MH5#0008</v>
+      </c>
+      <c r="J15" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
         <v/>
       </c>
-      <c r="K15" s="102"/>
-      <c r="L15" s="148"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="139"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="147"/>
-      <c r="B16" s="108">
+      <c r="A16" s="138"/>
+      <c r="B16" s="100">
         <v>14</v>
       </c>
-      <c r="C16" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="146" t="str">
+      <c r="C16" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="137" t="str">
         <v>M5</v>
       </c>
-      <c r="E16" s="145" t="str">
+      <c r="E16" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F16" s="144" t="str">
+      <c r="F16" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MM5_Quote</v>
       </c>
-      <c r="G16" s="144" t="str">
+      <c r="G16" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MM5ConvAdj_Quote</v>
       </c>
-      <c r="H16" s="144" t="str">
+      <c r="H16" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MM5</v>
       </c>
-      <c r="I16" s="143" t="str">
+      <c r="I16" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM5#0002</v>
-      </c>
-      <c r="J16" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MM5#0008</v>
+      </c>
+      <c r="J16" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
         <v/>
       </c>
-      <c r="K16" s="102"/>
-      <c r="L16" s="148"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="139"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="147"/>
-      <c r="B17" s="108">
+      <c r="A17" s="138"/>
+      <c r="B17" s="100">
         <v>15</v>
       </c>
-      <c r="C17" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="146" t="str">
+      <c r="C17" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="137" t="str">
         <v>U5</v>
       </c>
-      <c r="E17" s="145" t="str">
+      <c r="E17" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F17" s="144" t="str">
+      <c r="F17" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MU5_Quote</v>
       </c>
-      <c r="G17" s="144" t="str">
+      <c r="G17" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MU5ConvAdj_Quote</v>
       </c>
-      <c r="H17" s="144" t="str">
+      <c r="H17" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MU5</v>
       </c>
-      <c r="I17" s="143" t="str">
+      <c r="I17" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU5#0002</v>
-      </c>
-      <c r="J17" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MU5#0008</v>
+      </c>
+      <c r="J17" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
         <v/>
       </c>
-      <c r="K17" s="102"/>
-      <c r="L17" s="148"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="139"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="147"/>
-      <c r="B18" s="108">
+      <c r="A18" s="138"/>
+      <c r="B18" s="100">
         <v>16</v>
       </c>
-      <c r="C18" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="146" t="str">
+      <c r="C18" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="137" t="str">
         <v>Z5</v>
       </c>
-      <c r="E18" s="145" t="str">
+      <c r="E18" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F18" s="144" t="str">
+      <c r="F18" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MZ5_Quote</v>
       </c>
-      <c r="G18" s="144" t="str">
+      <c r="G18" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MZ5ConvAdj_Quote</v>
       </c>
-      <c r="H18" s="144" t="str">
+      <c r="H18" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MZ5</v>
       </c>
-      <c r="I18" s="143" t="str">
+      <c r="I18" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ5#0002</v>
-      </c>
-      <c r="J18" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MZ5#0008</v>
+      </c>
+      <c r="J18" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
         <v/>
       </c>
-      <c r="K18" s="102"/>
-      <c r="L18" s="148"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="139"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="147"/>
-      <c r="B19" s="108">
+      <c r="A19" s="138"/>
+      <c r="B19" s="100">
         <v>17</v>
       </c>
-      <c r="C19" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="146" t="str">
+      <c r="C19" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="137" t="str">
         <v>H6</v>
       </c>
-      <c r="E19" s="145" t="str">
+      <c r="E19" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F19" s="144" t="str">
+      <c r="F19" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MH6_Quote</v>
       </c>
-      <c r="G19" s="144" t="str">
+      <c r="G19" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MH6ConvAdj_Quote</v>
       </c>
-      <c r="H19" s="144" t="str">
+      <c r="H19" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MH6</v>
       </c>
-      <c r="I19" s="143" t="str">
+      <c r="I19" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH6#0002</v>
-      </c>
-      <c r="J19" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MH6#0008</v>
+      </c>
+      <c r="J19" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
         <v/>
       </c>
-      <c r="K19" s="102"/>
-      <c r="L19" s="148"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="139"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="147"/>
-      <c r="B20" s="108">
+      <c r="A20" s="138"/>
+      <c r="B20" s="100">
         <v>18</v>
       </c>
-      <c r="C20" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="146" t="str">
+      <c r="C20" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="137" t="str">
         <v>M6</v>
       </c>
-      <c r="E20" s="145" t="str">
+      <c r="E20" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F20" s="144" t="str">
+      <c r="F20" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MM6_Quote</v>
       </c>
-      <c r="G20" s="144" t="str">
+      <c r="G20" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MM6ConvAdj_Quote</v>
       </c>
-      <c r="H20" s="144" t="str">
+      <c r="H20" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MM6</v>
       </c>
-      <c r="I20" s="143" t="str">
+      <c r="I20" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM6#0002</v>
-      </c>
-      <c r="J20" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MM6#0008</v>
+      </c>
+      <c r="J20" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
         <v/>
       </c>
-      <c r="K20" s="102"/>
-      <c r="L20" s="148"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="139"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="147"/>
-      <c r="B21" s="108">
+      <c r="A21" s="138"/>
+      <c r="B21" s="100">
         <v>19</v>
       </c>
-      <c r="C21" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="146" t="str">
+      <c r="C21" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="137" t="str">
         <v>U6</v>
       </c>
-      <c r="E21" s="145" t="str">
+      <c r="E21" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F21" s="144" t="str">
+      <c r="F21" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MU6_Quote</v>
       </c>
-      <c r="G21" s="144" t="str">
+      <c r="G21" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MU6ConvAdj_Quote</v>
       </c>
-      <c r="H21" s="144" t="str">
+      <c r="H21" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MU6</v>
       </c>
-      <c r="I21" s="143" t="str">
+      <c r="I21" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU6#0002</v>
-      </c>
-      <c r="J21" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MU6#0008</v>
+      </c>
+      <c r="J21" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
         <v/>
       </c>
-      <c r="K21" s="102"/>
-      <c r="L21" s="148"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="139"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="147"/>
-      <c r="B22" s="108">
+      <c r="A22" s="138"/>
+      <c r="B22" s="100">
         <v>20</v>
       </c>
-      <c r="C22" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="146" t="str">
+      <c r="C22" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="137" t="str">
         <v>Z6</v>
       </c>
-      <c r="E22" s="145" t="str">
+      <c r="E22" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F22" s="144" t="str">
+      <c r="F22" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MZ6_Quote</v>
       </c>
-      <c r="G22" s="144" t="str">
+      <c r="G22" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MZ6ConvAdj_Quote</v>
       </c>
-      <c r="H22" s="144" t="str">
+      <c r="H22" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MZ6</v>
       </c>
-      <c r="I22" s="143" t="str">
+      <c r="I22" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ6#0002</v>
-      </c>
-      <c r="J22" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MZ6#0008</v>
+      </c>
+      <c r="J22" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
         <v/>
       </c>
-      <c r="K22" s="102"/>
-      <c r="L22" s="148"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="139"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="147"/>
-      <c r="B23" s="108">
+      <c r="A23" s="138"/>
+      <c r="B23" s="100">
         <v>21</v>
       </c>
-      <c r="C23" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="146" t="str">
+      <c r="C23" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="137" t="str">
         <v>H7</v>
       </c>
-      <c r="E23" s="145" t="str">
+      <c r="E23" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F23" s="144" t="str">
+      <c r="F23" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MH7_Quote</v>
       </c>
-      <c r="G23" s="144" t="str">
+      <c r="G23" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MH7ConvAdj_Quote</v>
       </c>
-      <c r="H23" s="144" t="str">
+      <c r="H23" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MH7</v>
       </c>
-      <c r="I23" s="143" t="str">
+      <c r="I23" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH7#0002</v>
-      </c>
-      <c r="J23" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MH7#0008</v>
+      </c>
+      <c r="J23" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
         <v/>
       </c>
-      <c r="K23" s="102"/>
-      <c r="L23" s="148"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="139"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="147"/>
-      <c r="B24" s="108">
+      <c r="A24" s="138"/>
+      <c r="B24" s="100">
         <v>22</v>
       </c>
-      <c r="C24" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" s="146" t="str">
+      <c r="C24" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="137" t="str">
         <v>M7</v>
       </c>
-      <c r="E24" s="145" t="str">
+      <c r="E24" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F24" s="144" t="str">
+      <c r="F24" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MM7_Quote</v>
       </c>
-      <c r="G24" s="144" t="str">
+      <c r="G24" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MM7ConvAdj_Quote</v>
       </c>
-      <c r="H24" s="144" t="str">
+      <c r="H24" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MM7</v>
       </c>
-      <c r="I24" s="143" t="str">
+      <c r="I24" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM7#0002</v>
-      </c>
-      <c r="J24" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MM7#0008</v>
+      </c>
+      <c r="J24" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
         <v/>
       </c>
-      <c r="K24" s="102"/>
-      <c r="L24" s="148"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="139"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="147"/>
-      <c r="B25" s="108">
+      <c r="A25" s="138"/>
+      <c r="B25" s="100">
         <v>23</v>
       </c>
-      <c r="C25" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="146" t="str">
+      <c r="C25" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="137" t="str">
         <v>U7</v>
       </c>
-      <c r="E25" s="145" t="str">
+      <c r="E25" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F25" s="144" t="str">
+      <c r="F25" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MU7_Quote</v>
       </c>
-      <c r="G25" s="144" t="str">
+      <c r="G25" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MU7ConvAdj_Quote</v>
       </c>
-      <c r="H25" s="144" t="str">
+      <c r="H25" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MU7</v>
       </c>
-      <c r="I25" s="143" t="str">
+      <c r="I25" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU7#0002</v>
-      </c>
-      <c r="J25" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MU7#0008</v>
+      </c>
+      <c r="J25" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
         <v/>
       </c>
-      <c r="K25" s="102"/>
-      <c r="L25" s="148"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="139"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="147"/>
-      <c r="B26" s="108">
+      <c r="A26" s="138"/>
+      <c r="B26" s="100">
         <v>24</v>
       </c>
-      <c r="C26" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" s="146" t="str">
+      <c r="C26" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="137" t="str">
         <v>Z7</v>
       </c>
-      <c r="E26" s="145" t="str">
+      <c r="E26" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F26" s="144" t="str">
+      <c r="F26" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MZ7_Quote</v>
       </c>
-      <c r="G26" s="144" t="str">
+      <c r="G26" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MZ7ConvAdj_Quote</v>
       </c>
-      <c r="H26" s="144" t="str">
+      <c r="H26" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MZ7</v>
       </c>
-      <c r="I26" s="143" t="str">
+      <c r="I26" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ7#0002</v>
-      </c>
-      <c r="J26" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MZ7#0008</v>
+      </c>
+      <c r="J26" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
         <v/>
       </c>
-      <c r="K26" s="102"/>
-      <c r="L26" s="148"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="139"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="147"/>
-      <c r="B27" s="108">
+      <c r="A27" s="138"/>
+      <c r="B27" s="100">
         <v>25</v>
       </c>
-      <c r="C27" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="146" t="str">
+      <c r="C27" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="137" t="str">
         <v>H8</v>
       </c>
-      <c r="E27" s="145" t="str">
+      <c r="E27" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F27" s="144" t="str">
+      <c r="F27" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MH8_Quote</v>
       </c>
-      <c r="G27" s="144" t="str">
+      <c r="G27" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MH8ConvAdj_Quote</v>
       </c>
-      <c r="H27" s="144" t="str">
+      <c r="H27" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MH8</v>
       </c>
-      <c r="I27" s="143" t="str">
+      <c r="I27" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH8#0002</v>
-      </c>
-      <c r="J27" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MH8#0008</v>
+      </c>
+      <c r="J27" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
         <v/>
       </c>
-      <c r="K27" s="102"/>
-      <c r="L27" s="148"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="139"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="147"/>
-      <c r="B28" s="108">
+      <c r="A28" s="138"/>
+      <c r="B28" s="100">
         <v>26</v>
       </c>
-      <c r="C28" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="146" t="str">
+      <c r="C28" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="137" t="str">
         <v>M8</v>
       </c>
-      <c r="E28" s="145" t="str">
+      <c r="E28" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F28" s="144" t="str">
+      <c r="F28" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MM8_Quote</v>
       </c>
-      <c r="G28" s="144" t="str">
+      <c r="G28" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MM8ConvAdj_Quote</v>
       </c>
-      <c r="H28" s="144" t="str">
+      <c r="H28" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MM8</v>
       </c>
-      <c r="I28" s="143" t="str">
+      <c r="I28" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM8#0002</v>
-      </c>
-      <c r="J28" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MM8#0008</v>
+      </c>
+      <c r="J28" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
         <v/>
       </c>
-      <c r="K28" s="102"/>
-      <c r="L28" s="148"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="139"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="147"/>
-      <c r="B29" s="108">
+      <c r="A29" s="138"/>
+      <c r="B29" s="100">
         <v>27</v>
       </c>
-      <c r="C29" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="146" t="str">
+      <c r="C29" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="137" t="str">
         <v>U8</v>
       </c>
-      <c r="E29" s="145" t="str">
+      <c r="E29" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F29" s="144" t="str">
+      <c r="F29" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MU8_Quote</v>
       </c>
-      <c r="G29" s="144" t="str">
+      <c r="G29" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MU8ConvAdj_Quote</v>
       </c>
-      <c r="H29" s="144" t="str">
+      <c r="H29" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MU8</v>
       </c>
-      <c r="I29" s="143" t="str">
+      <c r="I29" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU8#0002</v>
-      </c>
-      <c r="J29" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MU8#0008</v>
+      </c>
+      <c r="J29" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
         <v/>
       </c>
-      <c r="K29" s="102"/>
-      <c r="L29" s="148"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="139"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="147"/>
-      <c r="B30" s="108">
+      <c r="A30" s="138"/>
+      <c r="B30" s="100">
         <v>28</v>
       </c>
-      <c r="C30" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" s="146" t="str">
+      <c r="C30" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="137" t="str">
         <v>Z8</v>
       </c>
-      <c r="E30" s="145" t="str">
+      <c r="E30" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F30" s="144" t="str">
+      <c r="F30" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MZ8_Quote</v>
       </c>
-      <c r="G30" s="144" t="str">
+      <c r="G30" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MZ8ConvAdj_Quote</v>
       </c>
-      <c r="H30" s="144" t="str">
+      <c r="H30" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MZ8</v>
       </c>
-      <c r="I30" s="143" t="str">
+      <c r="I30" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ8#0002</v>
-      </c>
-      <c r="J30" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MZ8#0008</v>
+      </c>
+      <c r="J30" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
         <v/>
       </c>
-      <c r="K30" s="102"/>
-      <c r="L30" s="148"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="139"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="147"/>
-      <c r="B31" s="108">
+      <c r="A31" s="138"/>
+      <c r="B31" s="100">
         <v>29</v>
       </c>
-      <c r="C31" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="146" t="str">
+      <c r="C31" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="137" t="str">
         <v>H9</v>
       </c>
-      <c r="E31" s="145" t="str">
+      <c r="E31" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F31" s="144" t="str">
+      <c r="F31" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MH9_Quote</v>
       </c>
-      <c r="G31" s="144" t="str">
+      <c r="G31" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MH9ConvAdj_Quote</v>
       </c>
-      <c r="H31" s="144" t="str">
+      <c r="H31" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MH9</v>
       </c>
-      <c r="I31" s="143" t="str">
+      <c r="I31" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH9#0002</v>
-      </c>
-      <c r="J31" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MH9#0008</v>
+      </c>
+      <c r="J31" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
         <v/>
       </c>
-      <c r="K31" s="102"/>
-      <c r="L31" s="148"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="139"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="147"/>
-      <c r="B32" s="108">
+      <c r="A32" s="138"/>
+      <c r="B32" s="100">
         <v>30</v>
       </c>
-      <c r="C32" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="146" t="str">
+      <c r="C32" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="137" t="str">
         <v>M9</v>
       </c>
-      <c r="E32" s="145" t="str">
+      <c r="E32" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F32" s="144" t="str">
+      <c r="F32" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MM9_Quote</v>
       </c>
-      <c r="G32" s="144" t="str">
+      <c r="G32" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MM9ConvAdj_Quote</v>
       </c>
-      <c r="H32" s="144" t="str">
+      <c r="H32" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MM9</v>
       </c>
-      <c r="I32" s="143" t="str">
+      <c r="I32" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM9#0002</v>
-      </c>
-      <c r="J32" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MM9#0008</v>
+      </c>
+      <c r="J32" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
         <v/>
       </c>
-      <c r="K32" s="102"/>
-      <c r="L32" s="148"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="139"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="147"/>
-      <c r="B33" s="108">
+      <c r="A33" s="138"/>
+      <c r="B33" s="100">
         <v>31</v>
       </c>
-      <c r="C33" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" s="146" t="str">
+      <c r="C33" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="137" t="str">
         <v>U9</v>
       </c>
-      <c r="E33" s="145" t="str">
+      <c r="E33" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F33" s="144" t="str">
+      <c r="F33" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MU9_Quote</v>
       </c>
-      <c r="G33" s="144" t="str">
+      <c r="G33" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MU9ConvAdj_Quote</v>
       </c>
-      <c r="H33" s="144" t="str">
+      <c r="H33" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MU9</v>
       </c>
-      <c r="I33" s="143" t="str">
+      <c r="I33" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU9#0002</v>
-      </c>
-      <c r="J33" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MU9#0008</v>
+      </c>
+      <c r="J33" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
         <v/>
       </c>
-      <c r="K33" s="102"/>
-      <c r="L33" s="148"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="139"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="147"/>
-      <c r="B34" s="108">
+      <c r="A34" s="138"/>
+      <c r="B34" s="100">
         <v>32</v>
       </c>
-      <c r="C34" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" s="146" t="str">
+      <c r="C34" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="137" t="str">
         <v>Z9</v>
       </c>
-      <c r="E34" s="145" t="str">
+      <c r="E34" s="136" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F34" s="144" t="str">
+      <c r="F34" s="135" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MZ9_Quote</v>
       </c>
-      <c r="G34" s="144" t="str">
+      <c r="G34" s="135" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MZ9ConvAdj_Quote</v>
       </c>
-      <c r="H34" s="144" t="str">
+      <c r="H34" s="135" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MZ9</v>
       </c>
-      <c r="I34" s="143" t="str">
+      <c r="I34" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ9#0002</v>
-      </c>
-      <c r="J34" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MZ9#0008</v>
+      </c>
+      <c r="J34" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
         <v/>
       </c>
-      <c r="K34" s="102"/>
-      <c r="L34" s="148"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="139"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="147"/>
-      <c r="B35" s="108">
+      <c r="A35" s="138"/>
+      <c r="B35" s="100">
         <v>33</v>
       </c>
-      <c r="C35" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" s="146" t="str">
+      <c r="C35" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="137" t="str">
         <v>H0</v>
       </c>
-      <c r="E35" s="145" t="str">
+      <c r="E35" s="136" t="str">
         <f t="shared" ref="E35:E44" si="4">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F35" s="144" t="str">
+      <c r="F35" s="135" t="str">
         <f t="shared" ref="F35:F44" si="5">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
         <v>USDFUT3MH0_Quote</v>
       </c>
-      <c r="G35" s="144" t="str">
+      <c r="G35" s="135" t="str">
         <f t="shared" ref="G35:G44" si="6">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>USDFUT3MH0ConvAdj_Quote</v>
       </c>
-      <c r="H35" s="144" t="str">
+      <c r="H35" s="135" t="str">
         <f t="shared" ref="H35:H44" si="7">$H$1&amp;"_FUT"&amp;$E$1&amp;$D35</f>
         <v>USD_YC3MRH_FUT3MH0</v>
       </c>
-      <c r="I35" s="143" t="str">
+      <c r="I35" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH0#0002</v>
-      </c>
-      <c r="J35" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MH0#0008</v>
+      </c>
+      <c r="J35" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
         <v/>
       </c>
-      <c r="K35" s="102"/>
-      <c r="L35" s="148"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="139"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="147"/>
-      <c r="B36" s="108">
+      <c r="A36" s="138"/>
+      <c r="B36" s="100">
         <v>34</v>
       </c>
-      <c r="C36" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" s="146" t="str">
+      <c r="C36" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="137" t="str">
         <v>M0</v>
       </c>
-      <c r="E36" s="145" t="str">
+      <c r="E36" s="136" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F36" s="144" t="str">
+      <c r="F36" s="135" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MM0_Quote</v>
       </c>
-      <c r="G36" s="144" t="str">
+      <c r="G36" s="135" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MM0ConvAdj_Quote</v>
       </c>
-      <c r="H36" s="144" t="str">
+      <c r="H36" s="135" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MM0</v>
       </c>
-      <c r="I36" s="143" t="str">
+      <c r="I36" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM0#0002</v>
-      </c>
-      <c r="J36" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MM0#0008</v>
+      </c>
+      <c r="J36" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
         <v/>
       </c>
-      <c r="K36" s="102"/>
-      <c r="L36" s="148"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="139"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="147"/>
-      <c r="B37" s="108">
+      <c r="A37" s="138"/>
+      <c r="B37" s="100">
         <v>35</v>
       </c>
-      <c r="C37" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" s="146" t="str">
+      <c r="C37" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="137" t="str">
         <v>U0</v>
       </c>
-      <c r="E37" s="145" t="str">
+      <c r="E37" s="136" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F37" s="144" t="str">
+      <c r="F37" s="135" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MU0_Quote</v>
       </c>
-      <c r="G37" s="144" t="str">
+      <c r="G37" s="135" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MU0ConvAdj_Quote</v>
       </c>
-      <c r="H37" s="144" t="str">
+      <c r="H37" s="135" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MU0</v>
       </c>
-      <c r="I37" s="143" t="str">
+      <c r="I37" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU0#0002</v>
-      </c>
-      <c r="J37" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MU0#0008</v>
+      </c>
+      <c r="J37" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
         <v/>
       </c>
-      <c r="K37" s="102"/>
-      <c r="L37" s="148"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="139"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="147"/>
-      <c r="B38" s="108">
+      <c r="A38" s="138"/>
+      <c r="B38" s="100">
         <v>36</v>
       </c>
-      <c r="C38" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" s="146" t="str">
+      <c r="C38" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="137" t="str">
         <v>Z0</v>
       </c>
-      <c r="E38" s="145" t="str">
+      <c r="E38" s="136" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F38" s="144" t="str">
+      <c r="F38" s="135" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MZ0_Quote</v>
       </c>
-      <c r="G38" s="144" t="str">
+      <c r="G38" s="135" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MZ0ConvAdj_Quote</v>
       </c>
-      <c r="H38" s="144" t="str">
+      <c r="H38" s="135" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MZ0</v>
       </c>
-      <c r="I38" s="143" t="str">
+      <c r="I38" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ0#0002</v>
-      </c>
-      <c r="J38" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MZ0#0008</v>
+      </c>
+      <c r="J38" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
         <v/>
       </c>
-      <c r="K38" s="102"/>
-      <c r="L38" s="148"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="139"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="147"/>
-      <c r="B39" s="108">
+      <c r="A39" s="138"/>
+      <c r="B39" s="100">
         <v>37</v>
       </c>
-      <c r="C39" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" s="146" t="str">
+      <c r="C39" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="137" t="str">
         <v>H1</v>
       </c>
-      <c r="E39" s="145" t="str">
+      <c r="E39" s="136" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F39" s="144" t="str">
+      <c r="F39" s="135" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MH1_Quote</v>
       </c>
-      <c r="G39" s="144" t="str">
+      <c r="G39" s="135" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MH1ConvAdj_Quote</v>
       </c>
-      <c r="H39" s="144" t="str">
+      <c r="H39" s="135" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MH1</v>
       </c>
-      <c r="I39" s="143" t="str">
+      <c r="I39" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH1#0002</v>
-      </c>
-      <c r="J39" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MH1#0008</v>
+      </c>
+      <c r="J39" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
         <v/>
       </c>
-      <c r="K39" s="102"/>
-      <c r="L39" s="148"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="139"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="147"/>
-      <c r="B40" s="108">
+      <c r="A40" s="138"/>
+      <c r="B40" s="100">
         <v>38</v>
       </c>
-      <c r="C40" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" s="146" t="str">
+      <c r="C40" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="137" t="str">
         <v>M1</v>
       </c>
-      <c r="E40" s="145" t="str">
+      <c r="E40" s="136" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F40" s="144" t="str">
+      <c r="F40" s="135" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MM1_Quote</v>
       </c>
-      <c r="G40" s="144" t="str">
+      <c r="G40" s="135" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MM1ConvAdj_Quote</v>
       </c>
-      <c r="H40" s="144" t="str">
+      <c r="H40" s="135" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MM1</v>
       </c>
-      <c r="I40" s="143" t="str">
+      <c r="I40" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM1#0002</v>
-      </c>
-      <c r="J40" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MM1#0008</v>
+      </c>
+      <c r="J40" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
         <v/>
       </c>
-      <c r="K40" s="102"/>
+      <c r="K40" s="94"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="147"/>
-      <c r="B41" s="108">
+      <c r="A41" s="138"/>
+      <c r="B41" s="100">
         <v>39</v>
       </c>
-      <c r="C41" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" s="146" t="str">
+      <c r="C41" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="137" t="str">
         <v>U1</v>
       </c>
-      <c r="E41" s="145" t="str">
+      <c r="E41" s="136" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F41" s="144" t="str">
+      <c r="F41" s="135" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MU1_Quote</v>
       </c>
-      <c r="G41" s="144" t="str">
+      <c r="G41" s="135" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MU1ConvAdj_Quote</v>
       </c>
-      <c r="H41" s="144" t="str">
+      <c r="H41" s="135" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MU1</v>
       </c>
-      <c r="I41" s="143" t="str">
+      <c r="I41" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU1#0002</v>
-      </c>
-      <c r="J41" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MU1#0008</v>
+      </c>
+      <c r="J41" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
         <v/>
       </c>
-      <c r="K41" s="102"/>
+      <c r="K41" s="94"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="147"/>
-      <c r="B42" s="108">
+      <c r="A42" s="138"/>
+      <c r="B42" s="100">
         <v>40</v>
       </c>
-      <c r="C42" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" s="146" t="str">
+      <c r="C42" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" s="137" t="str">
         <v>Z1</v>
       </c>
-      <c r="E42" s="145" t="str">
+      <c r="E42" s="136" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F42" s="144" t="str">
+      <c r="F42" s="135" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MZ1_Quote</v>
       </c>
-      <c r="G42" s="144" t="str">
+      <c r="G42" s="135" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MZ1ConvAdj_Quote</v>
       </c>
-      <c r="H42" s="144" t="str">
+      <c r="H42" s="135" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MZ1</v>
       </c>
-      <c r="I42" s="143" t="str">
+      <c r="I42" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ1#0002</v>
-      </c>
-      <c r="J42" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MZ1#0008</v>
+      </c>
+      <c r="J42" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
         <v/>
       </c>
-      <c r="K42" s="102"/>
+      <c r="K42" s="94"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="147"/>
-      <c r="B43" s="108">
+      <c r="A43" s="138"/>
+      <c r="B43" s="100">
         <v>41</v>
       </c>
-      <c r="C43" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" s="146" t="str">
+      <c r="C43" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="137" t="str">
         <v>H2</v>
       </c>
-      <c r="E43" s="145" t="str">
+      <c r="E43" s="136" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F43" s="144" t="str">
+      <c r="F43" s="135" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MH2_Quote</v>
       </c>
-      <c r="G43" s="144" t="str">
+      <c r="G43" s="135" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MH2ConvAdj_Quote</v>
       </c>
-      <c r="H43" s="144" t="str">
+      <c r="H43" s="135" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MH2</v>
       </c>
-      <c r="I43" s="143" t="str">
+      <c r="I43" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH2#0002</v>
-      </c>
-      <c r="J43" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MH2#0008</v>
+      </c>
+      <c r="J43" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
         <v/>
       </c>
-      <c r="K43" s="102"/>
+      <c r="K43" s="94"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="147"/>
-      <c r="B44" s="108">
+      <c r="A44" s="138"/>
+      <c r="B44" s="100">
         <v>42</v>
       </c>
-      <c r="C44" s="146" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" s="146" t="str">
+      <c r="C44" s="137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="137" t="str">
         <v>M2</v>
       </c>
-      <c r="E44" s="145" t="str">
+      <c r="E44" s="136" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F44" s="144" t="str">
+      <c r="F44" s="135" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MM2_Quote</v>
       </c>
-      <c r="G44" s="144" t="str">
+      <c r="G44" s="135" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MM2ConvAdj_Quote</v>
       </c>
-      <c r="H44" s="144" t="str">
+      <c r="H44" s="135" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MM2</v>
       </c>
-      <c r="I44" s="143" t="str">
+      <c r="I44" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM2#0002</v>
-      </c>
-      <c r="J44" s="103" t="str">
+        <v>USD_YC3MRH_FUT3MM2#0008</v>
+      </c>
+      <c r="J44" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
         <v/>
       </c>
-      <c r="K44" s="102"/>
+      <c r="K44" s="94"/>
     </row>
     <row r="45" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="142"/>
-      <c r="B45" s="141"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="141"/>
-      <c r="K45" s="140"/>
+      <c r="A45" s="133"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="132"/>
+      <c r="K45" s="131"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17347,55 +15110,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="117" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="117" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" style="117" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="117" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" style="117" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="117" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="117" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="117" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="117" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="117" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="117" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" style="158" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="117" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" style="117" customWidth="1"/>
-    <col min="15" max="15" width="2.5703125" style="117" customWidth="1"/>
-    <col min="16" max="16" width="4" style="117" customWidth="1"/>
-    <col min="17" max="17" width="3.140625" style="117" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" style="117" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="117"/>
+    <col min="1" max="1" width="4.140625" style="109" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="109" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="109" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="109" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="109" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="109" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="109" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="109" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="109" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="109" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" style="149" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="109" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="109" customWidth="1"/>
+    <col min="15" max="15" width="2.5703125" style="109" customWidth="1"/>
+    <col min="16" max="16" width="4" style="109" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" style="109" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" style="109" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="109"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="188" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="185"/>
+      <c r="A1" s="179" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="176"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="109"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
       <c r="J2" s="12" t="s">
         <v>145</v>
       </c>
@@ -17407,2185 +15170,2185 @@
         <f>Discounting</f>
         <v>UsdYC</v>
       </c>
-      <c r="M2" s="119"/>
-      <c r="N2" s="161"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="152"/>
     </row>
     <row r="3" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109"/>
-      <c r="B3" s="116" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="108" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="I3" s="116" t="s">
+      <c r="I3" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="J3" s="116" t="s">
+      <c r="J3" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="K3" s="184" t="str">
+      <c r="K3" s="175" t="str">
         <f>K2&amp;"_Swaps.xml"</f>
         <v>USD_YC3MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="183" t="e">
+      <c r="L3" s="174" t="e">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M3" s="162" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="M3" s="153" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
-      </c>
-      <c r="N3" s="161"/>
+        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+      </c>
+      <c r="N3" s="152"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="120"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="182" t="str">
+      <c r="A4" s="112"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="173" t="str">
         <f>$K$2&amp;"_"&amp;$D6&amp;$E6&amp;"_"&amp;FamilyName&amp;$J$2</f>
         <v>USD_YC3MRH_AM3L_Libor3M</v>
       </c>
-      <c r="L4" s="181" t="str">
+      <c r="L4" s="172" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YC3MRH_AM3L_Libor3M#0002</v>
-      </c>
-      <c r="M4" s="180" t="str">
+        <v>USD_YC3MRH_AM3L_Libor3M#0008</v>
+      </c>
+      <c r="M4" s="171" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
         <v/>
       </c>
-      <c r="N4" s="161"/>
+      <c r="N4" s="152"/>
     </row>
     <row r="5" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="161"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="152"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="109"/>
-      <c r="B6" s="167" t="s">
+      <c r="A6" s="101"/>
+      <c r="B6" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="170" t="s">
+      <c r="C6" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="167" t="str">
+      <c r="D6" s="158" t="str">
         <f t="array" ref="D6:D42">VLOOKUP(Currency,Conventions,2)</f>
         <v>AM</v>
       </c>
-      <c r="E6" s="167" t="str">
+      <c r="E6" s="158" t="str">
         <f t="array" ref="E6:E42">VLOOKUP(Currency,Conventions,3)</f>
         <v>3L</v>
       </c>
-      <c r="F6" s="167" t="str">
+      <c r="F6" s="158" t="str">
         <f t="shared" ref="F6:F42" si="0">IF(UPPER(LEFT($D6))="A","Annual",IF(UPPER(LEFT($D6))="S","Semiannual","--"))</f>
         <v>Annual</v>
       </c>
-      <c r="G6" s="146" t="s">
+      <c r="G6" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="146" t="str">
+      <c r="H6" s="137" t="str">
         <f t="shared" ref="H6:H42" si="1">IF(UPPER(RIGHT($D6))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D6))="M",MoneyMarketDayCounter,"--"))</f>
         <v>Actual/360</v>
       </c>
-      <c r="I6" s="166">
-        <v>0</v>
-      </c>
-      <c r="J6" s="169" t="str">
+      <c r="I6" s="157">
+        <v>0</v>
+      </c>
+      <c r="J6" s="160" t="str">
         <f t="shared" ref="J6:J42" si="2">Currency&amp;$D6&amp;$E6&amp;$C6&amp;"_Quote"</f>
         <v>USDAM3L1Y_Quote</v>
       </c>
-      <c r="K6" s="164" t="str">
+      <c r="K6" s="155" t="str">
         <f t="shared" ref="K6:K42" si="3">$K$2&amp;"_"&amp;$D6&amp;$E6&amp;$C6</f>
         <v>USD_YC3MRH_AM3L1Y</v>
       </c>
-      <c r="L6" s="163" t="str">
+      <c r="L6" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L1Y#0002</v>
-      </c>
-      <c r="M6" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M6" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
-      <c r="N6" s="161"/>
-      <c r="P6" s="179" t="s">
+      <c r="N6" s="152"/>
+      <c r="P6" s="170" t="s">
         <v>114</v>
       </c>
-      <c r="Q6" s="178" t="s">
+      <c r="Q6" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="R6" s="177" t="s">
+      <c r="R6" s="168" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="109"/>
-      <c r="B7" s="167" t="s">
+      <c r="A7" s="101"/>
+      <c r="B7" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="167" t="str">
+      <c r="D7" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E7" s="167" t="str">
+      <c r="E7" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F7" s="167" t="str">
+      <c r="F7" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G7" s="145" t="s">
+      <c r="G7" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H7" s="145" t="str">
+      <c r="H7" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I7" s="166">
-        <v>0</v>
-      </c>
-      <c r="J7" s="165" t="str">
+      <c r="I7" s="157">
+        <v>0</v>
+      </c>
+      <c r="J7" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L15M_Quote</v>
       </c>
-      <c r="K7" s="164" t="str">
+      <c r="K7" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L15M</v>
       </c>
-      <c r="L7" s="163" t="str">
+      <c r="L7" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L15M#0002</v>
-      </c>
-      <c r="M7" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M7" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
-      <c r="N7" s="161"/>
-      <c r="P7" s="176" t="s">
+      <c r="N7" s="152"/>
+      <c r="P7" s="167" t="s">
         <v>112</v>
       </c>
-      <c r="Q7" s="175" t="s">
+      <c r="Q7" s="166" t="s">
         <v>111</v>
       </c>
-      <c r="R7" s="174" t="s">
+      <c r="R7" s="165" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="109"/>
-      <c r="B8" s="167" t="s">
+      <c r="A8" s="101"/>
+      <c r="B8" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="167" t="str">
+      <c r="D8" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E8" s="167" t="str">
+      <c r="E8" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F8" s="167" t="str">
+      <c r="F8" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G8" s="145" t="s">
+      <c r="G8" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H8" s="145" t="str">
+      <c r="H8" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I8" s="166">
-        <v>0</v>
-      </c>
-      <c r="J8" s="165" t="str">
+      <c r="I8" s="157">
+        <v>0</v>
+      </c>
+      <c r="J8" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L18M_Quote</v>
       </c>
-      <c r="K8" s="164" t="str">
+      <c r="K8" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L18M</v>
       </c>
-      <c r="L8" s="163" t="str">
+      <c r="L8" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L18M#0002</v>
-      </c>
-      <c r="M8" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M8" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
-      <c r="N8" s="161"/>
-      <c r="P8" s="176" t="s">
+      <c r="N8" s="152"/>
+      <c r="P8" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="Q8" s="175" t="s">
+      <c r="Q8" s="166" t="s">
         <v>103</v>
       </c>
-      <c r="R8" s="174" t="s">
+      <c r="R8" s="165" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="109"/>
-      <c r="B9" s="167" t="s">
+      <c r="A9" s="101"/>
+      <c r="B9" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="167" t="str">
+      <c r="D9" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E9" s="167" t="str">
+      <c r="E9" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F9" s="167" t="str">
+      <c r="F9" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G9" s="145" t="s">
+      <c r="G9" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H9" s="145" t="str">
+      <c r="H9" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I9" s="166">
-        <v>0</v>
-      </c>
-      <c r="J9" s="165" t="str">
+      <c r="I9" s="157">
+        <v>0</v>
+      </c>
+      <c r="J9" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L21M_Quote</v>
       </c>
-      <c r="K9" s="164" t="str">
+      <c r="K9" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L21M</v>
       </c>
-      <c r="L9" s="163" t="str">
+      <c r="L9" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L21M#0002</v>
-      </c>
-      <c r="M9" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L9)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
-      <c r="N9" s="161"/>
-      <c r="P9" s="176" t="s">
+      <c r="N9" s="152"/>
+      <c r="P9" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="Q9" s="175" t="s">
+      <c r="Q9" s="166" t="s">
         <v>108</v>
       </c>
-      <c r="R9" s="174" t="s">
+      <c r="R9" s="165" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
-      <c r="B10" s="167" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="168" t="s">
+      <c r="C10" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="167" t="str">
+      <c r="D10" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E10" s="167" t="str">
+      <c r="E10" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F10" s="167" t="str">
+      <c r="F10" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G10" s="145" t="s">
+      <c r="G10" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H10" s="145" t="str">
+      <c r="H10" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I10" s="166">
-        <v>0</v>
-      </c>
-      <c r="J10" s="165" t="str">
+      <c r="I10" s="157">
+        <v>0</v>
+      </c>
+      <c r="J10" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L2Y_Quote</v>
       </c>
-      <c r="K10" s="164" t="str">
+      <c r="K10" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L2Y</v>
       </c>
-      <c r="L10" s="163" t="str">
+      <c r="L10" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L2Y#0002</v>
-      </c>
-      <c r="M10" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M10" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
-      <c r="N10" s="161"/>
-      <c r="P10" s="173" t="s">
+      <c r="N10" s="152"/>
+      <c r="P10" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="Q10" s="172" t="s">
+      <c r="Q10" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="R10" s="171" t="s">
+      <c r="R10" s="162" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="109"/>
-      <c r="B11" s="167" t="s">
+      <c r="A11" s="101"/>
+      <c r="B11" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="168" t="s">
+      <c r="C11" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="167" t="str">
+      <c r="D11" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E11" s="167" t="str">
+      <c r="E11" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F11" s="167" t="str">
+      <c r="F11" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G11" s="145" t="s">
+      <c r="G11" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H11" s="145" t="str">
+      <c r="H11" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I11" s="166">
-        <v>0</v>
-      </c>
-      <c r="J11" s="165" t="str">
+      <c r="I11" s="157">
+        <v>0</v>
+      </c>
+      <c r="J11" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L3Y_Quote</v>
       </c>
-      <c r="K11" s="164" t="str">
+      <c r="K11" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L3Y</v>
       </c>
-      <c r="L11" s="163" t="str">
+      <c r="L11" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L3Y#0002</v>
-      </c>
-      <c r="M11" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L11)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M11" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
-      <c r="N11" s="161"/>
+      <c r="N11" s="152"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="109"/>
-      <c r="B12" s="167" t="s">
+      <c r="A12" s="101"/>
+      <c r="B12" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="168" t="s">
+      <c r="C12" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="167" t="str">
+      <c r="D12" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E12" s="167" t="str">
+      <c r="E12" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F12" s="167" t="str">
+      <c r="F12" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G12" s="145" t="s">
+      <c r="G12" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H12" s="145" t="str">
+      <c r="H12" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I12" s="166">
-        <v>0</v>
-      </c>
-      <c r="J12" s="165" t="str">
+      <c r="I12" s="157">
+        <v>0</v>
+      </c>
+      <c r="J12" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L4Y_Quote</v>
       </c>
-      <c r="K12" s="164" t="str">
+      <c r="K12" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L4Y</v>
       </c>
-      <c r="L12" s="163" t="str">
+      <c r="L12" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L4Y#0002</v>
-      </c>
-      <c r="M12" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L12)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M12" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
-      <c r="N12" s="161"/>
+      <c r="N12" s="152"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="109"/>
-      <c r="B13" s="167" t="s">
+      <c r="A13" s="101"/>
+      <c r="B13" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="168" t="s">
+      <c r="C13" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="167" t="str">
+      <c r="D13" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E13" s="167" t="str">
+      <c r="E13" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F13" s="167" t="str">
+      <c r="F13" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G13" s="145" t="s">
+      <c r="G13" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H13" s="145" t="str">
+      <c r="H13" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I13" s="166">
-        <v>0</v>
-      </c>
-      <c r="J13" s="165" t="str">
+      <c r="I13" s="157">
+        <v>0</v>
+      </c>
+      <c r="J13" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L5Y_Quote</v>
       </c>
-      <c r="K13" s="164" t="str">
+      <c r="K13" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L5Y</v>
       </c>
-      <c r="L13" s="163" t="str">
+      <c r="L13" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L5Y#0002</v>
-      </c>
-      <c r="M13" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M13" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
-      <c r="N13" s="161"/>
+      <c r="N13" s="152"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="109"/>
-      <c r="B14" s="167" t="s">
+      <c r="A14" s="101"/>
+      <c r="B14" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="168" t="s">
+      <c r="C14" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="167" t="str">
+      <c r="D14" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E14" s="167" t="str">
+      <c r="E14" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F14" s="167" t="str">
+      <c r="F14" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G14" s="145" t="s">
+      <c r="G14" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H14" s="145" t="str">
+      <c r="H14" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I14" s="166">
-        <v>0</v>
-      </c>
-      <c r="J14" s="165" t="str">
+      <c r="I14" s="157">
+        <v>0</v>
+      </c>
+      <c r="J14" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L6Y_Quote</v>
       </c>
-      <c r="K14" s="164" t="str">
+      <c r="K14" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L6Y</v>
       </c>
-      <c r="L14" s="163" t="str">
+      <c r="L14" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L6Y#0002</v>
-      </c>
-      <c r="M14" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M14" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
-      <c r="N14" s="161"/>
+      <c r="N14" s="152"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="109"/>
-      <c r="B15" s="167" t="s">
+      <c r="A15" s="101"/>
+      <c r="B15" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="168" t="s">
+      <c r="C15" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="167" t="str">
+      <c r="D15" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E15" s="167" t="str">
+      <c r="E15" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F15" s="167" t="str">
+      <c r="F15" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G15" s="145" t="s">
+      <c r="G15" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H15" s="145" t="str">
+      <c r="H15" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I15" s="166">
-        <v>0</v>
-      </c>
-      <c r="J15" s="165" t="str">
+      <c r="I15" s="157">
+        <v>0</v>
+      </c>
+      <c r="J15" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L7Y_Quote</v>
       </c>
-      <c r="K15" s="164" t="str">
+      <c r="K15" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L7Y</v>
       </c>
-      <c r="L15" s="163" t="str">
+      <c r="L15" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L7Y#0002</v>
-      </c>
-      <c r="M15" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M15" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
-      <c r="N15" s="161"/>
+      <c r="N15" s="152"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="109"/>
-      <c r="B16" s="167" t="s">
+      <c r="A16" s="101"/>
+      <c r="B16" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="168" t="s">
+      <c r="C16" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="167" t="str">
+      <c r="D16" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E16" s="167" t="str">
+      <c r="E16" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F16" s="167" t="str">
+      <c r="F16" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G16" s="145" t="s">
+      <c r="G16" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H16" s="145" t="str">
+      <c r="H16" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I16" s="166">
-        <v>0</v>
-      </c>
-      <c r="J16" s="165" t="str">
+      <c r="I16" s="157">
+        <v>0</v>
+      </c>
+      <c r="J16" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L8Y_Quote</v>
       </c>
-      <c r="K16" s="164" t="str">
+      <c r="K16" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L8Y</v>
       </c>
-      <c r="L16" s="163" t="str">
+      <c r="L16" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L8Y#0002</v>
-      </c>
-      <c r="M16" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M16" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
-      <c r="N16" s="161"/>
+      <c r="N16" s="152"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="109"/>
-      <c r="B17" s="167" t="s">
+      <c r="A17" s="101"/>
+      <c r="B17" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="168" t="s">
+      <c r="C17" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="167" t="str">
+      <c r="D17" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E17" s="167" t="str">
+      <c r="E17" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F17" s="167" t="str">
+      <c r="F17" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G17" s="145" t="s">
+      <c r="G17" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H17" s="145" t="str">
+      <c r="H17" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I17" s="166">
-        <v>0</v>
-      </c>
-      <c r="J17" s="165" t="str">
+      <c r="I17" s="157">
+        <v>0</v>
+      </c>
+      <c r="J17" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L9Y_Quote</v>
       </c>
-      <c r="K17" s="164" t="str">
+      <c r="K17" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L9Y</v>
       </c>
-      <c r="L17" s="163" t="str">
+      <c r="L17" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L9Y#0002</v>
-      </c>
-      <c r="M17" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M17" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
         <v/>
       </c>
-      <c r="N17" s="161"/>
+      <c r="N17" s="152"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="109"/>
-      <c r="B18" s="167" t="s">
+      <c r="A18" s="101"/>
+      <c r="B18" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="168" t="s">
+      <c r="C18" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="167" t="str">
+      <c r="D18" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E18" s="167" t="str">
+      <c r="E18" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F18" s="167" t="str">
+      <c r="F18" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G18" s="145" t="s">
+      <c r="G18" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H18" s="145" t="str">
+      <c r="H18" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I18" s="166">
-        <v>0</v>
-      </c>
-      <c r="J18" s="165" t="str">
+      <c r="I18" s="157">
+        <v>0</v>
+      </c>
+      <c r="J18" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L10Y_Quote</v>
       </c>
-      <c r="K18" s="164" t="str">
+      <c r="K18" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L10Y</v>
       </c>
-      <c r="L18" s="163" t="str">
+      <c r="L18" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L10Y#0002</v>
-      </c>
-      <c r="M18" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L18)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M18" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
         <v/>
       </c>
-      <c r="N18" s="161"/>
+      <c r="N18" s="152"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="109"/>
-      <c r="B19" s="167" t="s">
+      <c r="A19" s="101"/>
+      <c r="B19" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="168" t="s">
+      <c r="C19" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="167" t="str">
+      <c r="D19" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E19" s="167" t="str">
+      <c r="E19" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F19" s="167" t="str">
+      <c r="F19" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G19" s="145" t="s">
+      <c r="G19" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H19" s="145" t="str">
+      <c r="H19" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I19" s="166">
-        <v>0</v>
-      </c>
-      <c r="J19" s="165" t="str">
+      <c r="I19" s="157">
+        <v>0</v>
+      </c>
+      <c r="J19" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L11Y_Quote</v>
       </c>
-      <c r="K19" s="164" t="str">
+      <c r="K19" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L11Y</v>
       </c>
-      <c r="L19" s="163" t="str">
+      <c r="L19" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L11Y#0002</v>
-      </c>
-      <c r="M19" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L19)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M19" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
         <v/>
       </c>
-      <c r="N19" s="161"/>
+      <c r="N19" s="152"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="109"/>
-      <c r="B20" s="167" t="s">
+      <c r="A20" s="101"/>
+      <c r="B20" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="168" t="s">
+      <c r="C20" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="167" t="str">
+      <c r="D20" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E20" s="167" t="str">
+      <c r="E20" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F20" s="167" t="str">
+      <c r="F20" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G20" s="145" t="s">
+      <c r="G20" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H20" s="145" t="str">
+      <c r="H20" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I20" s="166">
-        <v>0</v>
-      </c>
-      <c r="J20" s="165" t="str">
+      <c r="I20" s="157">
+        <v>0</v>
+      </c>
+      <c r="J20" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L12Y_Quote</v>
       </c>
-      <c r="K20" s="164" t="str">
+      <c r="K20" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L12Y</v>
       </c>
-      <c r="L20" s="163" t="str">
+      <c r="L20" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L12Y#0002</v>
-      </c>
-      <c r="M20" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M20" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
         <v/>
       </c>
-      <c r="N20" s="161"/>
+      <c r="N20" s="152"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="109"/>
-      <c r="B21" s="167" t="s">
+      <c r="A21" s="101"/>
+      <c r="B21" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="168" t="s">
+      <c r="C21" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="167" t="str">
+      <c r="D21" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E21" s="167" t="str">
+      <c r="E21" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F21" s="167" t="str">
+      <c r="F21" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G21" s="145" t="s">
+      <c r="G21" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H21" s="145" t="str">
+      <c r="H21" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I21" s="166">
-        <v>0</v>
-      </c>
-      <c r="J21" s="165" t="str">
+      <c r="I21" s="157">
+        <v>0</v>
+      </c>
+      <c r="J21" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L13Y_Quote</v>
       </c>
-      <c r="K21" s="164" t="str">
+      <c r="K21" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L13Y</v>
       </c>
-      <c r="L21" s="163" t="str">
+      <c r="L21" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L13Y#0002</v>
-      </c>
-      <c r="M21" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M21" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
         <v/>
       </c>
-      <c r="N21" s="161"/>
+      <c r="N21" s="152"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="109"/>
-      <c r="B22" s="167" t="s">
+      <c r="A22" s="101"/>
+      <c r="B22" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="168" t="s">
+      <c r="C22" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="167" t="str">
+      <c r="D22" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E22" s="167" t="str">
+      <c r="E22" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F22" s="167" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G22" s="145" t="s">
+      <c r="G22" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="145" t="str">
+      <c r="H22" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I22" s="166">
-        <v>0</v>
-      </c>
-      <c r="J22" s="165" t="str">
+      <c r="I22" s="157">
+        <v>0</v>
+      </c>
+      <c r="J22" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L14Y_Quote</v>
       </c>
-      <c r="K22" s="164" t="str">
+      <c r="K22" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L14Y</v>
       </c>
-      <c r="L22" s="163" t="str">
+      <c r="L22" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L14Y#0002</v>
-      </c>
-      <c r="M22" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L22)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M22" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
         <v/>
       </c>
-      <c r="N22" s="161"/>
+      <c r="N22" s="152"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="109"/>
-      <c r="B23" s="167" t="s">
+      <c r="A23" s="101"/>
+      <c r="B23" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="168" t="s">
+      <c r="C23" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="167" t="str">
+      <c r="D23" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E23" s="167" t="str">
+      <c r="E23" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F23" s="167" t="str">
+      <c r="F23" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G23" s="145" t="s">
+      <c r="G23" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H23" s="145" t="str">
+      <c r="H23" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I23" s="166">
-        <v>0</v>
-      </c>
-      <c r="J23" s="165" t="str">
+      <c r="I23" s="157">
+        <v>0</v>
+      </c>
+      <c r="J23" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L15Y_Quote</v>
       </c>
-      <c r="K23" s="164" t="str">
+      <c r="K23" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L15Y</v>
       </c>
-      <c r="L23" s="163" t="str">
+      <c r="L23" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L15Y#0002</v>
-      </c>
-      <c r="M23" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L23)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M23" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
         <v/>
       </c>
-      <c r="N23" s="161"/>
+      <c r="N23" s="152"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="109"/>
-      <c r="B24" s="167" t="s">
+      <c r="A24" s="101"/>
+      <c r="B24" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="168" t="s">
+      <c r="C24" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="167" t="str">
+      <c r="D24" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E24" s="167" t="str">
+      <c r="E24" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F24" s="167" t="str">
+      <c r="F24" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G24" s="145" t="s">
+      <c r="G24" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H24" s="145" t="str">
+      <c r="H24" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I24" s="166">
-        <v>0</v>
-      </c>
-      <c r="J24" s="165" t="str">
+      <c r="I24" s="157">
+        <v>0</v>
+      </c>
+      <c r="J24" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L16Y_Quote</v>
       </c>
-      <c r="K24" s="164" t="str">
+      <c r="K24" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L16Y</v>
       </c>
-      <c r="L24" s="163" t="str">
+      <c r="L24" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L16Y#0002</v>
-      </c>
-      <c r="M24" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L24)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M24" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
         <v/>
       </c>
-      <c r="N24" s="161"/>
+      <c r="N24" s="152"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="109"/>
-      <c r="B25" s="167" t="s">
+      <c r="A25" s="101"/>
+      <c r="B25" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="168" t="s">
+      <c r="C25" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="167" t="str">
+      <c r="D25" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E25" s="167" t="str">
+      <c r="E25" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F25" s="167" t="str">
+      <c r="F25" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G25" s="145" t="s">
+      <c r="G25" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H25" s="145" t="str">
+      <c r="H25" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I25" s="166">
-        <v>0</v>
-      </c>
-      <c r="J25" s="165" t="str">
+      <c r="I25" s="157">
+        <v>0</v>
+      </c>
+      <c r="J25" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L17Y_Quote</v>
       </c>
-      <c r="K25" s="164" t="str">
+      <c r="K25" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L17Y</v>
       </c>
-      <c r="L25" s="163" t="str">
+      <c r="L25" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L17Y#0002</v>
-      </c>
-      <c r="M25" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L25)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M25" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
         <v/>
       </c>
-      <c r="N25" s="161"/>
+      <c r="N25" s="152"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="109"/>
-      <c r="B26" s="167" t="s">
+      <c r="A26" s="101"/>
+      <c r="B26" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="168" t="s">
+      <c r="C26" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="167" t="str">
+      <c r="D26" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E26" s="167" t="str">
+      <c r="E26" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F26" s="167" t="str">
+      <c r="F26" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G26" s="145" t="s">
+      <c r="G26" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H26" s="145" t="str">
+      <c r="H26" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I26" s="166">
-        <v>0</v>
-      </c>
-      <c r="J26" s="165" t="str">
+      <c r="I26" s="157">
+        <v>0</v>
+      </c>
+      <c r="J26" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L18Y_Quote</v>
       </c>
-      <c r="K26" s="164" t="str">
+      <c r="K26" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L18Y</v>
       </c>
-      <c r="L26" s="163" t="str">
+      <c r="L26" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L18Y#0002</v>
-      </c>
-      <c r="M26" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M26" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
         <v/>
       </c>
-      <c r="N26" s="161"/>
+      <c r="N26" s="152"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="109"/>
-      <c r="B27" s="167" t="s">
+      <c r="A27" s="101"/>
+      <c r="B27" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="168" t="s">
+      <c r="C27" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="167" t="str">
+      <c r="D27" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E27" s="167" t="str">
+      <c r="E27" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F27" s="167" t="str">
+      <c r="F27" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G27" s="145" t="s">
+      <c r="G27" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H27" s="145" t="str">
+      <c r="H27" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I27" s="166">
-        <v>0</v>
-      </c>
-      <c r="J27" s="165" t="str">
+      <c r="I27" s="157">
+        <v>0</v>
+      </c>
+      <c r="J27" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L19Y_Quote</v>
       </c>
-      <c r="K27" s="164" t="str">
+      <c r="K27" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L19Y</v>
       </c>
-      <c r="L27" s="163" t="str">
+      <c r="L27" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L19Y#0002</v>
-      </c>
-      <c r="M27" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M27" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
         <v/>
       </c>
-      <c r="N27" s="161"/>
+      <c r="N27" s="152"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="109"/>
-      <c r="B28" s="167" t="s">
+      <c r="A28" s="101"/>
+      <c r="B28" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C28" s="168" t="s">
+      <c r="C28" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="167" t="str">
+      <c r="D28" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E28" s="167" t="str">
+      <c r="E28" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F28" s="167" t="str">
+      <c r="F28" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G28" s="145" t="s">
+      <c r="G28" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="145" t="str">
+      <c r="H28" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I28" s="166">
-        <v>0</v>
-      </c>
-      <c r="J28" s="165" t="str">
+      <c r="I28" s="157">
+        <v>0</v>
+      </c>
+      <c r="J28" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L20Y_Quote</v>
       </c>
-      <c r="K28" s="164" t="str">
+      <c r="K28" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L20Y</v>
       </c>
-      <c r="L28" s="163" t="str">
+      <c r="L28" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L20Y#0002</v>
-      </c>
-      <c r="M28" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L28)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
         <v/>
       </c>
-      <c r="N28" s="161"/>
+      <c r="N28" s="152"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="109"/>
-      <c r="B29" s="167" t="s">
+      <c r="A29" s="101"/>
+      <c r="B29" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="168" t="s">
+      <c r="C29" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="167" t="str">
+      <c r="D29" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E29" s="167" t="str">
+      <c r="E29" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F29" s="167" t="str">
+      <c r="F29" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G29" s="145" t="s">
+      <c r="G29" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H29" s="145" t="str">
+      <c r="H29" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I29" s="166">
-        <v>0</v>
-      </c>
-      <c r="J29" s="165" t="str">
+      <c r="I29" s="157">
+        <v>0</v>
+      </c>
+      <c r="J29" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L21Y_Quote</v>
       </c>
-      <c r="K29" s="164" t="str">
+      <c r="K29" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L21Y</v>
       </c>
-      <c r="L29" s="163" t="str">
+      <c r="L29" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L21Y#0002</v>
-      </c>
-      <c r="M29" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
         <v/>
       </c>
-      <c r="N29" s="161"/>
+      <c r="N29" s="152"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="109"/>
-      <c r="B30" s="167" t="s">
+      <c r="A30" s="101"/>
+      <c r="B30" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="168" t="s">
+      <c r="C30" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="167" t="str">
+      <c r="D30" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E30" s="167" t="str">
+      <c r="E30" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F30" s="167" t="str">
+      <c r="F30" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G30" s="145" t="s">
+      <c r="G30" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="145" t="str">
+      <c r="H30" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I30" s="166">
-        <v>0</v>
-      </c>
-      <c r="J30" s="165" t="str">
+      <c r="I30" s="157">
+        <v>0</v>
+      </c>
+      <c r="J30" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L22Y_Quote</v>
       </c>
-      <c r="K30" s="164" t="str">
+      <c r="K30" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L22Y</v>
       </c>
-      <c r="L30" s="163" t="str">
+      <c r="L30" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L22Y#0002</v>
-      </c>
-      <c r="M30" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L30)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M30" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
         <v/>
       </c>
-      <c r="N30" s="161"/>
+      <c r="N30" s="152"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="109"/>
-      <c r="B31" s="167" t="s">
+      <c r="A31" s="101"/>
+      <c r="B31" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="168" t="s">
+      <c r="C31" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="167" t="str">
+      <c r="D31" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E31" s="167" t="str">
+      <c r="E31" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F31" s="167" t="str">
+      <c r="F31" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G31" s="145" t="s">
+      <c r="G31" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H31" s="145" t="str">
+      <c r="H31" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I31" s="166">
-        <v>0</v>
-      </c>
-      <c r="J31" s="165" t="str">
+      <c r="I31" s="157">
+        <v>0</v>
+      </c>
+      <c r="J31" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L23Y_Quote</v>
       </c>
-      <c r="K31" s="164" t="str">
+      <c r="K31" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L23Y</v>
       </c>
-      <c r="L31" s="163" t="str">
+      <c r="L31" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L23Y#0002</v>
-      </c>
-      <c r="M31" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L31)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M31" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
         <v/>
       </c>
-      <c r="N31" s="161"/>
+      <c r="N31" s="152"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="109"/>
-      <c r="B32" s="167" t="s">
+      <c r="A32" s="101"/>
+      <c r="B32" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="168" t="s">
+      <c r="C32" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="167" t="str">
+      <c r="D32" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E32" s="167" t="str">
+      <c r="E32" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F32" s="167" t="str">
+      <c r="F32" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G32" s="145" t="s">
+      <c r="G32" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H32" s="145" t="str">
+      <c r="H32" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I32" s="166">
-        <v>0</v>
-      </c>
-      <c r="J32" s="165" t="str">
+      <c r="I32" s="157">
+        <v>0</v>
+      </c>
+      <c r="J32" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L24Y_Quote</v>
       </c>
-      <c r="K32" s="164" t="str">
+      <c r="K32" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L24Y</v>
       </c>
-      <c r="L32" s="163" t="str">
+      <c r="L32" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L24Y#0002</v>
-      </c>
-      <c r="M32" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M32" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
         <v/>
       </c>
-      <c r="N32" s="161"/>
+      <c r="N32" s="152"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="109"/>
-      <c r="B33" s="167" t="s">
+      <c r="A33" s="101"/>
+      <c r="B33" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="168" t="s">
+      <c r="C33" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="167" t="str">
+      <c r="D33" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E33" s="167" t="str">
+      <c r="E33" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F33" s="167" t="str">
+      <c r="F33" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G33" s="145" t="s">
+      <c r="G33" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H33" s="145" t="str">
+      <c r="H33" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I33" s="166">
-        <v>0</v>
-      </c>
-      <c r="J33" s="165" t="str">
+      <c r="I33" s="157">
+        <v>0</v>
+      </c>
+      <c r="J33" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L25Y_Quote</v>
       </c>
-      <c r="K33" s="164" t="str">
+      <c r="K33" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L25Y</v>
       </c>
-      <c r="L33" s="163" t="str">
+      <c r="L33" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L25Y#0002</v>
-      </c>
-      <c r="M33" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L33)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M33" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
         <v/>
       </c>
-      <c r="N33" s="161"/>
+      <c r="N33" s="152"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="109"/>
-      <c r="B34" s="167" t="s">
+      <c r="A34" s="101"/>
+      <c r="B34" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="168" t="s">
+      <c r="C34" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="167" t="str">
+      <c r="D34" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E34" s="167" t="str">
+      <c r="E34" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F34" s="167" t="str">
+      <c r="F34" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G34" s="145" t="s">
+      <c r="G34" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H34" s="145" t="str">
+      <c r="H34" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I34" s="166">
-        <v>0</v>
-      </c>
-      <c r="J34" s="165" t="str">
+      <c r="I34" s="157">
+        <v>0</v>
+      </c>
+      <c r="J34" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L26Y_Quote</v>
       </c>
-      <c r="K34" s="164" t="str">
+      <c r="K34" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L26Y</v>
       </c>
-      <c r="L34" s="163" t="str">
+      <c r="L34" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L26Y#0002</v>
-      </c>
-      <c r="M34" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L34)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M34" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
         <v/>
       </c>
-      <c r="N34" s="161"/>
+      <c r="N34" s="152"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="109"/>
-      <c r="B35" s="167" t="s">
+      <c r="A35" s="101"/>
+      <c r="B35" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="168" t="s">
+      <c r="C35" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="167" t="str">
+      <c r="D35" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E35" s="167" t="str">
+      <c r="E35" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F35" s="167" t="str">
+      <c r="F35" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G35" s="145" t="s">
+      <c r="G35" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H35" s="145" t="str">
+      <c r="H35" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I35" s="166">
-        <v>0</v>
-      </c>
-      <c r="J35" s="165" t="str">
+      <c r="I35" s="157">
+        <v>0</v>
+      </c>
+      <c r="J35" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L27Y_Quote</v>
       </c>
-      <c r="K35" s="164" t="str">
+      <c r="K35" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L27Y</v>
       </c>
-      <c r="L35" s="163" t="str">
+      <c r="L35" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L27Y#0002</v>
-      </c>
-      <c r="M35" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L35)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M35" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
         <v/>
       </c>
-      <c r="N35" s="161"/>
+      <c r="N35" s="152"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="109"/>
-      <c r="B36" s="167" t="s">
+      <c r="A36" s="101"/>
+      <c r="B36" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="168" t="s">
+      <c r="C36" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="167" t="str">
+      <c r="D36" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E36" s="167" t="str">
+      <c r="E36" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F36" s="167" t="str">
+      <c r="F36" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G36" s="145" t="s">
+      <c r="G36" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H36" s="145" t="str">
+      <c r="H36" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I36" s="166">
-        <v>0</v>
-      </c>
-      <c r="J36" s="165" t="str">
+      <c r="I36" s="157">
+        <v>0</v>
+      </c>
+      <c r="J36" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L28Y_Quote</v>
       </c>
-      <c r="K36" s="164" t="str">
+      <c r="K36" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L28Y</v>
       </c>
-      <c r="L36" s="163" t="str">
+      <c r="L36" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L28Y#0002</v>
-      </c>
-      <c r="M36" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L36)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M36" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
         <v/>
       </c>
-      <c r="N36" s="161"/>
+      <c r="N36" s="152"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="109"/>
-      <c r="B37" s="167" t="s">
+      <c r="A37" s="101"/>
+      <c r="B37" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="168" t="s">
+      <c r="C37" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="167" t="str">
+      <c r="D37" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E37" s="167" t="str">
+      <c r="E37" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F37" s="167" t="str">
+      <c r="F37" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G37" s="145" t="s">
+      <c r="G37" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H37" s="145" t="str">
+      <c r="H37" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I37" s="166">
-        <v>0</v>
-      </c>
-      <c r="J37" s="165" t="str">
+      <c r="I37" s="157">
+        <v>0</v>
+      </c>
+      <c r="J37" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L29Y_Quote</v>
       </c>
-      <c r="K37" s="164" t="str">
+      <c r="K37" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L29Y</v>
       </c>
-      <c r="L37" s="163" t="str">
+      <c r="L37" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L29Y#0002</v>
-      </c>
-      <c r="M37" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L37)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M37" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
         <v/>
       </c>
-      <c r="N37" s="161"/>
+      <c r="N37" s="152"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="109"/>
-      <c r="B38" s="167" t="s">
+      <c r="A38" s="101"/>
+      <c r="B38" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="168" t="s">
+      <c r="C38" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="167" t="str">
+      <c r="D38" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E38" s="167" t="str">
+      <c r="E38" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F38" s="167" t="str">
+      <c r="F38" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G38" s="145" t="s">
+      <c r="G38" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H38" s="145" t="str">
+      <c r="H38" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I38" s="166">
-        <v>0</v>
-      </c>
-      <c r="J38" s="165" t="str">
+      <c r="I38" s="157">
+        <v>0</v>
+      </c>
+      <c r="J38" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L30Y_Quote</v>
       </c>
-      <c r="K38" s="164" t="str">
+      <c r="K38" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L30Y</v>
       </c>
-      <c r="L38" s="163" t="str">
+      <c r="L38" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L30Y#0002</v>
-      </c>
-      <c r="M38" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L38)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M38" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
         <v/>
       </c>
-      <c r="N38" s="161"/>
+      <c r="N38" s="152"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="109"/>
-      <c r="B39" s="167" t="s">
+      <c r="A39" s="101"/>
+      <c r="B39" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="168" t="s">
+      <c r="C39" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="167" t="str">
+      <c r="D39" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E39" s="167" t="str">
+      <c r="E39" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F39" s="167" t="str">
+      <c r="F39" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G39" s="145" t="s">
+      <c r="G39" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H39" s="145" t="str">
+      <c r="H39" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I39" s="166">
-        <v>0</v>
-      </c>
-      <c r="J39" s="165" t="str">
+      <c r="I39" s="157">
+        <v>0</v>
+      </c>
+      <c r="J39" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L35Y_Quote</v>
       </c>
-      <c r="K39" s="164" t="str">
+      <c r="K39" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L35Y</v>
       </c>
-      <c r="L39" s="163" t="str">
+      <c r="L39" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L35Y#0002</v>
-      </c>
-      <c r="M39" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M39" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
         <v/>
       </c>
-      <c r="N39" s="161"/>
+      <c r="N39" s="152"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="109"/>
-      <c r="B40" s="167" t="s">
+      <c r="A40" s="101"/>
+      <c r="B40" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C40" s="168" t="s">
+      <c r="C40" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="167" t="str">
+      <c r="D40" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E40" s="167" t="str">
+      <c r="E40" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F40" s="167" t="str">
+      <c r="F40" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G40" s="145" t="s">
+      <c r="G40" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H40" s="145" t="str">
+      <c r="H40" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I40" s="166">
-        <v>0</v>
-      </c>
-      <c r="J40" s="165" t="str">
+      <c r="I40" s="157">
+        <v>0</v>
+      </c>
+      <c r="J40" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L40Y_Quote</v>
       </c>
-      <c r="K40" s="164" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L40Y</v>
       </c>
-      <c r="L40" s="163" t="str">
+      <c r="L40" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L40Y#0002</v>
-      </c>
-      <c r="M40" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L40)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M40" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
         <v/>
       </c>
-      <c r="N40" s="161"/>
+      <c r="N40" s="152"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="109"/>
-      <c r="B41" s="167" t="s">
+      <c r="A41" s="101"/>
+      <c r="B41" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="168" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="167" t="str">
+      <c r="C41" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E41" s="167" t="str">
+      <c r="E41" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F41" s="167" t="str">
+      <c r="F41" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G41" s="145" t="s">
+      <c r="G41" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H41" s="145" t="str">
+      <c r="H41" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I41" s="166">
-        <v>0</v>
-      </c>
-      <c r="J41" s="165" t="str">
+      <c r="I41" s="157">
+        <v>0</v>
+      </c>
+      <c r="J41" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L50Y_Quote</v>
       </c>
-      <c r="K41" s="164" t="str">
+      <c r="K41" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L50Y</v>
       </c>
-      <c r="L41" s="163" t="str">
+      <c r="L41" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L50Y#0002</v>
-      </c>
-      <c r="M41" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L41)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
         <v/>
       </c>
-      <c r="N41" s="161"/>
+      <c r="N41" s="152"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="109"/>
-      <c r="B42" s="167" t="s">
+      <c r="A42" s="101"/>
+      <c r="B42" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C42" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="167" t="str">
+      <c r="C42" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="158" t="str">
         <v>AM</v>
       </c>
-      <c r="E42" s="167" t="str">
+      <c r="E42" s="158" t="str">
         <v>3L</v>
       </c>
-      <c r="F42" s="167" t="str">
+      <c r="F42" s="158" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G42" s="145" t="s">
+      <c r="G42" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H42" s="145" t="str">
+      <c r="H42" s="136" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I42" s="166">
-        <v>0</v>
-      </c>
-      <c r="J42" s="165" t="str">
+      <c r="I42" s="157">
+        <v>0</v>
+      </c>
+      <c r="J42" s="156" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L60Y_Quote</v>
       </c>
-      <c r="K42" s="164" t="str">
+      <c r="K42" s="155" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L60Y</v>
       </c>
-      <c r="L42" s="163" t="str">
+      <c r="L42" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L60Y#0002</v>
-      </c>
-      <c r="M42" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L42)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
         <v/>
       </c>
-      <c r="N42" s="161"/>
+      <c r="N42" s="152"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="120"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="119"/>
-      <c r="N43" s="161"/>
+      <c r="A43" s="112"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="111"/>
+      <c r="N43" s="152"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="109"/>
-      <c r="B44" s="167" t="s">
+      <c r="A44" s="101"/>
+      <c r="B44" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C44" s="170"/>
-      <c r="D44" s="167" t="s">
+      <c r="C44" s="161"/>
+      <c r="D44" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="167">
+      <c r="E44" s="158">
         <v>12</v>
       </c>
-      <c r="F44" s="167" t="s">
+      <c r="F44" s="158" t="s">
         <v>169</v>
       </c>
-      <c r="G44" s="146" t="s">
+      <c r="G44" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="H44" s="146" t="s">
+      <c r="H44" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="I44" s="166">
-        <v>0</v>
-      </c>
-      <c r="J44" s="169" t="str">
+      <c r="I44" s="157">
+        <v>0</v>
+      </c>
+      <c r="J44" s="160" t="str">
         <f t="shared" ref="J44:J50" si="4">Currency&amp;$D44&amp;$E44&amp;QuoteSuffix</f>
         <v>USD1S12_Quote</v>
       </c>
-      <c r="K44" s="164" t="str">
+      <c r="K44" s="155" t="str">
         <f t="shared" ref="K44:K50" si="5">$K$2&amp;"_"&amp;$D44&amp;$E44&amp;$C44</f>
         <v>USD_YC3MRH_1S12</v>
       </c>
-      <c r="L44" s="163" t="str">
+      <c r="L44" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K44,$J44,$E44&amp;"M",Calendar,$F44,$G44,$H44,$L$4,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_1S12#0002</v>
-      </c>
-      <c r="M44" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L44)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M44" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L44)</f>
         <v/>
       </c>
-      <c r="N44" s="161"/>
-      <c r="O44" s="160"/>
-      <c r="P44" s="160"/>
-      <c r="Q44" s="160"/>
+      <c r="N44" s="152"/>
+      <c r="O44" s="151"/>
+      <c r="P44" s="151"/>
+      <c r="Q44" s="151"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="109"/>
-      <c r="B45" s="167" t="s">
+      <c r="A45" s="101"/>
+      <c r="B45" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="168"/>
-      <c r="D45" s="167" t="s">
+      <c r="C45" s="159"/>
+      <c r="D45" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="167">
+      <c r="E45" s="158">
         <v>12</v>
       </c>
-      <c r="F45" s="167" t="s">
+      <c r="F45" s="158" t="s">
         <v>169</v>
       </c>
-      <c r="G45" s="145" t="s">
+      <c r="G45" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H45" s="145" t="s">
+      <c r="H45" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="I45" s="166">
-        <v>0</v>
-      </c>
-      <c r="J45" s="165" t="str">
+      <c r="I45" s="157">
+        <v>0</v>
+      </c>
+      <c r="J45" s="156" t="str">
         <f t="shared" si="4"/>
         <v>USD2S12_Quote</v>
       </c>
-      <c r="K45" s="164" t="str">
+      <c r="K45" s="155" t="str">
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_2S12</v>
       </c>
-      <c r="L45" s="163" t="str">
+      <c r="L45" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K45,$J45,$E45&amp;"M",Calendar,$F45,$G45,$H45,$L$4,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_2S12#0002</v>
-      </c>
-      <c r="M45" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L45)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M45" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L45)</f>
         <v/>
       </c>
-      <c r="N45" s="161"/>
-      <c r="O45" s="160"/>
-      <c r="P45" s="160"/>
-      <c r="Q45" s="160"/>
+      <c r="N45" s="152"/>
+      <c r="O45" s="151"/>
+      <c r="P45" s="151"/>
+      <c r="Q45" s="151"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="109"/>
-      <c r="B46" s="167" t="s">
+      <c r="A46" s="101"/>
+      <c r="B46" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C46" s="168"/>
-      <c r="D46" s="167" t="s">
+      <c r="C46" s="159"/>
+      <c r="D46" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="167">
+      <c r="E46" s="158">
         <v>12</v>
       </c>
-      <c r="F46" s="167" t="s">
+      <c r="F46" s="158" t="s">
         <v>169</v>
       </c>
-      <c r="G46" s="145" t="s">
+      <c r="G46" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H46" s="145" t="s">
+      <c r="H46" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="I46" s="166">
-        <v>0</v>
-      </c>
-      <c r="J46" s="165" t="str">
+      <c r="I46" s="157">
+        <v>0</v>
+      </c>
+      <c r="J46" s="156" t="str">
         <f t="shared" si="4"/>
         <v>USD3S12_Quote</v>
       </c>
-      <c r="K46" s="164" t="str">
+      <c r="K46" s="155" t="str">
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_3S12</v>
       </c>
-      <c r="L46" s="163" t="str">
+      <c r="L46" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K46,$J46,$E46&amp;"M",Calendar,$F46,$G46,$H46,$L$4,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_3S12#0002</v>
-      </c>
-      <c r="M46" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L46)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M46" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L46)</f>
         <v/>
       </c>
-      <c r="N46" s="161"/>
-      <c r="O46" s="160"/>
-      <c r="P46" s="160"/>
-      <c r="Q46" s="160"/>
+      <c r="N46" s="152"/>
+      <c r="O46" s="151"/>
+      <c r="P46" s="151"/>
+      <c r="Q46" s="151"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="109"/>
-      <c r="B47" s="167" t="s">
+      <c r="A47" s="101"/>
+      <c r="B47" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C47" s="168"/>
-      <c r="D47" s="167" t="s">
+      <c r="C47" s="159"/>
+      <c r="D47" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="167">
+      <c r="E47" s="158">
         <v>12</v>
       </c>
-      <c r="F47" s="167" t="s">
+      <c r="F47" s="158" t="s">
         <v>169</v>
       </c>
-      <c r="G47" s="145" t="s">
+      <c r="G47" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H47" s="145" t="s">
+      <c r="H47" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="I47" s="166">
-        <v>0</v>
-      </c>
-      <c r="J47" s="165" t="str">
+      <c r="I47" s="157">
+        <v>0</v>
+      </c>
+      <c r="J47" s="156" t="str">
         <f t="shared" si="4"/>
         <v>USD4S12_Quote</v>
       </c>
-      <c r="K47" s="164" t="str">
+      <c r="K47" s="155" t="str">
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_4S12</v>
       </c>
-      <c r="L47" s="163" t="str">
+      <c r="L47" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K47,$J47,$E47&amp;"M",Calendar,$F47,$G47,$H47,$L$4,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_4S12#0002</v>
-      </c>
-      <c r="M47" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L47)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M47" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L47)</f>
         <v/>
       </c>
-      <c r="N47" s="161"/>
-      <c r="O47" s="160"/>
-      <c r="P47" s="160"/>
-      <c r="Q47" s="160"/>
+      <c r="N47" s="152"/>
+      <c r="O47" s="151"/>
+      <c r="P47" s="151"/>
+      <c r="Q47" s="151"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="109"/>
-      <c r="B48" s="167" t="s">
+      <c r="A48" s="101"/>
+      <c r="B48" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C48" s="168"/>
-      <c r="D48" s="167" t="s">
+      <c r="C48" s="159"/>
+      <c r="D48" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="167">
+      <c r="E48" s="158">
         <v>24</v>
       </c>
-      <c r="F48" s="167" t="s">
+      <c r="F48" s="158" t="s">
         <v>169</v>
       </c>
-      <c r="G48" s="145" t="s">
+      <c r="G48" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H48" s="145" t="s">
+      <c r="H48" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="I48" s="166">
-        <v>0</v>
-      </c>
-      <c r="J48" s="165" t="str">
+      <c r="I48" s="157">
+        <v>0</v>
+      </c>
+      <c r="J48" s="156" t="str">
         <f t="shared" si="4"/>
         <v>USD1S24_Quote</v>
       </c>
-      <c r="K48" s="164" t="str">
+      <c r="K48" s="155" t="str">
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_1S24</v>
       </c>
-      <c r="L48" s="163" t="str">
+      <c r="L48" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K48,$J48,$E48&amp;"M",Calendar,$F48,$G48,$H48,$L$4,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_1S24#0002</v>
-      </c>
-      <c r="M48" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L48)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M48" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L48)</f>
         <v/>
       </c>
-      <c r="N48" s="161"/>
-      <c r="O48" s="160"/>
-      <c r="P48" s="160"/>
-      <c r="Q48" s="160"/>
+      <c r="N48" s="152"/>
+      <c r="O48" s="151"/>
+      <c r="P48" s="151"/>
+      <c r="Q48" s="151"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="109"/>
-      <c r="B49" s="167" t="s">
+      <c r="A49" s="101"/>
+      <c r="B49" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="168"/>
-      <c r="D49" s="167" t="s">
+      <c r="C49" s="159"/>
+      <c r="D49" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="167">
+      <c r="E49" s="158">
         <v>24</v>
       </c>
-      <c r="F49" s="167" t="s">
+      <c r="F49" s="158" t="s">
         <v>169</v>
       </c>
-      <c r="G49" s="145" t="s">
+      <c r="G49" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H49" s="145" t="s">
+      <c r="H49" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="I49" s="166">
-        <v>0</v>
-      </c>
-      <c r="J49" s="165" t="str">
+      <c r="I49" s="157">
+        <v>0</v>
+      </c>
+      <c r="J49" s="156" t="str">
         <f t="shared" si="4"/>
         <v>USD2S24_Quote</v>
       </c>
-      <c r="K49" s="164" t="str">
+      <c r="K49" s="155" t="str">
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_2S24</v>
       </c>
-      <c r="L49" s="163" t="str">
+      <c r="L49" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K49,$J49,$E49&amp;"M",Calendar,$F49,$G49,$H49,$L$4,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_2S24#0002</v>
-      </c>
-      <c r="M49" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L49)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L49)</f>
         <v/>
       </c>
-      <c r="N49" s="161"/>
-      <c r="O49" s="160"/>
-      <c r="P49" s="160"/>
-      <c r="Q49" s="160"/>
+      <c r="N49" s="152"/>
+      <c r="O49" s="151"/>
+      <c r="P49" s="151"/>
+      <c r="Q49" s="151"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="109"/>
-      <c r="B50" s="167" t="s">
+      <c r="A50" s="101"/>
+      <c r="B50" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="168"/>
-      <c r="D50" s="167" t="s">
+      <c r="C50" s="159"/>
+      <c r="D50" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="167">
+      <c r="E50" s="158">
         <v>36</v>
       </c>
-      <c r="F50" s="167" t="s">
+      <c r="F50" s="158" t="s">
         <v>169</v>
       </c>
-      <c r="G50" s="145" t="s">
+      <c r="G50" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="H50" s="145" t="s">
+      <c r="H50" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="I50" s="166">
-        <v>0</v>
-      </c>
-      <c r="J50" s="165" t="str">
+      <c r="I50" s="157">
+        <v>0</v>
+      </c>
+      <c r="J50" s="156" t="str">
         <f t="shared" si="4"/>
         <v>USD1S36_Quote</v>
       </c>
-      <c r="K50" s="164" t="str">
+      <c r="K50" s="155" t="str">
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_1S36</v>
       </c>
-      <c r="L50" s="163" t="str">
+      <c r="L50" s="154" t="e">
         <f>_xll.qlSwapRateHelper2(K50,$J50,$E50&amp;"M",Calendar,$F50,$G50,$H50,$L$4,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_1S36#0002</v>
-      </c>
-      <c r="M50" s="162" t="str">
-        <f>_xll.ohRangeRetrieveError(L50)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f ca="1">_xll.ohRangeRetrieveError(L50)</f>
         <v/>
       </c>
-      <c r="N50" s="161"/>
-      <c r="O50" s="160"/>
-      <c r="P50" s="160"/>
-      <c r="Q50" s="160"/>
+      <c r="N50" s="152"/>
+      <c r="O50" s="151"/>
+      <c r="P50" s="151"/>
+      <c r="Q50" s="151"/>
     </row>
     <row r="51" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="101"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="100"/>
-      <c r="M51" s="100"/>
-      <c r="N51" s="159"/>
-      <c r="O51" s="119"/>
-      <c r="P51" s="119"/>
-      <c r="Q51" s="119"/>
+      <c r="A51" s="93"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="92"/>
+      <c r="M51" s="92"/>
+      <c r="N51" s="150"/>
+      <c r="O51" s="111"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="111"/>
     </row>
   </sheetData>
   <dataValidations count="3">

--- a/QuantLibXL/Data2/XLS/USD_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YC3MBootstrapping.xlsx
@@ -17,7 +17,6 @@
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$23</definedName>
     <definedName name="BondBasisDayCounter">'General Settings'!$M$13</definedName>
-    <definedName name="Calendar" localSheetId="5">'General Settings'!#REF!</definedName>
     <definedName name="Calendar">'General Settings'!$D$18</definedName>
     <definedName name="Conventions" localSheetId="5">'3M_Swaps'!$P$6:$R$10</definedName>
     <definedName name="Currency">'General Settings'!$D$4</definedName>
@@ -605,12 +604,6 @@
     <t>USD_YC3MRH_FUT3MZ5</t>
   </si>
   <si>
-    <t>USD_YC3MRH_FUT3MH6</t>
-  </si>
-  <si>
-    <t>USD_YC3MRH_FUT3MM6</t>
-  </si>
-  <si>
     <t>USD_YC3MRH_AM3L3Y</t>
   </si>
   <si>
@@ -777,6 +770,12 @@
   </si>
   <si>
     <t>USD_YCRH_Swaps</t>
+  </si>
+  <si>
+    <t>USD_YC3MRH_FUT3MU4</t>
+  </si>
+  <si>
+    <t>USD_YC3MRH_FUT3MZ4</t>
   </si>
 </sst>
 </file>
@@ -904,7 +903,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -957,12 +956,6 @@
       <patternFill patternType="gray0625">
         <fgColor indexed="22"/>
         <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1413,7 +1406,7 @@
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1813,9 +1806,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="10" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1831,21 +1836,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2164,39 +2154,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="187" customWidth="1"/>
-    <col min="3" max="3" width="18" style="187" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="187" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="187" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="187" customWidth="1"/>
-    <col min="8" max="9" width="8" style="187"/>
-    <col min="10" max="11" width="2.7109375" style="187" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="187" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="187" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="187" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="187"/>
+    <col min="1" max="2" width="2.7109375" style="181" customWidth="1"/>
+    <col min="3" max="3" width="18" style="181" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="181" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="181" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="181" customWidth="1"/>
+    <col min="8" max="9" width="8" style="181"/>
+    <col min="10" max="11" width="2.7109375" style="181" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="181" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="181" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="181" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="181"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="187" t="str">
+      <c r="B1" s="181" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 15 2014 16:53:36</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="189" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="197"/>
-      <c r="K2" s="195" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="191"/>
+      <c r="K2" s="189" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="60"/>
@@ -2219,13 +2209,13 @@
       </c>
       <c r="E4" s="57"/>
       <c r="F4" s="56"/>
-      <c r="H4" s="190" t="s">
+      <c r="H4" s="184" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="191"/>
+      <c r="I4" s="185"/>
       <c r="K4" s="127"/>
       <c r="L4" s="126" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M4" s="120" t="b">
         <v>1</v>
@@ -2242,19 +2232,19 @@
       </c>
       <c r="E5" s="57"/>
       <c r="F5" s="56"/>
-      <c r="H5" s="188" t="s">
+      <c r="H5" s="182" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="189" t="s">
+      <c r="I5" s="183" t="s">
         <v>111</v>
       </c>
       <c r="K5" s="127"/>
       <c r="L5" s="126" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M5" s="128" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
+        <v>C:\erik\repos\quantlib\QuantLibXL\Data2\XML\</v>
       </c>
       <c r="N5" s="125"/>
     </row>
@@ -2269,15 +2259,15 @@
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="56"/>
-      <c r="H6" s="188" t="s">
+      <c r="H6" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="189" t="s">
+      <c r="I6" s="183" t="s">
         <v>108</v>
       </c>
       <c r="K6" s="127"/>
       <c r="L6" s="126" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M6" s="117" t="b">
         <v>1</v>
@@ -2295,10 +2285,10 @@
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="56"/>
-      <c r="H7" s="188" t="s">
+      <c r="H7" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="189"/>
+      <c r="I7" s="183"/>
       <c r="K7" s="124"/>
       <c r="L7" s="123"/>
       <c r="M7" s="123"/>
@@ -2315,16 +2305,16 @@
       </c>
       <c r="E8" s="57"/>
       <c r="F8" s="56"/>
-      <c r="H8" s="192" t="s">
+      <c r="H8" s="186" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="193" t="s">
+      <c r="I8" s="187" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="194"/>
-      <c r="N8" s="194"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="188"/>
+      <c r="N8" s="188"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="60"/>
@@ -2337,12 +2327,12 @@
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="56"/>
-      <c r="K9" s="195" t="s">
-        <v>158</v>
-      </c>
-      <c r="L9" s="196"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="196"/>
+      <c r="K9" s="189" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="190"/>
+      <c r="M9" s="190"/>
+      <c r="N9" s="190"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="60"/>
@@ -2365,16 +2355,16 @@
         <v>100</v>
       </c>
       <c r="D11" s="85">
-        <v>41654.209652777776</v>
+        <v>41654.758842592593</v>
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="56"/>
       <c r="K11" s="119"/>
       <c r="L11" s="118" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M11" s="120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N11" s="116"/>
     </row>
@@ -2390,10 +2380,10 @@
       <c r="F12" s="56"/>
       <c r="K12" s="119"/>
       <c r="L12" s="118" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M12" s="117" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N12" s="116"/>
     </row>
@@ -2405,10 +2395,10 @@
       <c r="F13" s="56"/>
       <c r="K13" s="119"/>
       <c r="L13" s="118" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M13" s="120" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N13" s="116"/>
     </row>
@@ -2419,16 +2409,16 @@
       </c>
       <c r="D14" s="82" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYC3M#0009</v>
+        <v>_USDYC3M#0002</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="56"/>
       <c r="K14" s="119"/>
       <c r="L14" s="118" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M14" s="120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N14" s="116"/>
     </row>
@@ -2445,7 +2435,7 @@
       <c r="F15" s="56"/>
       <c r="K15" s="119"/>
       <c r="L15" s="118" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M15" s="120" t="str">
         <f>PROPER(Currency)&amp;"YC"</f>
@@ -2466,7 +2456,7 @@
       <c r="F16" s="56"/>
       <c r="K16" s="119"/>
       <c r="L16" s="118" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M16" s="120" t="str">
         <f>PROPER(Currency)&amp;"YCSTD"</f>
@@ -2598,9 +2588,9 @@
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
         <v>41656</v>
       </c>
-      <c r="D27" s="63" t="e">
+      <c r="D27" s="63">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
       <c r="E27" s="57"/>
       <c r="F27" s="56"/>
@@ -2611,9 +2601,9 @@
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
         <v>59918</v>
       </c>
-      <c r="D28" s="61" t="e">
+      <c r="D28" s="61">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>#NUM!</v>
+        <v>0.16094323852142145</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="56"/>
@@ -2624,8 +2614,8 @@
         <v>76</v>
       </c>
       <c r="D29" s="58" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(Selected!I1)</f>
-        <v>qlPiecewiseYieldCurveData - 7th iteration: failed at 14th alive instrument, maturity January 17th, 2017, reference date January 17th, 2014: root not bracketed: f[0.0809127,0.976545] -&gt; [-5.446828e-001,-2.273666e-003]</v>
+        <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
+        <v/>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="56"/>
@@ -2681,7 +2671,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2704,11 +2696,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="192" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="184"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="194"/>
       <c r="E1" s="31" t="s">
         <v>74</v>
       </c>
@@ -4016,7 +4008,7 @@
       </c>
       <c r="E36" s="14" t="str">
         <f>'3M_Futures'!I3</f>
-        <v>USD_YC3MRH_FUT3MF4#0008</v>
+        <v>USD_YC3MRH_FUT3MF4#0002</v>
       </c>
       <c r="F36" s="28">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4061,11 +4053,11 @@
       </c>
       <c r="E37" s="14" t="str">
         <f>'3M_Futures'!I4</f>
-        <v>USD_YC3MRH_FUT3MG4#0008</v>
+        <v>USD_YC3MRH_FUT3MG4#0002</v>
       </c>
       <c r="F37" s="28">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
-        <v>99.747500000000002</v>
+        <v>99.754999999999995</v>
       </c>
       <c r="G37" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E37,Trigger)</f>
@@ -4106,11 +4098,11 @@
       </c>
       <c r="E38" s="14" t="str">
         <f>'3M_Futures'!I5</f>
-        <v>USD_YC3MRH_FUT3MH4#0008</v>
+        <v>USD_YC3MRH_FUT3MH4#0002</v>
       </c>
       <c r="F38" s="28">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>99.737499999999997</v>
+        <v>99.747500000000002</v>
       </c>
       <c r="G38" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E38,Trigger)</f>
@@ -4151,11 +4143,11 @@
       </c>
       <c r="E39" s="14" t="str">
         <f>'3M_Futures'!I6</f>
-        <v>USD_YC3MRH_FUT3MJ4#0008</v>
+        <v>USD_YC3MRH_FUT3MJ4#0002</v>
       </c>
       <c r="F39" s="28">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
-        <v>99.727499999999992</v>
+        <v>99.74</v>
       </c>
       <c r="G39" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E39,Trigger)</f>
@@ -4196,11 +4188,11 @@
       </c>
       <c r="E40" s="14" t="str">
         <f>'3M_Futures'!I7</f>
-        <v>USD_YC3MRH_FUT3MK4#0008</v>
+        <v>USD_YC3MRH_FUT3MK4#0002</v>
       </c>
       <c r="F40" s="28">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>99.707499999999996</v>
+        <v>99.724999999999994</v>
       </c>
       <c r="G40" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E40,Trigger)</f>
@@ -4241,11 +4233,11 @@
       </c>
       <c r="E41" s="14" t="str">
         <f>'3M_Futures'!I8</f>
-        <v>USD_YC3MRH_FUT3MM4#0008</v>
+        <v>USD_YC3MRH_FUT3MM4#0002</v>
       </c>
       <c r="F41" s="28">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>99.694999999999993</v>
+        <v>99.707499999999996</v>
       </c>
       <c r="G41" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
@@ -4286,18 +4278,18 @@
       </c>
       <c r="E42" s="14" t="str">
         <f>'3M_Futures'!I9</f>
-        <v>USD_YC3MRH_FUT3MN4#0008</v>
-      </c>
-      <c r="F42" s="28" t="e">
+        <v>USD_YC3MRH_FUT3MN4#0002</v>
+      </c>
+      <c r="F42" s="28">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G42" s="13" t="e">
+        <v>99.692499999999995</v>
+      </c>
+      <c r="G42" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H42" s="181" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H42" s="12" t="b">
+        <v>1</v>
       </c>
       <c r="I42" s="12">
         <v>60</v>
@@ -4331,7 +4323,7 @@
       </c>
       <c r="E43" s="14" t="str">
         <f>'3M_Futures'!I10</f>
-        <v>USD_YC3MRH_FUT3MQ4#0008</v>
+        <v>USD_YC3MRH_FUT3MQ4#0002</v>
       </c>
       <c r="F43" s="28">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4376,18 +4368,18 @@
       </c>
       <c r="E44" s="14" t="str">
         <f>'3M_Futures'!I11</f>
-        <v>USD_YC3MRH_FUT3MU4#0008</v>
-      </c>
-      <c r="F44" s="28" t="e">
+        <v>USD_YC3MRH_FUT3MU4#0002</v>
+      </c>
+      <c r="F44" s="28">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G44" s="13" t="e">
+        <v>99.647499999999994</v>
+      </c>
+      <c r="G44" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H44" s="181" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H44" s="12" t="b">
+        <v>1</v>
       </c>
       <c r="I44" s="12">
         <v>60</v>
@@ -4421,7 +4413,7 @@
       </c>
       <c r="E45" s="14" t="str">
         <f>'3M_Futures'!I12</f>
-        <v>USD_YC3MRH_FUT3MV4#0008</v>
+        <v>USD_YC3MRH_FUT3MV4#0002</v>
       </c>
       <c r="F45" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4431,8 +4423,8 @@
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="H45" s="181" t="b">
-        <v>0</v>
+      <c r="H45" s="12" t="b">
+        <v>1</v>
       </c>
       <c r="I45" s="12">
         <v>60</v>
@@ -4466,7 +4458,7 @@
       </c>
       <c r="E46" s="14" t="str">
         <f>'3M_Futures'!I13</f>
-        <v>USD_YC3MRH_FUT3MX4#0008</v>
+        <v>USD_YC3MRH_FUT3MX4#0002</v>
       </c>
       <c r="F46" s="28">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4511,18 +4503,18 @@
       </c>
       <c r="E47" s="14" t="str">
         <f>'3M_Futures'!I14</f>
-        <v>USD_YC3MRH_FUT3MZ4#0008</v>
-      </c>
-      <c r="F47" s="28" t="e">
+        <v>USD_YC3MRH_FUT3MZ4#0002</v>
+      </c>
+      <c r="F47" s="28">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G47" s="13" t="e">
+        <v>99.5625</v>
+      </c>
+      <c r="G47" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H47" s="181" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H47" s="12" t="b">
+        <v>1</v>
       </c>
       <c r="I47" s="12">
         <v>60</v>
@@ -4556,11 +4548,11 @@
       </c>
       <c r="E48" s="14" t="str">
         <f>'3M_Futures'!I15</f>
-        <v>USD_YC3MRH_FUT3MH5#0008</v>
+        <v>USD_YC3MRH_FUT3MH5#0002</v>
       </c>
       <c r="F48" s="28">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>99.537499999999994</v>
+        <v>99.4375</v>
       </c>
       <c r="G48" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
@@ -4601,11 +4593,11 @@
       </c>
       <c r="E49" s="14" t="str">
         <f>'3M_Futures'!I16</f>
-        <v>USD_YC3MRH_FUT3MM5#0008</v>
+        <v>USD_YC3MRH_FUT3MM5#0002</v>
       </c>
       <c r="F49" s="28">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>99.4375</v>
+        <v>99.272499999999994</v>
       </c>
       <c r="G49" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E49,Trigger)</f>
@@ -4646,11 +4638,11 @@
       </c>
       <c r="E50" s="14" t="str">
         <f>'3M_Futures'!I17</f>
-        <v>USD_YC3MRH_FUT3MU5#0008</v>
+        <v>USD_YC3MRH_FUT3MU5#0002</v>
       </c>
       <c r="F50" s="28">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>99.32</v>
+        <v>99.067499999999995</v>
       </c>
       <c r="G50" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
@@ -4691,11 +4683,11 @@
       </c>
       <c r="E51" s="14" t="str">
         <f>'3M_Futures'!I18</f>
-        <v>USD_YC3MRH_FUT3MZ5#0008</v>
+        <v>USD_YC3MRH_FUT3MZ5#0002</v>
       </c>
       <c r="F51" s="28">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>99.177500000000009</v>
+        <v>98.822500000000005</v>
       </c>
       <c r="G51" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
@@ -4736,11 +4728,11 @@
       </c>
       <c r="E52" s="14" t="str">
         <f>'3M_Futures'!I19</f>
-        <v>USD_YC3MRH_FUT3MH6#0008</v>
+        <v>USD_YC3MRH_FUT3MH6#0002</v>
       </c>
       <c r="F52" s="28">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>98.992500000000007</v>
+        <v>98.537499999999994</v>
       </c>
       <c r="G52" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
@@ -4781,11 +4773,11 @@
       </c>
       <c r="E53" s="14" t="str">
         <f>'3M_Futures'!I20</f>
-        <v>USD_YC3MRH_FUT3MM6#0008</v>
+        <v>USD_YC3MRH_FUT3MM6#0002</v>
       </c>
       <c r="F53" s="28">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>98.775000000000006</v>
+        <v>98.242500000000007</v>
       </c>
       <c r="G53" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
@@ -4826,11 +4818,11 @@
       </c>
       <c r="E54" s="14" t="str">
         <f>'3M_Futures'!I21</f>
-        <v>USD_YC3MRH_FUT3MU6#0008</v>
+        <v>USD_YC3MRH_FUT3MU6#0002</v>
       </c>
       <c r="F54" s="28">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>98.537499999999994</v>
+        <v>97.957499999999996</v>
       </c>
       <c r="G54" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
@@ -4871,11 +4863,11 @@
       </c>
       <c r="E55" s="14" t="str">
         <f>'3M_Futures'!I22</f>
-        <v>USD_YC3MRH_FUT3MZ6#0008</v>
+        <v>USD_YC3MRH_FUT3MZ6#0002</v>
       </c>
       <c r="F55" s="28">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>98.277500000000003</v>
+        <v>97.682500000000005</v>
       </c>
       <c r="G55" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
@@ -4916,11 +4908,11 @@
       </c>
       <c r="E56" s="14" t="str">
         <f>'3M_Futures'!I23</f>
-        <v>USD_YC3MRH_FUT3MH7#0008</v>
+        <v>USD_YC3MRH_FUT3MH7#0002</v>
       </c>
       <c r="F56" s="28">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>98.022500000000008</v>
+        <v>97.432500000000005</v>
       </c>
       <c r="G56" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
@@ -4961,11 +4953,11 @@
       </c>
       <c r="E57" s="14" t="str">
         <f>'3M_Futures'!I24</f>
-        <v>USD_YC3MRH_FUT3MM7#0008</v>
+        <v>USD_YC3MRH_FUT3MM7#0002</v>
       </c>
       <c r="F57" s="28">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>97.792500000000004</v>
+        <v>97.177499999999995</v>
       </c>
       <c r="G57" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
@@ -5006,11 +4998,11 @@
       </c>
       <c r="E58" s="14" t="str">
         <f>'3M_Futures'!I25</f>
-        <v>USD_YC3MRH_FUT3MU7#0008</v>
+        <v>USD_YC3MRH_FUT3MU7#0002</v>
       </c>
       <c r="F58" s="28">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>97.557500000000005</v>
+        <v>96.952500000000001</v>
       </c>
       <c r="G58" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
@@ -5051,11 +5043,11 @@
       </c>
       <c r="E59" s="14" t="str">
         <f>'3M_Futures'!I26</f>
-        <v>USD_YC3MRH_FUT3MZ7#0008</v>
+        <v>USD_YC3MRH_FUT3MZ7#0002</v>
       </c>
       <c r="F59" s="28">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>97.337500000000006</v>
+        <v>96.732500000000002</v>
       </c>
       <c r="G59" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
@@ -5096,11 +5088,11 @@
       </c>
       <c r="E60" s="14" t="str">
         <f>'3M_Futures'!I27</f>
-        <v>USD_YC3MRH_FUT3MH8#0008</v>
+        <v>USD_YC3MRH_FUT3MH8#0002</v>
       </c>
       <c r="F60" s="28">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>97.115000000000009</v>
+        <v>96.542500000000004</v>
       </c>
       <c r="G60" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
@@ -5141,11 +5133,11 @@
       </c>
       <c r="E61" s="14" t="str">
         <f>'3M_Futures'!I28</f>
-        <v>USD_YC3MRH_FUT3MM8#0008</v>
+        <v>USD_YC3MRH_FUT3MM8#0002</v>
       </c>
       <c r="F61" s="28">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>96.927500000000009</v>
+        <v>96.364999999999995</v>
       </c>
       <c r="G61" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E61,Trigger)</f>
@@ -5186,11 +5178,11 @@
       </c>
       <c r="E62" s="14" t="str">
         <f>'3M_Futures'!I29</f>
-        <v>USD_YC3MRH_FUT3MU8#0008</v>
+        <v>USD_YC3MRH_FUT3MU8#0002</v>
       </c>
       <c r="F62" s="28">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>96.747500000000002</v>
+        <v>96.202500000000001</v>
       </c>
       <c r="G62" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E62,Trigger)</f>
@@ -5231,11 +5223,11 @@
       </c>
       <c r="E63" s="14" t="str">
         <f>'3M_Futures'!I30</f>
-        <v>USD_YC3MRH_FUT3MZ8#0008</v>
+        <v>USD_YC3MRH_FUT3MZ8#0002</v>
       </c>
       <c r="F63" s="28">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>96.587500000000006</v>
+        <v>96.052499999999995</v>
       </c>
       <c r="G63" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E63,Trigger)</f>
@@ -5276,11 +5268,11 @@
       </c>
       <c r="E64" s="14" t="str">
         <f>'3M_Futures'!I31</f>
-        <v>USD_YC3MRH_FUT3MH9#0008</v>
+        <v>USD_YC3MRH_FUT3MH9#0002</v>
       </c>
       <c r="F64" s="28">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>96.4375</v>
+        <v>95.93</v>
       </c>
       <c r="G64" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E64,Trigger)</f>
@@ -5321,11 +5313,11 @@
       </c>
       <c r="E65" s="14" t="str">
         <f>'3M_Futures'!I32</f>
-        <v>USD_YC3MRH_FUT3MM9#0008</v>
+        <v>USD_YC3MRH_FUT3MM9#0002</v>
       </c>
       <c r="F65" s="28">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>96.31</v>
+        <v>95.814999999999998</v>
       </c>
       <c r="G65" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E65,Trigger)</f>
@@ -5366,11 +5358,11 @@
       </c>
       <c r="E66" s="14" t="str">
         <f>'3M_Futures'!I33</f>
-        <v>USD_YC3MRH_FUT3MU9#0008</v>
+        <v>USD_YC3MRH_FUT3MU9#0002</v>
       </c>
       <c r="F66" s="28">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>96.192499999999995</v>
+        <v>95.704999999999998</v>
       </c>
       <c r="G66" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E66,Trigger)</f>
@@ -5411,11 +5403,11 @@
       </c>
       <c r="E67" s="14" t="str">
         <f>'3M_Futures'!I34</f>
-        <v>USD_YC3MRH_FUT3MZ9#0008</v>
+        <v>USD_YC3MRH_FUT3MZ9#0002</v>
       </c>
       <c r="F67" s="28">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>96.082499999999996</v>
+        <v>95.602500000000006</v>
       </c>
       <c r="G67" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E67,Trigger)</f>
@@ -5456,11 +5448,11 @@
       </c>
       <c r="E68" s="14" t="str">
         <f>'3M_Futures'!I35</f>
-        <v>USD_YC3MRH_FUT3MH0#0008</v>
+        <v>USD_YC3MRH_FUT3MH0#0002</v>
       </c>
       <c r="F68" s="28">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>95.97999999999999</v>
+        <v>95.525000000000006</v>
       </c>
       <c r="G68" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E68,Trigger)</f>
@@ -5501,11 +5493,11 @@
       </c>
       <c r="E69" s="14" t="str">
         <f>'3M_Futures'!I36</f>
-        <v>USD_YC3MRH_FUT3MM0#0008</v>
+        <v>USD_YC3MRH_FUT3MM0#0002</v>
       </c>
       <c r="F69" s="28">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>95.9</v>
+        <v>95.452500000000001</v>
       </c>
       <c r="G69" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E69,Trigger)</f>
@@ -5546,11 +5538,11 @@
       </c>
       <c r="E70" s="14" t="str">
         <f>'3M_Futures'!I37</f>
-        <v>USD_YC3MRH_FUT3MU0#0008</v>
+        <v>USD_YC3MRH_FUT3MU0#0002</v>
       </c>
       <c r="F70" s="28">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
-        <v>95.822499999999991</v>
+        <v>95.385000000000005</v>
       </c>
       <c r="G70" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E70,Trigger)</f>
@@ -5591,11 +5583,11 @@
       </c>
       <c r="E71" s="14" t="str">
         <f>'3M_Futures'!I38</f>
-        <v>USD_YC3MRH_FUT3MZ0#0008</v>
+        <v>USD_YC3MRH_FUT3MZ0#0002</v>
       </c>
       <c r="F71" s="28">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
-        <v>95.754999999999995</v>
+        <v>95.317499999999995</v>
       </c>
       <c r="G71" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E71,Trigger)</f>
@@ -5636,11 +5628,11 @@
       </c>
       <c r="E72" s="14" t="str">
         <f>'3M_Futures'!I39</f>
-        <v>USD_YC3MRH_FUT3MH1#0008</v>
+        <v>USD_YC3MRH_FUT3MH1#0002</v>
       </c>
       <c r="F72" s="28">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
-        <v>95.69</v>
+        <v>95.277500000000003</v>
       </c>
       <c r="G72" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E72,Trigger)</f>
@@ -5681,11 +5673,11 @@
       </c>
       <c r="E73" s="14" t="str">
         <f>'3M_Futures'!I40</f>
-        <v>USD_YC3MRH_FUT3MM1#0008</v>
+        <v>USD_YC3MRH_FUT3MM1#0002</v>
       </c>
       <c r="F73" s="28">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
-        <v>95.657499999999999</v>
+        <v>95.224999999999994</v>
       </c>
       <c r="G73" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E73,Trigger)</f>
@@ -5726,11 +5718,11 @@
       </c>
       <c r="E74" s="14" t="str">
         <f>'3M_Futures'!I41</f>
-        <v>USD_YC3MRH_FUT3MU1#0008</v>
+        <v>USD_YC3MRH_FUT3MU1#0002</v>
       </c>
       <c r="F74" s="28">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
-        <v>95.594999999999999</v>
+        <v>95.192499999999995</v>
       </c>
       <c r="G74" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E74,Trigger)</f>
@@ -5771,11 +5763,11 @@
       </c>
       <c r="E75" s="14" t="str">
         <f>'3M_Futures'!I42</f>
-        <v>USD_YC3MRH_FUT3MZ1#0008</v>
+        <v>USD_YC3MRH_FUT3MZ1#0002</v>
       </c>
       <c r="F75" s="28">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
-        <v>95.6</v>
+        <v>95.137500000000003</v>
       </c>
       <c r="G75" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E75,Trigger)</f>
@@ -5816,11 +5808,11 @@
       </c>
       <c r="E76" s="14" t="str">
         <f>'3M_Futures'!I43</f>
-        <v>USD_YC3MRH_FUT3MH2#0008</v>
+        <v>USD_YC3MRH_FUT3MH2#0002</v>
       </c>
       <c r="F76" s="28">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
-        <v>95.555000000000007</v>
+        <v>95.117500000000007</v>
       </c>
       <c r="G76" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E76,Trigger)</f>
@@ -5861,11 +5853,11 @@
       </c>
       <c r="E77" s="7" t="str">
         <f>'3M_Futures'!I44</f>
-        <v>USD_YC3MRH_FUT3MM2#0008</v>
+        <v>USD_YC3MRH_FUT3MM2#0002</v>
       </c>
       <c r="F77" s="27">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
-        <v>95.504999999999995</v>
+        <v>95.092500000000001</v>
       </c>
       <c r="G77" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E77,Trigger)</f>
@@ -9872,10 +9864,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="195" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="186"/>
+      <c r="B1" s="196"/>
       <c r="D1" s="52" t="s">
         <v>83</v>
       </c>
@@ -9889,9 +9881,9 @@
       <c r="H1" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="32" t="e">
+      <c r="I1" s="32">
         <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>#NUM!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -9921,14 +9913,14 @@
         <f>_xll.qlRateHelperLatestDate($D2)</f>
         <v>41663</v>
       </c>
-      <c r="I2" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I2" s="32">
+        <v>0.99994927201790285</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>117</v>
       </c>
       <c r="L2" s="26">
-        <v>2.6090000000000002E-3</v>
+        <v>2.3E-3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -9957,14 +9949,14 @@
         <f>_xll.qlRateHelperLatestDate($D3)</f>
         <v>41687</v>
       </c>
-      <c r="I3" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I3" s="32">
+        <v>0.99977762446172591</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>118</v>
       </c>
       <c r="L3" s="26">
-        <v>2.5829999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -9993,14 +9985,14 @@
         <f>_xll.qlRateHelperLatestDate($D4)</f>
         <v>41715</v>
       </c>
-      <c r="I4" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I4" s="32">
+        <v>0.99957357913449107</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L4" s="26">
-        <v>2.6029999999999998E-3</v>
+        <v>2.3189999999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -10029,14 +10021,14 @@
         <f>_xll.qlRateHelperLatestDate($D5)</f>
         <v>41746</v>
       </c>
-      <c r="I5" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I5" s="32">
+        <v>0.99933494259570266</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>120</v>
       </c>
       <c r="L5" s="26">
-        <v>2.6619999999999999E-3</v>
+        <v>2.379E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -10052,7 +10044,7 @@
       </c>
       <c r="E6" s="39">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>2.5249999999999995E-3</v>
+        <v>2.4500000000000632E-3</v>
       </c>
       <c r="F6" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -10066,20 +10058,20 @@
         <f>_xll.qlRateHelperLatestDate($D6)</f>
         <v>41778</v>
       </c>
-      <c r="I6" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I6" s="32">
+        <v>0.99915833011755029</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>121</v>
       </c>
       <c r="L6" s="26">
-        <v>2.9250000000000001E-3</v>
+        <v>2.4499999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_RateHelpersSelected#0008</v>
+        <v>USD_YC3MRH_RateHelpersSelected#0002</v>
       </c>
       <c r="B7" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -10090,7 +10082,7 @@
       </c>
       <c r="E7" s="39">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>2.6249999999999885E-3</v>
+        <v>2.5249999999999995E-3</v>
       </c>
       <c r="F7" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -10104,14 +10096,14 @@
         <f>_xll.qlRateHelperLatestDate($D7)</f>
         <v>41809</v>
       </c>
-      <c r="I7" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I7" s="32">
+        <v>0.99891317048737271</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>122</v>
       </c>
       <c r="L7" s="26">
-        <v>3.0249999999999999E-3</v>
+        <v>2.5249999999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -10120,7 +10112,7 @@
       </c>
       <c r="E8" s="39">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>3.0500000000001082E-3</v>
+        <v>2.9250000000000664E-3</v>
       </c>
       <c r="F8" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -10134,23 +10126,23 @@
         <f>_xll.qlRateHelperLatestDate($D8)</f>
         <v>41900</v>
       </c>
-      <c r="I8" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I8" s="32">
+        <v>0.9981755145508362</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>123</v>
       </c>
       <c r="L8" s="26">
-        <v>3.4499999999999999E-3</v>
+        <v>2.9250000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="40" t="str">
-        <v>USD_YC3MRH_FUT3MH5</v>
+        <v>USD_YC3MRH_FUT3MU4</v>
       </c>
       <c r="E9" s="39">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>4.6250000000001013E-3</v>
+        <v>3.5250000000001114E-3</v>
       </c>
       <c r="F9" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -10158,29 +10150,29 @@
       </c>
       <c r="G9" s="38">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42081</v>
+        <v>41899</v>
       </c>
       <c r="H9" s="37">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42173</v>
-      </c>
-      <c r="I9" s="32" t="e">
-        <v>#NUM!</v>
+        <v>41990</v>
+      </c>
+      <c r="I9" s="32">
+        <v>0.99729544837494244</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="L9" s="26">
-        <v>5.1250000000000002E-3</v>
+        <v>3.5249999999999999E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="40" t="str">
-        <v>USD_YC3MRH_FUT3MM5</v>
+        <v>USD_YC3MRH_FUT3MZ4</v>
       </c>
       <c r="E10" s="39">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>5.6249999999999911E-3</v>
+        <v>4.3750000000000178E-3</v>
       </c>
       <c r="F10" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -10188,29 +10180,29 @@
       </c>
       <c r="G10" s="38">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42172</v>
+        <v>41990</v>
       </c>
       <c r="H10" s="37">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42264</v>
-      </c>
-      <c r="I10" s="32" t="e">
-        <v>#NUM!</v>
+        <v>42080</v>
+      </c>
+      <c r="I10" s="32">
+        <v>0.99620584822785907</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="L10" s="26">
-        <v>6.025E-3</v>
+        <v>4.3750000000000004E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="40" t="str">
-        <v>USD_YC3MRH_FUT3MU5</v>
+        <v>USD_YC3MRH_FUT3MH5</v>
       </c>
       <c r="E11" s="39">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>6.8000000000000282E-3</v>
+        <v>5.6249999999999911E-3</v>
       </c>
       <c r="F11" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -10218,30 +10210,30 @@
       </c>
       <c r="G11" s="38">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42263</v>
+        <v>42081</v>
       </c>
       <c r="H11" s="37">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42354</v>
-      </c>
-      <c r="I11" s="32" t="e">
-        <v>#NUM!</v>
+        <v>42173</v>
+      </c>
+      <c r="I11" s="32">
+        <v>0.99476230831010515</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L11" s="26">
-        <v>7.2249999999999997E-3</v>
+        <v>5.6249999999999998E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="41"/>
       <c r="D12" s="40" t="str">
-        <v>USD_YC3MRH_FUT3MZ5</v>
+        <v>USD_YC3MRH_FUT3MM5</v>
       </c>
       <c r="E12" s="39">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>8.2249999999999268E-3</v>
+        <v>7.2750000000000314E-3</v>
       </c>
       <c r="F12" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -10249,30 +10241,30 @@
       </c>
       <c r="G12" s="38">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42354</v>
+        <v>42172</v>
       </c>
       <c r="H12" s="37">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42445</v>
-      </c>
-      <c r="I12" s="32" t="e">
-        <v>#NUM!</v>
+        <v>42264</v>
+      </c>
+      <c r="I12" s="32">
+        <v>0.99293399850867159</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L12" s="26">
-        <v>8.8749999999999992E-3</v>
+        <v>7.2750000000000002E-3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="41"/>
       <c r="D13" s="40" t="str">
-        <v>USD_YC3MRH_FUT3MH6</v>
+        <v>USD_YC3MRH_FUT3MU5</v>
       </c>
       <c r="E13" s="39">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>1.0074999999999945E-2</v>
+        <v>9.3250000000000277E-3</v>
       </c>
       <c r="F13" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10280,29 +10272,29 @@
       </c>
       <c r="G13" s="38">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42445</v>
+        <v>42263</v>
       </c>
       <c r="H13" s="37">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42537</v>
-      </c>
-      <c r="I13" s="32" t="e">
-        <v>#NUM!</v>
+        <v>42354</v>
+      </c>
+      <c r="I13" s="32">
+        <v>0.99062128528333759</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L13" s="26">
-        <v>1.0925000000000001E-2</v>
+        <v>9.325E-3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="40" t="str">
-        <v>USD_YC3MRH_FUT3MM6</v>
+        <v>USD_YC3MRH_FUT3MZ5</v>
       </c>
       <c r="E14" s="39">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>1.2249999999999983E-2</v>
+        <v>1.177499999999998E-2</v>
       </c>
       <c r="F14" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10310,20 +10302,20 @@
       </c>
       <c r="G14" s="38">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42536</v>
+        <v>42354</v>
       </c>
       <c r="H14" s="37">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42628</v>
-      </c>
-      <c r="I14" s="32" t="e">
-        <v>#NUM!</v>
+        <v>42445</v>
+      </c>
+      <c r="I14" s="32">
+        <v>0.98768149247438308</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L14" s="26">
-        <v>1.325E-2</v>
+        <v>1.1775000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -10346,14 +10338,14 @@
         <f>_xll.qlRateHelperLatestDate($D15)</f>
         <v>42752</v>
       </c>
-      <c r="I15" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I15" s="32">
+        <v>0.97941235424936446</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L15" s="26">
-        <v>7.4000000000000003E-3</v>
+        <v>8.9599999999999992E-3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -10376,14 +10368,14 @@
         <f>_xll.qlRateHelperLatestDate($D16)</f>
         <v>43117</v>
       </c>
-      <c r="I16" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I16" s="32">
+        <v>0.95866816110103537</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L16" s="26">
-        <v>1.0999999999999999E-2</v>
+        <v>1.34E-2</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
@@ -10406,14 +10398,14 @@
         <f>_xll.qlRateHelperLatestDate($D17)</f>
         <v>43482</v>
       </c>
-      <c r="I17" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I17" s="32">
+        <v>0.93103821166076683</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L17" s="26">
-        <v>1.469E-2</v>
+        <v>1.753E-2</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.2">
@@ -10436,14 +10428,14 @@
         <f>_xll.qlRateHelperLatestDate($D18)</f>
         <v>43847</v>
       </c>
-      <c r="I18" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I18" s="32">
+        <v>0.89901397807918926</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L18" s="26">
-        <v>1.7999999999999999E-2</v>
+        <v>2.102E-2</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.2">
@@ -10466,14 +10458,14 @@
         <f>_xll.qlRateHelperLatestDate($D19)</f>
         <v>44214</v>
       </c>
-      <c r="I19" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I19" s="32">
+        <v>0.86507764264036835</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L19" s="26">
-        <v>2.0830000000000001E-2</v>
+        <v>2.3900000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.2">
@@ -10496,14 +10488,14 @@
         <f>_xll.qlRateHelperLatestDate($D20)</f>
         <v>44578</v>
       </c>
-      <c r="I20" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I20" s="32">
+        <v>0.83060121832712586</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L20" s="26">
-        <v>2.3140000000000001E-2</v>
+        <v>2.6210000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.2">
@@ -10526,14 +10518,14 @@
         <f>_xll.qlRateHelperLatestDate($D21)</f>
         <v>44943</v>
       </c>
-      <c r="I21" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I21" s="32">
+        <v>0.79611466210360604</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L21" s="26">
-        <v>2.5100000000000001E-2</v>
+        <v>2.8119999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.2">
@@ -10556,14 +10548,14 @@
         <f>_xll.qlRateHelperLatestDate($D22)</f>
         <v>45308</v>
       </c>
-      <c r="I22" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I22" s="32">
+        <v>0.76220240340897372</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L22" s="26">
-        <v>2.6790000000000001E-2</v>
+        <v>2.9729999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.2">
@@ -10586,14 +10578,14 @@
         <f>_xll.qlRateHelperLatestDate($D23)</f>
         <v>46041</v>
       </c>
-      <c r="I23" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I23" s="32">
+        <v>0.69638680537343678</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L23" s="26">
-        <v>2.947E-2</v>
+        <v>3.2219999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
@@ -10616,14 +10608,14 @@
         <f>_xll.qlRateHelperLatestDate($D24)</f>
         <v>47135</v>
       </c>
-      <c r="I24" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I24" s="32">
+        <v>0.60846810768332271</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L24" s="26">
-        <v>3.2009999999999997E-2</v>
+        <v>3.4599999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.2">
@@ -10646,14 +10638,14 @@
         <f>_xll.qlRateHelperLatestDate($D25)</f>
         <v>48961</v>
       </c>
-      <c r="I25" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I25" s="32">
+        <v>0.48956523304713978</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L25" s="26">
-        <v>3.4000000000000002E-2</v>
+        <v>3.6569999999999998E-2</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.2">
@@ -10676,14 +10668,14 @@
         <f>_xll.qlRateHelperLatestDate($D26)</f>
         <v>50787</v>
       </c>
-      <c r="I26" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I26" s="32">
+        <v>0.39662795867057987</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L26" s="26">
-        <v>3.4959999999999998E-2</v>
+        <v>3.7470000000000003E-2</v>
       </c>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.2">
@@ -10706,14 +10698,14 @@
         <f>_xll.qlRateHelperLatestDate($D27)</f>
         <v>52614</v>
       </c>
-      <c r="I27" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I27" s="32">
+        <v>0.32340521637732628</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L27" s="26">
-        <v>3.5490000000000001E-2</v>
+        <v>3.7940000000000002E-2</v>
       </c>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.2">
@@ -10736,14 +10728,14 @@
         <f>_xll.qlRateHelperLatestDate($D28)</f>
         <v>56268</v>
       </c>
-      <c r="I28" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I28" s="32">
+        <v>0.2252585858919666</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L28" s="26">
-        <v>3.5619999999999999E-2</v>
+        <v>3.814E-2</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.2">
@@ -10766,14 +10758,14 @@
         <f>_xll.qlRateHelperLatestDate($D29)</f>
         <v>59918</v>
       </c>
-      <c r="I29" s="32" t="e">
-        <v>#NUM!</v>
+      <c r="I29" s="32">
+        <v>0.16094323852142145</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L29" s="26">
-        <v>3.5459999999999998E-2</v>
+        <v>3.7960000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.2">
@@ -10797,7 +10789,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I30" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.2">
@@ -10821,7 +10813,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I31" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.2">
@@ -10845,7 +10837,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I32" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
@@ -10869,7 +10861,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I33" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.2">
@@ -10893,7 +10885,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I34" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.2">
@@ -10917,7 +10909,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I35" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.2">
@@ -10941,7 +10933,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I36" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.2">
@@ -10965,7 +10957,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I37" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.2">
@@ -10989,7 +10981,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I38" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
@@ -11013,7 +11005,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I39" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.2">
@@ -11037,7 +11029,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I40" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.2">
@@ -11061,7 +11053,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I41" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.2">
@@ -11085,7 +11077,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I42" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
@@ -11109,7 +11101,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I43" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.2">
@@ -11133,7 +11125,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I44" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.2">
@@ -11157,7 +11149,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I45" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.2">
@@ -11181,7 +11173,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I46" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.2">
@@ -11205,7 +11197,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I47" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.2">
@@ -11229,7 +11221,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I48" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.2">
@@ -11253,7 +11245,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I49" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.2">
@@ -11277,7 +11269,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I50" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.2">
@@ -11301,7 +11293,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I51" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.2">
@@ -11325,7 +11317,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I52" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.2">
@@ -11349,7 +11341,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I53" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.2">
@@ -11373,7 +11365,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I54" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.2">
@@ -11397,7 +11389,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I55" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.2">
@@ -11421,7 +11413,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I56" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.2">
@@ -11445,7 +11437,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I57" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.2">
@@ -11469,7 +11461,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I58" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.2">
@@ -11493,7 +11485,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I59" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.2">
@@ -11517,7 +11509,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I60" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.2">
@@ -11541,7 +11533,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I61" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.2">
@@ -11565,7 +11557,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I62" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.2">
@@ -11589,7 +11581,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I63" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.2">
@@ -11613,7 +11605,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I64" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.2">
@@ -11637,7 +11629,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I65" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.2">
@@ -11661,7 +11653,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I66" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.2">
@@ -11685,7 +11677,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I67" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.2">
@@ -11709,7 +11701,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I68" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.2">
@@ -11733,7 +11725,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I69" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.2">
@@ -11757,7 +11749,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I70" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.2">
@@ -11781,7 +11773,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I71" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.2">
@@ -11805,7 +11797,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I72" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.2">
@@ -11829,7 +11821,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I73" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.2">
@@ -11853,7 +11845,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I74" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.2">
@@ -11877,7 +11869,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I75" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.2">
@@ -11901,7 +11893,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I76" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.2">
@@ -11925,7 +11917,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I77" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.2">
@@ -11949,7 +11941,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I78" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.2">
@@ -11973,7 +11965,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I79" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.2">
@@ -11997,7 +11989,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.2">
@@ -12021,7 +12013,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I81" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.2">
@@ -12045,7 +12037,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I82" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.2">
@@ -12069,7 +12061,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I83" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.2">
@@ -12093,7 +12085,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I84" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.2">
@@ -12117,7 +12109,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I85" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.2">
@@ -12141,7 +12133,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I86" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.2">
@@ -12165,7 +12157,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I87" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.2">
@@ -12189,7 +12181,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I88" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.2">
@@ -12213,7 +12205,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I89" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.2">
@@ -12237,7 +12229,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I90" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.2">
@@ -12261,7 +12253,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I91" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.2">
@@ -12285,7 +12277,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I92" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.2">
@@ -12309,7 +12301,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I93" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.2">
@@ -12333,7 +12325,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I94" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.2">
@@ -12357,7 +12349,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I95" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.2">
@@ -12381,7 +12373,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I96" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.2">
@@ -12405,7 +12397,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I97" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.2">
@@ -12429,7 +12421,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I98" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.2">
@@ -12453,7 +12445,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I99" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.2">
@@ -12477,7 +12469,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I100" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.2">
@@ -12501,7 +12493,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I101" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="4:9" x14ac:dyDescent="0.2">
@@ -12525,7 +12517,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I102" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="4:9" x14ac:dyDescent="0.2">
@@ -12549,7 +12541,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I103" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="4:9" x14ac:dyDescent="0.2">
@@ -12573,7 +12565,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I104" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.2">
@@ -12597,7 +12589,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I105" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="4:9" x14ac:dyDescent="0.2">
@@ -12621,7 +12613,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I106" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="4:9" x14ac:dyDescent="0.2">
@@ -12645,7 +12637,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I107" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="4:9" x14ac:dyDescent="0.2">
@@ -12669,7 +12661,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I108" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="4:9" x14ac:dyDescent="0.2">
@@ -12693,7 +12685,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I109" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.2">
@@ -12717,7 +12709,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I110" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="4:9" x14ac:dyDescent="0.2">
@@ -12741,7 +12733,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I111" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.2">
@@ -12765,7 +12757,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I112" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="4:9" x14ac:dyDescent="0.2">
@@ -12789,7 +12781,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I113" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="4:9" x14ac:dyDescent="0.2">
@@ -12813,7 +12805,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I114" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="4:9" x14ac:dyDescent="0.2">
@@ -12837,7 +12829,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I115" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="4:9" x14ac:dyDescent="0.2">
@@ -12861,7 +12853,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I116" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="4:9" x14ac:dyDescent="0.2">
@@ -12885,7 +12877,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I117" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="4:9" x14ac:dyDescent="0.2">
@@ -12909,7 +12901,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I118" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="4:9" x14ac:dyDescent="0.2">
@@ -12933,7 +12925,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I119" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="4:9" x14ac:dyDescent="0.2">
@@ -12957,7 +12949,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I120" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="4:9" x14ac:dyDescent="0.2">
@@ -12981,7 +12973,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I121" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="4:9" x14ac:dyDescent="0.2">
@@ -13005,7 +12997,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I122" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="4:9" x14ac:dyDescent="0.2">
@@ -13029,7 +13021,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I123" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.2">
@@ -13053,7 +13045,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I124" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.2">
@@ -13077,7 +13069,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I125" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="4:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -13101,7 +13093,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="I126" s="32" t="e">
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -13125,9 +13117,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13144,12 +13134,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
       <c r="D1" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E1" s="110" t="str">
         <f>Currency&amp;"_YC"&amp;$D$1&amp;"RH"</f>
@@ -13163,10 +13153,10 @@
       <c r="A2" s="101"/>
       <c r="B2" s="108"/>
       <c r="C2" s="108" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D2" s="108" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" s="107" t="str">
         <f>$E$1&amp;"_Deposits.xml"</f>
@@ -13185,7 +13175,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="101"/>
       <c r="B3" s="104" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" s="103"/>
       <c r="D3" s="98" t="str">
@@ -13198,7 +13188,7 @@
       </c>
       <c r="F3" s="102" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_SND#0008</v>
+        <v>USD_YC3MRH_SND#0002</v>
       </c>
       <c r="G3" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13209,7 +13199,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="101"/>
       <c r="B4" s="100" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="99" t="str">
         <f t="shared" ref="C4:C9" si="2">PROPER(Currency)&amp;FamilyName&amp;$B4</f>
@@ -13225,7 +13215,7 @@
       </c>
       <c r="F4" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_SWD#0008</v>
+        <v>USD_YC3MRH_SWD#0002</v>
       </c>
       <c r="G4" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13236,7 +13226,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="101"/>
       <c r="B5" s="100" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" s="99" t="str">
         <f t="shared" si="2"/>
@@ -13252,7 +13242,7 @@
       </c>
       <c r="F5" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_2WD#0008</v>
+        <v>USD_YC3MRH_2WD#0002</v>
       </c>
       <c r="G5" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13263,7 +13253,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="101"/>
       <c r="B6" s="100" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C6" s="99" t="str">
         <f t="shared" si="2"/>
@@ -13279,7 +13269,7 @@
       </c>
       <c r="F6" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_3WD#0008</v>
+        <v>USD_YC3MRH_3WD#0002</v>
       </c>
       <c r="G6" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13290,7 +13280,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="101"/>
       <c r="B7" s="100" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="99" t="str">
         <f t="shared" si="2"/>
@@ -13306,7 +13296,7 @@
       </c>
       <c r="F7" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_1MD#0008</v>
+        <v>USD_YC3MRH_1MD#0002</v>
       </c>
       <c r="G7" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13317,7 +13307,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="101"/>
       <c r="B8" s="100" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="99" t="str">
         <f t="shared" si="2"/>
@@ -13333,7 +13323,7 @@
       </c>
       <c r="F8" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_2MD#0008</v>
+        <v>USD_YC3MRH_2MD#0002</v>
       </c>
       <c r="G8" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13344,7 +13334,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="101"/>
       <c r="B9" s="100" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" s="99" t="str">
         <f t="shared" si="2"/>
@@ -13360,7 +13350,7 @@
       </c>
       <c r="F9" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_3MD#0008</v>
+        <v>USD_YC3MRH_3MD#0002</v>
       </c>
       <c r="G9" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13391,7 +13381,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M4" sqref="M4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13412,13 +13402,13 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="144" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B1" s="148"/>
       <c r="C1" s="148"/>
       <c r="D1" s="148"/>
       <c r="E1" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F1" s="147"/>
       <c r="G1" s="147"/>
@@ -13434,22 +13424,22 @@
     <row r="2" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="144"/>
       <c r="B2" s="104" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" s="108" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" s="143" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E2" s="108" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F2" s="108" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G2" s="104" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H2" s="107" t="str">
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
@@ -13495,7 +13485,7 @@
       </c>
       <c r="I3" s="141" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MF4#0008</v>
+        <v>USD_YC3MRH_FUT3MF4#0002</v>
       </c>
       <c r="J3" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13533,7 +13523,7 @@
       </c>
       <c r="I4" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MG4#0008</v>
+        <v>USD_YC3MRH_FUT3MG4#0002</v>
       </c>
       <c r="J4" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13543,7 +13533,7 @@
       <c r="L4" s="139"/>
       <c r="M4" s="90">
         <f>_xll.qlQuoteValue(F4)</f>
-        <v>99.747500000000002</v>
+        <v>99.754999999999995</v>
       </c>
       <c r="N4" s="90">
         <f>_xll.qlQuoteValue(G4)</f>
@@ -13551,7 +13541,7 @@
       </c>
       <c r="O4" s="90">
         <f>_xll.qlRateHelperRate(I4)</f>
-        <v>2.5249999999999995E-3</v>
+        <v>2.4500000000000632E-3</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -13583,7 +13573,7 @@
       </c>
       <c r="I5" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH4#0008</v>
+        <v>USD_YC3MRH_FUT3MH4#0002</v>
       </c>
       <c r="J5" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13621,7 +13611,7 @@
       </c>
       <c r="I6" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MJ4#0008</v>
+        <v>USD_YC3MRH_FUT3MJ4#0002</v>
       </c>
       <c r="J6" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13659,7 +13649,7 @@
       </c>
       <c r="I7" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MK4#0008</v>
+        <v>USD_YC3MRH_FUT3MK4#0002</v>
       </c>
       <c r="J7" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13697,7 +13687,7 @@
       </c>
       <c r="I8" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM4#0008</v>
+        <v>USD_YC3MRH_FUT3MM4#0002</v>
       </c>
       <c r="J8" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13735,7 +13725,7 @@
       </c>
       <c r="I9" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MN4#0008</v>
+        <v>USD_YC3MRH_FUT3MN4#0002</v>
       </c>
       <c r="J9" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -13773,7 +13763,7 @@
       </c>
       <c r="I10" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MQ4#0008</v>
+        <v>USD_YC3MRH_FUT3MQ4#0002</v>
       </c>
       <c r="J10" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -13811,7 +13801,7 @@
       </c>
       <c r="I11" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU4#0008</v>
+        <v>USD_YC3MRH_FUT3MU4#0002</v>
       </c>
       <c r="J11" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -13819,17 +13809,17 @@
       </c>
       <c r="K11" s="94"/>
       <c r="L11" s="139"/>
-      <c r="M11" s="90" t="e">
+      <c r="M11" s="90">
         <f>_xll.qlQuoteValue(F11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N11" s="90" t="e">
+        <v>99.647499999999994</v>
+      </c>
+      <c r="N11" s="90">
         <f>_xll.qlQuoteValue(G11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="O11" s="90" t="e">
+        <v>0</v>
+      </c>
+      <c r="O11" s="90">
         <f>_xll.qlRateHelperRate(I11)</f>
-        <v>#NUM!</v>
+        <v>3.5250000000001114E-3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -13861,7 +13851,7 @@
       </c>
       <c r="I12" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MV4#0008</v>
+        <v>USD_YC3MRH_FUT3MV4#0002</v>
       </c>
       <c r="J12" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -13899,7 +13889,7 @@
       </c>
       <c r="I13" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MX4#0008</v>
+        <v>USD_YC3MRH_FUT3MX4#0002</v>
       </c>
       <c r="J13" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -13937,7 +13927,7 @@
       </c>
       <c r="I14" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ4#0008</v>
+        <v>USD_YC3MRH_FUT3MZ4#0002</v>
       </c>
       <c r="J14" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -13975,7 +13965,7 @@
       </c>
       <c r="I15" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH5#0008</v>
+        <v>USD_YC3MRH_FUT3MH5#0002</v>
       </c>
       <c r="J15" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -14013,7 +14003,7 @@
       </c>
       <c r="I16" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM5#0008</v>
+        <v>USD_YC3MRH_FUT3MM5#0002</v>
       </c>
       <c r="J16" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -14051,7 +14041,7 @@
       </c>
       <c r="I17" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU5#0008</v>
+        <v>USD_YC3MRH_FUT3MU5#0002</v>
       </c>
       <c r="J17" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -14089,7 +14079,7 @@
       </c>
       <c r="I18" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ5#0008</v>
+        <v>USD_YC3MRH_FUT3MZ5#0002</v>
       </c>
       <c r="J18" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -14127,7 +14117,7 @@
       </c>
       <c r="I19" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH6#0008</v>
+        <v>USD_YC3MRH_FUT3MH6#0002</v>
       </c>
       <c r="J19" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -14165,7 +14155,7 @@
       </c>
       <c r="I20" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM6#0008</v>
+        <v>USD_YC3MRH_FUT3MM6#0002</v>
       </c>
       <c r="J20" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -14203,7 +14193,7 @@
       </c>
       <c r="I21" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU6#0008</v>
+        <v>USD_YC3MRH_FUT3MU6#0002</v>
       </c>
       <c r="J21" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -14241,7 +14231,7 @@
       </c>
       <c r="I22" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ6#0008</v>
+        <v>USD_YC3MRH_FUT3MZ6#0002</v>
       </c>
       <c r="J22" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -14279,7 +14269,7 @@
       </c>
       <c r="I23" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH7#0008</v>
+        <v>USD_YC3MRH_FUT3MH7#0002</v>
       </c>
       <c r="J23" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -14317,7 +14307,7 @@
       </c>
       <c r="I24" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM7#0008</v>
+        <v>USD_YC3MRH_FUT3MM7#0002</v>
       </c>
       <c r="J24" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -14355,7 +14345,7 @@
       </c>
       <c r="I25" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU7#0008</v>
+        <v>USD_YC3MRH_FUT3MU7#0002</v>
       </c>
       <c r="J25" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -14393,7 +14383,7 @@
       </c>
       <c r="I26" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ7#0008</v>
+        <v>USD_YC3MRH_FUT3MZ7#0002</v>
       </c>
       <c r="J26" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -14431,7 +14421,7 @@
       </c>
       <c r="I27" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH8#0008</v>
+        <v>USD_YC3MRH_FUT3MH8#0002</v>
       </c>
       <c r="J27" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -14469,7 +14459,7 @@
       </c>
       <c r="I28" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM8#0008</v>
+        <v>USD_YC3MRH_FUT3MM8#0002</v>
       </c>
       <c r="J28" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -14507,7 +14497,7 @@
       </c>
       <c r="I29" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU8#0008</v>
+        <v>USD_YC3MRH_FUT3MU8#0002</v>
       </c>
       <c r="J29" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -14545,7 +14535,7 @@
       </c>
       <c r="I30" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ8#0008</v>
+        <v>USD_YC3MRH_FUT3MZ8#0002</v>
       </c>
       <c r="J30" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -14583,7 +14573,7 @@
       </c>
       <c r="I31" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH9#0008</v>
+        <v>USD_YC3MRH_FUT3MH9#0002</v>
       </c>
       <c r="J31" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -14621,7 +14611,7 @@
       </c>
       <c r="I32" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM9#0008</v>
+        <v>USD_YC3MRH_FUT3MM9#0002</v>
       </c>
       <c r="J32" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -14659,7 +14649,7 @@
       </c>
       <c r="I33" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU9#0008</v>
+        <v>USD_YC3MRH_FUT3MU9#0002</v>
       </c>
       <c r="J33" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -14697,7 +14687,7 @@
       </c>
       <c r="I34" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ9#0008</v>
+        <v>USD_YC3MRH_FUT3MZ9#0002</v>
       </c>
       <c r="J34" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -14735,7 +14725,7 @@
       </c>
       <c r="I35" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH0#0008</v>
+        <v>USD_YC3MRH_FUT3MH0#0002</v>
       </c>
       <c r="J35" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -14773,7 +14763,7 @@
       </c>
       <c r="I36" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM0#0008</v>
+        <v>USD_YC3MRH_FUT3MM0#0002</v>
       </c>
       <c r="J36" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -14811,7 +14801,7 @@
       </c>
       <c r="I37" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU0#0008</v>
+        <v>USD_YC3MRH_FUT3MU0#0002</v>
       </c>
       <c r="J37" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -14849,7 +14839,7 @@
       </c>
       <c r="I38" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ0#0008</v>
+        <v>USD_YC3MRH_FUT3MZ0#0002</v>
       </c>
       <c r="J38" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -14887,7 +14877,7 @@
       </c>
       <c r="I39" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH1#0008</v>
+        <v>USD_YC3MRH_FUT3MH1#0002</v>
       </c>
       <c r="J39" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -14925,7 +14915,7 @@
       </c>
       <c r="I40" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM1#0008</v>
+        <v>USD_YC3MRH_FUT3MM1#0002</v>
       </c>
       <c r="J40" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -14962,7 +14952,7 @@
       </c>
       <c r="I41" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU1#0008</v>
+        <v>USD_YC3MRH_FUT3MU1#0002</v>
       </c>
       <c r="J41" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -14999,7 +14989,7 @@
       </c>
       <c r="I42" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ1#0008</v>
+        <v>USD_YC3MRH_FUT3MZ1#0002</v>
       </c>
       <c r="J42" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -15036,7 +15026,7 @@
       </c>
       <c r="I43" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH2#0008</v>
+        <v>USD_YC3MRH_FUT3MH2#0002</v>
       </c>
       <c r="J43" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -15073,7 +15063,7 @@
       </c>
       <c r="I44" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM2#0008</v>
+        <v>USD_YC3MRH_FUT3MM2#0002</v>
       </c>
       <c r="J44" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -15106,7 +15096,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15133,7 +15125,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="179" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B1" s="177"/>
       <c r="C1" s="177"/>
@@ -15160,7 +15152,7 @@
       <c r="H2" s="111"/>
       <c r="I2" s="111"/>
       <c r="J2" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K2" s="12" t="str">
         <f>Currency&amp;"_YC"&amp;$J$2&amp;"RH"</f>
@@ -15176,37 +15168,37 @@
     <row r="3" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="101"/>
       <c r="B3" s="108" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" s="108"/>
       <c r="D3" s="108"/>
       <c r="E3" s="108"/>
       <c r="F3" s="108" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G3" s="108" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H3" s="108" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I3" s="108" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J3" s="108" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K3" s="175" t="str">
         <f>K2&amp;"_Swaps.xml"</f>
         <v>USD_YC3MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="174" t="e">
+      <c r="L3" s="174">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <v>45</v>
       </c>
       <c r="M3" s="153" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
       <c r="N3" s="152"/>
     </row>
@@ -15227,7 +15219,7 @@
       </c>
       <c r="L4" s="172" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YC3MRH_AM3L_Libor3M#0008</v>
+        <v>USD_YC3MRH_AM3L_Libor3M#0002</v>
       </c>
       <c r="M4" s="171" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -15254,7 +15246,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="101"/>
       <c r="B6" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" s="161" t="s">
         <v>36</v>
@@ -15272,7 +15264,7 @@
         <v>Annual</v>
       </c>
       <c r="G6" s="137" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H6" s="137" t="str">
         <f t="shared" ref="H6:H42" si="1">IF(UPPER(RIGHT($D6))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D6))="M",MoneyMarketDayCounter,"--"))</f>
@@ -15289,12 +15281,12 @@
         <f t="shared" ref="K6:K42" si="3">$K$2&amp;"_"&amp;$D6&amp;$E6&amp;$C6</f>
         <v>USD_YC3MRH_AM3L1Y</v>
       </c>
-      <c r="L6" s="154" t="e">
+      <c r="L6" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L1Y#0002</v>
       </c>
       <c r="M6" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
+        <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
       <c r="N6" s="152"/>
@@ -15305,13 +15297,13 @@
         <v>111</v>
       </c>
       <c r="R6" s="168" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="101"/>
       <c r="B7" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" s="161" t="s">
         <v>35</v>
@@ -15327,7 +15319,7 @@
         <v>Annual</v>
       </c>
       <c r="G7" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H7" s="136" t="str">
         <f t="shared" si="1"/>
@@ -15344,12 +15336,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L15M</v>
       </c>
-      <c r="L7" s="154" t="e">
+      <c r="L7" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L15M#0002</v>
       </c>
       <c r="M7" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L7)</f>
+        <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
       <c r="N7" s="152"/>
@@ -15360,13 +15352,13 @@
         <v>111</v>
       </c>
       <c r="R7" s="165" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="101"/>
       <c r="B8" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C8" s="161" t="s">
         <v>34</v>
@@ -15382,7 +15374,7 @@
         <v>Annual</v>
       </c>
       <c r="G8" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H8" s="136" t="str">
         <f t="shared" si="1"/>
@@ -15399,12 +15391,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L18M</v>
       </c>
-      <c r="L8" s="154" t="e">
+      <c r="L8" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L18M#0002</v>
       </c>
       <c r="M8" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L8)</f>
+        <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
       <c r="N8" s="152"/>
@@ -15415,13 +15407,13 @@
         <v>103</v>
       </c>
       <c r="R8" s="165" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="101"/>
       <c r="B9" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C9" s="161" t="s">
         <v>33</v>
@@ -15437,7 +15429,7 @@
         <v>Annual</v>
       </c>
       <c r="G9" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H9" s="136" t="str">
         <f t="shared" si="1"/>
@@ -15454,12 +15446,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L21M</v>
       </c>
-      <c r="L9" s="154" t="e">
+      <c r="L9" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L21M#0002</v>
       </c>
       <c r="M9" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L9)</f>
+        <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
       <c r="N9" s="152"/>
@@ -15470,13 +15462,13 @@
         <v>108</v>
       </c>
       <c r="R9" s="165" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="101"/>
       <c r="B10" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C10" s="159" t="s">
         <v>32</v>
@@ -15492,7 +15484,7 @@
         <v>Annual</v>
       </c>
       <c r="G10" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H10" s="136" t="str">
         <f t="shared" si="1"/>
@@ -15509,12 +15501,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L2Y</v>
       </c>
-      <c r="L10" s="154" t="e">
+      <c r="L10" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L2Y#0002</v>
       </c>
       <c r="M10" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
+        <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
       <c r="N10" s="152"/>
@@ -15525,13 +15517,13 @@
         <v>103</v>
       </c>
       <c r="R10" s="162" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="101"/>
       <c r="B11" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11" s="159" t="s">
         <v>31</v>
@@ -15547,7 +15539,7 @@
         <v>Annual</v>
       </c>
       <c r="G11" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H11" s="136" t="str">
         <f t="shared" si="1"/>
@@ -15564,12 +15556,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L3Y</v>
       </c>
-      <c r="L11" s="154" t="e">
+      <c r="L11" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L3Y#0002</v>
       </c>
       <c r="M11" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
+        <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
       <c r="N11" s="152"/>
@@ -15577,7 +15569,7 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="101"/>
       <c r="B12" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C12" s="159" t="s">
         <v>30</v>
@@ -15593,7 +15585,7 @@
         <v>Annual</v>
       </c>
       <c r="G12" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H12" s="136" t="str">
         <f t="shared" si="1"/>
@@ -15610,12 +15602,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L4Y</v>
       </c>
-      <c r="L12" s="154" t="e">
+      <c r="L12" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L4Y#0002</v>
       </c>
       <c r="M12" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
+        <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
       <c r="N12" s="152"/>
@@ -15623,7 +15615,7 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="101"/>
       <c r="B13" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" s="159" t="s">
         <v>29</v>
@@ -15639,7 +15631,7 @@
         <v>Annual</v>
       </c>
       <c r="G13" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H13" s="136" t="str">
         <f t="shared" si="1"/>
@@ -15656,12 +15648,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L5Y</v>
       </c>
-      <c r="L13" s="154" t="e">
+      <c r="L13" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L5Y#0002</v>
       </c>
       <c r="M13" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
+        <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
       <c r="N13" s="152"/>
@@ -15669,7 +15661,7 @@
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="101"/>
       <c r="B14" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C14" s="159" t="s">
         <v>28</v>
@@ -15685,7 +15677,7 @@
         <v>Annual</v>
       </c>
       <c r="G14" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H14" s="136" t="str">
         <f t="shared" si="1"/>
@@ -15702,12 +15694,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L6Y</v>
       </c>
-      <c r="L14" s="154" t="e">
+      <c r="L14" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L6Y#0002</v>
       </c>
       <c r="M14" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
+        <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
       <c r="N14" s="152"/>
@@ -15715,7 +15707,7 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="101"/>
       <c r="B15" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" s="159" t="s">
         <v>27</v>
@@ -15731,7 +15723,7 @@
         <v>Annual</v>
       </c>
       <c r="G15" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H15" s="136" t="str">
         <f t="shared" si="1"/>
@@ -15748,12 +15740,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L7Y</v>
       </c>
-      <c r="L15" s="154" t="e">
+      <c r="L15" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L7Y#0002</v>
       </c>
       <c r="M15" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
+        <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
       <c r="N15" s="152"/>
@@ -15761,7 +15753,7 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="101"/>
       <c r="B16" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C16" s="159" t="s">
         <v>26</v>
@@ -15777,7 +15769,7 @@
         <v>Annual</v>
       </c>
       <c r="G16" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H16" s="136" t="str">
         <f t="shared" si="1"/>
@@ -15794,12 +15786,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L8Y</v>
       </c>
-      <c r="L16" s="154" t="e">
+      <c r="L16" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L8Y#0002</v>
       </c>
       <c r="M16" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
+        <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
       <c r="N16" s="152"/>
@@ -15807,7 +15799,7 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="101"/>
       <c r="B17" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C17" s="159" t="s">
         <v>25</v>
@@ -15823,7 +15815,7 @@
         <v>Annual</v>
       </c>
       <c r="G17" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H17" s="136" t="str">
         <f t="shared" si="1"/>
@@ -15840,12 +15832,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L9Y</v>
       </c>
-      <c r="L17" s="154" t="e">
+      <c r="L17" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L9Y#0002</v>
       </c>
       <c r="M17" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
+        <f>_xll.ohRangeRetrieveError(L17)</f>
         <v/>
       </c>
       <c r="N17" s="152"/>
@@ -15853,7 +15845,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="101"/>
       <c r="B18" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C18" s="159" t="s">
         <v>24</v>
@@ -15869,7 +15861,7 @@
         <v>Annual</v>
       </c>
       <c r="G18" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H18" s="136" t="str">
         <f t="shared" si="1"/>
@@ -15886,12 +15878,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L10Y</v>
       </c>
-      <c r="L18" s="154" t="e">
+      <c r="L18" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L10Y#0002</v>
       </c>
       <c r="M18" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
+        <f>_xll.ohRangeRetrieveError(L18)</f>
         <v/>
       </c>
       <c r="N18" s="152"/>
@@ -15899,7 +15891,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="101"/>
       <c r="B19" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C19" s="159" t="s">
         <v>23</v>
@@ -15915,7 +15907,7 @@
         <v>Annual</v>
       </c>
       <c r="G19" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H19" s="136" t="str">
         <f t="shared" si="1"/>
@@ -15932,12 +15924,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L11Y</v>
       </c>
-      <c r="L19" s="154" t="e">
+      <c r="L19" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L11Y#0002</v>
       </c>
       <c r="M19" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
+        <f>_xll.ohRangeRetrieveError(L19)</f>
         <v/>
       </c>
       <c r="N19" s="152"/>
@@ -15945,7 +15937,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="101"/>
       <c r="B20" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C20" s="159" t="s">
         <v>22</v>
@@ -15961,7 +15953,7 @@
         <v>Annual</v>
       </c>
       <c r="G20" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H20" s="136" t="str">
         <f t="shared" si="1"/>
@@ -15978,12 +15970,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L12Y</v>
       </c>
-      <c r="L20" s="154" t="e">
+      <c r="L20" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L12Y#0002</v>
       </c>
       <c r="M20" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
+        <f>_xll.ohRangeRetrieveError(L20)</f>
         <v/>
       </c>
       <c r="N20" s="152"/>
@@ -15991,7 +15983,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="101"/>
       <c r="B21" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C21" s="159" t="s">
         <v>21</v>
@@ -16007,7 +15999,7 @@
         <v>Annual</v>
       </c>
       <c r="G21" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H21" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16024,12 +16016,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L13Y</v>
       </c>
-      <c r="L21" s="154" t="e">
+      <c r="L21" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L13Y#0002</v>
       </c>
       <c r="M21" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
+        <f>_xll.ohRangeRetrieveError(L21)</f>
         <v/>
       </c>
       <c r="N21" s="152"/>
@@ -16037,7 +16029,7 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="101"/>
       <c r="B22" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="159" t="s">
         <v>20</v>
@@ -16053,7 +16045,7 @@
         <v>Annual</v>
       </c>
       <c r="G22" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H22" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16070,12 +16062,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L14Y</v>
       </c>
-      <c r="L22" s="154" t="e">
+      <c r="L22" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L14Y#0002</v>
       </c>
       <c r="M22" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
+        <f>_xll.ohRangeRetrieveError(L22)</f>
         <v/>
       </c>
       <c r="N22" s="152"/>
@@ -16083,7 +16075,7 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="101"/>
       <c r="B23" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C23" s="159" t="s">
         <v>19</v>
@@ -16099,7 +16091,7 @@
         <v>Annual</v>
       </c>
       <c r="G23" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H23" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16116,12 +16108,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L15Y</v>
       </c>
-      <c r="L23" s="154" t="e">
+      <c r="L23" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L15Y#0002</v>
       </c>
       <c r="M23" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
+        <f>_xll.ohRangeRetrieveError(L23)</f>
         <v/>
       </c>
       <c r="N23" s="152"/>
@@ -16129,7 +16121,7 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="101"/>
       <c r="B24" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C24" s="159" t="s">
         <v>18</v>
@@ -16145,7 +16137,7 @@
         <v>Annual</v>
       </c>
       <c r="G24" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H24" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16162,12 +16154,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L16Y</v>
       </c>
-      <c r="L24" s="154" t="e">
+      <c r="L24" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L16Y#0002</v>
       </c>
       <c r="M24" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
+        <f>_xll.ohRangeRetrieveError(L24)</f>
         <v/>
       </c>
       <c r="N24" s="152"/>
@@ -16175,7 +16167,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="101"/>
       <c r="B25" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C25" s="159" t="s">
         <v>17</v>
@@ -16191,7 +16183,7 @@
         <v>Annual</v>
       </c>
       <c r="G25" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H25" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16208,12 +16200,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L17Y</v>
       </c>
-      <c r="L25" s="154" t="e">
+      <c r="L25" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L17Y#0002</v>
       </c>
       <c r="M25" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
+        <f>_xll.ohRangeRetrieveError(L25)</f>
         <v/>
       </c>
       <c r="N25" s="152"/>
@@ -16221,7 +16213,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="101"/>
       <c r="B26" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C26" s="159" t="s">
         <v>16</v>
@@ -16237,7 +16229,7 @@
         <v>Annual</v>
       </c>
       <c r="G26" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H26" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16254,12 +16246,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L18Y</v>
       </c>
-      <c r="L26" s="154" t="e">
+      <c r="L26" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L18Y#0002</v>
       </c>
       <c r="M26" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
+        <f>_xll.ohRangeRetrieveError(L26)</f>
         <v/>
       </c>
       <c r="N26" s="152"/>
@@ -16267,7 +16259,7 @@
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="101"/>
       <c r="B27" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C27" s="159" t="s">
         <v>15</v>
@@ -16283,7 +16275,7 @@
         <v>Annual</v>
       </c>
       <c r="G27" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H27" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16300,12 +16292,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L19Y</v>
       </c>
-      <c r="L27" s="154" t="e">
+      <c r="L27" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L19Y#0002</v>
       </c>
       <c r="M27" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
+        <f>_xll.ohRangeRetrieveError(L27)</f>
         <v/>
       </c>
       <c r="N27" s="152"/>
@@ -16313,7 +16305,7 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="101"/>
       <c r="B28" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C28" s="159" t="s">
         <v>14</v>
@@ -16329,7 +16321,7 @@
         <v>Annual</v>
       </c>
       <c r="G28" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H28" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16346,12 +16338,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L20Y</v>
       </c>
-      <c r="L28" s="154" t="e">
+      <c r="L28" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L20Y#0002</v>
       </c>
       <c r="M28" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
+        <f>_xll.ohRangeRetrieveError(L28)</f>
         <v/>
       </c>
       <c r="N28" s="152"/>
@@ -16359,7 +16351,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="101"/>
       <c r="B29" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C29" s="159" t="s">
         <v>13</v>
@@ -16375,7 +16367,7 @@
         <v>Annual</v>
       </c>
       <c r="G29" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H29" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16392,12 +16384,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L21Y</v>
       </c>
-      <c r="L29" s="154" t="e">
+      <c r="L29" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L21Y#0002</v>
       </c>
       <c r="M29" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
+        <f>_xll.ohRangeRetrieveError(L29)</f>
         <v/>
       </c>
       <c r="N29" s="152"/>
@@ -16405,7 +16397,7 @@
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="101"/>
       <c r="B30" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C30" s="159" t="s">
         <v>12</v>
@@ -16421,7 +16413,7 @@
         <v>Annual</v>
       </c>
       <c r="G30" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H30" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16438,12 +16430,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L22Y</v>
       </c>
-      <c r="L30" s="154" t="e">
+      <c r="L30" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L22Y#0002</v>
       </c>
       <c r="M30" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
+        <f>_xll.ohRangeRetrieveError(L30)</f>
         <v/>
       </c>
       <c r="N30" s="152"/>
@@ -16451,7 +16443,7 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="101"/>
       <c r="B31" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C31" s="159" t="s">
         <v>11</v>
@@ -16467,7 +16459,7 @@
         <v>Annual</v>
       </c>
       <c r="G31" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H31" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16484,12 +16476,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L23Y</v>
       </c>
-      <c r="L31" s="154" t="e">
+      <c r="L31" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L23Y#0002</v>
       </c>
       <c r="M31" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
+        <f>_xll.ohRangeRetrieveError(L31)</f>
         <v/>
       </c>
       <c r="N31" s="152"/>
@@ -16497,7 +16489,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="101"/>
       <c r="B32" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C32" s="159" t="s">
         <v>10</v>
@@ -16513,7 +16505,7 @@
         <v>Annual</v>
       </c>
       <c r="G32" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H32" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16530,12 +16522,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L24Y</v>
       </c>
-      <c r="L32" s="154" t="e">
+      <c r="L32" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L24Y#0002</v>
       </c>
       <c r="M32" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
+        <f>_xll.ohRangeRetrieveError(L32)</f>
         <v/>
       </c>
       <c r="N32" s="152"/>
@@ -16543,7 +16535,7 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="101"/>
       <c r="B33" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C33" s="159" t="s">
         <v>9</v>
@@ -16559,7 +16551,7 @@
         <v>Annual</v>
       </c>
       <c r="G33" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H33" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16576,12 +16568,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L25Y</v>
       </c>
-      <c r="L33" s="154" t="e">
+      <c r="L33" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L25Y#0002</v>
       </c>
       <c r="M33" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
+        <f>_xll.ohRangeRetrieveError(L33)</f>
         <v/>
       </c>
       <c r="N33" s="152"/>
@@ -16589,7 +16581,7 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="101"/>
       <c r="B34" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C34" s="159" t="s">
         <v>8</v>
@@ -16605,7 +16597,7 @@
         <v>Annual</v>
       </c>
       <c r="G34" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H34" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16622,12 +16614,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L26Y</v>
       </c>
-      <c r="L34" s="154" t="e">
+      <c r="L34" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L26Y#0002</v>
       </c>
       <c r="M34" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
+        <f>_xll.ohRangeRetrieveError(L34)</f>
         <v/>
       </c>
       <c r="N34" s="152"/>
@@ -16635,7 +16627,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="101"/>
       <c r="B35" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C35" s="159" t="s">
         <v>7</v>
@@ -16651,7 +16643,7 @@
         <v>Annual</v>
       </c>
       <c r="G35" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H35" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16668,12 +16660,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L27Y</v>
       </c>
-      <c r="L35" s="154" t="e">
+      <c r="L35" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L27Y#0002</v>
       </c>
       <c r="M35" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
+        <f>_xll.ohRangeRetrieveError(L35)</f>
         <v/>
       </c>
       <c r="N35" s="152"/>
@@ -16681,7 +16673,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="101"/>
       <c r="B36" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C36" s="159" t="s">
         <v>6</v>
@@ -16697,7 +16689,7 @@
         <v>Annual</v>
       </c>
       <c r="G36" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H36" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16714,12 +16706,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L28Y</v>
       </c>
-      <c r="L36" s="154" t="e">
+      <c r="L36" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L28Y#0002</v>
       </c>
       <c r="M36" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
+        <f>_xll.ohRangeRetrieveError(L36)</f>
         <v/>
       </c>
       <c r="N36" s="152"/>
@@ -16727,7 +16719,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="101"/>
       <c r="B37" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C37" s="159" t="s">
         <v>5</v>
@@ -16743,7 +16735,7 @@
         <v>Annual</v>
       </c>
       <c r="G37" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H37" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16760,12 +16752,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L29Y</v>
       </c>
-      <c r="L37" s="154" t="e">
+      <c r="L37" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L29Y#0002</v>
       </c>
       <c r="M37" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
+        <f>_xll.ohRangeRetrieveError(L37)</f>
         <v/>
       </c>
       <c r="N37" s="152"/>
@@ -16773,7 +16765,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="101"/>
       <c r="B38" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C38" s="159" t="s">
         <v>4</v>
@@ -16789,7 +16781,7 @@
         <v>Annual</v>
       </c>
       <c r="G38" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H38" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16806,12 +16798,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L30Y</v>
       </c>
-      <c r="L38" s="154" t="e">
+      <c r="L38" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L30Y#0002</v>
       </c>
       <c r="M38" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
+        <f>_xll.ohRangeRetrieveError(L38)</f>
         <v/>
       </c>
       <c r="N38" s="152"/>
@@ -16819,7 +16811,7 @@
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="101"/>
       <c r="B39" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C39" s="159" t="s">
         <v>3</v>
@@ -16835,7 +16827,7 @@
         <v>Annual</v>
       </c>
       <c r="G39" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H39" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16852,12 +16844,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L35Y</v>
       </c>
-      <c r="L39" s="154" t="e">
+      <c r="L39" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L35Y#0002</v>
       </c>
       <c r="M39" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
+        <f>_xll.ohRangeRetrieveError(L39)</f>
         <v/>
       </c>
       <c r="N39" s="152"/>
@@ -16865,7 +16857,7 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="101"/>
       <c r="B40" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C40" s="159" t="s">
         <v>2</v>
@@ -16881,7 +16873,7 @@
         <v>Annual</v>
       </c>
       <c r="G40" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H40" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16898,12 +16890,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L40Y</v>
       </c>
-      <c r="L40" s="154" t="e">
+      <c r="L40" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L40Y#0002</v>
       </c>
       <c r="M40" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
+        <f>_xll.ohRangeRetrieveError(L40)</f>
         <v/>
       </c>
       <c r="N40" s="152"/>
@@ -16911,7 +16903,7 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="101"/>
       <c r="B41" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C41" s="159" t="s">
         <v>1</v>
@@ -16927,7 +16919,7 @@
         <v>Annual</v>
       </c>
       <c r="G41" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H41" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16944,12 +16936,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L50Y</v>
       </c>
-      <c r="L41" s="154" t="e">
+      <c r="L41" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L50Y#0002</v>
       </c>
       <c r="M41" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
+        <f>_xll.ohRangeRetrieveError(L41)</f>
         <v/>
       </c>
       <c r="N41" s="152"/>
@@ -16957,7 +16949,7 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="101"/>
       <c r="B42" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C42" s="159" t="s">
         <v>0</v>
@@ -16973,7 +16965,7 @@
         <v>Annual</v>
       </c>
       <c r="G42" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H42" s="136" t="str">
         <f t="shared" si="1"/>
@@ -16990,12 +16982,12 @@
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L60Y</v>
       </c>
-      <c r="L42" s="154" t="e">
+      <c r="L42" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_AM3L60Y#0002</v>
       </c>
       <c r="M42" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
+        <f>_xll.ohRangeRetrieveError(L42)</f>
         <v/>
       </c>
       <c r="N42" s="152"/>
@@ -17019,7 +17011,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="101"/>
       <c r="B44" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C44" s="161"/>
       <c r="D44" s="158" t="s">
@@ -17029,13 +17021,13 @@
         <v>12</v>
       </c>
       <c r="F44" s="158" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G44" s="137" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H44" s="137" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I44" s="157">
         <v>0</v>
@@ -17048,12 +17040,12 @@
         <f t="shared" ref="K44:K50" si="5">$K$2&amp;"_"&amp;$D44&amp;$E44&amp;$C44</f>
         <v>USD_YC3MRH_1S12</v>
       </c>
-      <c r="L44" s="154" t="e">
+      <c r="L44" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K44,$J44,$E44&amp;"M",Calendar,$F44,$G44,$H44,$L$4,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_1S12#0002</v>
       </c>
       <c r="M44" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L44)</f>
+        <f>_xll.ohRangeRetrieveError(L44)</f>
         <v/>
       </c>
       <c r="N44" s="152"/>
@@ -17064,7 +17056,7 @@
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="101"/>
       <c r="B45" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C45" s="159"/>
       <c r="D45" s="158" t="s">
@@ -17074,13 +17066,13 @@
         <v>12</v>
       </c>
       <c r="F45" s="158" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G45" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H45" s="136" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I45" s="157">
         <v>0</v>
@@ -17093,12 +17085,12 @@
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_2S12</v>
       </c>
-      <c r="L45" s="154" t="e">
+      <c r="L45" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K45,$J45,$E45&amp;"M",Calendar,$F45,$G45,$H45,$L$4,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_2S12#0002</v>
       </c>
       <c r="M45" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L45)</f>
+        <f>_xll.ohRangeRetrieveError(L45)</f>
         <v/>
       </c>
       <c r="N45" s="152"/>
@@ -17109,7 +17101,7 @@
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="101"/>
       <c r="B46" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C46" s="159"/>
       <c r="D46" s="158" t="s">
@@ -17119,13 +17111,13 @@
         <v>12</v>
       </c>
       <c r="F46" s="158" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G46" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H46" s="136" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I46" s="157">
         <v>0</v>
@@ -17138,12 +17130,12 @@
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_3S12</v>
       </c>
-      <c r="L46" s="154" t="e">
+      <c r="L46" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K46,$J46,$E46&amp;"M",Calendar,$F46,$G46,$H46,$L$4,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_3S12#0002</v>
       </c>
       <c r="M46" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L46)</f>
+        <f>_xll.ohRangeRetrieveError(L46)</f>
         <v/>
       </c>
       <c r="N46" s="152"/>
@@ -17154,7 +17146,7 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="101"/>
       <c r="B47" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C47" s="159"/>
       <c r="D47" s="158" t="s">
@@ -17164,13 +17156,13 @@
         <v>12</v>
       </c>
       <c r="F47" s="158" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G47" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H47" s="136" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I47" s="157">
         <v>0</v>
@@ -17183,12 +17175,12 @@
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_4S12</v>
       </c>
-      <c r="L47" s="154" t="e">
+      <c r="L47" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K47,$J47,$E47&amp;"M",Calendar,$F47,$G47,$H47,$L$4,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_4S12#0002</v>
       </c>
       <c r="M47" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L47)</f>
+        <f>_xll.ohRangeRetrieveError(L47)</f>
         <v/>
       </c>
       <c r="N47" s="152"/>
@@ -17199,7 +17191,7 @@
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="101"/>
       <c r="B48" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C48" s="159"/>
       <c r="D48" s="158" t="s">
@@ -17209,13 +17201,13 @@
         <v>24</v>
       </c>
       <c r="F48" s="158" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G48" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H48" s="136" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I48" s="157">
         <v>0</v>
@@ -17228,12 +17220,12 @@
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_1S24</v>
       </c>
-      <c r="L48" s="154" t="e">
+      <c r="L48" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K48,$J48,$E48&amp;"M",Calendar,$F48,$G48,$H48,$L$4,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_1S24#0002</v>
       </c>
       <c r="M48" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L48)</f>
+        <f>_xll.ohRangeRetrieveError(L48)</f>
         <v/>
       </c>
       <c r="N48" s="152"/>
@@ -17244,7 +17236,7 @@
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="101"/>
       <c r="B49" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C49" s="159"/>
       <c r="D49" s="158" t="s">
@@ -17254,13 +17246,13 @@
         <v>24</v>
       </c>
       <c r="F49" s="158" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G49" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H49" s="136" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I49" s="157">
         <v>0</v>
@@ -17273,12 +17265,12 @@
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_2S24</v>
       </c>
-      <c r="L49" s="154" t="e">
+      <c r="L49" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K49,$J49,$E49&amp;"M",Calendar,$F49,$G49,$H49,$L$4,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_2S24#0002</v>
       </c>
       <c r="M49" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L49)</f>
+        <f>_xll.ohRangeRetrieveError(L49)</f>
         <v/>
       </c>
       <c r="N49" s="152"/>
@@ -17289,7 +17281,7 @@
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="101"/>
       <c r="B50" s="158" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C50" s="159"/>
       <c r="D50" s="158" t="s">
@@ -17299,13 +17291,13 @@
         <v>36</v>
       </c>
       <c r="F50" s="158" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G50" s="136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H50" s="136" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I50" s="157">
         <v>0</v>
@@ -17318,12 +17310,12 @@
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_1S36</v>
       </c>
-      <c r="L50" s="154" t="e">
+      <c r="L50" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K50,$J50,$E50&amp;"M",Calendar,$F50,$G50,$H50,$L$4,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>USD_YC3MRH_1S36#0002</v>
       </c>
       <c r="M50" s="153" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L50)</f>
+        <f>_xll.ohRangeRetrieveError(L50)</f>
         <v/>
       </c>
       <c r="N50" s="152"/>

--- a/QuantLibXL/Data2/XLS/USD_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YC3MBootstrapping.xlsx
@@ -809,6 +809,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -865,6 +866,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -879,6 +881,7 @@
       <sz val="12"/>
       <color indexed="16"/>
       <name val="MS Sans Serif"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -894,6 +897,7 @@
       <sz val="8"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2355,7 +2359,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="85">
-        <v>41654.758842592593</v>
+        <v>41655.66741898148</v>
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="56"/>
@@ -2409,7 +2413,7 @@
       </c>
       <c r="D14" s="82" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYC3M#0002</v>
+        <v>_USDYC3M#0001</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="56"/>
@@ -2603,7 +2607,7 @@
       </c>
       <c r="D28" s="61">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.16094323852142145</v>
+        <v>0.16094246296918882</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="56"/>
@@ -2671,9 +2675,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2816,7 +2818,7 @@
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>2.611E-3</v>
+        <v>2.3010000000000001E-3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12" t="b">
@@ -2855,7 +2857,7 @@
       </c>
       <c r="F5" s="13">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>2.6090000000000002E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12" t="b">
@@ -2894,7 +2896,7 @@
       </c>
       <c r="F6" s="13">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>2.5969999999999999E-3</v>
+        <v>2.2980000000000001E-3</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12" t="b">
@@ -2933,7 +2935,7 @@
       </c>
       <c r="F7" s="13">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>2.5850000000000001E-3</v>
+        <v>2.3059999999999999E-3</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="12" t="b">
@@ -2972,7 +2974,7 @@
       </c>
       <c r="F8" s="13">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>2.5829999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="12" t="b">
@@ -3011,7 +3013,7 @@
       </c>
       <c r="F9" s="13">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>2.6029999999999998E-3</v>
+        <v>2.3189999999999999E-3</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="12" t="b">
@@ -3044,7 +3046,7 @@
       </c>
       <c r="F10" s="13">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>2.6619999999999999E-3</v>
+        <v>2.379E-3</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="12" t="b">
@@ -4008,15 +4010,15 @@
       </c>
       <c r="E36" s="14" t="str">
         <f>'3M_Futures'!I3</f>
-        <v>USD_YC3MRH_FUT3MF4#0002</v>
-      </c>
-      <c r="F36" s="28">
+        <v>USD_YC3MRH_FUT3MF4#0000</v>
+      </c>
+      <c r="F36" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
-        <v>99.758749999999992</v>
-      </c>
-      <c r="G36" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="G36" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E36,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H36" s="12" t="b">
         <v>1</v>
@@ -4053,7 +4055,7 @@
       </c>
       <c r="E37" s="14" t="str">
         <f>'3M_Futures'!I4</f>
-        <v>USD_YC3MRH_FUT3MG4#0002</v>
+        <v>USD_YC3MRH_FUT3MG4#0000</v>
       </c>
       <c r="F37" s="28">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4098,7 +4100,7 @@
       </c>
       <c r="E38" s="14" t="str">
         <f>'3M_Futures'!I5</f>
-        <v>USD_YC3MRH_FUT3MH4#0002</v>
+        <v>USD_YC3MRH_FUT3MH4#0000</v>
       </c>
       <c r="F38" s="28">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4143,7 +4145,7 @@
       </c>
       <c r="E39" s="14" t="str">
         <f>'3M_Futures'!I6</f>
-        <v>USD_YC3MRH_FUT3MJ4#0002</v>
+        <v>USD_YC3MRH_FUT3MJ4#0000</v>
       </c>
       <c r="F39" s="28">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4188,7 +4190,7 @@
       </c>
       <c r="E40" s="14" t="str">
         <f>'3M_Futures'!I7</f>
-        <v>USD_YC3MRH_FUT3MK4#0002</v>
+        <v>USD_YC3MRH_FUT3MK4#0000</v>
       </c>
       <c r="F40" s="28">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4233,7 +4235,7 @@
       </c>
       <c r="E41" s="14" t="str">
         <f>'3M_Futures'!I8</f>
-        <v>USD_YC3MRH_FUT3MM4#0002</v>
+        <v>USD_YC3MRH_FUT3MM4#0000</v>
       </c>
       <c r="F41" s="28">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4278,7 +4280,7 @@
       </c>
       <c r="E42" s="14" t="str">
         <f>'3M_Futures'!I9</f>
-        <v>USD_YC3MRH_FUT3MN4#0002</v>
+        <v>USD_YC3MRH_FUT3MN4#0000</v>
       </c>
       <c r="F42" s="28">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4323,15 +4325,15 @@
       </c>
       <c r="E43" s="14" t="str">
         <f>'3M_Futures'!I10</f>
-        <v>USD_YC3MRH_FUT3MQ4#0002</v>
-      </c>
-      <c r="F43" s="28">
+        <v>USD_YC3MRH_FUT3MQ4#0000</v>
+      </c>
+      <c r="F43" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>99.662499999999994</v>
-      </c>
-      <c r="G43" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="G43" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E43,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H43" s="12" t="b">
         <v>1</v>
@@ -4368,7 +4370,7 @@
       </c>
       <c r="E44" s="14" t="str">
         <f>'3M_Futures'!I11</f>
-        <v>USD_YC3MRH_FUT3MU4#0002</v>
+        <v>USD_YC3MRH_FUT3MU4#0000</v>
       </c>
       <c r="F44" s="28">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4413,7 +4415,7 @@
       </c>
       <c r="E45" s="14" t="str">
         <f>'3M_Futures'!I12</f>
-        <v>USD_YC3MRH_FUT3MV4#0002</v>
+        <v>USD_YC3MRH_FUT3MV4#0000</v>
       </c>
       <c r="F45" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4458,15 +4460,15 @@
       </c>
       <c r="E46" s="14" t="str">
         <f>'3M_Futures'!I13</f>
-        <v>USD_YC3MRH_FUT3MX4#0002</v>
-      </c>
-      <c r="F46" s="28">
+        <v>USD_YC3MRH_FUT3MX4#0000</v>
+      </c>
+      <c r="F46" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>99.612499999999997</v>
-      </c>
-      <c r="G46" s="13">
+        <v>#NUM!</v>
+      </c>
+      <c r="G46" s="13" t="e">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="H46" s="12" t="b">
         <v>1</v>
@@ -4503,7 +4505,7 @@
       </c>
       <c r="E47" s="14" t="str">
         <f>'3M_Futures'!I14</f>
-        <v>USD_YC3MRH_FUT3MZ4#0002</v>
+        <v>USD_YC3MRH_FUT3MZ4#0000</v>
       </c>
       <c r="F47" s="28">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4548,7 +4550,7 @@
       </c>
       <c r="E48" s="14" t="str">
         <f>'3M_Futures'!I15</f>
-        <v>USD_YC3MRH_FUT3MH5#0002</v>
+        <v>USD_YC3MRH_FUT3MH5#0000</v>
       </c>
       <c r="F48" s="28">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -4593,7 +4595,7 @@
       </c>
       <c r="E49" s="14" t="str">
         <f>'3M_Futures'!I16</f>
-        <v>USD_YC3MRH_FUT3MM5#0002</v>
+        <v>USD_YC3MRH_FUT3MM5#0000</v>
       </c>
       <c r="F49" s="28">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4638,7 +4640,7 @@
       </c>
       <c r="E50" s="14" t="str">
         <f>'3M_Futures'!I17</f>
-        <v>USD_YC3MRH_FUT3MU5#0002</v>
+        <v>USD_YC3MRH_FUT3MU5#0000</v>
       </c>
       <c r="F50" s="28">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -4683,7 +4685,7 @@
       </c>
       <c r="E51" s="14" t="str">
         <f>'3M_Futures'!I18</f>
-        <v>USD_YC3MRH_FUT3MZ5#0002</v>
+        <v>USD_YC3MRH_FUT3MZ5#0000</v>
       </c>
       <c r="F51" s="28">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -4728,7 +4730,7 @@
       </c>
       <c r="E52" s="14" t="str">
         <f>'3M_Futures'!I19</f>
-        <v>USD_YC3MRH_FUT3MH6#0002</v>
+        <v>USD_YC3MRH_FUT3MH6#0000</v>
       </c>
       <c r="F52" s="28">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
@@ -4773,7 +4775,7 @@
       </c>
       <c r="E53" s="14" t="str">
         <f>'3M_Futures'!I20</f>
-        <v>USD_YC3MRH_FUT3MM6#0002</v>
+        <v>USD_YC3MRH_FUT3MM6#0000</v>
       </c>
       <c r="F53" s="28">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
@@ -4818,7 +4820,7 @@
       </c>
       <c r="E54" s="14" t="str">
         <f>'3M_Futures'!I21</f>
-        <v>USD_YC3MRH_FUT3MU6#0002</v>
+        <v>USD_YC3MRH_FUT3MU6#0000</v>
       </c>
       <c r="F54" s="28">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
@@ -4863,7 +4865,7 @@
       </c>
       <c r="E55" s="14" t="str">
         <f>'3M_Futures'!I22</f>
-        <v>USD_YC3MRH_FUT3MZ6#0002</v>
+        <v>USD_YC3MRH_FUT3MZ6#0000</v>
       </c>
       <c r="F55" s="28">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
@@ -4908,7 +4910,7 @@
       </c>
       <c r="E56" s="14" t="str">
         <f>'3M_Futures'!I23</f>
-        <v>USD_YC3MRH_FUT3MH7#0002</v>
+        <v>USD_YC3MRH_FUT3MH7#0000</v>
       </c>
       <c r="F56" s="28">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
@@ -4953,7 +4955,7 @@
       </c>
       <c r="E57" s="14" t="str">
         <f>'3M_Futures'!I24</f>
-        <v>USD_YC3MRH_FUT3MM7#0002</v>
+        <v>USD_YC3MRH_FUT3MM7#0000</v>
       </c>
       <c r="F57" s="28">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
@@ -4998,7 +5000,7 @@
       </c>
       <c r="E58" s="14" t="str">
         <f>'3M_Futures'!I25</f>
-        <v>USD_YC3MRH_FUT3MU7#0002</v>
+        <v>USD_YC3MRH_FUT3MU7#0000</v>
       </c>
       <c r="F58" s="28">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
@@ -5043,7 +5045,7 @@
       </c>
       <c r="E59" s="14" t="str">
         <f>'3M_Futures'!I26</f>
-        <v>USD_YC3MRH_FUT3MZ7#0002</v>
+        <v>USD_YC3MRH_FUT3MZ7#0000</v>
       </c>
       <c r="F59" s="28">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
@@ -5088,7 +5090,7 @@
       </c>
       <c r="E60" s="14" t="str">
         <f>'3M_Futures'!I27</f>
-        <v>USD_YC3MRH_FUT3MH8#0002</v>
+        <v>USD_YC3MRH_FUT3MH8#0000</v>
       </c>
       <c r="F60" s="28">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
@@ -5133,7 +5135,7 @@
       </c>
       <c r="E61" s="14" t="str">
         <f>'3M_Futures'!I28</f>
-        <v>USD_YC3MRH_FUT3MM8#0002</v>
+        <v>USD_YC3MRH_FUT3MM8#0000</v>
       </c>
       <c r="F61" s="28">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -5178,7 +5180,7 @@
       </c>
       <c r="E62" s="14" t="str">
         <f>'3M_Futures'!I29</f>
-        <v>USD_YC3MRH_FUT3MU8#0002</v>
+        <v>USD_YC3MRH_FUT3MU8#0000</v>
       </c>
       <c r="F62" s="28">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -5223,7 +5225,7 @@
       </c>
       <c r="E63" s="14" t="str">
         <f>'3M_Futures'!I30</f>
-        <v>USD_YC3MRH_FUT3MZ8#0002</v>
+        <v>USD_YC3MRH_FUT3MZ8#0000</v>
       </c>
       <c r="F63" s="28">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -5268,7 +5270,7 @@
       </c>
       <c r="E64" s="14" t="str">
         <f>'3M_Futures'!I31</f>
-        <v>USD_YC3MRH_FUT3MH9#0002</v>
+        <v>USD_YC3MRH_FUT3MH9#0000</v>
       </c>
       <c r="F64" s="28">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -5313,7 +5315,7 @@
       </c>
       <c r="E65" s="14" t="str">
         <f>'3M_Futures'!I32</f>
-        <v>USD_YC3MRH_FUT3MM9#0002</v>
+        <v>USD_YC3MRH_FUT3MM9#0000</v>
       </c>
       <c r="F65" s="28">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -5358,7 +5360,7 @@
       </c>
       <c r="E66" s="14" t="str">
         <f>'3M_Futures'!I33</f>
-        <v>USD_YC3MRH_FUT3MU9#0002</v>
+        <v>USD_YC3MRH_FUT3MU9#0000</v>
       </c>
       <c r="F66" s="28">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -5403,7 +5405,7 @@
       </c>
       <c r="E67" s="14" t="str">
         <f>'3M_Futures'!I34</f>
-        <v>USD_YC3MRH_FUT3MZ9#0002</v>
+        <v>USD_YC3MRH_FUT3MZ9#0000</v>
       </c>
       <c r="F67" s="28">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -5448,7 +5450,7 @@
       </c>
       <c r="E68" s="14" t="str">
         <f>'3M_Futures'!I35</f>
-        <v>USD_YC3MRH_FUT3MH0#0002</v>
+        <v>USD_YC3MRH_FUT3MH0#0000</v>
       </c>
       <c r="F68" s="28">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5493,7 +5495,7 @@
       </c>
       <c r="E69" s="14" t="str">
         <f>'3M_Futures'!I36</f>
-        <v>USD_YC3MRH_FUT3MM0#0002</v>
+        <v>USD_YC3MRH_FUT3MM0#0000</v>
       </c>
       <c r="F69" s="28">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -5538,7 +5540,7 @@
       </c>
       <c r="E70" s="14" t="str">
         <f>'3M_Futures'!I37</f>
-        <v>USD_YC3MRH_FUT3MU0#0002</v>
+        <v>USD_YC3MRH_FUT3MU0#0000</v>
       </c>
       <c r="F70" s="28">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -5583,7 +5585,7 @@
       </c>
       <c r="E71" s="14" t="str">
         <f>'3M_Futures'!I38</f>
-        <v>USD_YC3MRH_FUT3MZ0#0002</v>
+        <v>USD_YC3MRH_FUT3MZ0#0000</v>
       </c>
       <c r="F71" s="28">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
@@ -5628,7 +5630,7 @@
       </c>
       <c r="E72" s="14" t="str">
         <f>'3M_Futures'!I39</f>
-        <v>USD_YC3MRH_FUT3MH1#0002</v>
+        <v>USD_YC3MRH_FUT3MH1#0000</v>
       </c>
       <c r="F72" s="28">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
@@ -5673,7 +5675,7 @@
       </c>
       <c r="E73" s="14" t="str">
         <f>'3M_Futures'!I40</f>
-        <v>USD_YC3MRH_FUT3MM1#0002</v>
+        <v>USD_YC3MRH_FUT3MM1#0000</v>
       </c>
       <c r="F73" s="28">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
@@ -5718,7 +5720,7 @@
       </c>
       <c r="E74" s="14" t="str">
         <f>'3M_Futures'!I41</f>
-        <v>USD_YC3MRH_FUT3MU1#0002</v>
+        <v>USD_YC3MRH_FUT3MU1#0000</v>
       </c>
       <c r="F74" s="28">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
@@ -5763,7 +5765,7 @@
       </c>
       <c r="E75" s="14" t="str">
         <f>'3M_Futures'!I42</f>
-        <v>USD_YC3MRH_FUT3MZ1#0002</v>
+        <v>USD_YC3MRH_FUT3MZ1#0000</v>
       </c>
       <c r="F75" s="28">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
@@ -5808,7 +5810,7 @@
       </c>
       <c r="E76" s="14" t="str">
         <f>'3M_Futures'!I43</f>
-        <v>USD_YC3MRH_FUT3MH2#0002</v>
+        <v>USD_YC3MRH_FUT3MH2#0000</v>
       </c>
       <c r="F76" s="28">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
@@ -5853,7 +5855,7 @@
       </c>
       <c r="E77" s="7" t="str">
         <f>'3M_Futures'!I44</f>
-        <v>USD_YC3MRH_FUT3MM2#0002</v>
+        <v>USD_YC3MRH_FUT3MM2#0000</v>
       </c>
       <c r="F77" s="27">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
@@ -9899,7 +9901,7 @@
       </c>
       <c r="E2" s="39">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>2.6090000000000002E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F2" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9914,7 +9916,7 @@
         <v>41663</v>
       </c>
       <c r="I2" s="32">
-        <v>0.99994927201790285</v>
+        <v>0.99995527977776533</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>117</v>
@@ -9935,7 +9937,7 @@
       </c>
       <c r="E3" s="39">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>2.5829999999999998E-3</v>
+        <v>2.313E-3</v>
       </c>
       <c r="F3" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9950,7 +9952,7 @@
         <v>41687</v>
       </c>
       <c r="I3" s="32">
-        <v>0.99977762446172591</v>
+        <v>0.99980086466277596</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>118</v>
@@ -9971,7 +9973,7 @@
       </c>
       <c r="E4" s="39">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>2.6029999999999998E-3</v>
+        <v>2.3189999999999999E-3</v>
       </c>
       <c r="F4" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9986,7 +9988,7 @@
         <v>41715</v>
       </c>
       <c r="I4" s="32">
-        <v>0.99957357913449107</v>
+        <v>0.99962008605612207</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>119</v>
@@ -10007,7 +10009,7 @@
       </c>
       <c r="E5" s="39">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>2.6619999999999999E-3</v>
+        <v>2.379E-3</v>
       </c>
       <c r="F5" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -10022,7 +10024,7 @@
         <v>41746</v>
       </c>
       <c r="I5" s="32">
-        <v>0.99933494259570266</v>
+        <v>0.99940560351730812</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>120</v>
@@ -10059,7 +10061,7 @@
         <v>41778</v>
       </c>
       <c r="I6" s="32">
-        <v>0.99915833011755029</v>
+        <v>0.99918287425768681</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>121</v>
@@ -10071,7 +10073,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_RateHelpersSelected#0002</v>
+        <v>USD_YC3MRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -10097,7 +10099,7 @@
         <v>41809</v>
       </c>
       <c r="I7" s="32">
-        <v>0.99891317048737271</v>
+        <v>0.99896208267600384</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>122</v>
@@ -10127,7 +10129,7 @@
         <v>41900</v>
       </c>
       <c r="I8" s="32">
-        <v>0.9981755145508362</v>
+        <v>0.99822323232196308</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>123</v>
@@ -10157,7 +10159,7 @@
         <v>41990</v>
       </c>
       <c r="I9" s="32">
-        <v>0.99729544837494244</v>
+        <v>0.99734344110486095</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>184</v>
@@ -10187,7 +10189,7 @@
         <v>42080</v>
       </c>
       <c r="I10" s="32">
-        <v>0.99620584822785907</v>
+        <v>0.99625378852314095</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>185</v>
@@ -10217,7 +10219,7 @@
         <v>42173</v>
       </c>
       <c r="I11" s="32">
-        <v>0.99476230831010515</v>
+        <v>0.99481015580655319</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>124</v>
@@ -10248,7 +10250,7 @@
         <v>42264</v>
       </c>
       <c r="I12" s="32">
-        <v>0.99293399850867159</v>
+        <v>0.99298175112692899</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>125</v>
@@ -10279,7 +10281,7 @@
         <v>42354</v>
       </c>
       <c r="I13" s="32">
-        <v>0.99062128528333759</v>
+        <v>0.99066893146064172</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>126</v>
@@ -10309,7 +10311,7 @@
         <v>42445</v>
       </c>
       <c r="I14" s="32">
-        <v>0.98768149247438308</v>
+        <v>0.98772899725568508</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>127</v>
@@ -10339,7 +10341,7 @@
         <v>42752</v>
       </c>
       <c r="I15" s="32">
-        <v>0.97941235424936446</v>
+        <v>0.97941168247830535</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>128</v>
@@ -10369,7 +10371,7 @@
         <v>43117</v>
       </c>
       <c r="I16" s="32">
-        <v>0.95866816110103537</v>
+        <v>0.95866715227603283</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>129</v>
@@ -10399,7 +10401,7 @@
         <v>43482</v>
       </c>
       <c r="I17" s="32">
-        <v>0.93103821166076683</v>
+        <v>0.93103687005383928</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>130</v>
@@ -10429,7 +10431,7 @@
         <v>43847</v>
       </c>
       <c r="I18" s="32">
-        <v>0.89901397807918926</v>
+        <v>0.89901234881410608</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>131</v>
@@ -10459,7 +10461,7 @@
         <v>44214</v>
       </c>
       <c r="I19" s="32">
-        <v>0.86507764264036835</v>
+        <v>0.86507578949740604</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>132</v>
@@ -10489,7 +10491,7 @@
         <v>44578</v>
       </c>
       <c r="I20" s="32">
-        <v>0.83060121832712586</v>
+        <v>0.8305991959775515</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>133</v>
@@ -10519,7 +10521,7 @@
         <v>44943</v>
       </c>
       <c r="I21" s="32">
-        <v>0.79611466210360604</v>
+        <v>0.79611251590665388</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>134</v>
@@ -10549,7 +10551,7 @@
         <v>45308</v>
       </c>
       <c r="I22" s="32">
-        <v>0.76220240340897372</v>
+        <v>0.76220017080050217</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>135</v>
@@ -10579,7 +10581,7 @@
         <v>46041</v>
       </c>
       <c r="I23" s="32">
-        <v>0.69638680537343678</v>
+        <v>0.69638448008630371</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>136</v>
@@ -10609,7 +10611,7 @@
         <v>47135</v>
       </c>
       <c r="I24" s="32">
-        <v>0.60846810768332271</v>
+        <v>0.60846579353891606</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>137</v>
@@ -10639,7 +10641,7 @@
         <v>48961</v>
       </c>
       <c r="I25" s="32">
-        <v>0.48956523304713978</v>
+        <v>0.48956312689740528</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>138</v>
@@ -10669,7 +10671,7 @@
         <v>50787</v>
       </c>
       <c r="I26" s="32">
-        <v>0.39662795867057987</v>
+        <v>0.39662612358610461</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>139</v>
@@ -10699,7 +10701,7 @@
         <v>52614</v>
       </c>
       <c r="I27" s="32">
-        <v>0.32340521637732628</v>
+        <v>0.32340364861180199</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>140</v>
@@ -10729,7 +10731,7 @@
         <v>56268</v>
       </c>
       <c r="I28" s="32">
-        <v>0.2252585858919666</v>
+        <v>0.22525747946060301</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>141</v>
@@ -10759,7 +10761,7 @@
         <v>59918</v>
       </c>
       <c r="I29" s="32">
-        <v>0.16094323852142145</v>
+        <v>0.16094246296918882</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>142</v>
@@ -13188,7 +13190,7 @@
       </c>
       <c r="F3" s="102" t="str">
         <f>_xll.qlDepositRateHelper2(E3,D3,"1d",2,"target","following",FALSE,"act/360",Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_SND#0002</v>
+        <v>USD_YC3MRH_SND#0000</v>
       </c>
       <c r="G3" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13215,7 +13217,7 @@
       </c>
       <c r="F4" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_SWD#0002</v>
+        <v>USD_YC3MRH_SWD#0000</v>
       </c>
       <c r="G4" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13242,7 +13244,7 @@
       </c>
       <c r="F5" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_2WD#0002</v>
+        <v>USD_YC3MRH_2WD#0000</v>
       </c>
       <c r="G5" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13269,7 +13271,7 @@
       </c>
       <c r="F6" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_3WD#0002</v>
+        <v>USD_YC3MRH_3WD#0000</v>
       </c>
       <c r="G6" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13296,7 +13298,7 @@
       </c>
       <c r="F7" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_1MD#0002</v>
+        <v>USD_YC3MRH_1MD#0000</v>
       </c>
       <c r="G7" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13323,7 +13325,7 @@
       </c>
       <c r="F8" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_2MD#0002</v>
+        <v>USD_YC3MRH_2MD#0000</v>
       </c>
       <c r="G8" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13350,7 +13352,7 @@
       </c>
       <c r="F9" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_3MD#0002</v>
+        <v>USD_YC3MRH_3MD#0000</v>
       </c>
       <c r="G9" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13485,7 +13487,7 @@
       </c>
       <c r="I3" s="141" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MF4#0002</v>
+        <v>USD_YC3MRH_FUT3MF4#0000</v>
       </c>
       <c r="J3" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13523,7 +13525,7 @@
       </c>
       <c r="I4" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MG4#0002</v>
+        <v>USD_YC3MRH_FUT3MG4#0000</v>
       </c>
       <c r="J4" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13573,7 +13575,7 @@
       </c>
       <c r="I5" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH4#0002</v>
+        <v>USD_YC3MRH_FUT3MH4#0000</v>
       </c>
       <c r="J5" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13611,7 +13613,7 @@
       </c>
       <c r="I6" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MJ4#0002</v>
+        <v>USD_YC3MRH_FUT3MJ4#0000</v>
       </c>
       <c r="J6" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13649,7 +13651,7 @@
       </c>
       <c r="I7" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MK4#0002</v>
+        <v>USD_YC3MRH_FUT3MK4#0000</v>
       </c>
       <c r="J7" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13687,7 +13689,7 @@
       </c>
       <c r="I8" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM4#0002</v>
+        <v>USD_YC3MRH_FUT3MM4#0000</v>
       </c>
       <c r="J8" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13725,7 +13727,7 @@
       </c>
       <c r="I9" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MN4#0002</v>
+        <v>USD_YC3MRH_FUT3MN4#0000</v>
       </c>
       <c r="J9" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -13763,7 +13765,7 @@
       </c>
       <c r="I10" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MQ4#0002</v>
+        <v>USD_YC3MRH_FUT3MQ4#0000</v>
       </c>
       <c r="J10" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -13801,7 +13803,7 @@
       </c>
       <c r="I11" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU4#0002</v>
+        <v>USD_YC3MRH_FUT3MU4#0000</v>
       </c>
       <c r="J11" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -13851,7 +13853,7 @@
       </c>
       <c r="I12" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MV4#0002</v>
+        <v>USD_YC3MRH_FUT3MV4#0000</v>
       </c>
       <c r="J12" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -13889,7 +13891,7 @@
       </c>
       <c r="I13" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MX4#0002</v>
+        <v>USD_YC3MRH_FUT3MX4#0000</v>
       </c>
       <c r="J13" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -13927,7 +13929,7 @@
       </c>
       <c r="I14" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ4#0002</v>
+        <v>USD_YC3MRH_FUT3MZ4#0000</v>
       </c>
       <c r="J14" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -13965,7 +13967,7 @@
       </c>
       <c r="I15" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH5#0002</v>
+        <v>USD_YC3MRH_FUT3MH5#0000</v>
       </c>
       <c r="J15" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -14003,7 +14005,7 @@
       </c>
       <c r="I16" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM5#0002</v>
+        <v>USD_YC3MRH_FUT3MM5#0000</v>
       </c>
       <c r="J16" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -14041,7 +14043,7 @@
       </c>
       <c r="I17" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU5#0002</v>
+        <v>USD_YC3MRH_FUT3MU5#0000</v>
       </c>
       <c r="J17" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -14079,7 +14081,7 @@
       </c>
       <c r="I18" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ5#0002</v>
+        <v>USD_YC3MRH_FUT3MZ5#0000</v>
       </c>
       <c r="J18" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -14117,7 +14119,7 @@
       </c>
       <c r="I19" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH6#0002</v>
+        <v>USD_YC3MRH_FUT3MH6#0000</v>
       </c>
       <c r="J19" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -14155,7 +14157,7 @@
       </c>
       <c r="I20" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM6#0002</v>
+        <v>USD_YC3MRH_FUT3MM6#0000</v>
       </c>
       <c r="J20" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -14193,7 +14195,7 @@
       </c>
       <c r="I21" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU6#0002</v>
+        <v>USD_YC3MRH_FUT3MU6#0000</v>
       </c>
       <c r="J21" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -14231,7 +14233,7 @@
       </c>
       <c r="I22" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ6#0002</v>
+        <v>USD_YC3MRH_FUT3MZ6#0000</v>
       </c>
       <c r="J22" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -14269,7 +14271,7 @@
       </c>
       <c r="I23" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH7#0002</v>
+        <v>USD_YC3MRH_FUT3MH7#0000</v>
       </c>
       <c r="J23" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -14307,7 +14309,7 @@
       </c>
       <c r="I24" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM7#0002</v>
+        <v>USD_YC3MRH_FUT3MM7#0000</v>
       </c>
       <c r="J24" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -14345,7 +14347,7 @@
       </c>
       <c r="I25" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU7#0002</v>
+        <v>USD_YC3MRH_FUT3MU7#0000</v>
       </c>
       <c r="J25" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -14383,7 +14385,7 @@
       </c>
       <c r="I26" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ7#0002</v>
+        <v>USD_YC3MRH_FUT3MZ7#0000</v>
       </c>
       <c r="J26" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -14421,7 +14423,7 @@
       </c>
       <c r="I27" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH8#0002</v>
+        <v>USD_YC3MRH_FUT3MH8#0000</v>
       </c>
       <c r="J27" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -14459,7 +14461,7 @@
       </c>
       <c r="I28" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM8#0002</v>
+        <v>USD_YC3MRH_FUT3MM8#0000</v>
       </c>
       <c r="J28" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -14497,7 +14499,7 @@
       </c>
       <c r="I29" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU8#0002</v>
+        <v>USD_YC3MRH_FUT3MU8#0000</v>
       </c>
       <c r="J29" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -14535,7 +14537,7 @@
       </c>
       <c r="I30" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ8#0002</v>
+        <v>USD_YC3MRH_FUT3MZ8#0000</v>
       </c>
       <c r="J30" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -14573,7 +14575,7 @@
       </c>
       <c r="I31" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH9#0002</v>
+        <v>USD_YC3MRH_FUT3MH9#0000</v>
       </c>
       <c r="J31" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -14611,7 +14613,7 @@
       </c>
       <c r="I32" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM9#0002</v>
+        <v>USD_YC3MRH_FUT3MM9#0000</v>
       </c>
       <c r="J32" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -14649,7 +14651,7 @@
       </c>
       <c r="I33" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU9#0002</v>
+        <v>USD_YC3MRH_FUT3MU9#0000</v>
       </c>
       <c r="J33" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -14687,7 +14689,7 @@
       </c>
       <c r="I34" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ9#0002</v>
+        <v>USD_YC3MRH_FUT3MZ9#0000</v>
       </c>
       <c r="J34" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -14725,7 +14727,7 @@
       </c>
       <c r="I35" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH0#0002</v>
+        <v>USD_YC3MRH_FUT3MH0#0000</v>
       </c>
       <c r="J35" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -14763,7 +14765,7 @@
       </c>
       <c r="I36" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM0#0002</v>
+        <v>USD_YC3MRH_FUT3MM0#0000</v>
       </c>
       <c r="J36" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -14801,7 +14803,7 @@
       </c>
       <c r="I37" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU0#0002</v>
+        <v>USD_YC3MRH_FUT3MU0#0000</v>
       </c>
       <c r="J37" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -14839,7 +14841,7 @@
       </c>
       <c r="I38" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ0#0002</v>
+        <v>USD_YC3MRH_FUT3MZ0#0000</v>
       </c>
       <c r="J38" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -14877,7 +14879,7 @@
       </c>
       <c r="I39" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH1#0002</v>
+        <v>USD_YC3MRH_FUT3MH1#0000</v>
       </c>
       <c r="J39" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -14915,7 +14917,7 @@
       </c>
       <c r="I40" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM1#0002</v>
+        <v>USD_YC3MRH_FUT3MM1#0000</v>
       </c>
       <c r="J40" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -14952,7 +14954,7 @@
       </c>
       <c r="I41" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU1#0002</v>
+        <v>USD_YC3MRH_FUT3MU1#0000</v>
       </c>
       <c r="J41" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -14989,7 +14991,7 @@
       </c>
       <c r="I42" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ1#0002</v>
+        <v>USD_YC3MRH_FUT3MZ1#0000</v>
       </c>
       <c r="J42" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -15026,7 +15028,7 @@
       </c>
       <c r="I43" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH2#0002</v>
+        <v>USD_YC3MRH_FUT3MH2#0000</v>
       </c>
       <c r="J43" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -15063,7 +15065,7 @@
       </c>
       <c r="I44" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM2#0002</v>
+        <v>USD_YC3MRH_FUT3MM2#0000</v>
       </c>
       <c r="J44" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -15219,7 +15221,7 @@
       </c>
       <c r="L4" s="172" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YC3MRH_AM3L_Libor3M#0002</v>
+        <v>USD_YC3MRH_AM3L_Libor3M#0000</v>
       </c>
       <c r="M4" s="171" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -15283,7 +15285,7 @@
       </c>
       <c r="L6" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L1Y#0002</v>
+        <v>USD_YC3MRH_AM3L1Y#0000</v>
       </c>
       <c r="M6" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -15338,7 +15340,7 @@
       </c>
       <c r="L7" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L15M#0002</v>
+        <v>USD_YC3MRH_AM3L15M#0000</v>
       </c>
       <c r="M7" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -15393,7 +15395,7 @@
       </c>
       <c r="L8" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L18M#0002</v>
+        <v>USD_YC3MRH_AM3L18M#0000</v>
       </c>
       <c r="M8" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -15448,7 +15450,7 @@
       </c>
       <c r="L9" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L21M#0002</v>
+        <v>USD_YC3MRH_AM3L21M#0000</v>
       </c>
       <c r="M9" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -15503,7 +15505,7 @@
       </c>
       <c r="L10" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L2Y#0002</v>
+        <v>USD_YC3MRH_AM3L2Y#0000</v>
       </c>
       <c r="M10" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -15558,7 +15560,7 @@
       </c>
       <c r="L11" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L3Y#0002</v>
+        <v>USD_YC3MRH_AM3L3Y#0000</v>
       </c>
       <c r="M11" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -15604,7 +15606,7 @@
       </c>
       <c r="L12" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L4Y#0002</v>
+        <v>USD_YC3MRH_AM3L4Y#0000</v>
       </c>
       <c r="M12" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -15650,7 +15652,7 @@
       </c>
       <c r="L13" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L5Y#0002</v>
+        <v>USD_YC3MRH_AM3L5Y#0000</v>
       </c>
       <c r="M13" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -15696,7 +15698,7 @@
       </c>
       <c r="L14" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L6Y#0002</v>
+        <v>USD_YC3MRH_AM3L6Y#0000</v>
       </c>
       <c r="M14" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -15742,7 +15744,7 @@
       </c>
       <c r="L15" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L7Y#0002</v>
+        <v>USD_YC3MRH_AM3L7Y#0000</v>
       </c>
       <c r="M15" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -15788,7 +15790,7 @@
       </c>
       <c r="L16" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L8Y#0002</v>
+        <v>USD_YC3MRH_AM3L8Y#0000</v>
       </c>
       <c r="M16" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -15834,7 +15836,7 @@
       </c>
       <c r="L17" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L9Y#0002</v>
+        <v>USD_YC3MRH_AM3L9Y#0000</v>
       </c>
       <c r="M17" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -15880,7 +15882,7 @@
       </c>
       <c r="L18" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L10Y#0002</v>
+        <v>USD_YC3MRH_AM3L10Y#0000</v>
       </c>
       <c r="M18" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -15926,7 +15928,7 @@
       </c>
       <c r="L19" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L11Y#0002</v>
+        <v>USD_YC3MRH_AM3L11Y#0000</v>
       </c>
       <c r="M19" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -15972,7 +15974,7 @@
       </c>
       <c r="L20" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L12Y#0002</v>
+        <v>USD_YC3MRH_AM3L12Y#0000</v>
       </c>
       <c r="M20" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -16018,7 +16020,7 @@
       </c>
       <c r="L21" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L13Y#0002</v>
+        <v>USD_YC3MRH_AM3L13Y#0000</v>
       </c>
       <c r="M21" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -16064,7 +16066,7 @@
       </c>
       <c r="L22" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L14Y#0002</v>
+        <v>USD_YC3MRH_AM3L14Y#0000</v>
       </c>
       <c r="M22" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -16110,7 +16112,7 @@
       </c>
       <c r="L23" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L15Y#0002</v>
+        <v>USD_YC3MRH_AM3L15Y#0000</v>
       </c>
       <c r="M23" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -16156,7 +16158,7 @@
       </c>
       <c r="L24" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L16Y#0002</v>
+        <v>USD_YC3MRH_AM3L16Y#0000</v>
       </c>
       <c r="M24" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -16202,7 +16204,7 @@
       </c>
       <c r="L25" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L17Y#0002</v>
+        <v>USD_YC3MRH_AM3L17Y#0000</v>
       </c>
       <c r="M25" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -16248,7 +16250,7 @@
       </c>
       <c r="L26" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L18Y#0002</v>
+        <v>USD_YC3MRH_AM3L18Y#0000</v>
       </c>
       <c r="M26" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -16294,7 +16296,7 @@
       </c>
       <c r="L27" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L19Y#0002</v>
+        <v>USD_YC3MRH_AM3L19Y#0000</v>
       </c>
       <c r="M27" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -16340,7 +16342,7 @@
       </c>
       <c r="L28" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L20Y#0002</v>
+        <v>USD_YC3MRH_AM3L20Y#0000</v>
       </c>
       <c r="M28" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -16386,7 +16388,7 @@
       </c>
       <c r="L29" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L21Y#0002</v>
+        <v>USD_YC3MRH_AM3L21Y#0000</v>
       </c>
       <c r="M29" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -16432,7 +16434,7 @@
       </c>
       <c r="L30" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L22Y#0002</v>
+        <v>USD_YC3MRH_AM3L22Y#0000</v>
       </c>
       <c r="M30" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -16478,7 +16480,7 @@
       </c>
       <c r="L31" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L23Y#0002</v>
+        <v>USD_YC3MRH_AM3L23Y#0000</v>
       </c>
       <c r="M31" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -16524,7 +16526,7 @@
       </c>
       <c r="L32" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L24Y#0002</v>
+        <v>USD_YC3MRH_AM3L24Y#0000</v>
       </c>
       <c r="M32" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -16570,7 +16572,7 @@
       </c>
       <c r="L33" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L25Y#0002</v>
+        <v>USD_YC3MRH_AM3L25Y#0000</v>
       </c>
       <c r="M33" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -16616,7 +16618,7 @@
       </c>
       <c r="L34" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L26Y#0002</v>
+        <v>USD_YC3MRH_AM3L26Y#0000</v>
       </c>
       <c r="M34" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -16662,7 +16664,7 @@
       </c>
       <c r="L35" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L27Y#0002</v>
+        <v>USD_YC3MRH_AM3L27Y#0000</v>
       </c>
       <c r="M35" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -16708,7 +16710,7 @@
       </c>
       <c r="L36" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L28Y#0002</v>
+        <v>USD_YC3MRH_AM3L28Y#0000</v>
       </c>
       <c r="M36" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -16754,7 +16756,7 @@
       </c>
       <c r="L37" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L29Y#0002</v>
+        <v>USD_YC3MRH_AM3L29Y#0000</v>
       </c>
       <c r="M37" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -16800,7 +16802,7 @@
       </c>
       <c r="L38" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L30Y#0002</v>
+        <v>USD_YC3MRH_AM3L30Y#0000</v>
       </c>
       <c r="M38" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -16846,7 +16848,7 @@
       </c>
       <c r="L39" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L35Y#0002</v>
+        <v>USD_YC3MRH_AM3L35Y#0000</v>
       </c>
       <c r="M39" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -16892,7 +16894,7 @@
       </c>
       <c r="L40" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L40Y#0002</v>
+        <v>USD_YC3MRH_AM3L40Y#0000</v>
       </c>
       <c r="M40" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -16938,7 +16940,7 @@
       </c>
       <c r="L41" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L50Y#0002</v>
+        <v>USD_YC3MRH_AM3L50Y#0000</v>
       </c>
       <c r="M41" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -16984,7 +16986,7 @@
       </c>
       <c r="L42" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L60Y#0002</v>
+        <v>USD_YC3MRH_AM3L60Y#0000</v>
       </c>
       <c r="M42" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -17042,7 +17044,7 @@
       </c>
       <c r="L44" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K44,$J44,$E44&amp;"M",Calendar,$F44,$G44,$H44,$L$4,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_1S12#0002</v>
+        <v>USD_YC3MRH_1S12#0000</v>
       </c>
       <c r="M44" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -17087,7 +17089,7 @@
       </c>
       <c r="L45" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K45,$J45,$E45&amp;"M",Calendar,$F45,$G45,$H45,$L$4,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_2S12#0002</v>
+        <v>USD_YC3MRH_2S12#0000</v>
       </c>
       <c r="M45" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -17132,7 +17134,7 @@
       </c>
       <c r="L46" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K46,$J46,$E46&amp;"M",Calendar,$F46,$G46,$H46,$L$4,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_3S12#0002</v>
+        <v>USD_YC3MRH_3S12#0000</v>
       </c>
       <c r="M46" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -17177,7 +17179,7 @@
       </c>
       <c r="L47" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K47,$J47,$E47&amp;"M",Calendar,$F47,$G47,$H47,$L$4,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_4S12#0002</v>
+        <v>USD_YC3MRH_4S12#0000</v>
       </c>
       <c r="M47" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -17222,7 +17224,7 @@
       </c>
       <c r="L48" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K48,$J48,$E48&amp;"M",Calendar,$F48,$G48,$H48,$L$4,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_1S24#0002</v>
+        <v>USD_YC3MRH_1S24#0000</v>
       </c>
       <c r="M48" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -17267,7 +17269,7 @@
       </c>
       <c r="L49" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K49,$J49,$E49&amp;"M",Calendar,$F49,$G49,$H49,$L$4,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_2S24#0002</v>
+        <v>USD_YC3MRH_2S24#0000</v>
       </c>
       <c r="M49" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -17312,7 +17314,7 @@
       </c>
       <c r="L50" s="154" t="str">
         <f>_xll.qlSwapRateHelper2(K50,$J50,$E50&amp;"M",Calendar,$F50,$G50,$H50,$L$4,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_1S36#0002</v>
+        <v>USD_YC3MRH_1S36#0000</v>
       </c>
       <c r="M50" s="153" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>

--- a/QuantLibXL/Data2/XLS/USD_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YC3MBootstrapping.xlsx
@@ -907,7 +907,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -965,6 +965,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,7 +1416,7 @@
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1811,12 +1817,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="10" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1839,6 +1839,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2163,7 +2172,8 @@
     <col min="4" max="4" width="23.85546875" style="181" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="181" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.7109375" style="181" customWidth="1"/>
-    <col min="8" max="9" width="8" style="181"/>
+    <col min="8" max="8" width="4" style="181" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="181" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="2.7109375" style="181" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" style="181" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="53.7109375" style="181" bestFit="1" customWidth="1"/>
@@ -2174,23 +2184,23 @@
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="181" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 15 2014 16:53:36</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="183" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="191"/>
-      <c r="K2" s="189" t="s">
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="185"/>
+      <c r="K2" s="183" t="s">
         <v>160</v>
       </c>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="197"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="60"/>
@@ -2213,10 +2223,10 @@
       </c>
       <c r="E4" s="57"/>
       <c r="F4" s="56"/>
-      <c r="H4" s="184" t="s">
+      <c r="H4" s="191" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="185"/>
+      <c r="I4" s="192"/>
       <c r="K4" s="127"/>
       <c r="L4" s="126" t="s">
         <v>159</v>
@@ -2236,10 +2246,10 @@
       </c>
       <c r="E5" s="57"/>
       <c r="F5" s="56"/>
-      <c r="H5" s="182" t="s">
+      <c r="H5" s="193" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="183" t="s">
+      <c r="I5" s="194" t="s">
         <v>111</v>
       </c>
       <c r="K5" s="127"/>
@@ -2248,7 +2258,7 @@
       </c>
       <c r="M5" s="128" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\erik\repos\quantlib\QuantLibXL\Data2\XML\</v>
+        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
       </c>
       <c r="N5" s="125"/>
     </row>
@@ -2263,10 +2273,10 @@
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="56"/>
-      <c r="H6" s="182" t="s">
+      <c r="H6" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="183" t="s">
+      <c r="I6" s="194" t="s">
         <v>108</v>
       </c>
       <c r="K6" s="127"/>
@@ -2289,10 +2299,10 @@
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="56"/>
-      <c r="H7" s="182" t="s">
+      <c r="H7" s="193" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="183"/>
+      <c r="I7" s="194"/>
       <c r="K7" s="124"/>
       <c r="L7" s="123"/>
       <c r="M7" s="123"/>
@@ -2309,16 +2319,16 @@
       </c>
       <c r="E8" s="57"/>
       <c r="F8" s="56"/>
-      <c r="H8" s="186" t="s">
+      <c r="H8" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="187" t="s">
+      <c r="I8" s="196" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="188"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="182"/>
+      <c r="M8" s="182"/>
+      <c r="N8" s="182"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="60"/>
@@ -2331,12 +2341,12 @@
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="56"/>
-      <c r="K9" s="189" t="s">
+      <c r="K9" s="183" t="s">
         <v>156</v>
       </c>
-      <c r="L9" s="190"/>
-      <c r="M9" s="190"/>
-      <c r="N9" s="190"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="197"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="60"/>
@@ -2359,7 +2369,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="85">
-        <v>41655.66741898148</v>
+        <v>41684.590694444443</v>
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="56"/>
@@ -2413,7 +2423,7 @@
       </c>
       <c r="D14" s="82" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYC3M#0001</v>
+        <v>_USDYC3M#0000</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="56"/>
@@ -2590,7 +2600,7 @@
       <c r="B27" s="60"/>
       <c r="C27" s="64">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="D27" s="63">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2603,11 +2613,11 @@
       <c r="B28" s="60"/>
       <c r="C28" s="62">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>59918</v>
+        <v>59950</v>
       </c>
       <c r="D28" s="61">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.16094246296918882</v>
+        <v>0.16094708258361992</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="56"/>
@@ -2698,11 +2708,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="192" t="s">
+      <c r="B1" s="186" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="194"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="188"/>
       <c r="E1" s="31" t="s">
         <v>74</v>
       </c>
@@ -2832,11 +2842,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41659</v>
+        <v>41689</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -2871,11 +2881,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41663</v>
+        <v>41695</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -2910,11 +2920,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41670</v>
+        <v>41702</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -2949,11 +2959,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41677</v>
+        <v>41709</v>
       </c>
       <c r="M7" s="1">
         <v>60</v>
@@ -2988,11 +2998,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41687</v>
+        <v>41716</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -3027,11 +3037,11 @@
       </c>
       <c r="K9" s="11">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L9" s="10">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41715</v>
+        <v>41751</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -3060,11 +3070,11 @@
       </c>
       <c r="K10" s="11">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L10" s="10">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41746</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
@@ -4006,19 +4016,19 @@
       </c>
       <c r="D36" s="14" t="str">
         <f t="array" ref="D36:D77">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A36:$A77)</f>
-        <v>F4</v>
+        <v>G4</v>
       </c>
       <c r="E36" s="14" t="str">
         <f>'3M_Futures'!I3</f>
-        <v>USD_YC3MRH_FUT3MF4#0000</v>
-      </c>
-      <c r="F36" s="28" t="e">
+        <v>USD_YC3MRH_FUT3MG4#0000</v>
+      </c>
+      <c r="F36" s="28">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G36" s="13" t="e">
+        <v>99.754999999999995</v>
+      </c>
+      <c r="G36" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E36,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H36" s="12" t="b">
         <v>1</v>
@@ -4031,11 +4041,11 @@
       </c>
       <c r="K36" s="11">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>41654</v>
+        <v>41689</v>
       </c>
       <c r="L36" s="10">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>41744</v>
+        <v>41778</v>
       </c>
       <c r="N36" s="1">
         <v>1</v>
@@ -4051,11 +4061,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D37" s="14" t="str">
-        <v>G4</v>
+        <v>H4</v>
       </c>
       <c r="E37" s="14" t="str">
         <f>'3M_Futures'!I4</f>
-        <v>USD_YC3MRH_FUT3MG4#0000</v>
+        <v>USD_YC3MRH_FUT3MH4#0000</v>
       </c>
       <c r="F37" s="28">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4076,11 +4086,11 @@
       </c>
       <c r="K37" s="11">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>41689</v>
+        <v>41717</v>
       </c>
       <c r="L37" s="10">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>41778</v>
+        <v>41809</v>
       </c>
       <c r="N37" s="1">
         <v>2</v>
@@ -4096,11 +4106,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D38" s="14" t="str">
-        <v>H4</v>
+        <v>J4</v>
       </c>
       <c r="E38" s="14" t="str">
         <f>'3M_Futures'!I5</f>
-        <v>USD_YC3MRH_FUT3MH4#0000</v>
+        <v>USD_YC3MRH_FUT3MJ4#0000</v>
       </c>
       <c r="F38" s="28">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4121,11 +4131,11 @@
       </c>
       <c r="K38" s="11">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>41717</v>
+        <v>41745</v>
       </c>
       <c r="L38" s="10">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>41809</v>
+        <v>41836</v>
       </c>
       <c r="N38" s="1">
         <v>3</v>
@@ -4141,11 +4151,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D39" s="14" t="str">
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E39" s="14" t="str">
         <f>'3M_Futures'!I6</f>
-        <v>USD_YC3MRH_FUT3MJ4#0000</v>
+        <v>USD_YC3MRH_FUT3MK4#0000</v>
       </c>
       <c r="F39" s="28">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4166,11 +4176,11 @@
       </c>
       <c r="K39" s="11">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>41745</v>
+        <v>41780</v>
       </c>
       <c r="L39" s="10">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>41836</v>
+        <v>41872</v>
       </c>
       <c r="N39" s="1">
         <v>4</v>
@@ -4186,11 +4196,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D40" s="14" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E40" s="14" t="str">
         <f>'3M_Futures'!I7</f>
-        <v>USD_YC3MRH_FUT3MK4#0000</v>
+        <v>USD_YC3MRH_FUT3MM4#0000</v>
       </c>
       <c r="F40" s="28">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4211,11 +4221,11 @@
       </c>
       <c r="K40" s="11">
         <f>_xll.qlRateHelperEarliestDate($E40,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="L40" s="10">
         <f>_xll.qlRateHelperLatestDate($E40,Trigger)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
       <c r="N40" s="1">
         <v>5</v>
@@ -4231,11 +4241,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D41" s="14" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E41" s="14" t="str">
         <f>'3M_Futures'!I8</f>
-        <v>USD_YC3MRH_FUT3MM4#0000</v>
+        <v>USD_YC3MRH_FUT3MN4#0000</v>
       </c>
       <c r="F41" s="28">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4256,11 +4266,11 @@
       </c>
       <c r="K41" s="11">
         <f>_xll.qlRateHelperEarliestDate($E41,Trigger)</f>
-        <v>41808</v>
+        <v>41836</v>
       </c>
       <c r="L41" s="10">
         <f>_xll.qlRateHelperLatestDate($E41,Trigger)</f>
-        <v>41900</v>
+        <v>41928</v>
       </c>
       <c r="N41" s="1">
         <v>6</v>
@@ -4276,11 +4286,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D42" s="14" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E42" s="14" t="str">
         <f>'3M_Futures'!I9</f>
-        <v>USD_YC3MRH_FUT3MN4#0000</v>
+        <v>USD_YC3MRH_FUT3MQ4#0000</v>
       </c>
       <c r="F42" s="28">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4301,11 +4311,11 @@
       </c>
       <c r="K42" s="11">
         <f>_xll.qlRateHelperEarliestDate($E42,Trigger)</f>
-        <v>41836</v>
+        <v>41871</v>
       </c>
       <c r="L42" s="10">
         <f>_xll.qlRateHelperLatestDate($E42,Trigger)</f>
-        <v>41928</v>
+        <v>41963</v>
       </c>
       <c r="N42" s="1">
         <v>7</v>
@@ -4321,19 +4331,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D43" s="14" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E43" s="14" t="str">
         <f>'3M_Futures'!I10</f>
-        <v>USD_YC3MRH_FUT3MQ4#0000</v>
-      </c>
-      <c r="F43" s="28" t="e">
+        <v>USD_YC3MRH_FUT3MU4#0000</v>
+      </c>
+      <c r="F43" s="28">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G43" s="13" t="e">
+        <v>99.647499999999994</v>
+      </c>
+      <c r="G43" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E43,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H43" s="12" t="b">
         <v>1</v>
@@ -4346,11 +4356,11 @@
       </c>
       <c r="K43" s="11">
         <f>_xll.qlRateHelperEarliestDate($E43,Trigger)</f>
-        <v>41871</v>
+        <v>41899</v>
       </c>
       <c r="L43" s="10">
         <f>_xll.qlRateHelperLatestDate($E43,Trigger)</f>
-        <v>41963</v>
+        <v>41990</v>
       </c>
       <c r="N43" s="1">
         <v>8</v>
@@ -4366,11 +4376,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D44" s="14" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E44" s="14" t="str">
         <f>'3M_Futures'!I11</f>
-        <v>USD_YC3MRH_FUT3MU4#0000</v>
+        <v>USD_YC3MRH_FUT3MV4#0000</v>
       </c>
       <c r="F44" s="28">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4391,11 +4401,11 @@
       </c>
       <c r="K44" s="11">
         <f>_xll.qlRateHelperEarliestDate($E44,Trigger)</f>
-        <v>41899</v>
+        <v>41927</v>
       </c>
       <c r="L44" s="10">
         <f>_xll.qlRateHelperLatestDate($E44,Trigger)</f>
-        <v>41990</v>
+        <v>42019</v>
       </c>
       <c r="N44" s="1">
         <v>9</v>
@@ -4411,11 +4421,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D45" s="14" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E45" s="14" t="str">
         <f>'3M_Futures'!I12</f>
-        <v>USD_YC3MRH_FUT3MV4#0000</v>
+        <v>USD_YC3MRH_FUT3MX4#0000</v>
       </c>
       <c r="F45" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4436,11 +4446,11 @@
       </c>
       <c r="K45" s="11">
         <f>_xll.qlRateHelperEarliestDate($E45,Trigger)</f>
-        <v>41927</v>
+        <v>41962</v>
       </c>
       <c r="L45" s="10">
         <f>_xll.qlRateHelperLatestDate($E45,Trigger)</f>
-        <v>42019</v>
+        <v>42054</v>
       </c>
       <c r="N45" s="1">
         <v>10</v>
@@ -4456,19 +4466,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D46" s="14" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E46" s="14" t="str">
         <f>'3M_Futures'!I13</f>
-        <v>USD_YC3MRH_FUT3MX4#0000</v>
-      </c>
-      <c r="F46" s="28" t="e">
+        <v>USD_YC3MRH_FUT3MZ4#0000</v>
+      </c>
+      <c r="F46" s="28">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G46" s="13" t="e">
+        <v>99.5625</v>
+      </c>
+      <c r="G46" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H46" s="12" t="b">
         <v>1</v>
@@ -4481,11 +4491,11 @@
       </c>
       <c r="K46" s="11">
         <f>_xll.qlRateHelperEarliestDate($E46,Trigger)</f>
-        <v>41962</v>
+        <v>41990</v>
       </c>
       <c r="L46" s="10">
         <f>_xll.qlRateHelperLatestDate($E46,Trigger)</f>
-        <v>42054</v>
+        <v>42080</v>
       </c>
       <c r="N46" s="1">
         <v>11</v>
@@ -4501,11 +4511,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D47" s="14" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E47" s="14" t="str">
         <f>'3M_Futures'!I14</f>
-        <v>USD_YC3MRH_FUT3MZ4#0000</v>
+        <v>USD_YC3MRH_FUT3MF5#0000</v>
       </c>
       <c r="F47" s="28">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4526,11 +4536,11 @@
       </c>
       <c r="K47" s="11">
         <f>_xll.qlRateHelperEarliestDate($E47,Trigger)</f>
-        <v>41990</v>
+        <v>42025</v>
       </c>
       <c r="L47" s="10">
         <f>_xll.qlRateHelperLatestDate($E47,Trigger)</f>
-        <v>42080</v>
+        <v>42115</v>
       </c>
       <c r="N47" s="1">
         <v>12</v>
@@ -6319,9 +6329,9 @@
         <f t="shared" si="4"/>
         <v>USD_YC3MRH_1S12</v>
       </c>
-      <c r="F89" s="21" t="e">
+      <c r="F89" s="21">
         <f>_xll.qlRateHelperQuoteValue($E89,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.1700000000000001E-3</v>
       </c>
       <c r="G89" s="21">
         <f>_xll.qlSwapRateHelperSpread($E89,Trigger)</f>
@@ -6338,11 +6348,11 @@
       </c>
       <c r="K89" s="19">
         <f>_xll.qlRateHelperEarliestDate($E89,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L89" s="18">
         <f>_xll.qlRateHelperLatestDate($E89,Trigger)</f>
-        <v>42023</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.2">
@@ -6357,9 +6367,9 @@
         <f t="shared" si="4"/>
         <v>USD_YC3MRH_2S12</v>
       </c>
-      <c r="F90" s="13" t="e">
+      <c r="F90" s="13">
         <f>_xll.qlRateHelperQuoteValue($E90,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.6900000000000001E-3</v>
       </c>
       <c r="G90" s="13">
         <f>_xll.qlSwapRateHelperSpread($E90,Trigger)</f>
@@ -6376,11 +6386,11 @@
       </c>
       <c r="K90" s="11">
         <f>_xll.qlRateHelperEarliestDate($E90,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L90" s="10">
         <f>_xll.qlRateHelperLatestDate($E90,Trigger)</f>
-        <v>42023</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.2">
@@ -6395,9 +6405,9 @@
         <f t="shared" si="4"/>
         <v>USD_YC3MRH_3S12</v>
       </c>
-      <c r="F91" s="13" t="e">
+      <c r="F91" s="13">
         <f>_xll.qlRateHelperQuoteValue($E91,Trigger)</f>
-        <v>#NUM!</v>
+        <v>4.3600000000000002E-3</v>
       </c>
       <c r="G91" s="13">
         <f>_xll.qlSwapRateHelperSpread($E91,Trigger)</f>
@@ -6414,11 +6424,11 @@
       </c>
       <c r="K91" s="11">
         <f>_xll.qlRateHelperEarliestDate($E91,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L91" s="10">
         <f>_xll.qlRateHelperLatestDate($E91,Trigger)</f>
-        <v>42023</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
@@ -6433,9 +6443,9 @@
         <f t="shared" si="4"/>
         <v>USD_YC3MRH_4S12</v>
       </c>
-      <c r="F92" s="13" t="e">
+      <c r="F92" s="13">
         <f>_xll.qlRateHelperQuoteValue($E92,Trigger)</f>
-        <v>#NUM!</v>
+        <v>5.2100000000000002E-3</v>
       </c>
       <c r="G92" s="13">
         <f>_xll.qlSwapRateHelperSpread($E92,Trigger)</f>
@@ -6452,11 +6462,11 @@
       </c>
       <c r="K92" s="11">
         <f>_xll.qlRateHelperEarliestDate($E92,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L92" s="10">
         <f>_xll.qlRateHelperLatestDate($E92,Trigger)</f>
-        <v>42023</v>
+        <v>42053</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
@@ -6490,11 +6500,11 @@
       </c>
       <c r="K93" s="11">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L93" s="10">
         <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>42387</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.2">
@@ -6528,11 +6538,11 @@
       </c>
       <c r="K94" s="11">
         <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L94" s="10">
         <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
-        <v>42387</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.2">
@@ -6566,11 +6576,11 @@
       </c>
       <c r="K95" s="4">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L95" s="3">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>42752</v>
+        <v>42786</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.2">
@@ -6608,11 +6618,11 @@
       </c>
       <c r="K96" s="11">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L96" s="10">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>42023</v>
+        <v>42053</v>
       </c>
       <c r="N96" s="17" t="e">
         <f t="shared" ref="N96:N132" si="7">IF(G96=G133,F96-F133,"--")</f>
@@ -6654,11 +6664,11 @@
       </c>
       <c r="K97" s="11">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L97" s="10">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>42111</v>
+        <v>42142</v>
       </c>
       <c r="N97" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6700,11 +6710,11 @@
       </c>
       <c r="K98" s="11">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L98" s="10">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>42202</v>
+        <v>42234</v>
       </c>
       <c r="N98" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6746,11 +6756,11 @@
       </c>
       <c r="K99" s="11">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L99" s="10">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>42296</v>
+        <v>42326</v>
       </c>
       <c r="N99" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6792,11 +6802,11 @@
       </c>
       <c r="K100" s="11">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L100" s="10">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>42387</v>
+        <v>42418</v>
       </c>
       <c r="N100" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6838,11 +6848,11 @@
       </c>
       <c r="K101" s="11">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L101" s="10">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>42752</v>
+        <v>42786</v>
       </c>
       <c r="N101" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6884,11 +6894,11 @@
       </c>
       <c r="K102" s="11">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L102" s="10">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>43117</v>
+        <v>43150</v>
       </c>
       <c r="N102" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6930,11 +6940,11 @@
       </c>
       <c r="K103" s="11">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L103" s="10">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>43482</v>
+        <v>43514</v>
       </c>
       <c r="N103" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6976,11 +6986,11 @@
       </c>
       <c r="K104" s="11">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L104" s="10">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>43847</v>
+        <v>43879</v>
       </c>
       <c r="N104" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7022,11 +7032,11 @@
       </c>
       <c r="K105" s="11">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L105" s="10">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>44214</v>
+        <v>44245</v>
       </c>
       <c r="N105" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7068,11 +7078,11 @@
       </c>
       <c r="K106" s="11">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L106" s="10">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>44578</v>
+        <v>44610</v>
       </c>
       <c r="N106" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7114,11 +7124,11 @@
       </c>
       <c r="K107" s="11">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L107" s="10">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>44943</v>
+        <v>44977</v>
       </c>
       <c r="N107" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7160,11 +7170,11 @@
       </c>
       <c r="K108" s="11">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L108" s="10">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>45308</v>
+        <v>45341</v>
       </c>
       <c r="N108" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7206,11 +7216,11 @@
       </c>
       <c r="K109" s="11">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L109" s="10">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>45674</v>
+        <v>45706</v>
       </c>
       <c r="N109" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7252,11 +7262,11 @@
       </c>
       <c r="K110" s="11">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L110" s="10">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>46041</v>
+        <v>46071</v>
       </c>
       <c r="N110" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7298,11 +7308,11 @@
       </c>
       <c r="K111" s="11">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L111" s="10">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>46405</v>
+        <v>46436</v>
       </c>
       <c r="N111" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7344,11 +7354,11 @@
       </c>
       <c r="K112" s="11">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L112" s="10">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>46769</v>
+        <v>46801</v>
       </c>
       <c r="N112" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7390,11 +7400,11 @@
       </c>
       <c r="K113" s="11">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L113" s="10">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>47135</v>
+        <v>47168</v>
       </c>
       <c r="N113" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7436,11 +7446,11 @@
       </c>
       <c r="K114" s="11">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L114" s="10">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>47500</v>
+        <v>47532</v>
       </c>
       <c r="N114" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7482,11 +7492,11 @@
       </c>
       <c r="K115" s="11">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L115" s="10">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>47865</v>
+        <v>47897</v>
       </c>
       <c r="N115" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7528,11 +7538,11 @@
       </c>
       <c r="K116" s="11">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L116" s="10">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>48232</v>
+        <v>48262</v>
       </c>
       <c r="N116" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7574,11 +7584,11 @@
       </c>
       <c r="K117" s="11">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L117" s="10">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>48596</v>
+        <v>48628</v>
       </c>
       <c r="N117" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7620,11 +7630,11 @@
       </c>
       <c r="K118" s="11">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L118" s="10">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>48961</v>
+        <v>48995</v>
       </c>
       <c r="N118" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7666,11 +7676,11 @@
       </c>
       <c r="K119" s="11">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L119" s="10">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>49326</v>
+        <v>49359</v>
       </c>
       <c r="N119" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7712,11 +7722,11 @@
       </c>
       <c r="K120" s="11">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L120" s="10">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>49691</v>
+        <v>49723</v>
       </c>
       <c r="N120" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7758,11 +7768,11 @@
       </c>
       <c r="K121" s="11">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L121" s="10">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>50059</v>
+        <v>50089</v>
       </c>
       <c r="N121" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7804,11 +7814,11 @@
       </c>
       <c r="K122" s="11">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L122" s="10">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>50423</v>
+        <v>50454</v>
       </c>
       <c r="N122" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7850,11 +7860,11 @@
       </c>
       <c r="K123" s="11">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L123" s="10">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>50787</v>
+        <v>50819</v>
       </c>
       <c r="N123" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7896,11 +7906,11 @@
       </c>
       <c r="K124" s="11">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L124" s="10">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>51152</v>
+        <v>51186</v>
       </c>
       <c r="N124" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7942,11 +7952,11 @@
       </c>
       <c r="K125" s="11">
         <f>_xll.qlRateHelperEarliestDate($E125,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L125" s="10">
         <f>_xll.qlRateHelperLatestDate($E125,Trigger)</f>
-        <v>51518</v>
+        <v>51550</v>
       </c>
       <c r="N125" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7988,11 +7998,11 @@
       </c>
       <c r="K126" s="11">
         <f>_xll.qlRateHelperEarliestDate($E126,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L126" s="10">
         <f>_xll.qlRateHelperLatestDate($E126,Trigger)</f>
-        <v>51883</v>
+        <v>51915</v>
       </c>
       <c r="N126" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8034,11 +8044,11 @@
       </c>
       <c r="K127" s="11">
         <f>_xll.qlRateHelperEarliestDate($E127,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L127" s="10">
         <f>_xll.qlRateHelperLatestDate($E127,Trigger)</f>
-        <v>52250</v>
+        <v>52280</v>
       </c>
       <c r="N127" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8080,11 +8090,11 @@
       </c>
       <c r="K128" s="11">
         <f>_xll.qlRateHelperEarliestDate($E128,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L128" s="10">
         <f>_xll.qlRateHelperLatestDate($E128,Trigger)</f>
-        <v>52614</v>
+        <v>52645</v>
       </c>
       <c r="N128" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8126,11 +8136,11 @@
       </c>
       <c r="K129" s="11">
         <f>_xll.qlRateHelperEarliestDate($E129,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L129" s="10">
         <f>_xll.qlRateHelperLatestDate($E129,Trigger)</f>
-        <v>54441</v>
+        <v>54472</v>
       </c>
       <c r="N129" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8172,11 +8182,11 @@
       </c>
       <c r="K130" s="11">
         <f>_xll.qlRateHelperEarliestDate($E130,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L130" s="10">
         <f>_xll.qlRateHelperLatestDate($E130,Trigger)</f>
-        <v>56268</v>
+        <v>56298</v>
       </c>
       <c r="N130" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8218,11 +8228,11 @@
       </c>
       <c r="K131" s="11">
         <f>_xll.qlRateHelperEarliestDate($E131,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L131" s="10">
         <f>_xll.qlRateHelperLatestDate($E131,Trigger)</f>
-        <v>59918</v>
+        <v>59950</v>
       </c>
       <c r="N131" s="17" t="e">
         <f t="shared" si="7"/>
@@ -8264,11 +8274,11 @@
       </c>
       <c r="K132" s="4">
         <f>_xll.qlRateHelperEarliestDate($E132,Trigger)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="L132" s="3">
         <f>_xll.qlRateHelperLatestDate($E132,Trigger)</f>
-        <v>63571</v>
+        <v>63604</v>
       </c>
       <c r="N132" s="17" t="e">
         <f t="shared" si="7"/>
@@ -9866,10 +9876,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="189" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="196"/>
+      <c r="B1" s="190"/>
       <c r="D1" s="52" t="s">
         <v>83</v>
       </c>
@@ -9909,11 +9919,11 @@
       </c>
       <c r="G2" s="38">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H2" s="37">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41663</v>
+        <v>41695</v>
       </c>
       <c r="I2" s="32">
         <v>0.99995527977776533</v>
@@ -9945,14 +9955,14 @@
       </c>
       <c r="G3" s="38">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H3" s="37">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41687</v>
+        <v>41716</v>
       </c>
       <c r="I3" s="32">
-        <v>0.99980086466277596</v>
+        <v>0.99982013235818568</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>118</v>
@@ -9981,14 +9991,14 @@
       </c>
       <c r="G4" s="38">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H4" s="37">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41715</v>
+        <v>41751</v>
       </c>
       <c r="I4" s="32">
-        <v>0.99962008605612207</v>
+        <v>0.99959433962711253</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>119</v>
@@ -10005,26 +10015,26 @@
         <v>77</v>
       </c>
       <c r="D5" s="40" t="str">
-        <v>USD_YC3MRH_3MD</v>
+        <v>USD_YC3MRH_FUT3MG4</v>
       </c>
       <c r="E5" s="39">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>2.379E-3</v>
-      </c>
-      <c r="F5" s="39" t="str">
+        <v>2.4500000000000632E-3</v>
+      </c>
+      <c r="F5" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
-        <v>--</v>
+        <v>0</v>
       </c>
       <c r="G5" s="38">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41656</v>
+        <v>41689</v>
       </c>
       <c r="H5" s="37">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41746</v>
+        <v>41778</v>
       </c>
       <c r="I5" s="32">
-        <v>0.99940560351730812</v>
+        <v>0.99938830537881285</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>120</v>
@@ -10042,7 +10052,7 @@
         <v/>
       </c>
       <c r="D6" s="40" t="str">
-        <v>USD_YC3MRH_FUT3MG4</v>
+        <v>USD_YC3MRH_FUT3MH4</v>
       </c>
       <c r="E6" s="39">
         <f>_xll.qlRateHelperRate($D6)</f>
@@ -10054,14 +10064,14 @@
       </c>
       <c r="G6" s="38">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41689</v>
+        <v>41717</v>
       </c>
       <c r="H6" s="37">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41778</v>
+        <v>41809</v>
       </c>
       <c r="I6" s="32">
-        <v>0.99918287425768681</v>
+        <v>0.99918825244388687</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>121</v>
@@ -10073,18 +10083,18 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_RateHelpersSelected#0001</v>
+        <v>USD_YC3MRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="40" t="str">
-        <v>USD_YC3MRH_FUT3MH4</v>
+        <v>USD_YC3MRH_FUT3MM4</v>
       </c>
       <c r="E7" s="39">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>2.5249999999999995E-3</v>
+        <v>2.7500000000000302E-3</v>
       </c>
       <c r="F7" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -10092,14 +10102,14 @@
       </c>
       <c r="G7" s="38">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41717</v>
+        <v>41808</v>
       </c>
       <c r="H7" s="37">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41809</v>
+        <v>41900</v>
       </c>
       <c r="I7" s="32">
-        <v>0.99896208267600384</v>
+        <v>0.99849284789920045</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>122</v>
@@ -10110,11 +10120,11 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="40" t="str">
-        <v>USD_YC3MRH_FUT3MM4</v>
+        <v>USD_YC3MRH_FUT3MU4</v>
       </c>
       <c r="E8" s="39">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>2.9250000000000664E-3</v>
+        <v>3.5250000000001114E-3</v>
       </c>
       <c r="F8" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -10122,14 +10132,14 @@
       </c>
       <c r="G8" s="38">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41808</v>
+        <v>41899</v>
       </c>
       <c r="H8" s="37">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41900</v>
+        <v>41990</v>
       </c>
       <c r="I8" s="32">
-        <v>0.99822323232196308</v>
+        <v>0.99761270122194967</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>123</v>
@@ -10140,11 +10150,11 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="40" t="str">
-        <v>USD_YC3MRH_FUT3MU4</v>
+        <v>USD_YC3MRH_FUT3MZ4</v>
       </c>
       <c r="E9" s="39">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>3.5250000000001114E-3</v>
+        <v>4.3750000000000178E-3</v>
       </c>
       <c r="F9" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -10152,14 +10162,14 @@
       </c>
       <c r="G9" s="38">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41899</v>
+        <v>41990</v>
       </c>
       <c r="H9" s="37">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41990</v>
+        <v>42080</v>
       </c>
       <c r="I9" s="32">
-        <v>0.99734344110486095</v>
+        <v>0.99652275445872684</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>184</v>
@@ -10170,11 +10180,11 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="40" t="str">
-        <v>USD_YC3MRH_FUT3MZ4</v>
+        <v>USD_YC3MRH_FUT3MH5</v>
       </c>
       <c r="E10" s="39">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>4.3750000000000178E-3</v>
+        <v>5.6249999999999911E-3</v>
       </c>
       <c r="F10" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -10182,14 +10192,14 @@
       </c>
       <c r="G10" s="38">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41990</v>
+        <v>42081</v>
       </c>
       <c r="H10" s="37">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42080</v>
+        <v>42173</v>
       </c>
       <c r="I10" s="32">
-        <v>0.99625378852314095</v>
+        <v>0.99507874240435223</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>185</v>
@@ -10200,11 +10210,11 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="40" t="str">
-        <v>USD_YC3MRH_FUT3MH5</v>
+        <v>USD_YC3MRH_FUT3MM5</v>
       </c>
       <c r="E11" s="39">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>5.6249999999999911E-3</v>
+        <v>7.2750000000000314E-3</v>
       </c>
       <c r="F11" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -10212,14 +10222,14 @@
       </c>
       <c r="G11" s="38">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42081</v>
+        <v>42172</v>
       </c>
       <c r="H11" s="37">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42173</v>
+        <v>42264</v>
       </c>
       <c r="I11" s="32">
-        <v>0.99481015580655319</v>
+        <v>0.99324985297745028</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>124</v>
@@ -10231,11 +10241,11 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="41"/>
       <c r="D12" s="40" t="str">
-        <v>USD_YC3MRH_FUT3MM5</v>
+        <v>USD_YC3MRH_FUT3MU5</v>
       </c>
       <c r="E12" s="39">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>7.2750000000000314E-3</v>
+        <v>9.3250000000000277E-3</v>
       </c>
       <c r="F12" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -10243,14 +10253,14 @@
       </c>
       <c r="G12" s="38">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="H12" s="37">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42264</v>
+        <v>42354</v>
       </c>
       <c r="I12" s="32">
-        <v>0.99298175112692899</v>
+        <v>0.9909363835030347</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>125</v>
@@ -10262,11 +10272,11 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="41"/>
       <c r="D13" s="40" t="str">
-        <v>USD_YC3MRH_FUT3MU5</v>
+        <v>USD_YC3MRH_FUT3MZ5</v>
       </c>
       <c r="E13" s="39">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>9.3250000000000277E-3</v>
+        <v>1.177499999999998E-2</v>
       </c>
       <c r="F13" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10274,14 +10284,14 @@
       </c>
       <c r="G13" s="38">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="H13" s="37">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="I13" s="32">
-        <v>0.99066893146064172</v>
+        <v>0.98799565560062508</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>126</v>
@@ -10292,11 +10302,11 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="40" t="str">
-        <v>USD_YC3MRH_FUT3MZ5</v>
+        <v>USD_YC3MRH_AM3L3Y</v>
       </c>
       <c r="E14" s="39">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>1.177499999999998E-2</v>
+        <v>6.8399999999999997E-3</v>
       </c>
       <c r="F14" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10304,14 +10314,14 @@
       </c>
       <c r="G14" s="38">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42354</v>
+        <v>41688</v>
       </c>
       <c r="H14" s="37">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42445</v>
+        <v>42786</v>
       </c>
       <c r="I14" s="32">
-        <v>0.98772899725568508</v>
+        <v>0.9793811235443004</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>127</v>
@@ -10322,11 +10332,11 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="40" t="str">
-        <v>USD_YC3MRH_AM3L3Y</v>
+        <v>USD_YC3MRH_AM3L4Y</v>
       </c>
       <c r="E15" s="39">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>6.8399999999999997E-3</v>
+        <v>1.0379999999999999E-2</v>
       </c>
       <c r="F15" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -10334,14 +10344,14 @@
       </c>
       <c r="G15" s="38">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H15" s="37">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42752</v>
+        <v>43150</v>
       </c>
       <c r="I15" s="32">
-        <v>0.97941168247830535</v>
+        <v>0.95864861388947897</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>128</v>
@@ -10352,11 +10362,11 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="40" t="str">
-        <v>USD_YC3MRH_AM3L4Y</v>
+        <v>USD_YC3MRH_AM3L5Y</v>
       </c>
       <c r="E16" s="39">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.0379999999999999E-2</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="F16" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10364,14 +10374,14 @@
       </c>
       <c r="G16" s="38">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H16" s="37">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43117</v>
+        <v>43514</v>
       </c>
       <c r="I16" s="32">
-        <v>0.95866715227603283</v>
+        <v>0.93104791706247148</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>129</v>
@@ -10382,11 +10392,11 @@
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D17" s="40" t="str">
-        <v>USD_YC3MRH_AM3L5Y</v>
+        <v>USD_YC3MRH_AM3L6Y</v>
       </c>
       <c r="E17" s="39">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.3999999999999999E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="F17" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10394,14 +10404,14 @@
       </c>
       <c r="G17" s="38">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H17" s="37">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43482</v>
+        <v>43879</v>
       </c>
       <c r="I17" s="32">
-        <v>0.93103687005383928</v>
+        <v>0.89902576444656712</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>130</v>
@@ -10412,11 +10422,11 @@
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D18" s="40" t="str">
-        <v>USD_YC3MRH_AM3L6Y</v>
+        <v>USD_YC3MRH_AM3L7Y</v>
       </c>
       <c r="E18" s="39">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.7299999999999999E-2</v>
+        <v>2.0080000000000001E-2</v>
       </c>
       <c r="F18" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -10424,14 +10434,14 @@
       </c>
       <c r="G18" s="38">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H18" s="37">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43847</v>
+        <v>44245</v>
       </c>
       <c r="I18" s="32">
-        <v>0.89901234881410608</v>
+        <v>0.86513833607433044</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>131</v>
@@ -10442,11 +10452,11 @@
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D19" s="40" t="str">
-        <v>USD_YC3MRH_AM3L7Y</v>
+        <v>USD_YC3MRH_AM3L8Y</v>
       </c>
       <c r="E19" s="39">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>2.0080000000000001E-2</v>
+        <v>2.2409999999999996E-2</v>
       </c>
       <c r="F19" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10454,14 +10464,14 @@
       </c>
       <c r="G19" s="38">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H19" s="37">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44214</v>
+        <v>44610</v>
       </c>
       <c r="I19" s="32">
-        <v>0.86507578949740604</v>
+        <v>0.83061689329498212</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>132</v>
@@ -10472,11 +10482,11 @@
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D20" s="40" t="str">
-        <v>USD_YC3MRH_AM3L8Y</v>
+        <v>USD_YC3MRH_AM3L9Y</v>
       </c>
       <c r="E20" s="39">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>2.2409999999999996E-2</v>
+        <v>2.4370000000000003E-2</v>
       </c>
       <c r="F20" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10484,14 +10494,14 @@
       </c>
       <c r="G20" s="38">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H20" s="37">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44578</v>
+        <v>44977</v>
       </c>
       <c r="I20" s="32">
-        <v>0.8305991959775515</v>
+        <v>0.79602612260265226</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>133</v>
@@ -10502,11 +10512,11 @@
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D21" s="40" t="str">
-        <v>USD_YC3MRH_AM3L9Y</v>
+        <v>USD_YC3MRH_AM3L10Y</v>
       </c>
       <c r="E21" s="39">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.4370000000000003E-2</v>
+        <v>2.6020000000000001E-2</v>
       </c>
       <c r="F21" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10514,14 +10524,14 @@
       </c>
       <c r="G21" s="38">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H21" s="37">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>44943</v>
+        <v>45341</v>
       </c>
       <c r="I21" s="32">
-        <v>0.79611251590665388</v>
+        <v>0.76216397066253494</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>134</v>
@@ -10532,11 +10542,11 @@
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D22" s="40" t="str">
-        <v>USD_YC3MRH_AM3L10Y</v>
+        <v>USD_YC3MRH_AM3L12Y</v>
       </c>
       <c r="E22" s="39">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.6020000000000001E-2</v>
+        <v>2.8670000000000001E-2</v>
       </c>
       <c r="F22" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10544,14 +10554,14 @@
       </c>
       <c r="G22" s="38">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H22" s="37">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>45308</v>
+        <v>46071</v>
       </c>
       <c r="I22" s="32">
-        <v>0.76220017080050217</v>
+        <v>0.69651026590985576</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>135</v>
@@ -10562,11 +10572,11 @@
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D23" s="40" t="str">
-        <v>USD_YC3MRH_AM3L12Y</v>
+        <v>USD_YC3MRH_AM3L15Y</v>
       </c>
       <c r="E23" s="39">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.8670000000000001E-2</v>
+        <v>3.1260000000000003E-2</v>
       </c>
       <c r="F23" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10574,14 +10584,14 @@
       </c>
       <c r="G23" s="38">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H23" s="37">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>46041</v>
+        <v>47168</v>
       </c>
       <c r="I23" s="32">
-        <v>0.69638448008630371</v>
+        <v>0.60843625750666197</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>136</v>
@@ -10592,11 +10602,11 @@
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D24" s="40" t="str">
-        <v>USD_YC3MRH_AM3L15Y</v>
+        <v>USD_YC3MRH_AM3L20Y</v>
       </c>
       <c r="E24" s="39">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>3.1260000000000003E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="F24" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10604,14 +10614,14 @@
       </c>
       <c r="G24" s="38">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H24" s="37">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>47135</v>
+        <v>48995</v>
       </c>
       <c r="I24" s="32">
-        <v>0.60846579353891606</v>
+        <v>0.48948852346524768</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>137</v>
@@ -10622,11 +10632,11 @@
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D25" s="40" t="str">
-        <v>USD_YC3MRH_AM3L20Y</v>
+        <v>USD_YC3MRH_AM3L25Y</v>
       </c>
       <c r="E25" s="39">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>3.3500000000000002E-2</v>
+        <v>3.4619999999999998E-2</v>
       </c>
       <c r="F25" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10634,14 +10644,14 @@
       </c>
       <c r="G25" s="38">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H25" s="37">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>48961</v>
+        <v>50819</v>
       </c>
       <c r="I25" s="32">
-        <v>0.48956312689740528</v>
+        <v>0.39663593882129689</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>138</v>
@@ -10652,11 +10662,11 @@
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D26" s="40" t="str">
-        <v>USD_YC3MRH_AM3L25Y</v>
+        <v>USD_YC3MRH_AM3L30Y</v>
       </c>
       <c r="E26" s="39">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>3.4619999999999998E-2</v>
+        <v>3.5220000000000001E-2</v>
       </c>
       <c r="F26" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10664,14 +10674,14 @@
       </c>
       <c r="G26" s="38">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H26" s="37">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>50787</v>
+        <v>52645</v>
       </c>
       <c r="I26" s="32">
-        <v>0.39662612358610461</v>
+        <v>0.32344303143896669</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>139</v>
@@ -10682,11 +10692,11 @@
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D27" s="40" t="str">
-        <v>USD_YC3MRH_AM3L30Y</v>
+        <v>USD_YC3MRH_AM3L40Y</v>
       </c>
       <c r="E27" s="39">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>3.5220000000000001E-2</v>
+        <v>3.5369999999999999E-2</v>
       </c>
       <c r="F27" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10694,14 +10704,14 @@
       </c>
       <c r="G27" s="38">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H27" s="37">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>52614</v>
+        <v>56298</v>
       </c>
       <c r="I27" s="32">
-        <v>0.32340364861180199</v>
+        <v>0.225307059419877</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>140</v>
@@ -10712,11 +10722,11 @@
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D28" s="40" t="str">
-        <v>USD_YC3MRH_AM3L40Y</v>
+        <v>USD_YC3MRH_AM3L50Y</v>
       </c>
       <c r="E28" s="39">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>3.5369999999999999E-2</v>
+        <v>3.524E-2</v>
       </c>
       <c r="F28" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10724,14 +10734,14 @@
       </c>
       <c r="G28" s="38">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41656</v>
+        <v>41688</v>
       </c>
       <c r="H28" s="37">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>56268</v>
+        <v>59950</v>
       </c>
       <c r="I28" s="32">
-        <v>0.22525747946060301</v>
+        <v>0.16094708258361992</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>141</v>
@@ -10741,27 +10751,27 @@
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D29" s="40" t="str">
-        <v>USD_YC3MRH_AM3L50Y</v>
-      </c>
-      <c r="E29" s="39">
+      <c r="D29" s="40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="39" t="e">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>3.524E-2</v>
-      </c>
-      <c r="F29" s="39">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="38">
+        <v>--</v>
+      </c>
+      <c r="G29" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41656</v>
-      </c>
-      <c r="H29" s="37">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29" s="37" t="e">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>59918</v>
-      </c>
-      <c r="I29" s="32">
-        <v>0.16094246296918882</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" s="32" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>142</v>
@@ -13467,7 +13477,7 @@
       </c>
       <c r="D3" s="136" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C44)</f>
-        <v>F4</v>
+        <v>G4</v>
       </c>
       <c r="E3" s="136" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -13475,19 +13485,19 @@
       </c>
       <c r="F3" s="135" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>USDFUT3MF4_Quote</v>
+        <v>USDFUT3MG4_Quote</v>
       </c>
       <c r="G3" s="135" t="str">
         <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>USDFUT3MF4ConvAdj_Quote</v>
+        <v>USDFUT3MG4ConvAdj_Quote</v>
       </c>
       <c r="H3" s="135" t="str">
         <f t="shared" ref="H3:H34" si="3">$H$1&amp;"_FUT"&amp;$E$1&amp;$D3</f>
-        <v>USD_YC3MRH_FUT3MF4</v>
+        <v>USD_YC3MRH_FUT3MG4</v>
       </c>
       <c r="I3" s="141" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MF4#0000</v>
+        <v>USD_YC3MRH_FUT3MG4#0000</v>
       </c>
       <c r="J3" s="140" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13505,7 +13515,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="137" t="str">
-        <v>G4</v>
+        <v>H4</v>
       </c>
       <c r="E4" s="136" t="str">
         <f t="shared" si="0"/>
@@ -13513,19 +13523,19 @@
       </c>
       <c r="F4" s="135" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MG4_Quote</v>
+        <v>USDFUT3MH4_Quote</v>
       </c>
       <c r="G4" s="135" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MG4ConvAdj_Quote</v>
+        <v>USDFUT3MH4ConvAdj_Quote</v>
       </c>
       <c r="H4" s="135" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MG4</v>
+        <v>USD_YC3MRH_FUT3MH4</v>
       </c>
       <c r="I4" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MG4#0000</v>
+        <v>USD_YC3MRH_FUT3MH4#0000</v>
       </c>
       <c r="J4" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13555,7 +13565,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="137" t="str">
-        <v>H4</v>
+        <v>J4</v>
       </c>
       <c r="E5" s="136" t="str">
         <f t="shared" si="0"/>
@@ -13563,19 +13573,19 @@
       </c>
       <c r="F5" s="135" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MH4_Quote</v>
+        <v>USDFUT3MJ4_Quote</v>
       </c>
       <c r="G5" s="135" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MH4ConvAdj_Quote</v>
+        <v>USDFUT3MJ4ConvAdj_Quote</v>
       </c>
       <c r="H5" s="135" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MH4</v>
+        <v>USD_YC3MRH_FUT3MJ4</v>
       </c>
       <c r="I5" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH4#0000</v>
+        <v>USD_YC3MRH_FUT3MJ4#0000</v>
       </c>
       <c r="J5" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13593,7 +13603,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="137" t="str">
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E6" s="136" t="str">
         <f t="shared" si="0"/>
@@ -13601,19 +13611,19 @@
       </c>
       <c r="F6" s="135" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MJ4_Quote</v>
+        <v>USDFUT3MK4_Quote</v>
       </c>
       <c r="G6" s="135" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MJ4ConvAdj_Quote</v>
+        <v>USDFUT3MK4ConvAdj_Quote</v>
       </c>
       <c r="H6" s="135" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MJ4</v>
+        <v>USD_YC3MRH_FUT3MK4</v>
       </c>
       <c r="I6" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MJ4#0000</v>
+        <v>USD_YC3MRH_FUT3MK4#0000</v>
       </c>
       <c r="J6" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13631,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="137" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E7" s="136" t="str">
         <f t="shared" si="0"/>
@@ -13639,19 +13649,19 @@
       </c>
       <c r="F7" s="135" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MK4_Quote</v>
+        <v>USDFUT3MM4_Quote</v>
       </c>
       <c r="G7" s="135" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MK4ConvAdj_Quote</v>
+        <v>USDFUT3MM4ConvAdj_Quote</v>
       </c>
       <c r="H7" s="135" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MK4</v>
+        <v>USD_YC3MRH_FUT3MM4</v>
       </c>
       <c r="I7" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MK4#0000</v>
+        <v>USD_YC3MRH_FUT3MM4#0000</v>
       </c>
       <c r="J7" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13669,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="137" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E8" s="136" t="str">
         <f t="shared" si="0"/>
@@ -13677,19 +13687,19 @@
       </c>
       <c r="F8" s="135" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MM4_Quote</v>
+        <v>USDFUT3MN4_Quote</v>
       </c>
       <c r="G8" s="135" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MM4ConvAdj_Quote</v>
+        <v>USDFUT3MN4ConvAdj_Quote</v>
       </c>
       <c r="H8" s="135" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MM4</v>
+        <v>USD_YC3MRH_FUT3MN4</v>
       </c>
       <c r="I8" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM4#0000</v>
+        <v>USD_YC3MRH_FUT3MN4#0000</v>
       </c>
       <c r="J8" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13707,7 +13717,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="137" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E9" s="136" t="str">
         <f t="shared" si="0"/>
@@ -13715,19 +13725,19 @@
       </c>
       <c r="F9" s="135" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MN4_Quote</v>
+        <v>USDFUT3MQ4_Quote</v>
       </c>
       <c r="G9" s="135" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MN4ConvAdj_Quote</v>
+        <v>USDFUT3MQ4ConvAdj_Quote</v>
       </c>
       <c r="H9" s="135" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MN4</v>
+        <v>USD_YC3MRH_FUT3MQ4</v>
       </c>
       <c r="I9" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MN4#0000</v>
+        <v>USD_YC3MRH_FUT3MQ4#0000</v>
       </c>
       <c r="J9" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -13745,7 +13755,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="137" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E10" s="136" t="str">
         <f t="shared" si="0"/>
@@ -13753,19 +13763,19 @@
       </c>
       <c r="F10" s="135" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MQ4_Quote</v>
+        <v>USDFUT3MU4_Quote</v>
       </c>
       <c r="G10" s="135" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MQ4ConvAdj_Quote</v>
+        <v>USDFUT3MU4ConvAdj_Quote</v>
       </c>
       <c r="H10" s="135" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MQ4</v>
+        <v>USD_YC3MRH_FUT3MU4</v>
       </c>
       <c r="I10" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MQ4#0000</v>
+        <v>USD_YC3MRH_FUT3MU4#0000</v>
       </c>
       <c r="J10" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -13783,7 +13793,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="137" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E11" s="136" t="str">
         <f t="shared" si="0"/>
@@ -13791,19 +13801,19 @@
       </c>
       <c r="F11" s="135" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MU4_Quote</v>
+        <v>USDFUT3MV4_Quote</v>
       </c>
       <c r="G11" s="135" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MU4ConvAdj_Quote</v>
+        <v>USDFUT3MV4ConvAdj_Quote</v>
       </c>
       <c r="H11" s="135" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MU4</v>
+        <v>USD_YC3MRH_FUT3MV4</v>
       </c>
       <c r="I11" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU4#0000</v>
+        <v>USD_YC3MRH_FUT3MV4#0000</v>
       </c>
       <c r="J11" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -13833,7 +13843,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="137" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E12" s="136" t="str">
         <f t="shared" si="0"/>
@@ -13841,19 +13851,19 @@
       </c>
       <c r="F12" s="135" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MV4_Quote</v>
+        <v>USDFUT3MX4_Quote</v>
       </c>
       <c r="G12" s="135" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MV4ConvAdj_Quote</v>
+        <v>USDFUT3MX4ConvAdj_Quote</v>
       </c>
       <c r="H12" s="135" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MV4</v>
+        <v>USD_YC3MRH_FUT3MX4</v>
       </c>
       <c r="I12" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MV4#0000</v>
+        <v>USD_YC3MRH_FUT3MX4#0000</v>
       </c>
       <c r="J12" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -13871,7 +13881,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="137" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E13" s="136" t="str">
         <f t="shared" si="0"/>
@@ -13879,19 +13889,19 @@
       </c>
       <c r="F13" s="135" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MX4_Quote</v>
+        <v>USDFUT3MZ4_Quote</v>
       </c>
       <c r="G13" s="135" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MX4ConvAdj_Quote</v>
+        <v>USDFUT3MZ4ConvAdj_Quote</v>
       </c>
       <c r="H13" s="135" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MX4</v>
+        <v>USD_YC3MRH_FUT3MZ4</v>
       </c>
       <c r="I13" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MX4#0000</v>
+        <v>USD_YC3MRH_FUT3MZ4#0000</v>
       </c>
       <c r="J13" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -13909,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="137" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E14" s="136" t="str">
         <f t="shared" si="0"/>
@@ -13917,19 +13927,19 @@
       </c>
       <c r="F14" s="135" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MZ4_Quote</v>
+        <v>USDFUT3MF5_Quote</v>
       </c>
       <c r="G14" s="135" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MZ4ConvAdj_Quote</v>
+        <v>USDFUT3MF5ConvAdj_Quote</v>
       </c>
       <c r="H14" s="135" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MZ4</v>
+        <v>USD_YC3MRH_FUT3MF5</v>
       </c>
       <c r="I14" s="134" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ4#0000</v>
+        <v>USD_YC3MRH_FUT3MF5#0000</v>
       </c>
       <c r="J14" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>

--- a/QuantLibXL/Data2/XLS/USD_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YC3MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15285" yWindow="-15" windowWidth="15345" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15300" windowHeight="7695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="174">
   <si>
     <t>60Y</t>
   </si>
@@ -737,6 +737,9 @@
   </si>
   <si>
     <t>USDSTD</t>
+  </si>
+  <si>
+    <t>Ibor Index</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1379,7 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1774,6 +1777,9 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2136,23 +2142,23 @@
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="176" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 18 2014 11:20:01</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 29 2014 14:47:17</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="186" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="187"/>
-      <c r="K2" s="185" t="s">
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188"/>
+      <c r="K2" s="186" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="188"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="189"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="58"/>
@@ -2290,12 +2296,12 @@
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="56"/>
-      <c r="K9" s="185" t="s">
+      <c r="K9" s="186" t="s">
         <v>141</v>
       </c>
-      <c r="L9" s="186"/>
-      <c r="M9" s="186"/>
-      <c r="N9" s="188"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="189"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="58"/>
@@ -2370,7 +2376,7 @@
       </c>
       <c r="D14" s="80" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYC3M#0009</v>
+        <v>_USDYC3M#0001</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="56"/>
@@ -2545,7 +2551,7 @@
       <c r="B27" s="58"/>
       <c r="C27" s="62">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="D27" s="61">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2558,11 +2564,11 @@
       <c r="B28" s="58"/>
       <c r="C28" s="60">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>60022</v>
+        <v>60029</v>
       </c>
       <c r="D28" s="59">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.17415865473849296</v>
+        <v>0.17547943721815251</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="56"/>
@@ -2668,11 +2674,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="192"/>
       <c r="E1" s="31" t="s">
         <v>62</v>
       </c>
@@ -2788,7 +2794,7 @@
       </c>
       <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>2.3739999999999998E-3</v>
+        <v>2.343E-3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12" t="b">
@@ -2802,11 +2808,11 @@
       </c>
       <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41766</v>
+        <v>41773</v>
       </c>
       <c r="M4" s="1">
         <v>40</v>
@@ -2827,7 +2833,7 @@
       </c>
       <c r="F5" s="13">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>2.2759999999999998E-3</v>
+        <v>2.2829999999999999E-3</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12" t="b">
@@ -2841,11 +2847,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41789</v>
+        <v>41799</v>
       </c>
       <c r="M5" s="1">
         <v>70</v>
@@ -2866,7 +2872,7 @@
       </c>
       <c r="F6" s="13">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>2.2669999999999999E-3</v>
+        <v>2.2539999999999999E-3</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12" t="b">
@@ -2880,11 +2886,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -2899,7 +2905,7 @@
       </c>
       <c r="F7" s="13">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>2.2669999999999999E-3</v>
+        <v>2.2290000000000001E-3</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="12" t="b">
@@ -2913,11 +2919,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41851</v>
+        <v>41858</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -3685,11 +3691,11 @@
       </c>
       <c r="E28" s="14" t="str">
         <f>'3M_Futures'!I3</f>
-        <v>USD_YC3MRH_FUT3MK4#0011</v>
+        <v>USD_YC3MRH_FUT3MK4#0001</v>
       </c>
       <c r="F28" s="28">
         <f>_xll.qlRateHelperQuoteValue($E28,Trigger)</f>
-        <v>99.771249999999995</v>
+        <v>99.778750000000002</v>
       </c>
       <c r="G28" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E28,Trigger)</f>
@@ -3730,11 +3736,11 @@
       </c>
       <c r="E29" s="14" t="str">
         <f>'3M_Futures'!I4</f>
-        <v>USD_YC3MRH_FUT3MM4#0006</v>
+        <v>USD_YC3MRH_FUT3MM4#0001</v>
       </c>
       <c r="F29" s="28">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
-        <v>99.767499999999998</v>
+        <v>99.777500000000003</v>
       </c>
       <c r="G29" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E29,Trigger)</f>
@@ -3775,11 +3781,11 @@
       </c>
       <c r="E30" s="14" t="str">
         <f>'3M_Futures'!I5</f>
-        <v>USD_YC3MRH_FUT3MN4#0006</v>
+        <v>USD_YC3MRH_FUT3MN4#0001</v>
       </c>
       <c r="F30" s="28">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
-        <v>99.762499999999989</v>
+        <v>99.772500000000008</v>
       </c>
       <c r="G30" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E30,Trigger)</f>
@@ -3820,11 +3826,11 @@
       </c>
       <c r="E31" s="14" t="str">
         <f>'3M_Futures'!I6</f>
-        <v>USD_YC3MRH_FUT3MQ4#0006</v>
+        <v>USD_YC3MRH_FUT3MQ4#0001</v>
       </c>
       <c r="F31" s="28">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
-        <v>99.759999999999991</v>
+        <v>99.777500000000003</v>
       </c>
       <c r="G31" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E31,Trigger)</f>
@@ -3865,11 +3871,11 @@
       </c>
       <c r="E32" s="14" t="str">
         <f>'3M_Futures'!I7</f>
-        <v>USD_YC3MRH_FUT3MU4#0006</v>
+        <v>USD_YC3MRH_FUT3MU4#0001</v>
       </c>
       <c r="F32" s="28">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
-        <v>99.752499999999998</v>
+        <v>99.762500000000003</v>
       </c>
       <c r="G32" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E32,Trigger)</f>
@@ -3910,11 +3916,11 @@
       </c>
       <c r="E33" s="14" t="str">
         <f>'3M_Futures'!I8</f>
-        <v>USD_YC3MRH_FUT3MV4#0006</v>
+        <v>USD_YC3MRH_FUT3MV4#0001</v>
       </c>
       <c r="F33" s="28">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
-        <v>99.747500000000002</v>
+        <v>99.757499999999993</v>
       </c>
       <c r="G33" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E33,Trigger)</f>
@@ -3955,7 +3961,7 @@
       </c>
       <c r="E34" s="14" t="str">
         <f>'3M_Futures'!I9</f>
-        <v>USD_YC3MRH_FUT3MX4#0006</v>
+        <v>USD_YC3MRH_FUT3MX4#0001</v>
       </c>
       <c r="F34" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
@@ -4000,11 +4006,11 @@
       </c>
       <c r="E35" s="14" t="str">
         <f>'3M_Futures'!I10</f>
-        <v>USD_YC3MRH_FUT3MZ4#0006</v>
+        <v>USD_YC3MRH_FUT3MZ4#0001</v>
       </c>
       <c r="F35" s="28">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>99.712500000000006</v>
+        <v>99.722499999999997</v>
       </c>
       <c r="G35" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E35,Trigger)</f>
@@ -4045,7 +4051,7 @@
       </c>
       <c r="E36" s="14" t="str">
         <f>'3M_Futures'!I11</f>
-        <v>USD_YC3MRH_FUT3MF5#0006</v>
+        <v>USD_YC3MRH_FUT3MF5#0001</v>
       </c>
       <c r="F36" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4090,7 +4096,7 @@
       </c>
       <c r="E37" s="14" t="str">
         <f>'3M_Futures'!I12</f>
-        <v>USD_YC3MRH_FUT3MG5#0006</v>
+        <v>USD_YC3MRH_FUT3MG5#0001</v>
       </c>
       <c r="F37" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4135,11 +4141,11 @@
       </c>
       <c r="E38" s="14" t="str">
         <f>'3M_Futures'!I13</f>
-        <v>USD_YC3MRH_FUT3MH5#0006</v>
+        <v>USD_YC3MRH_FUT3MH5#0001</v>
       </c>
       <c r="F38" s="28">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>99.617500000000007</v>
+        <v>99.627499999999998</v>
       </c>
       <c r="G38" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E38,Trigger)</f>
@@ -4180,7 +4186,7 @@
       </c>
       <c r="E39" s="14" t="str">
         <f>'3M_Futures'!I14</f>
-        <v>USD_YC3MRH_FUT3MJ5#0006</v>
+        <v>USD_YC3MRH_FUT3MJ5#0001</v>
       </c>
       <c r="F39" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4225,11 +4231,11 @@
       </c>
       <c r="E40" s="14" t="str">
         <f>'3M_Futures'!I15</f>
-        <v>USD_YC3MRH_FUT3MM5#0006</v>
+        <v>USD_YC3MRH_FUT3MM5#0001</v>
       </c>
       <c r="F40" s="28">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>99.4375</v>
+        <v>99.452500000000001</v>
       </c>
       <c r="G40" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E40,Trigger)</f>
@@ -4270,11 +4276,11 @@
       </c>
       <c r="E41" s="14" t="str">
         <f>'3M_Futures'!I16</f>
-        <v>USD_YC3MRH_FUT3MU5#0006</v>
+        <v>USD_YC3MRH_FUT3MU5#0001</v>
       </c>
       <c r="F41" s="28">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>99.202500000000001</v>
+        <v>99.237499999999997</v>
       </c>
       <c r="G41" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
@@ -4315,11 +4321,11 @@
       </c>
       <c r="E42" s="14" t="str">
         <f>'3M_Futures'!I17</f>
-        <v>USD_YC3MRH_FUT3MZ5#0006</v>
+        <v>USD_YC3MRH_FUT3MZ5#0001</v>
       </c>
       <c r="F42" s="28">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>98.922499999999999</v>
+        <v>98.967500000000001</v>
       </c>
       <c r="G42" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
@@ -4360,11 +4366,11 @@
       </c>
       <c r="E43" s="14" t="str">
         <f>'3M_Futures'!I18</f>
-        <v>USD_YC3MRH_FUT3MH6#0006</v>
+        <v>USD_YC3MRH_FUT3MH6#0001</v>
       </c>
       <c r="F43" s="28">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>98.617500000000007</v>
+        <v>98.677500000000009</v>
       </c>
       <c r="G43" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E43,Trigger)</f>
@@ -4405,11 +4411,11 @@
       </c>
       <c r="E44" s="14" t="str">
         <f>'3M_Futures'!I19</f>
-        <v>USD_YC3MRH_FUT3MM6#0006</v>
+        <v>USD_YC3MRH_FUT3MM6#0001</v>
       </c>
       <c r="F44" s="28">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>98.307500000000005</v>
+        <v>98.382499999999993</v>
       </c>
       <c r="G44" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
@@ -4450,11 +4456,11 @@
       </c>
       <c r="E45" s="14" t="str">
         <f>'3M_Futures'!I20</f>
-        <v>USD_YC3MRH_FUT3MU6#0006</v>
+        <v>USD_YC3MRH_FUT3MU6#0001</v>
       </c>
       <c r="F45" s="28">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>98.017499999999998</v>
+        <v>98.097499999999997</v>
       </c>
       <c r="G45" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
@@ -4495,11 +4501,11 @@
       </c>
       <c r="E46" s="14" t="str">
         <f>'3M_Futures'!I21</f>
-        <v>USD_YC3MRH_FUT3MZ6#0006</v>
+        <v>USD_YC3MRH_FUT3MZ6#0001</v>
       </c>
       <c r="F46" s="28">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>97.742500000000007</v>
+        <v>97.832499999999996</v>
       </c>
       <c r="G46" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
@@ -4540,11 +4546,11 @@
       </c>
       <c r="E47" s="14" t="str">
         <f>'3M_Futures'!I22</f>
-        <v>USD_YC3MRH_FUT3MH7#0006</v>
+        <v>USD_YC3MRH_FUT3MH7#0001</v>
       </c>
       <c r="F47" s="28">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>97.512500000000003</v>
+        <v>97.607500000000002</v>
       </c>
       <c r="G47" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
@@ -4585,11 +4591,11 @@
       </c>
       <c r="E48" s="14" t="str">
         <f>'3M_Futures'!I23</f>
-        <v>USD_YC3MRH_FUT3MM7#0006</v>
+        <v>USD_YC3MRH_FUT3MM7#0001</v>
       </c>
       <c r="F48" s="28">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>97.289999999999992</v>
+        <v>97.392499999999998</v>
       </c>
       <c r="G48" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
@@ -4630,11 +4636,11 @@
       </c>
       <c r="E49" s="14" t="str">
         <f>'3M_Futures'!I24</f>
-        <v>USD_YC3MRH_FUT3MU7#0006</v>
+        <v>USD_YC3MRH_FUT3MU7#0001</v>
       </c>
       <c r="F49" s="28">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>97.097499999999997</v>
+        <v>97.202500000000001</v>
       </c>
       <c r="G49" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E49,Trigger)</f>
@@ -4675,11 +4681,11 @@
       </c>
       <c r="E50" s="14" t="str">
         <f>'3M_Futures'!I25</f>
-        <v>USD_YC3MRH_FUT3MZ7#0006</v>
+        <v>USD_YC3MRH_FUT3MZ7#0001</v>
       </c>
       <c r="F50" s="28">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>96.912499999999994</v>
+        <v>97.022500000000008</v>
       </c>
       <c r="G50" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
@@ -4720,11 +4726,11 @@
       </c>
       <c r="E51" s="14" t="str">
         <f>'3M_Futures'!I26</f>
-        <v>USD_YC3MRH_FUT3MH8#0006</v>
+        <v>USD_YC3MRH_FUT3MH8#0001</v>
       </c>
       <c r="F51" s="28">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>96.752499999999998</v>
+        <v>96.872500000000002</v>
       </c>
       <c r="G51" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
@@ -4765,11 +4771,11 @@
       </c>
       <c r="E52" s="14" t="str">
         <f>'3M_Futures'!I27</f>
-        <v>USD_YC3MRH_FUT3MM8#0006</v>
+        <v>USD_YC3MRH_FUT3MM8#0001</v>
       </c>
       <c r="F52" s="28">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>96.607500000000002</v>
+        <v>96.722499999999997</v>
       </c>
       <c r="G52" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
@@ -4810,11 +4816,11 @@
       </c>
       <c r="E53" s="14" t="str">
         <f>'3M_Futures'!I28</f>
-        <v>USD_YC3MRH_FUT3MU8#0006</v>
+        <v>USD_YC3MRH_FUT3MU8#0001</v>
       </c>
       <c r="F53" s="28">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>96.47999999999999</v>
+        <v>96.597499999999997</v>
       </c>
       <c r="G53" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
@@ -4855,11 +4861,11 @@
       </c>
       <c r="E54" s="14" t="str">
         <f>'3M_Futures'!I29</f>
-        <v>USD_YC3MRH_FUT3MZ8#0006</v>
+        <v>USD_YC3MRH_FUT3MZ8#0001</v>
       </c>
       <c r="F54" s="28">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>96.367500000000007</v>
+        <v>96.477499999999992</v>
       </c>
       <c r="G54" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
@@ -4900,11 +4906,11 @@
       </c>
       <c r="E55" s="14" t="str">
         <f>'3M_Futures'!I30</f>
-        <v>USD_YC3MRH_FUT3MH9#0006</v>
+        <v>USD_YC3MRH_FUT3MH9#0001</v>
       </c>
       <c r="F55" s="28">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>96.267499999999998</v>
+        <v>96.372500000000002</v>
       </c>
       <c r="G55" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
@@ -4945,11 +4951,11 @@
       </c>
       <c r="E56" s="14" t="str">
         <f>'3M_Futures'!I31</f>
-        <v>USD_YC3MRH_FUT3MM9#0006</v>
+        <v>USD_YC3MRH_FUT3MM9#0001</v>
       </c>
       <c r="F56" s="28">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>96.177500000000009</v>
+        <v>96.277500000000003</v>
       </c>
       <c r="G56" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
@@ -4990,11 +4996,11 @@
       </c>
       <c r="E57" s="14" t="str">
         <f>'3M_Futures'!I32</f>
-        <v>USD_YC3MRH_FUT3MU9#0006</v>
+        <v>USD_YC3MRH_FUT3MU9#0001</v>
       </c>
       <c r="F57" s="28">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>96.094999999999999</v>
+        <v>96.1875</v>
       </c>
       <c r="G57" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
@@ -5035,11 +5041,11 @@
       </c>
       <c r="E58" s="14" t="str">
         <f>'3M_Futures'!I33</f>
-        <v>USD_YC3MRH_FUT3MZ9#0006</v>
+        <v>USD_YC3MRH_FUT3MZ9#0001</v>
       </c>
       <c r="F58" s="28">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>96.02000000000001</v>
+        <v>96.10499999999999</v>
       </c>
       <c r="G58" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
@@ -5080,11 +5086,11 @@
       </c>
       <c r="E59" s="14" t="str">
         <f>'3M_Futures'!I34</f>
-        <v>USD_YC3MRH_FUT3MH0#0006</v>
+        <v>USD_YC3MRH_FUT3MH0#0001</v>
       </c>
       <c r="F59" s="28">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>95.954999999999998</v>
+        <v>96.032499999999999</v>
       </c>
       <c r="G59" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
@@ -5125,11 +5131,11 @@
       </c>
       <c r="E60" s="14" t="str">
         <f>'3M_Futures'!I35</f>
-        <v>USD_YC3MRH_FUT3MM0#0006</v>
+        <v>USD_YC3MRH_FUT3MM0#0001</v>
       </c>
       <c r="F60" s="28">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>95.897500000000008</v>
+        <v>95.97</v>
       </c>
       <c r="G60" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
@@ -5170,11 +5176,11 @@
       </c>
       <c r="E61" s="14" t="str">
         <f>'3M_Futures'!I36</f>
-        <v>USD_YC3MRH_FUT3MU0#0006</v>
+        <v>USD_YC3MRH_FUT3MU0#0001</v>
       </c>
       <c r="F61" s="28">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>95.847499999999997</v>
+        <v>95.907499999999999</v>
       </c>
       <c r="G61" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E61,Trigger)</f>
@@ -5215,11 +5221,11 @@
       </c>
       <c r="E62" s="14" t="str">
         <f>'3M_Futures'!I37</f>
-        <v>USD_YC3MRH_FUT3MZ0#0006</v>
+        <v>USD_YC3MRH_FUT3MZ0#0001</v>
       </c>
       <c r="F62" s="28">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>95.79249999999999</v>
+        <v>95.847499999999997</v>
       </c>
       <c r="G62" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E62,Trigger)</f>
@@ -5260,11 +5266,11 @@
       </c>
       <c r="E63" s="14" t="str">
         <f>'3M_Futures'!I38</f>
-        <v>USD_YC3MRH_FUT3MH1#0006</v>
+        <v>USD_YC3MRH_FUT3MH1#0001</v>
       </c>
       <c r="F63" s="28">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>95.754999999999995</v>
+        <v>95.802499999999995</v>
       </c>
       <c r="G63" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E63,Trigger)</f>
@@ -5305,11 +5311,11 @@
       </c>
       <c r="E64" s="14" t="str">
         <f>'3M_Futures'!I39</f>
-        <v>USD_YC3MRH_FUT3MM1#0006</v>
+        <v>USD_YC3MRH_FUT3MM1#0001</v>
       </c>
       <c r="F64" s="28">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>95.715000000000003</v>
+        <v>95.759999999999991</v>
       </c>
       <c r="G64" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E64,Trigger)</f>
@@ -5350,11 +5356,11 @@
       </c>
       <c r="E65" s="14" t="str">
         <f>'3M_Futures'!I40</f>
-        <v>USD_YC3MRH_FUT3MU1#0006</v>
+        <v>USD_YC3MRH_FUT3MU1#0001</v>
       </c>
       <c r="F65" s="28">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>95.682500000000005</v>
+        <v>95.722499999999997</v>
       </c>
       <c r="G65" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E65,Trigger)</f>
@@ -5395,11 +5401,11 @@
       </c>
       <c r="E66" s="14" t="str">
         <f>'3M_Futures'!I41</f>
-        <v>USD_YC3MRH_FUT3MZ1#0006</v>
+        <v>USD_YC3MRH_FUT3MZ1#0001</v>
       </c>
       <c r="F66" s="28">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>95.64500000000001</v>
+        <v>95.6875</v>
       </c>
       <c r="G66" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E66,Trigger)</f>
@@ -5440,11 +5446,11 @@
       </c>
       <c r="E67" s="14" t="str">
         <f>'3M_Futures'!I42</f>
-        <v>USD_YC3MRH_FUT3MH2#0006</v>
+        <v>USD_YC3MRH_FUT3MH2#0001</v>
       </c>
       <c r="F67" s="28">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>95.622500000000002</v>
+        <v>95.652500000000003</v>
       </c>
       <c r="G67" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E67,Trigger)</f>
@@ -5485,11 +5491,11 @@
       </c>
       <c r="E68" s="14" t="str">
         <f>'3M_Futures'!I43</f>
-        <v>USD_YC3MRH_FUT3MM2#0006</v>
+        <v>USD_YC3MRH_FUT3MM2#0001</v>
       </c>
       <c r="F68" s="28">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>95.597499999999997</v>
+        <v>95.637500000000003</v>
       </c>
       <c r="G68" s="13">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E68,Trigger)</f>
@@ -5530,11 +5536,11 @@
       </c>
       <c r="E69" s="7" t="str">
         <f>'3M_Futures'!I44</f>
-        <v>USD_YC3MRH_FUT3MU2#0006</v>
+        <v>USD_YC3MRH_FUT3MU2#0001</v>
       </c>
       <c r="F69" s="27">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>95.572499999999991</v>
+        <v>95.612499999999997</v>
       </c>
       <c r="G69" s="6">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E69,Trigger)</f>
@@ -5996,7 +6002,7 @@
       </c>
       <c r="F81" s="21">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
-        <v>2.8700000000000002E-3</v>
+        <v>2.7700000000000003E-3</v>
       </c>
       <c r="G81" s="21">
         <f>_xll.qlSwapRateHelperSpread($E81,Trigger)</f>
@@ -6013,11 +6019,11 @@
       </c>
       <c r="K81" s="19">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L81" s="18">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>42124</v>
+        <v>42131</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.2">
@@ -6034,7 +6040,7 @@
       </c>
       <c r="F82" s="13">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
-        <v>3.6900000000000001E-3</v>
+        <v>3.5799999999999998E-3</v>
       </c>
       <c r="G82" s="13">
         <f>_xll.qlSwapRateHelperSpread($E82,Trigger)</f>
@@ -6051,11 +6057,11 @@
       </c>
       <c r="K82" s="11">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L82" s="10">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>42124</v>
+        <v>42131</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
@@ -6072,7 +6078,7 @@
       </c>
       <c r="F83" s="13">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
-        <v>5.0600000000000003E-3</v>
+        <v>4.8900000000000002E-3</v>
       </c>
       <c r="G83" s="13">
         <f>_xll.qlSwapRateHelperSpread($E83,Trigger)</f>
@@ -6089,11 +6095,11 @@
       </c>
       <c r="K83" s="11">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L83" s="10">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>42124</v>
+        <v>42131</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
@@ -6110,7 +6116,7 @@
       </c>
       <c r="F84" s="13">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
-        <v>7.0199999999999993E-3</v>
+        <v>6.7599999999999995E-3</v>
       </c>
       <c r="G84" s="13">
         <f>_xll.qlSwapRateHelperSpread($E84,Trigger)</f>
@@ -6127,11 +6133,11 @@
       </c>
       <c r="K84" s="11">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L84" s="10">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>42124</v>
+        <v>42131</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.2">
@@ -6165,11 +6171,11 @@
       </c>
       <c r="K85" s="11">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L85" s="10">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>42489</v>
+        <v>42499</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
@@ -6203,11 +6209,11 @@
       </c>
       <c r="K86" s="11">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L86" s="10">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>42489</v>
+        <v>42499</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
@@ -6241,11 +6247,11 @@
       </c>
       <c r="K87" s="4">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L87" s="3">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>42853</v>
+        <v>42863</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.2">
@@ -6266,7 +6272,7 @@
       </c>
       <c r="F88" s="13">
         <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
-        <v>2.6199999999999999E-3</v>
+        <v>2.5600000000000002E-3</v>
       </c>
       <c r="G88" s="13">
         <f>_xll.qlSwapRateHelperSpread($E88,Trigger)</f>
@@ -6283,11 +6289,11 @@
       </c>
       <c r="K88" s="11">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L88" s="10">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>42124</v>
+        <v>42131</v>
       </c>
       <c r="N88" s="17" t="e">
         <f t="shared" ref="N88:N124" si="7">IF(G88=G125,F88-F125,"--")</f>
@@ -6329,11 +6335,11 @@
       </c>
       <c r="K89" s="11">
         <f>_xll.qlRateHelperEarliestDate($E89,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L89" s="10">
         <f>_xll.qlRateHelperLatestDate($E89,Trigger)</f>
-        <v>42215</v>
+        <v>42223</v>
       </c>
       <c r="N89" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6375,11 +6381,11 @@
       </c>
       <c r="K90" s="11">
         <f>_xll.qlRateHelperEarliestDate($E90,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L90" s="10">
         <f>_xll.qlRateHelperLatestDate($E90,Trigger)</f>
-        <v>42307</v>
+        <v>42317</v>
       </c>
       <c r="N90" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6421,11 +6427,11 @@
       </c>
       <c r="K91" s="11">
         <f>_xll.qlRateHelperEarliestDate($E91,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L91" s="10">
         <f>_xll.qlRateHelperLatestDate($E91,Trigger)</f>
-        <v>42398</v>
+        <v>42408</v>
       </c>
       <c r="N91" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6450,7 +6456,7 @@
       </c>
       <c r="F92" s="13">
         <f>_xll.qlRateHelperQuoteValue($E92,Trigger)</f>
-        <v>5.3700000000000006E-3</v>
+        <v>5.3100000000000005E-3</v>
       </c>
       <c r="G92" s="13">
         <f>_xll.qlSwapRateHelperSpread($E92,Trigger)</f>
@@ -6467,11 +6473,11 @@
       </c>
       <c r="K92" s="11">
         <f>_xll.qlRateHelperEarliestDate($E92,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L92" s="10">
         <f>_xll.qlRateHelperLatestDate($E92,Trigger)</f>
-        <v>42489</v>
+        <v>42499</v>
       </c>
       <c r="N92" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6496,7 +6502,7 @@
       </c>
       <c r="F93" s="13">
         <f>_xll.qlRateHelperQuoteValue($E93,Trigger)</f>
-        <v>9.92E-3</v>
+        <v>9.689999999999999E-3</v>
       </c>
       <c r="G93" s="13">
         <f>_xll.qlSwapRateHelperSpread($E93,Trigger)</f>
@@ -6513,11 +6519,11 @@
       </c>
       <c r="K93" s="11">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L93" s="10">
         <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>42853</v>
+        <v>42863</v>
       </c>
       <c r="N93" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6542,7 +6548,7 @@
       </c>
       <c r="F94" s="13">
         <f>_xll.qlRateHelperQuoteValue($E94,Trigger)</f>
-        <v>1.431E-2</v>
+        <v>1.387E-2</v>
       </c>
       <c r="G94" s="13">
         <f>_xll.qlSwapRateHelperSpread($E94,Trigger)</f>
@@ -6559,11 +6565,11 @@
       </c>
       <c r="K94" s="11">
         <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L94" s="10">
         <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
-        <v>43220</v>
+        <v>43228</v>
       </c>
       <c r="N94" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6588,7 +6594,7 @@
       </c>
       <c r="F95" s="13">
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
-        <v>1.7950000000000001E-2</v>
+        <v>1.736E-2</v>
       </c>
       <c r="G95" s="13">
         <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
@@ -6605,11 +6611,11 @@
       </c>
       <c r="K95" s="11">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L95" s="10">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>43585</v>
+        <v>43592</v>
       </c>
       <c r="N95" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6634,7 +6640,7 @@
       </c>
       <c r="F96" s="13">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
-        <v>2.0840000000000001E-2</v>
+        <v>2.0220000000000002E-2</v>
       </c>
       <c r="G96" s="13">
         <f>_xll.qlSwapRateHelperSpread($E96,Trigger)</f>
@@ -6651,11 +6657,11 @@
       </c>
       <c r="K96" s="11">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L96" s="10">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="N96" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6680,7 +6686,7 @@
       </c>
       <c r="F97" s="13">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
-        <v>2.3109999999999999E-2</v>
+        <v>2.2550000000000001E-2</v>
       </c>
       <c r="G97" s="13">
         <f>_xll.qlSwapRateHelperSpread($E97,Trigger)</f>
@@ -6697,11 +6703,11 @@
       </c>
       <c r="K97" s="11">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L97" s="10">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="N97" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6726,7 +6732,7 @@
       </c>
       <c r="F98" s="13">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>2.4920000000000001E-2</v>
+        <v>2.443E-2</v>
       </c>
       <c r="G98" s="13">
         <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
@@ -6743,11 +6749,11 @@
       </c>
       <c r="K98" s="11">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L98" s="10">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>44680</v>
+        <v>44690</v>
       </c>
       <c r="N98" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6772,7 +6778,7 @@
       </c>
       <c r="F99" s="13">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
-        <v>2.6409999999999999E-2</v>
+        <v>2.596E-2</v>
       </c>
       <c r="G99" s="13">
         <f>_xll.qlSwapRateHelperSpread($E99,Trigger)</f>
@@ -6789,11 +6795,11 @@
       </c>
       <c r="K99" s="11">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L99" s="10">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>45044</v>
+        <v>45054</v>
       </c>
       <c r="N99" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6818,7 +6824,7 @@
       </c>
       <c r="F100" s="13">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>2.7660000000000001E-2</v>
+        <v>2.7229999999999997E-2</v>
       </c>
       <c r="G100" s="13">
         <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
@@ -6835,11 +6841,11 @@
       </c>
       <c r="K100" s="11">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L100" s="10">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>45412</v>
+        <v>45419</v>
       </c>
       <c r="N100" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6881,11 +6887,11 @@
       </c>
       <c r="K101" s="11">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L101" s="10">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>45777</v>
+        <v>45784</v>
       </c>
       <c r="N101" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6910,7 +6916,7 @@
       </c>
       <c r="F102" s="13">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>2.9649999999999999E-2</v>
+        <v>2.9239999999999999E-2</v>
       </c>
       <c r="G102" s="13">
         <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
@@ -6927,11 +6933,11 @@
       </c>
       <c r="K102" s="11">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L102" s="10">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>46142</v>
+        <v>46149</v>
       </c>
       <c r="N102" s="17" t="e">
         <f t="shared" si="7"/>
@@ -6973,11 +6979,11 @@
       </c>
       <c r="K103" s="11">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L103" s="10">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>46507</v>
+        <v>46514</v>
       </c>
       <c r="N103" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7019,11 +7025,11 @@
       </c>
       <c r="K104" s="11">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L104" s="10">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>46871</v>
+        <v>46881</v>
       </c>
       <c r="N104" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7048,7 +7054,7 @@
       </c>
       <c r="F105" s="13">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>3.1539999999999999E-2</v>
+        <v>3.1219999999999998E-2</v>
       </c>
       <c r="G105" s="13">
         <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
@@ -7065,11 +7071,11 @@
       </c>
       <c r="K105" s="11">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L105" s="10">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>47238</v>
+        <v>47246</v>
       </c>
       <c r="N105" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7111,11 +7117,11 @@
       </c>
       <c r="K106" s="11">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L106" s="10">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>47603</v>
+        <v>47610</v>
       </c>
       <c r="N106" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7157,11 +7163,11 @@
       </c>
       <c r="K107" s="11">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L107" s="10">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>47968</v>
+        <v>47975</v>
       </c>
       <c r="N107" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7203,11 +7209,11 @@
       </c>
       <c r="K108" s="11">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L108" s="10">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>48334</v>
+        <v>48341</v>
       </c>
       <c r="N108" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7249,11 +7255,11 @@
       </c>
       <c r="K109" s="11">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L109" s="10">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>48698</v>
+        <v>48708</v>
       </c>
       <c r="N109" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7278,7 +7284,7 @@
       </c>
       <c r="F110" s="13">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
-        <v>3.32E-2</v>
+        <v>3.2919999999999998E-2</v>
       </c>
       <c r="G110" s="13">
         <f>_xll.qlSwapRateHelperSpread($E110,Trigger)</f>
@@ -7295,11 +7301,11 @@
       </c>
       <c r="K110" s="11">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L110" s="10">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>49062</v>
+        <v>49072</v>
       </c>
       <c r="N110" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7341,11 +7347,11 @@
       </c>
       <c r="K111" s="11">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L111" s="10">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>49429</v>
+        <v>49437</v>
       </c>
       <c r="N111" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7387,11 +7393,11 @@
       </c>
       <c r="K112" s="11">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L112" s="10">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>49795</v>
+        <v>49802</v>
       </c>
       <c r="N112" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7433,11 +7439,11 @@
       </c>
       <c r="K113" s="11">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L113" s="10">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>50160</v>
+        <v>50167</v>
       </c>
       <c r="N113" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7479,11 +7485,11 @@
       </c>
       <c r="K114" s="11">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L114" s="10">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>50525</v>
+        <v>50532</v>
       </c>
       <c r="N114" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7508,7 +7514,7 @@
       </c>
       <c r="F115" s="13">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
-        <v>3.3919999999999999E-2</v>
+        <v>3.3689999999999998E-2</v>
       </c>
       <c r="G115" s="13">
         <f>_xll.qlSwapRateHelperSpread($E115,Trigger)</f>
@@ -7525,11 +7531,11 @@
       </c>
       <c r="K115" s="11">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L115" s="10">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>50889</v>
+        <v>50899</v>
       </c>
       <c r="N115" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7571,11 +7577,11 @@
       </c>
       <c r="K116" s="11">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L116" s="10">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>51256</v>
+        <v>51264</v>
       </c>
       <c r="N116" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7617,11 +7623,11 @@
       </c>
       <c r="K117" s="11">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L117" s="10">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>51621</v>
+        <v>51628</v>
       </c>
       <c r="N117" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7663,11 +7669,11 @@
       </c>
       <c r="K118" s="11">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L118" s="10">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>51986</v>
+        <v>51993</v>
       </c>
       <c r="N118" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7709,11 +7715,11 @@
       </c>
       <c r="K119" s="11">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L119" s="10">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>52351</v>
+        <v>52358</v>
       </c>
       <c r="N119" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7738,7 +7744,7 @@
       </c>
       <c r="F120" s="13">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
-        <v>3.4210000000000004E-2</v>
+        <v>3.4029999999999998E-2</v>
       </c>
       <c r="G120" s="13">
         <f>_xll.qlSwapRateHelperSpread($E120,Trigger)</f>
@@ -7755,11 +7761,11 @@
       </c>
       <c r="K120" s="11">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L120" s="10">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>52716</v>
+        <v>52726</v>
       </c>
       <c r="N120" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7801,11 +7807,11 @@
       </c>
       <c r="K121" s="11">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L121" s="10">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>54543</v>
+        <v>54550</v>
       </c>
       <c r="N121" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7830,7 +7836,7 @@
       </c>
       <c r="F122" s="13">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
-        <v>3.4379999999999994E-2</v>
+        <v>3.422E-2</v>
       </c>
       <c r="G122" s="13">
         <f>_xll.qlSwapRateHelperSpread($E122,Trigger)</f>
@@ -7847,11 +7853,11 @@
       </c>
       <c r="K122" s="11">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L122" s="10">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>56369</v>
+        <v>56376</v>
       </c>
       <c r="N122" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7876,7 +7882,7 @@
       </c>
       <c r="F123" s="13">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
-        <v>3.4210000000000004E-2</v>
+        <v>3.4029999999999998E-2</v>
       </c>
       <c r="G123" s="13">
         <f>_xll.qlSwapRateHelperSpread($E123,Trigger)</f>
@@ -7893,11 +7899,11 @@
       </c>
       <c r="K123" s="11">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L123" s="10">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>60022</v>
+        <v>60029</v>
       </c>
       <c r="N123" s="17" t="e">
         <f t="shared" si="7"/>
@@ -7939,11 +7945,11 @@
       </c>
       <c r="K124" s="4">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="L124" s="3">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>63674</v>
+        <v>63682</v>
       </c>
       <c r="N124" s="17" t="e">
         <f t="shared" si="7"/>
@@ -9541,10 +9547,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="193" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="193"/>
+      <c r="B1" s="194"/>
       <c r="D1" s="52" t="s">
         <v>71</v>
       </c>
@@ -9576,7 +9582,7 @@
       </c>
       <c r="E2" s="39">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>2.3739999999999998E-3</v>
+        <v>2.343E-3</v>
       </c>
       <c r="F2" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9584,14 +9590,14 @@
       </c>
       <c r="G2" s="38">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H2" s="37">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41766</v>
+        <v>41773</v>
       </c>
       <c r="I2" s="32">
-        <v>0.99995384101963836</v>
+        <v>0.9999544437421336</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>105</v>
@@ -9612,7 +9618,7 @@
       </c>
       <c r="E3" s="39">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>2.2759999999999998E-3</v>
+        <v>2.2829999999999999E-3</v>
       </c>
       <c r="F3" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9620,14 +9626,14 @@
       </c>
       <c r="G3" s="38">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H3" s="37">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41789</v>
+        <v>41799</v>
       </c>
       <c r="I3" s="32">
-        <v>0.99981036929995604</v>
+        <v>0.99979076878686213</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>106</v>
@@ -9648,7 +9654,7 @@
       </c>
       <c r="E4" s="39">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>2.2669999999999999E-3</v>
+        <v>2.2539999999999999E-3</v>
       </c>
       <c r="F4" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9656,14 +9662,14 @@
       </c>
       <c r="G4" s="38">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H4" s="37">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
       <c r="I4" s="32">
-        <v>0.99961601694428581</v>
+        <v>0.99961821803535955</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>107</v>
@@ -9684,7 +9690,7 @@
       </c>
       <c r="E5" s="39">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>2.2669999999999999E-3</v>
+        <v>2.2290000000000001E-3</v>
       </c>
       <c r="F5" s="39" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9692,14 +9698,14 @@
       </c>
       <c r="G5" s="38">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H5" s="37">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41851</v>
+        <v>41858</v>
       </c>
       <c r="I5" s="32">
-        <v>0.99942099100120252</v>
+        <v>0.99943069096407045</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>108</v>
@@ -9721,7 +9727,7 @@
       </c>
       <c r="E6" s="39">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>2.2874999999999979E-3</v>
+        <v>2.2124999999999506E-3</v>
       </c>
       <c r="F6" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9736,7 +9742,7 @@
         <v>41872</v>
       </c>
       <c r="I6" s="32">
-        <v>0.99928159486223855</v>
+        <v>0.9993445780947634</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>109</v>
@@ -9748,7 +9754,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_RateHelpersSelected#0009</v>
+        <v>USD_YC3MRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="42" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9759,7 +9765,7 @@
       </c>
       <c r="E7" s="39">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>2.3250000000000215E-3</v>
+        <v>2.2249999999999215E-3</v>
       </c>
       <c r="F7" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9774,7 +9780,7 @@
         <v>41900</v>
       </c>
       <c r="I7" s="32">
-        <v>0.99909778199123289</v>
+        <v>0.99916684573398351</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>110</v>
@@ -9789,7 +9795,7 @@
       </c>
       <c r="E8" s="39">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>2.475000000000005E-3</v>
+        <v>2.375000000000016E-3</v>
       </c>
       <c r="F8" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9804,7 +9810,7 @@
         <v>41990</v>
       </c>
       <c r="I8" s="32">
-        <v>0.99847966438460101</v>
+        <v>0.99857376227060812</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>111</v>
@@ -9819,7 +9825,7 @@
       </c>
       <c r="E9" s="39">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>2.8749999999999609E-3</v>
+        <v>2.775000000000083E-3</v>
       </c>
       <c r="F9" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9834,7 +9840,7 @@
         <v>42080</v>
       </c>
       <c r="I9" s="32">
-        <v>0.99776252257150277</v>
+        <v>0.99788148199247584</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>169</v>
@@ -9849,7 +9855,7 @@
       </c>
       <c r="E10" s="39">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>3.8249999999999673E-3</v>
+        <v>3.7249999999999783E-3</v>
       </c>
       <c r="F10" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9864,7 +9870,7 @@
         <v>42173</v>
       </c>
       <c r="I10" s="32">
-        <v>0.99677926608005996</v>
+        <v>0.99692382720773765</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>170</v>
@@ -9879,7 +9885,7 @@
       </c>
       <c r="E11" s="39">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>5.6249999999999911E-3</v>
+        <v>5.4750000000000076E-3</v>
       </c>
       <c r="F11" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9894,7 +9900,7 @@
         <v>42264</v>
       </c>
       <c r="I11" s="32">
-        <v>0.99536115736000741</v>
+        <v>0.99554334016420487</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>112</v>
@@ -9910,7 +9916,7 @@
       </c>
       <c r="E12" s="39">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>7.9749999999999543E-3</v>
+        <v>7.6249999999999929E-3</v>
       </c>
       <c r="F12" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9925,7 +9931,7 @@
         <v>42354</v>
       </c>
       <c r="I12" s="32">
-        <v>0.99337719748143927</v>
+        <v>0.99364606847642123</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>113</v>
@@ -9941,7 +9947,7 @@
       </c>
       <c r="E13" s="39">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>1.0774999999999979E-2</v>
+        <v>1.0325000000000029E-2</v>
       </c>
       <c r="F13" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -9956,7 +9962,7 @@
         <v>42445</v>
       </c>
       <c r="I13" s="32">
-        <v>0.99067890461214803</v>
+        <v>0.99105947207787237</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>114</v>
@@ -9971,7 +9977,7 @@
       </c>
       <c r="E14" s="39">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>1.3824999999999976E-2</v>
+        <v>1.3224999999999931E-2</v>
       </c>
       <c r="F14" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -9986,7 +9992,7 @@
         <v>42537</v>
       </c>
       <c r="I14" s="32">
-        <v>0.98719110359918194</v>
+        <v>0.98772124862453492</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>115</v>
@@ -10001,7 +10007,7 @@
       </c>
       <c r="E15" s="39">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>9.92E-3</v>
+        <v>9.689999999999999E-3</v>
       </c>
       <c r="F15" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -10009,14 +10015,14 @@
       </c>
       <c r="G15" s="38">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H15" s="37">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42853</v>
+        <v>42863</v>
       </c>
       <c r="I15" s="32">
-        <v>0.97030218106962995</v>
+        <v>0.97090361684521842</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>116</v>
@@ -10031,7 +10037,7 @@
       </c>
       <c r="E16" s="39">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.431E-2</v>
+        <v>1.387E-2</v>
       </c>
       <c r="F16" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10039,14 +10045,14 @@
       </c>
       <c r="G16" s="38">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H16" s="37">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43220</v>
+        <v>43228</v>
       </c>
       <c r="I16" s="32">
-        <v>0.94342461466312666</v>
+        <v>0.94508851778677461</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>117</v>
@@ -10061,7 +10067,7 @@
       </c>
       <c r="E17" s="39">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.7950000000000001E-2</v>
+        <v>1.736E-2</v>
       </c>
       <c r="F17" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10069,14 +10075,14 @@
       </c>
       <c r="G17" s="38">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H17" s="37">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43585</v>
+        <v>43592</v>
       </c>
       <c r="I17" s="32">
-        <v>0.91246879531639113</v>
+        <v>0.91524822311506338</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>118</v>
@@ -10091,7 +10097,7 @@
       </c>
       <c r="E18" s="39">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>2.0840000000000001E-2</v>
+        <v>2.0220000000000002E-2</v>
       </c>
       <c r="F18" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -10099,14 +10105,14 @@
       </c>
       <c r="G18" s="38">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H18" s="37">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="I18" s="32">
-        <v>0.87978774756629929</v>
+        <v>0.88318069995349036</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>119</v>
@@ -10121,7 +10127,7 @@
       </c>
       <c r="E19" s="39">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>2.3109999999999999E-2</v>
+        <v>2.2550000000000001E-2</v>
       </c>
       <c r="F19" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10129,14 +10135,14 @@
       </c>
       <c r="G19" s="38">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H19" s="37">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44316</v>
+        <v>44323</v>
       </c>
       <c r="I19" s="32">
-        <v>0.84691010230438513</v>
+        <v>0.85034098901639787</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>120</v>
@@ -10151,7 +10157,7 @@
       </c>
       <c r="E20" s="39">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>2.4920000000000001E-2</v>
+        <v>2.443E-2</v>
       </c>
       <c r="F20" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10159,14 +10165,14 @@
       </c>
       <c r="G20" s="38">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H20" s="37">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44680</v>
+        <v>44690</v>
       </c>
       <c r="I20" s="32">
-        <v>0.81446709758057523</v>
+        <v>0.81757874738805458</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>121</v>
@@ -10181,7 +10187,7 @@
       </c>
       <c r="E21" s="39">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.6409999999999999E-2</v>
+        <v>2.596E-2</v>
       </c>
       <c r="F21" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10189,14 +10195,14 @@
       </c>
       <c r="G21" s="38">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H21" s="37">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>45044</v>
+        <v>45054</v>
       </c>
       <c r="I21" s="32">
-        <v>0.78255151184919036</v>
+        <v>0.78562255036174167</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>122</v>
@@ -10211,7 +10217,7 @@
       </c>
       <c r="E22" s="39">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.7660000000000001E-2</v>
+        <v>2.7229999999999997E-2</v>
       </c>
       <c r="F22" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10219,14 +10225,14 @@
       </c>
       <c r="G22" s="38">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H22" s="37">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>45412</v>
+        <v>45419</v>
       </c>
       <c r="I22" s="32">
-        <v>0.7511067811029597</v>
+        <v>0.75439409718879413</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>123</v>
@@ -10241,7 +10247,7 @@
       </c>
       <c r="E23" s="39">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.9649999999999999E-2</v>
+        <v>2.9239999999999999E-2</v>
       </c>
       <c r="F23" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10249,14 +10255,14 @@
       </c>
       <c r="G23" s="38">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H23" s="37">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>46142</v>
+        <v>46149</v>
       </c>
       <c r="I23" s="32">
-        <v>0.69097024412626029</v>
+        <v>0.69440908248955346</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>124</v>
@@ -10271,7 +10277,7 @@
       </c>
       <c r="E24" s="39">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>3.1539999999999999E-2</v>
+        <v>3.1219999999999998E-2</v>
       </c>
       <c r="F24" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10279,14 +10285,14 @@
       </c>
       <c r="G24" s="38">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H24" s="37">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>47238</v>
+        <v>47246</v>
       </c>
       <c r="I24" s="32">
-        <v>0.61044600411292216</v>
+        <v>0.61317853752616425</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>125</v>
@@ -10301,7 +10307,7 @@
       </c>
       <c r="E25" s="39">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>3.32E-2</v>
+        <v>3.2919999999999998E-2</v>
       </c>
       <c r="F25" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10309,14 +10315,14 @@
       </c>
       <c r="G25" s="38">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H25" s="37">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>49062</v>
+        <v>49072</v>
       </c>
       <c r="I25" s="32">
-        <v>0.49919603353203035</v>
+        <v>0.5016369871204307</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>126</v>
@@ -10331,7 +10337,7 @@
       </c>
       <c r="E26" s="39">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>3.3919999999999999E-2</v>
+        <v>3.3689999999999998E-2</v>
       </c>
       <c r="F26" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10339,14 +10345,14 @@
       </c>
       <c r="G26" s="38">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H26" s="37">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>50889</v>
+        <v>50899</v>
       </c>
       <c r="I26" s="32">
-        <v>0.41194180745992126</v>
+        <v>0.41376966521348524</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>127</v>
@@ -10361,7 +10367,7 @@
       </c>
       <c r="E27" s="39">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>3.4210000000000004E-2</v>
+        <v>3.4029999999999998E-2</v>
       </c>
       <c r="F27" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10369,14 +10375,14 @@
       </c>
       <c r="G27" s="38">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H27" s="37">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>52716</v>
+        <v>52726</v>
       </c>
       <c r="I27" s="32">
-        <v>0.3429048279221632</v>
+        <v>0.34397979603713313</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>128</v>
@@ -10391,7 +10397,7 @@
       </c>
       <c r="E28" s="39">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>3.4379999999999994E-2</v>
+        <v>3.422E-2</v>
       </c>
       <c r="F28" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10399,14 +10405,14 @@
       </c>
       <c r="G28" s="38">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H28" s="37">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>56369</v>
+        <v>56376</v>
       </c>
       <c r="I28" s="32">
-        <v>0.24087916752802302</v>
+        <v>0.24180609536196818</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>129</v>
@@ -10421,7 +10427,7 @@
       </c>
       <c r="E29" s="39">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>3.4210000000000004E-2</v>
+        <v>3.4029999999999998E-2</v>
       </c>
       <c r="F29" s="39">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -10429,14 +10435,14 @@
       </c>
       <c r="G29" s="38">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41759</v>
+        <v>41766</v>
       </c>
       <c r="H29" s="37">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>60022</v>
+        <v>60029</v>
       </c>
       <c r="I29" s="32">
-        <v>0.17415865473849296</v>
+        <v>0.17547943721815251</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>130</v>
@@ -12792,160 +12798,182 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="88" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="88" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="88" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="88" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="88" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="88" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="88"/>
+    <col min="3" max="3" width="19.28515625" style="88" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="88" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="88" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="88" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="88" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="107" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="106"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="106"/>
+      <c r="D1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="105" t="str">
-        <f>Currency&amp;"_YC"&amp;$C$1&amp;"RH"</f>
+      <c r="E1" s="105" t="str">
+        <f>Currency&amp;"_YC"&amp;$D$1&amp;"RH"</f>
         <v>USD_YC3MRH</v>
       </c>
-      <c r="E1" s="104"/>
       <c r="F1" s="104"/>
-      <c r="G1" s="92"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="104"/>
+      <c r="H1" s="92"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="98"/>
       <c r="B2" s="103"/>
       <c r="C2" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="102" t="str">
-        <f>$D$1&amp;"_Deposits.xml"</f>
+      <c r="E2" s="102" t="str">
+        <f>$E$1&amp;"_Deposits.xml"</f>
         <v>USD_YC3MRH_Deposits.xml</v>
       </c>
-      <c r="E2" s="101" t="str">
-        <f>IF(Serialize,_xll.ohObjectSave(E3:E6,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
+      <c r="F2" s="101" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(F3:F6,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="F2" s="100" t="str">
-        <f>_xll.ohRangeRetrieveError(E2)</f>
+      <c r="G2" s="100" t="str">
+        <f>_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
-      <c r="G2" s="92"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="92"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="98"/>
       <c r="B3" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="96" t="str">
-        <f t="shared" ref="C3:C6" si="0">Currency&amp;B3&amp;"D_SYNTH"&amp;$C$1&amp;QuoteSuffix</f>
+      <c r="C3" s="185" t="str">
+        <f>Currency&amp;FamilyName&amp;B3</f>
+        <v>USDLiborSW</v>
+      </c>
+      <c r="D3" s="96" t="str">
+        <f t="shared" ref="D3:D6" si="0">Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>USDSWD_SYNTH3M_Quote</v>
       </c>
-      <c r="D3" s="95" t="str">
-        <f>$D$1&amp;"_"&amp;$B3&amp;"D"</f>
+      <c r="E3" s="95" t="str">
+        <f>$E$1&amp;"_"&amp;$B3&amp;"D"</f>
         <v>USD_YC3MRH_SWD</v>
       </c>
-      <c r="E3" s="94" t="str">
-        <f>_xll.qlDepositRateHelper(D3,C3,Currency&amp;FamilyName&amp;B3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_SWD#0016</v>
-      </c>
-      <c r="F3" s="93" t="str">
-        <f>_xll.ohRangeRetrieveError(E3)</f>
+      <c r="F3" s="94" t="str">
+        <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>USD_YC3MRH_SWD#0001</v>
+      </c>
+      <c r="G3" s="93" t="str">
+        <f>_xll.ohRangeRetrieveError(F3)</f>
         <v/>
       </c>
-      <c r="G3" s="92"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="92"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="98"/>
       <c r="B4" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="96" t="str">
+      <c r="C4" s="185" t="str">
+        <f>Currency&amp;FamilyName&amp;B4</f>
+        <v>USDLibor1M</v>
+      </c>
+      <c r="D4" s="96" t="str">
         <f t="shared" si="0"/>
         <v>USD1MD_SYNTH3M_Quote</v>
       </c>
-      <c r="D4" s="95" t="str">
-        <f>$D$1&amp;"_"&amp;$B4&amp;"D"</f>
+      <c r="E4" s="95" t="str">
+        <f>$E$1&amp;"_"&amp;$B4&amp;"D"</f>
         <v>USD_YC3MRH_1MD</v>
       </c>
-      <c r="E4" s="94" t="str">
-        <f>_xll.qlDepositRateHelper(D4,C4,Currency&amp;FamilyName&amp;B4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_1MD#0023</v>
-      </c>
-      <c r="F4" s="93" t="str">
-        <f>_xll.ohRangeRetrieveError(E4)</f>
+      <c r="F4" s="94" t="str">
+        <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>USD_YC3MRH_1MD#0001</v>
+      </c>
+      <c r="G4" s="93" t="str">
+        <f>_xll.ohRangeRetrieveError(F4)</f>
         <v/>
       </c>
-      <c r="G4" s="92"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="92"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="98"/>
       <c r="B5" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="96" t="str">
+      <c r="C5" s="185" t="str">
+        <f>Currency&amp;FamilyName&amp;B5</f>
+        <v>USDLibor2M</v>
+      </c>
+      <c r="D5" s="96" t="str">
         <f t="shared" si="0"/>
         <v>USD2MD_SYNTH3M_Quote</v>
       </c>
-      <c r="D5" s="95" t="str">
-        <f>$D$1&amp;"_"&amp;$B5&amp;"D"</f>
+      <c r="E5" s="95" t="str">
+        <f>$E$1&amp;"_"&amp;$B5&amp;"D"</f>
         <v>USD_YC3MRH_2MD</v>
       </c>
-      <c r="E5" s="94" t="str">
-        <f>_xll.qlDepositRateHelper(D5,C5,Currency&amp;FamilyName&amp;B5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_2MD#0007</v>
-      </c>
-      <c r="F5" s="93" t="str">
-        <f>_xll.ohRangeRetrieveError(E5)</f>
+      <c r="F5" s="94" t="str">
+        <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>USD_YC3MRH_2MD#0001</v>
+      </c>
+      <c r="G5" s="93" t="str">
+        <f>_xll.ohRangeRetrieveError(F5)</f>
         <v/>
       </c>
-      <c r="G5" s="92"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="92"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="98"/>
       <c r="B6" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="96" t="str">
+      <c r="C6" s="185" t="str">
+        <f>Currency&amp;FamilyName&amp;B6</f>
+        <v>USDLibor3M</v>
+      </c>
+      <c r="D6" s="96" t="str">
         <f t="shared" si="0"/>
         <v>USD3MD_SYNTH3M_Quote</v>
       </c>
-      <c r="D6" s="95" t="str">
-        <f>$D$1&amp;"_"&amp;$B6&amp;"D"</f>
+      <c r="E6" s="95" t="str">
+        <f>$E$1&amp;"_"&amp;$B6&amp;"D"</f>
         <v>USD_YC3MRH_3MD</v>
       </c>
-      <c r="E6" s="94" t="str">
-        <f>_xll.qlDepositRateHelper(D6,C6,Currency&amp;FamilyName&amp;B6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_3MD#0007</v>
-      </c>
-      <c r="F6" s="93" t="str">
-        <f>_xll.ohRangeRetrieveError(E6)</f>
+      <c r="F6" s="94" t="str">
+        <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>USD_YC3MRH_3MD#0001</v>
+      </c>
+      <c r="G6" s="93" t="str">
+        <f>_xll.ohRangeRetrieveError(F6)</f>
         <v/>
       </c>
-      <c r="G6" s="92"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="92"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="91"/>
       <c r="B7" s="90"/>
       <c r="C7" s="90"/>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
-      <c r="G7" s="89"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13064,7 +13092,7 @@
       </c>
       <c r="I3" s="136" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MK4#0011</v>
+        <v>USD_YC3MRH_FUT3MK4#0001</v>
       </c>
       <c r="J3" s="135" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -13102,7 +13130,7 @@
       </c>
       <c r="I4" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM4#0006</v>
+        <v>USD_YC3MRH_FUT3MM4#0001</v>
       </c>
       <c r="J4" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13140,7 +13168,7 @@
       </c>
       <c r="I5" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MN4#0006</v>
+        <v>USD_YC3MRH_FUT3MN4#0001</v>
       </c>
       <c r="J5" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13178,7 +13206,7 @@
       </c>
       <c r="I6" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MQ4#0006</v>
+        <v>USD_YC3MRH_FUT3MQ4#0001</v>
       </c>
       <c r="J6" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13216,7 +13244,7 @@
       </c>
       <c r="I7" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU4#0006</v>
+        <v>USD_YC3MRH_FUT3MU4#0001</v>
       </c>
       <c r="J7" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13254,7 +13282,7 @@
       </c>
       <c r="I8" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MV4#0006</v>
+        <v>USD_YC3MRH_FUT3MV4#0001</v>
       </c>
       <c r="J8" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13292,7 +13320,7 @@
       </c>
       <c r="I9" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MX4#0006</v>
+        <v>USD_YC3MRH_FUT3MX4#0001</v>
       </c>
       <c r="J9" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -13330,7 +13358,7 @@
       </c>
       <c r="I10" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ4#0006</v>
+        <v>USD_YC3MRH_FUT3MZ4#0001</v>
       </c>
       <c r="J10" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -13368,7 +13396,7 @@
       </c>
       <c r="I11" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MF5#0006</v>
+        <v>USD_YC3MRH_FUT3MF5#0001</v>
       </c>
       <c r="J11" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -13406,7 +13434,7 @@
       </c>
       <c r="I12" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MG5#0006</v>
+        <v>USD_YC3MRH_FUT3MG5#0001</v>
       </c>
       <c r="J12" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -13444,7 +13472,7 @@
       </c>
       <c r="I13" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH5#0006</v>
+        <v>USD_YC3MRH_FUT3MH5#0001</v>
       </c>
       <c r="J13" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -13482,7 +13510,7 @@
       </c>
       <c r="I14" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MJ5#0006</v>
+        <v>USD_YC3MRH_FUT3MJ5#0001</v>
       </c>
       <c r="J14" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -13520,7 +13548,7 @@
       </c>
       <c r="I15" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM5#0006</v>
+        <v>USD_YC3MRH_FUT3MM5#0001</v>
       </c>
       <c r="J15" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -13558,7 +13586,7 @@
       </c>
       <c r="I16" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU5#0006</v>
+        <v>USD_YC3MRH_FUT3MU5#0001</v>
       </c>
       <c r="J16" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -13596,7 +13624,7 @@
       </c>
       <c r="I17" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ5#0006</v>
+        <v>USD_YC3MRH_FUT3MZ5#0001</v>
       </c>
       <c r="J17" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -13634,7 +13662,7 @@
       </c>
       <c r="I18" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH6#0006</v>
+        <v>USD_YC3MRH_FUT3MH6#0001</v>
       </c>
       <c r="J18" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -13672,7 +13700,7 @@
       </c>
       <c r="I19" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM6#0006</v>
+        <v>USD_YC3MRH_FUT3MM6#0001</v>
       </c>
       <c r="J19" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -13710,7 +13738,7 @@
       </c>
       <c r="I20" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU6#0006</v>
+        <v>USD_YC3MRH_FUT3MU6#0001</v>
       </c>
       <c r="J20" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -13748,7 +13776,7 @@
       </c>
       <c r="I21" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ6#0006</v>
+        <v>USD_YC3MRH_FUT3MZ6#0001</v>
       </c>
       <c r="J21" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -13786,7 +13814,7 @@
       </c>
       <c r="I22" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH7#0006</v>
+        <v>USD_YC3MRH_FUT3MH7#0001</v>
       </c>
       <c r="J22" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -13824,7 +13852,7 @@
       </c>
       <c r="I23" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM7#0006</v>
+        <v>USD_YC3MRH_FUT3MM7#0001</v>
       </c>
       <c r="J23" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -13862,7 +13890,7 @@
       </c>
       <c r="I24" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU7#0006</v>
+        <v>USD_YC3MRH_FUT3MU7#0001</v>
       </c>
       <c r="J24" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -13900,7 +13928,7 @@
       </c>
       <c r="I25" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ7#0006</v>
+        <v>USD_YC3MRH_FUT3MZ7#0001</v>
       </c>
       <c r="J25" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -13938,7 +13966,7 @@
       </c>
       <c r="I26" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH8#0006</v>
+        <v>USD_YC3MRH_FUT3MH8#0001</v>
       </c>
       <c r="J26" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -13976,7 +14004,7 @@
       </c>
       <c r="I27" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM8#0006</v>
+        <v>USD_YC3MRH_FUT3MM8#0001</v>
       </c>
       <c r="J27" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -14014,7 +14042,7 @@
       </c>
       <c r="I28" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU8#0006</v>
+        <v>USD_YC3MRH_FUT3MU8#0001</v>
       </c>
       <c r="J28" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -14052,7 +14080,7 @@
       </c>
       <c r="I29" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ8#0006</v>
+        <v>USD_YC3MRH_FUT3MZ8#0001</v>
       </c>
       <c r="J29" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -14090,7 +14118,7 @@
       </c>
       <c r="I30" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH9#0006</v>
+        <v>USD_YC3MRH_FUT3MH9#0001</v>
       </c>
       <c r="J30" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -14128,7 +14156,7 @@
       </c>
       <c r="I31" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM9#0006</v>
+        <v>USD_YC3MRH_FUT3MM9#0001</v>
       </c>
       <c r="J31" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -14166,7 +14194,7 @@
       </c>
       <c r="I32" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU9#0006</v>
+        <v>USD_YC3MRH_FUT3MU9#0001</v>
       </c>
       <c r="J32" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -14204,7 +14232,7 @@
       </c>
       <c r="I33" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ9#0006</v>
+        <v>USD_YC3MRH_FUT3MZ9#0001</v>
       </c>
       <c r="J33" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -14242,7 +14270,7 @@
       </c>
       <c r="I34" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH0#0006</v>
+        <v>USD_YC3MRH_FUT3MH0#0001</v>
       </c>
       <c r="J34" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -14280,7 +14308,7 @@
       </c>
       <c r="I35" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM0#0006</v>
+        <v>USD_YC3MRH_FUT3MM0#0001</v>
       </c>
       <c r="J35" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -14318,7 +14346,7 @@
       </c>
       <c r="I36" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU0#0006</v>
+        <v>USD_YC3MRH_FUT3MU0#0001</v>
       </c>
       <c r="J36" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -14356,7 +14384,7 @@
       </c>
       <c r="I37" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ0#0006</v>
+        <v>USD_YC3MRH_FUT3MZ0#0001</v>
       </c>
       <c r="J37" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -14394,7 +14422,7 @@
       </c>
       <c r="I38" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH1#0006</v>
+        <v>USD_YC3MRH_FUT3MH1#0001</v>
       </c>
       <c r="J38" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -14432,7 +14460,7 @@
       </c>
       <c r="I39" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM1#0006</v>
+        <v>USD_YC3MRH_FUT3MM1#0001</v>
       </c>
       <c r="J39" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -14470,7 +14498,7 @@
       </c>
       <c r="I40" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU1#0006</v>
+        <v>USD_YC3MRH_FUT3MU1#0001</v>
       </c>
       <c r="J40" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -14507,7 +14535,7 @@
       </c>
       <c r="I41" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ1#0006</v>
+        <v>USD_YC3MRH_FUT3MZ1#0001</v>
       </c>
       <c r="J41" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -14544,7 +14572,7 @@
       </c>
       <c r="I42" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH2#0006</v>
+        <v>USD_YC3MRH_FUT3MH2#0001</v>
       </c>
       <c r="J42" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -14581,7 +14609,7 @@
       </c>
       <c r="I43" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM2#0006</v>
+        <v>USD_YC3MRH_FUT3MM2#0001</v>
       </c>
       <c r="J43" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -14618,7 +14646,7 @@
       </c>
       <c r="I44" s="129" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU2#0006</v>
+        <v>USD_YC3MRH_FUT3MU2#0001</v>
       </c>
       <c r="J44" s="93" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -14774,7 +14802,7 @@
       </c>
       <c r="L4" s="167" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YC3MRH_AM3L_Libor3M#0006</v>
+        <v>USD_YC3MRH_AM3L_Libor3M#0001</v>
       </c>
       <c r="M4" s="166" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -14838,7 +14866,7 @@
       </c>
       <c r="L6" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L1Y#0006</v>
+        <v>USD_YC3MRH_AM3L1Y#0001</v>
       </c>
       <c r="M6" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -14893,7 +14921,7 @@
       </c>
       <c r="L7" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L15M#0006</v>
+        <v>USD_YC3MRH_AM3L15M#0001</v>
       </c>
       <c r="M7" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -14948,7 +14976,7 @@
       </c>
       <c r="L8" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L18M#0006</v>
+        <v>USD_YC3MRH_AM3L18M#0001</v>
       </c>
       <c r="M8" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -15003,7 +15031,7 @@
       </c>
       <c r="L9" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L21M#0006</v>
+        <v>USD_YC3MRH_AM3L21M#0001</v>
       </c>
       <c r="M9" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -15058,7 +15086,7 @@
       </c>
       <c r="L10" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L2Y#0008</v>
+        <v>USD_YC3MRH_AM3L2Y#0001</v>
       </c>
       <c r="M10" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -15113,7 +15141,7 @@
       </c>
       <c r="L11" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L3Y#0006</v>
+        <v>USD_YC3MRH_AM3L3Y#0001</v>
       </c>
       <c r="M11" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -15159,7 +15187,7 @@
       </c>
       <c r="L12" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L4Y#0006</v>
+        <v>USD_YC3MRH_AM3L4Y#0001</v>
       </c>
       <c r="M12" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -15205,7 +15233,7 @@
       </c>
       <c r="L13" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L5Y#0006</v>
+        <v>USD_YC3MRH_AM3L5Y#0001</v>
       </c>
       <c r="M13" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -15251,7 +15279,7 @@
       </c>
       <c r="L14" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L6Y#0006</v>
+        <v>USD_YC3MRH_AM3L6Y#0001</v>
       </c>
       <c r="M14" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -15297,7 +15325,7 @@
       </c>
       <c r="L15" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L7Y#0006</v>
+        <v>USD_YC3MRH_AM3L7Y#0001</v>
       </c>
       <c r="M15" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -15343,7 +15371,7 @@
       </c>
       <c r="L16" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L8Y#0006</v>
+        <v>USD_YC3MRH_AM3L8Y#0001</v>
       </c>
       <c r="M16" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -15389,7 +15417,7 @@
       </c>
       <c r="L17" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L9Y#0006</v>
+        <v>USD_YC3MRH_AM3L9Y#0001</v>
       </c>
       <c r="M17" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -15435,7 +15463,7 @@
       </c>
       <c r="L18" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L10Y#0006</v>
+        <v>USD_YC3MRH_AM3L10Y#0001</v>
       </c>
       <c r="M18" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -15481,7 +15509,7 @@
       </c>
       <c r="L19" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L11Y#0006</v>
+        <v>USD_YC3MRH_AM3L11Y#0001</v>
       </c>
       <c r="M19" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -15527,7 +15555,7 @@
       </c>
       <c r="L20" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L12Y#0006</v>
+        <v>USD_YC3MRH_AM3L12Y#0001</v>
       </c>
       <c r="M20" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -15573,7 +15601,7 @@
       </c>
       <c r="L21" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L13Y#0006</v>
+        <v>USD_YC3MRH_AM3L13Y#0001</v>
       </c>
       <c r="M21" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -15619,7 +15647,7 @@
       </c>
       <c r="L22" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L14Y#0006</v>
+        <v>USD_YC3MRH_AM3L14Y#0001</v>
       </c>
       <c r="M22" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -15665,7 +15693,7 @@
       </c>
       <c r="L23" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L15Y#0006</v>
+        <v>USD_YC3MRH_AM3L15Y#0001</v>
       </c>
       <c r="M23" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -15711,7 +15739,7 @@
       </c>
       <c r="L24" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L16Y#0006</v>
+        <v>USD_YC3MRH_AM3L16Y#0001</v>
       </c>
       <c r="M24" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -15757,7 +15785,7 @@
       </c>
       <c r="L25" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L17Y#0006</v>
+        <v>USD_YC3MRH_AM3L17Y#0001</v>
       </c>
       <c r="M25" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -15803,7 +15831,7 @@
       </c>
       <c r="L26" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L18Y#0006</v>
+        <v>USD_YC3MRH_AM3L18Y#0001</v>
       </c>
       <c r="M26" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -15849,7 +15877,7 @@
       </c>
       <c r="L27" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L19Y#0006</v>
+        <v>USD_YC3MRH_AM3L19Y#0001</v>
       </c>
       <c r="M27" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -15895,7 +15923,7 @@
       </c>
       <c r="L28" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L20Y#0006</v>
+        <v>USD_YC3MRH_AM3L20Y#0001</v>
       </c>
       <c r="M28" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -15941,7 +15969,7 @@
       </c>
       <c r="L29" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L21Y#0006</v>
+        <v>USD_YC3MRH_AM3L21Y#0001</v>
       </c>
       <c r="M29" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -15987,7 +16015,7 @@
       </c>
       <c r="L30" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L22Y#0006</v>
+        <v>USD_YC3MRH_AM3L22Y#0001</v>
       </c>
       <c r="M30" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -16033,7 +16061,7 @@
       </c>
       <c r="L31" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L23Y#0006</v>
+        <v>USD_YC3MRH_AM3L23Y#0001</v>
       </c>
       <c r="M31" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -16079,7 +16107,7 @@
       </c>
       <c r="L32" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L24Y#0006</v>
+        <v>USD_YC3MRH_AM3L24Y#0001</v>
       </c>
       <c r="M32" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -16125,7 +16153,7 @@
       </c>
       <c r="L33" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L25Y#0006</v>
+        <v>USD_YC3MRH_AM3L25Y#0001</v>
       </c>
       <c r="M33" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -16171,7 +16199,7 @@
       </c>
       <c r="L34" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L26Y#0006</v>
+        <v>USD_YC3MRH_AM3L26Y#0001</v>
       </c>
       <c r="M34" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -16217,7 +16245,7 @@
       </c>
       <c r="L35" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L27Y#0006</v>
+        <v>USD_YC3MRH_AM3L27Y#0001</v>
       </c>
       <c r="M35" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -16263,7 +16291,7 @@
       </c>
       <c r="L36" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L28Y#0006</v>
+        <v>USD_YC3MRH_AM3L28Y#0001</v>
       </c>
       <c r="M36" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -16309,7 +16337,7 @@
       </c>
       <c r="L37" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L29Y#0006</v>
+        <v>USD_YC3MRH_AM3L29Y#0001</v>
       </c>
       <c r="M37" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -16355,7 +16383,7 @@
       </c>
       <c r="L38" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L30Y#0006</v>
+        <v>USD_YC3MRH_AM3L30Y#0001</v>
       </c>
       <c r="M38" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -16401,7 +16429,7 @@
       </c>
       <c r="L39" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L35Y#0006</v>
+        <v>USD_YC3MRH_AM3L35Y#0001</v>
       </c>
       <c r="M39" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -16447,7 +16475,7 @@
       </c>
       <c r="L40" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L40Y#0006</v>
+        <v>USD_YC3MRH_AM3L40Y#0001</v>
       </c>
       <c r="M40" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -16493,7 +16521,7 @@
       </c>
       <c r="L41" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L50Y#0006</v>
+        <v>USD_YC3MRH_AM3L50Y#0001</v>
       </c>
       <c r="M41" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -16539,7 +16567,7 @@
       </c>
       <c r="L42" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L60Y#0006</v>
+        <v>USD_YC3MRH_AM3L60Y#0001</v>
       </c>
       <c r="M42" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -16597,7 +16625,7 @@
       </c>
       <c r="L44" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K44,$J44,$E44&amp;"M",Calendar,$F44,$G44,$H44,$L$4,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_1S12#0006</v>
+        <v>USD_YC3MRH_1S12#0001</v>
       </c>
       <c r="M44" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -16642,7 +16670,7 @@
       </c>
       <c r="L45" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K45,$J45,$E45&amp;"M",Calendar,$F45,$G45,$H45,$L$4,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_2S12#0006</v>
+        <v>USD_YC3MRH_2S12#0001</v>
       </c>
       <c r="M45" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -16687,7 +16715,7 @@
       </c>
       <c r="L46" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K46,$J46,$E46&amp;"M",Calendar,$F46,$G46,$H46,$L$4,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_3S12#0006</v>
+        <v>USD_YC3MRH_3S12#0001</v>
       </c>
       <c r="M46" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -16732,7 +16760,7 @@
       </c>
       <c r="L47" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K47,$J47,$E47&amp;"M",Calendar,$F47,$G47,$H47,$L$4,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_4S12#0006</v>
+        <v>USD_YC3MRH_4S12#0001</v>
       </c>
       <c r="M47" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -16777,7 +16805,7 @@
       </c>
       <c r="L48" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K48,$J48,$E48&amp;"M",Calendar,$F48,$G48,$H48,$L$4,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_1S24#0006</v>
+        <v>USD_YC3MRH_1S24#0001</v>
       </c>
       <c r="M48" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -16822,7 +16850,7 @@
       </c>
       <c r="L49" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K49,$J49,$E49&amp;"M",Calendar,$F49,$G49,$H49,$L$4,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_2S24#0006</v>
+        <v>USD_YC3MRH_2S24#0001</v>
       </c>
       <c r="M49" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -16867,7 +16895,7 @@
       </c>
       <c r="L50" s="149" t="str">
         <f>_xll.qlSwapRateHelper2(K50,$J50,$E50&amp;"M",Calendar,$F50,$G50,$H50,$L$4,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_1S36#0006</v>
+        <v>USD_YC3MRH_1S36#0001</v>
       </c>
       <c r="M50" s="148" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>

--- a/QuantLibXL/Data2/XLS/USD_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YC3MBootstrapping.xlsx
@@ -13,7 +13,6 @@
     <sheet name="3M_Deposits" sheetId="7" r:id="rId4"/>
     <sheet name="3M_Futures" sheetId="9" r:id="rId5"/>
     <sheet name="3M_Swaps" sheetId="11" r:id="rId6"/>
-    <sheet name="LiborSwapForBasisCalc" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$23</definedName>
@@ -27,10 +26,7 @@
     <definedName name="Discounting2">'General Settings'!$M$16</definedName>
     <definedName name="DiscountingCurve" localSheetId="5">'3M_Swaps'!$L$2</definedName>
     <definedName name="FamilyName">'General Settings'!$M$11</definedName>
-    <definedName name="FamilyName2" localSheetId="6">LiborSwapForBasisCalc!$F$3</definedName>
-    <definedName name="FileName" localSheetId="6">LiborSwapForBasisCalc!$E$7</definedName>
     <definedName name="FileOverwrite">'General Settings'!$M$6</definedName>
-    <definedName name="FixingType" localSheetId="6">LiborSwapForBasisCalc!$F$4</definedName>
     <definedName name="FrontFuturesRollingDays">Selected!$B$4</definedName>
     <definedName name="IborType">'General Settings'!$D$7</definedName>
     <definedName name="IndexTenor">'General Settings'!$D$6</definedName>
@@ -222,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="147">
   <si>
     <t>60Y</t>
   </si>
@@ -660,102 +656,6 @@
   </si>
   <si>
     <t>Ibor Index</t>
-  </si>
-  <si>
-    <t>UsdLibor</t>
-  </si>
-  <si>
-    <t>LiborSwap</t>
-  </si>
-  <si>
-    <t>FixingType</t>
-  </si>
-  <si>
-    <t>ForBasisCalc</t>
-  </si>
-  <si>
-    <t>IborIndex</t>
-  </si>
-  <si>
-    <t>Fwd Curve</t>
-  </si>
-  <si>
-    <t>31Y</t>
-  </si>
-  <si>
-    <t>32Y</t>
-  </si>
-  <si>
-    <t>33Y</t>
-  </si>
-  <si>
-    <t>34Y</t>
-  </si>
-  <si>
-    <t>36Y</t>
-  </si>
-  <si>
-    <t>37Y</t>
-  </si>
-  <si>
-    <t>38Y</t>
-  </si>
-  <si>
-    <t>39Y</t>
-  </si>
-  <si>
-    <t>41Y</t>
-  </si>
-  <si>
-    <t>42Y</t>
-  </si>
-  <si>
-    <t>43Y</t>
-  </si>
-  <si>
-    <t>44Y</t>
-  </si>
-  <si>
-    <t>45Y</t>
-  </si>
-  <si>
-    <t>46Y</t>
-  </si>
-  <si>
-    <t>47Y</t>
-  </si>
-  <si>
-    <t>48Y</t>
-  </si>
-  <si>
-    <t>49Y</t>
-  </si>
-  <si>
-    <t>51Y</t>
-  </si>
-  <si>
-    <t>52Y</t>
-  </si>
-  <si>
-    <t>53Y</t>
-  </si>
-  <si>
-    <t>54Y</t>
-  </si>
-  <si>
-    <t>55Y</t>
-  </si>
-  <si>
-    <t>56Y</t>
-  </si>
-  <si>
-    <t>57Y</t>
-  </si>
-  <si>
-    <t>58Y</t>
-  </si>
-  <si>
-    <t>59Y</t>
   </si>
   <si>
     <t>Extrapolation</t>
@@ -1441,7 +1341,7 @@
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1707,21 +1607,6 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1871,36 +1756,21 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2432,7 +2302,7 @@
         <v>88</v>
       </c>
       <c r="D11" s="27">
-        <v>41766.469155092593</v>
+        <v>41778.497314814813</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2677,7 +2547,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="6">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="D27" s="5">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2691,11 +2561,11 @@
       <c r="B28" s="2"/>
       <c r="C28" s="4">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>60031</v>
+        <v>60043</v>
       </c>
       <c r="D28" s="3">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.17948652820119723</v>
+        <v>0.18646777501406983</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2734,7 +2604,7 @@
       <c r="A31" s="113"/>
       <c r="B31" s="1"/>
       <c r="C31" s="112" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="D31" s="50" t="b">
         <f>_xll.qlExtrapolatorEnableExtrapolation(YieldCurve,TRUE)</f>
@@ -2824,11 +2694,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="188" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="190"/>
       <c r="E1" s="84" t="s">
         <v>62</v>
       </c>
@@ -2944,7 +2814,7 @@
       </c>
       <c r="F4" s="88">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>2.408E-3</v>
+        <v>2.4580000000000001E-3</v>
       </c>
       <c r="G4" s="88"/>
       <c r="H4" s="89" t="b">
@@ -2958,11 +2828,11 @@
       </c>
       <c r="K4" s="90">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="L4" s="91">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41775</v>
+        <v>41787</v>
       </c>
       <c r="M4" s="59">
         <v>40</v>
@@ -2983,7 +2853,7 @@
       </c>
       <c r="F5" s="88">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>2.3180000000000002E-3</v>
+        <v>2.372E-3</v>
       </c>
       <c r="G5" s="88"/>
       <c r="H5" s="89" t="b">
@@ -2997,11 +2867,11 @@
       </c>
       <c r="K5" s="90">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="L5" s="91">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="M5" s="59">
         <v>70</v>
@@ -3022,7 +2892,7 @@
       </c>
       <c r="F6" s="88">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>2.281E-3</v>
+        <v>2.31E-3</v>
       </c>
       <c r="G6" s="88"/>
       <c r="H6" s="89" t="b">
@@ -3036,11 +2906,11 @@
       </c>
       <c r="K6" s="90">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="L6" s="91">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41829</v>
+        <v>41841</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -3055,7 +2925,7 @@
       </c>
       <c r="F7" s="88">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>2.2490000000000001E-3</v>
+        <v>2.2750000000000001E-3</v>
       </c>
       <c r="G7" s="88"/>
       <c r="H7" s="89" t="b">
@@ -3069,11 +2939,11 @@
       </c>
       <c r="K7" s="90">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="L7" s="91">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41862</v>
+        <v>41872</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -3845,7 +3715,7 @@
       </c>
       <c r="F28" s="102">
         <f>_xll.qlRateHelperQuoteValue($E28,Trigger)</f>
-        <v>99.777500000000003</v>
+        <v>99.772500000000008</v>
       </c>
       <c r="G28" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E28,Trigger)</f>
@@ -3890,7 +3760,7 @@
       </c>
       <c r="F29" s="102">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
-        <v>99.777500000000003</v>
+        <v>99.776250000000005</v>
       </c>
       <c r="G29" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E29,Trigger)</f>
@@ -3935,7 +3805,7 @@
       </c>
       <c r="F30" s="102">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
-        <v>99.772500000000008</v>
+        <v>99.777500000000003</v>
       </c>
       <c r="G30" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E30,Trigger)</f>
@@ -3980,7 +3850,7 @@
       </c>
       <c r="F31" s="102">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
-        <v>99.767499999999998</v>
+        <v>99.772500000000008</v>
       </c>
       <c r="G31" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E31,Trigger)</f>
@@ -4025,7 +3895,7 @@
       </c>
       <c r="F32" s="102">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
-        <v>99.762500000000003</v>
+        <v>99.767499999999998</v>
       </c>
       <c r="G32" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E32,Trigger)</f>
@@ -4070,7 +3940,7 @@
       </c>
       <c r="F33" s="102">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
-        <v>99.754999999999995</v>
+        <v>99.76</v>
       </c>
       <c r="G33" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E33,Trigger)</f>
@@ -4160,7 +4030,7 @@
       </c>
       <c r="F35" s="102">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
-        <v>99.717500000000001</v>
+        <v>99.737499999999997</v>
       </c>
       <c r="G35" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E35,Trigger)</f>
@@ -4295,7 +4165,7 @@
       </c>
       <c r="F38" s="102">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>99.617500000000007</v>
+        <v>99.657499999999999</v>
       </c>
       <c r="G38" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E38,Trigger)</f>
@@ -4385,7 +4255,7 @@
       </c>
       <c r="F40" s="102">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>99.427500000000009</v>
+        <v>99.507499999999993</v>
       </c>
       <c r="G40" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E40,Trigger)</f>
@@ -4430,7 +4300,7 @@
       </c>
       <c r="F41" s="102">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>99.1875</v>
+        <v>99.3125</v>
       </c>
       <c r="G41" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
@@ -4475,7 +4345,7 @@
       </c>
       <c r="F42" s="102">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>98.912499999999994</v>
+        <v>99.077500000000001</v>
       </c>
       <c r="G42" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
@@ -4520,7 +4390,7 @@
       </c>
       <c r="F43" s="102">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>98.617500000000007</v>
+        <v>98.822499999999991</v>
       </c>
       <c r="G43" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E43,Trigger)</f>
@@ -4565,7 +4435,7 @@
       </c>
       <c r="F44" s="102">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>98.317499999999995</v>
+        <v>98.537499999999994</v>
       </c>
       <c r="G44" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
@@ -4610,7 +4480,7 @@
       </c>
       <c r="F45" s="102">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>98.037499999999994</v>
+        <v>98.262500000000003</v>
       </c>
       <c r="G45" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
@@ -4655,7 +4525,7 @@
       </c>
       <c r="F46" s="102">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>97.782499999999999</v>
+        <v>98.007499999999993</v>
       </c>
       <c r="G46" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
@@ -4700,7 +4570,7 @@
       </c>
       <c r="F47" s="102">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>97.567499999999995</v>
+        <v>97.797499999999999</v>
       </c>
       <c r="G47" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
@@ -4745,7 +4615,7 @@
       </c>
       <c r="F48" s="102">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>97.367500000000007</v>
+        <v>97.597499999999997</v>
       </c>
       <c r="G48" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
@@ -4790,7 +4660,7 @@
       </c>
       <c r="F49" s="102">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>97.192499999999995</v>
+        <v>97.417500000000004</v>
       </c>
       <c r="G49" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E49,Trigger)</f>
@@ -4835,7 +4705,7 @@
       </c>
       <c r="F50" s="102">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>97.022500000000008</v>
+        <v>97.247500000000002</v>
       </c>
       <c r="G50" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
@@ -4880,7 +4750,7 @@
       </c>
       <c r="F51" s="102">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>96.884999999999991</v>
+        <v>97.097499999999997</v>
       </c>
       <c r="G51" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
@@ -4925,7 +4795,7 @@
       </c>
       <c r="F52" s="102">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>96.75</v>
+        <v>96.957499999999996</v>
       </c>
       <c r="G52" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
@@ -4970,7 +4840,7 @@
       </c>
       <c r="F53" s="102">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>96.632499999999993</v>
+        <v>96.827500000000001</v>
       </c>
       <c r="G53" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
@@ -5015,7 +4885,7 @@
       </c>
       <c r="F54" s="102">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>96.522500000000008</v>
+        <v>96.707499999999996</v>
       </c>
       <c r="G54" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
@@ -5060,7 +4930,7 @@
       </c>
       <c r="F55" s="102">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>96.422499999999999</v>
+        <v>96.602499999999992</v>
       </c>
       <c r="G55" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
@@ -5105,7 +4975,7 @@
       </c>
       <c r="F56" s="102">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>96.327500000000001</v>
+        <v>96.502499999999998</v>
       </c>
       <c r="G56" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
@@ -5150,7 +5020,7 @@
       </c>
       <c r="F57" s="102">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>96.242500000000007</v>
+        <v>96.412499999999994</v>
       </c>
       <c r="G57" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
@@ -5195,7 +5065,7 @@
       </c>
       <c r="F58" s="102">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>96.157499999999999</v>
+        <v>96.322499999999991</v>
       </c>
       <c r="G58" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
@@ -5240,7 +5110,7 @@
       </c>
       <c r="F59" s="102">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>96.092500000000001</v>
+        <v>96.25</v>
       </c>
       <c r="G59" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
@@ -5285,7 +5155,7 @@
       </c>
       <c r="F60" s="102">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>96.03</v>
+        <v>96.175000000000011</v>
       </c>
       <c r="G60" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
@@ -5330,7 +5200,7 @@
       </c>
       <c r="F61" s="102">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>95.972499999999997</v>
+        <v>96.112500000000011</v>
       </c>
       <c r="G61" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E61,Trigger)</f>
@@ -5375,7 +5245,7 @@
       </c>
       <c r="F62" s="102">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>95.912499999999994</v>
+        <v>96.047500000000014</v>
       </c>
       <c r="G62" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E62,Trigger)</f>
@@ -5420,7 +5290,7 @@
       </c>
       <c r="F63" s="102">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>95.87</v>
+        <v>95.997500000000002</v>
       </c>
       <c r="G63" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E63,Trigger)</f>
@@ -5465,7 +5335,7 @@
       </c>
       <c r="F64" s="102">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>95.827500000000001</v>
+        <v>95.95</v>
       </c>
       <c r="G64" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E64,Trigger)</f>
@@ -5510,7 +5380,7 @@
       </c>
       <c r="F65" s="102">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>95.789999999999992</v>
+        <v>95.912499999999994</v>
       </c>
       <c r="G65" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E65,Trigger)</f>
@@ -5555,7 +5425,7 @@
       </c>
       <c r="F66" s="102">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>95.747500000000002</v>
+        <v>95.875</v>
       </c>
       <c r="G66" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E66,Trigger)</f>
@@ -5600,7 +5470,7 @@
       </c>
       <c r="F67" s="102">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>95.722499999999997</v>
+        <v>95.847499999999997</v>
       </c>
       <c r="G67" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E67,Trigger)</f>
@@ -5645,7 +5515,7 @@
       </c>
       <c r="F68" s="102">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>95.69</v>
+        <v>95.814999999999998</v>
       </c>
       <c r="G68" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E68,Trigger)</f>
@@ -5690,7 +5560,7 @@
       </c>
       <c r="F69" s="103">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>95.66749999999999</v>
+        <v>95.782499999999999</v>
       </c>
       <c r="G69" s="95">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E69,Trigger)</f>
@@ -6226,13 +6096,13 @@
         <f t="shared" si="4"/>
         <v>USD_YC3MRH_3S12</v>
       </c>
-      <c r="F83" s="88" t="e">
+      <c r="F83" s="88">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G83" s="88" t="e">
+        <v>4.4499999999999991E-3</v>
+      </c>
+      <c r="G83" s="88">
         <f>_xll.qlSwapRateHelperSpread($E83,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H83" s="89" t="b">
         <v>0</v>
@@ -6243,13 +6113,13 @@
       <c r="J83" s="89">
         <v>1</v>
       </c>
-      <c r="K83" s="90" t="e">
+      <c r="K83" s="90">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L83" s="91" t="e">
+        <v>41780</v>
+      </c>
+      <c r="L83" s="91">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42145</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
@@ -6281,9 +6151,9 @@
       <c r="J84" s="89">
         <v>1</v>
       </c>
-      <c r="K84" s="90" t="e">
+      <c r="K84" s="90">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41780</v>
       </c>
       <c r="L84" s="91" t="e">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
@@ -6306,9 +6176,9 @@
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G85" s="88" t="e">
+      <c r="G85" s="88">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H85" s="89" t="b">
         <v>0</v>
@@ -6357,13 +6227,13 @@
       <c r="J86" s="89">
         <v>1</v>
       </c>
-      <c r="K86" s="90" t="e">
+      <c r="K86" s="90">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L86" s="91" t="e">
+        <v>41780</v>
+      </c>
+      <c r="L86" s="91">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42513</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
@@ -6382,9 +6252,9 @@
         <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G87" s="95" t="e">
+      <c r="G87" s="95">
         <f>_xll.qlSwapRateHelperSpread($E87,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H87" s="96" t="b">
         <v>0</v>
@@ -6395,13 +6265,13 @@
       <c r="J87" s="96">
         <v>1</v>
       </c>
-      <c r="K87" s="97" t="e">
+      <c r="K87" s="97">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L87" s="98" t="e">
+        <v>41780</v>
+      </c>
+      <c r="L87" s="98">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.2">
@@ -6487,9 +6357,9 @@
         <f>_xll.qlRateHelperEarliestDate($E89,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L89" s="91" t="e">
+      <c r="L89" s="91">
         <f>_xll.qlRateHelperLatestDate($E89,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42237</v>
       </c>
       <c r="N89" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6529,13 +6399,13 @@
       <c r="J90" s="89">
         <v>1</v>
       </c>
-      <c r="K90" s="90" t="e">
+      <c r="K90" s="90">
         <f>_xll.qlRateHelperEarliestDate($E90,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L90" s="91" t="e">
+        <v>41780</v>
+      </c>
+      <c r="L90" s="91">
         <f>_xll.qlRateHelperLatestDate($E90,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42331</v>
       </c>
       <c r="N90" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6575,13 +6445,13 @@
       <c r="J91" s="89">
         <v>1</v>
       </c>
-      <c r="K91" s="90" t="e">
+      <c r="K91" s="90">
         <f>_xll.qlRateHelperEarliestDate($E91,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L91" s="91" t="e">
+        <v>41780</v>
+      </c>
+      <c r="L91" s="91">
         <f>_xll.qlRateHelperLatestDate($E91,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42422</v>
       </c>
       <c r="N91" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6604,13 +6474,13 @@
         <f t="shared" si="8"/>
         <v>USD_YC3MRH_AM3L2Y</v>
       </c>
-      <c r="F92" s="88" t="e">
+      <c r="F92" s="88">
         <f>_xll.qlRateHelperQuoteValue($E92,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G92" s="88" t="e">
+        <v>5.0299999999999997E-3</v>
+      </c>
+      <c r="G92" s="88">
         <f>_xll.qlSwapRateHelperSpread($E92,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H92" s="89" t="b">
         <v>0</v>
@@ -6621,9 +6491,9 @@
       <c r="J92" s="89">
         <v>1</v>
       </c>
-      <c r="K92" s="90" t="e">
+      <c r="K92" s="90">
         <f>_xll.qlRateHelperEarliestDate($E92,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41780</v>
       </c>
       <c r="L92" s="91" t="e">
         <f>_xll.qlRateHelperLatestDate($E92,Trigger)</f>
@@ -6696,13 +6566,13 @@
         <f t="shared" si="8"/>
         <v>USD_YC3MRH_AM3L4Y</v>
       </c>
-      <c r="F94" s="88" t="e">
+      <c r="F94" s="88">
         <f>_xll.qlRateHelperQuoteValue($E94,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G94" s="88" t="e">
+        <v>1.29E-2</v>
+      </c>
+      <c r="G94" s="88">
         <f>_xll.qlSwapRateHelperSpread($E94,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H94" s="89" t="b">
         <v>1</v>
@@ -6746,9 +6616,9 @@
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G95" s="88" t="e">
+      <c r="G95" s="88">
         <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H95" s="89" t="b">
         <v>1</v>
@@ -6759,13 +6629,13 @@
       <c r="J95" s="89">
         <v>1</v>
       </c>
-      <c r="K95" s="90" t="e">
+      <c r="K95" s="90">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L95" s="91" t="e">
+        <v>41780</v>
+      </c>
+      <c r="L95" s="91">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>#NUM!</v>
+        <v>43606</v>
       </c>
       <c r="N95" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6834,9 +6704,9 @@
         <f t="shared" si="8"/>
         <v>USD_YC3MRH_AM3L7Y</v>
       </c>
-      <c r="F97" s="88" t="e">
+      <c r="F97" s="88">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.1170000000000001E-2</v>
       </c>
       <c r="G97" s="88" t="e">
         <f>_xll.qlSwapRateHelperSpread($E97,Trigger)</f>
@@ -6855,9 +6725,9 @@
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L97" s="91" t="e">
+      <c r="L97" s="91">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>#NUM!</v>
+        <v>44337</v>
       </c>
       <c r="N97" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6880,13 +6750,13 @@
         <f t="shared" si="8"/>
         <v>USD_YC3MRH_AM3L8Y</v>
       </c>
-      <c r="F98" s="88" t="e">
+      <c r="F98" s="88">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G98" s="88" t="e">
+        <v>2.3010000000000003E-2</v>
+      </c>
+      <c r="G98" s="88">
         <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H98" s="89" t="b">
         <v>1</v>
@@ -6897,13 +6767,13 @@
       <c r="J98" s="89">
         <v>1</v>
       </c>
-      <c r="K98" s="90" t="e">
+      <c r="K98" s="90">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L98" s="91" t="e">
+        <v>41780</v>
+      </c>
+      <c r="L98" s="91">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>#NUM!</v>
+        <v>44704</v>
       </c>
       <c r="N98" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6943,13 +6813,13 @@
       <c r="J99" s="89">
         <v>1</v>
       </c>
-      <c r="K99" s="90" t="e">
+      <c r="K99" s="90">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L99" s="91" t="e">
+        <v>41780</v>
+      </c>
+      <c r="L99" s="91">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>#NUM!</v>
+        <v>45068</v>
       </c>
       <c r="N99" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6972,13 +6842,13 @@
         <f t="shared" si="8"/>
         <v>USD_YC3MRH_AM3L10Y</v>
       </c>
-      <c r="F100" s="88" t="e">
+      <c r="F100" s="88">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G100" s="88" t="e">
+        <v>2.5830000000000002E-2</v>
+      </c>
+      <c r="G100" s="88">
         <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H100" s="89" t="b">
         <v>1</v>
@@ -6989,13 +6859,13 @@
       <c r="J100" s="89">
         <v>1</v>
       </c>
-      <c r="K100" s="90" t="e">
+      <c r="K100" s="90">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L100" s="91" t="e">
+        <v>41780</v>
+      </c>
+      <c r="L100" s="91">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>#NUM!</v>
+        <v>45433</v>
       </c>
       <c r="N100" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7022,9 +6892,9 @@
         <f>_xll.qlRateHelperQuoteValue($E101,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G101" s="88" t="e">
+      <c r="G101" s="88">
         <f>_xll.qlSwapRateHelperSpread($E101,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H101" s="89" t="b">
         <v>0</v>
@@ -7085,9 +6955,9 @@
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L102" s="91" t="e">
+      <c r="L102" s="91">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>#NUM!</v>
+        <v>46163</v>
       </c>
       <c r="N102" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7127,13 +6997,13 @@
       <c r="J103" s="89">
         <v>1</v>
       </c>
-      <c r="K103" s="90" t="e">
+      <c r="K103" s="90">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L103" s="91" t="e">
+        <v>41780</v>
+      </c>
+      <c r="L103" s="91">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>#NUM!</v>
+        <v>46528</v>
       </c>
       <c r="N103" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7160,9 +7030,9 @@
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G104" s="88" t="e">
+      <c r="G104" s="88">
         <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H104" s="89" t="b">
         <v>0</v>
@@ -7173,13 +7043,13 @@
       <c r="J104" s="89">
         <v>1</v>
       </c>
-      <c r="K104" s="90" t="e">
+      <c r="K104" s="90">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L104" s="91" t="e">
+        <v>41780</v>
+      </c>
+      <c r="L104" s="91">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>#NUM!</v>
+        <v>46895</v>
       </c>
       <c r="N104" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7202,13 +7072,13 @@
         <f t="shared" si="8"/>
         <v>USD_YC3MRH_AM3L15Y</v>
       </c>
-      <c r="F105" s="88" t="e">
+      <c r="F105" s="88">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G105" s="88" t="e">
+        <v>2.9850000000000002E-2</v>
+      </c>
+      <c r="G105" s="88">
         <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H105" s="89" t="b">
         <v>1</v>
@@ -7219,13 +7089,13 @@
       <c r="J105" s="89">
         <v>1</v>
       </c>
-      <c r="K105" s="90" t="e">
+      <c r="K105" s="90">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L105" s="91" t="e">
+        <v>41780</v>
+      </c>
+      <c r="L105" s="91">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>#NUM!</v>
+        <v>47259</v>
       </c>
       <c r="N105" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7298,9 +7168,9 @@
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G107" s="88" t="e">
+      <c r="G107" s="88">
         <f>_xll.qlSwapRateHelperSpread($E107,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H107" s="89" t="b">
         <v>0</v>
@@ -7315,9 +7185,9 @@
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L107" s="91" t="e">
+      <c r="L107" s="91">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>#NUM!</v>
+        <v>47989</v>
       </c>
       <c r="N107" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7344,9 +7214,9 @@
         <f>_xll.qlRateHelperQuoteValue($E108,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G108" s="88" t="e">
+      <c r="G108" s="88">
         <f>_xll.qlSwapRateHelperSpread($E108,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H108" s="89" t="b">
         <v>0</v>
@@ -7403,13 +7273,13 @@
       <c r="J109" s="89">
         <v>1</v>
       </c>
-      <c r="K109" s="90" t="e">
+      <c r="K109" s="90">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L109" s="91" t="e">
+        <v>41780</v>
+      </c>
+      <c r="L109" s="91">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>#NUM!</v>
+        <v>48722</v>
       </c>
       <c r="N109" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7432,9 +7302,9 @@
         <f t="shared" si="8"/>
         <v>USD_YC3MRH_AM3L20Y</v>
       </c>
-      <c r="F110" s="88" t="e">
+      <c r="F110" s="88">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
-        <v>#NUM!</v>
+        <v>3.1620000000000002E-2</v>
       </c>
       <c r="G110" s="88" t="e">
         <f>_xll.qlSwapRateHelperSpread($E110,Trigger)</f>
@@ -7482,9 +7352,9 @@
         <f>_xll.qlRateHelperQuoteValue($E111,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G111" s="88" t="e">
+      <c r="G111" s="88">
         <f>_xll.qlSwapRateHelperSpread($E111,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H111" s="89" t="b">
         <v>0</v>
@@ -7495,13 +7365,13 @@
       <c r="J111" s="89">
         <v>1</v>
       </c>
-      <c r="K111" s="90" t="e">
+      <c r="K111" s="90">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L111" s="91" t="e">
+        <v>41780</v>
+      </c>
+      <c r="L111" s="91">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>#NUM!</v>
+        <v>49450</v>
       </c>
       <c r="N111" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7574,9 +7444,9 @@
         <f>_xll.qlRateHelperQuoteValue($E113,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G113" s="88" t="e">
+      <c r="G113" s="88">
         <f>_xll.qlSwapRateHelperSpread($E113,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H113" s="89" t="b">
         <v>0</v>
@@ -7662,13 +7532,13 @@
         <f t="shared" si="8"/>
         <v>USD_YC3MRH_AM3L25Y</v>
       </c>
-      <c r="F115" s="88" t="e">
+      <c r="F115" s="88">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G115" s="88" t="e">
+        <v>3.2419999999999997E-2</v>
+      </c>
+      <c r="G115" s="88">
         <f>_xll.qlSwapRateHelperSpread($E115,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H115" s="89" t="b">
         <v>1</v>
@@ -7683,9 +7553,9 @@
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L115" s="91" t="e">
+      <c r="L115" s="91">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>#NUM!</v>
+        <v>50913</v>
       </c>
       <c r="N115" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7725,13 +7595,13 @@
       <c r="J116" s="89">
         <v>1</v>
       </c>
-      <c r="K116" s="90" t="e">
+      <c r="K116" s="90">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L116" s="91" t="e">
+        <v>41780</v>
+      </c>
+      <c r="L116" s="91">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>#NUM!</v>
+        <v>51277</v>
       </c>
       <c r="N116" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7758,9 +7628,9 @@
         <f>_xll.qlRateHelperQuoteValue($E117,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G117" s="88" t="e">
+      <c r="G117" s="88">
         <f>_xll.qlSwapRateHelperSpread($E117,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H117" s="89" t="b">
         <v>0</v>
@@ -7804,9 +7674,9 @@
         <f>_xll.qlRateHelperQuoteValue($E118,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G118" s="88" t="e">
+      <c r="G118" s="88">
         <f>_xll.qlSwapRateHelperSpread($E118,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H118" s="89" t="b">
         <v>0</v>
@@ -7817,13 +7687,13 @@
       <c r="J118" s="89">
         <v>1</v>
       </c>
-      <c r="K118" s="90" t="e">
+      <c r="K118" s="90">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L118" s="91" t="e">
+        <v>41780</v>
+      </c>
+      <c r="L118" s="91">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>#NUM!</v>
+        <v>52007</v>
       </c>
       <c r="N118" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7913,9 +7783,9 @@
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L120" s="91" t="e">
+      <c r="L120" s="91">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>#NUM!</v>
+        <v>52740</v>
       </c>
       <c r="N120" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7955,13 +7825,13 @@
       <c r="J121" s="89">
         <v>1</v>
       </c>
-      <c r="K121" s="90" t="e">
+      <c r="K121" s="90">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L121" s="91" t="e">
+        <v>41780</v>
+      </c>
+      <c r="L121" s="91">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>#NUM!</v>
+        <v>54564</v>
       </c>
       <c r="N121" s="110" t="e">
         <f t="shared" si="7"/>
@@ -8030,13 +7900,13 @@
         <f t="shared" si="10"/>
         <v>USD_YC3MRH_AM3L50Y</v>
       </c>
-      <c r="F123" s="88" t="e">
+      <c r="F123" s="88">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G123" s="88" t="e">
+        <v>3.279E-2</v>
+      </c>
+      <c r="G123" s="88">
         <f>_xll.qlSwapRateHelperSpread($E123,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H123" s="89" t="b">
         <v>1</v>
@@ -8080,9 +7950,9 @@
         <f>_xll.qlRateHelperQuoteValue($E124,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G124" s="95" t="e">
+      <c r="G124" s="95">
         <f>_xll.qlSwapRateHelperSpread($E124,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H124" s="96" t="b">
         <v>0</v>
@@ -8093,9 +7963,9 @@
       <c r="J124" s="96">
         <v>1</v>
       </c>
-      <c r="K124" s="97" t="e">
+      <c r="K124" s="97">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41780</v>
       </c>
       <c r="L124" s="98" t="e">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
@@ -9696,10 +9566,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="192"/>
       <c r="D1" s="60" t="s">
         <v>71</v>
       </c>
@@ -9731,7 +9601,7 @@
       </c>
       <c r="E2" s="67">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>2.408E-3</v>
+        <v>2.4580000000000001E-3</v>
       </c>
       <c r="F2" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9739,14 +9609,14 @@
       </c>
       <c r="G2" s="79">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H2" s="80">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41775</v>
+        <v>41787</v>
       </c>
       <c r="I2" s="63">
-        <v>0.99995317996999533</v>
+        <v>0.99995220783975503</v>
       </c>
       <c r="L2" s="68"/>
     </row>
@@ -9762,7 +9632,7 @@
       </c>
       <c r="E3" s="67">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>2.3180000000000002E-3</v>
+        <v>2.372E-3</v>
       </c>
       <c r="F3" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9770,14 +9640,14 @@
       </c>
       <c r="G3" s="79">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H3" s="80">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41799</v>
+        <v>41813</v>
       </c>
       <c r="I3" s="63">
-        <v>0.99980043427887111</v>
+        <v>0.99978261393364365</v>
       </c>
       <c r="L3" s="68"/>
     </row>
@@ -9793,7 +9663,7 @@
       </c>
       <c r="E4" s="67">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>2.281E-3</v>
+        <v>2.31E-3</v>
       </c>
       <c r="F4" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9801,14 +9671,14 @@
       </c>
       <c r="G4" s="79">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H4" s="80">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41829</v>
+        <v>41841</v>
       </c>
       <c r="I4" s="63">
-        <v>0.99961364654890428</v>
+        <v>0.99960873648039594</v>
       </c>
       <c r="L4" s="68"/>
     </row>
@@ -9820,26 +9690,26 @@
         <v>65</v>
       </c>
       <c r="D5" s="66" t="str">
-        <v>USD_YC3MRH_3MD</v>
+        <v>USD_YC3MRH_FUT3MK4</v>
       </c>
       <c r="E5" s="67">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>2.2490000000000001E-3</v>
-      </c>
-      <c r="F5" s="67" t="str">
+        <v>2.274999999999916E-3</v>
+      </c>
+      <c r="F5" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
-        <v>--</v>
+        <v>0</v>
       </c>
       <c r="G5" s="79">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H5" s="80">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41862</v>
+        <v>41872</v>
       </c>
       <c r="I5" s="63">
-        <v>0.9994131057582335</v>
+        <v>0.99941894892774852</v>
       </c>
       <c r="L5" s="68"/>
     </row>
@@ -9852,11 +9722,11 @@
         <v/>
       </c>
       <c r="D6" s="66" t="str">
-        <v>USD_YC3MRH_FUT3MK4</v>
+        <v>USD_YC3MRH_FUT3MM4</v>
       </c>
       <c r="E6" s="67">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>2.2249999999999215E-3</v>
+        <v>2.2375000000000034E-3</v>
       </c>
       <c r="F6" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9864,14 +9734,14 @@
       </c>
       <c r="G6" s="79">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="H6" s="80">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
       <c r="I6" s="63">
-        <v>0.99935223892810465</v>
+        <v>0.99924302995938974</v>
       </c>
       <c r="L6" s="68"/>
     </row>
@@ -9885,11 +9755,11 @@
         <v/>
       </c>
       <c r="D7" s="66" t="str">
-        <v>USD_YC3MRH_FUT3MM4</v>
+        <v>USD_YC3MRH_FUT3MU4</v>
       </c>
       <c r="E7" s="67">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>2.2249999999999215E-3</v>
+        <v>2.3250000000000215E-3</v>
       </c>
       <c r="F7" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9897,24 +9767,24 @@
       </c>
       <c r="G7" s="79">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41808</v>
+        <v>41899</v>
       </c>
       <c r="H7" s="80">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41900</v>
+        <v>41990</v>
       </c>
       <c r="I7" s="63">
-        <v>0.99917601671602752</v>
+        <v>0.99866243389926368</v>
       </c>
       <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="66" t="str">
-        <v>USD_YC3MRH_FUT3MU4</v>
+        <v>USD_YC3MRH_FUT3MZ4</v>
       </c>
       <c r="E8" s="67">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>2.375000000000016E-3</v>
+        <v>2.6249999999999885E-3</v>
       </c>
       <c r="F8" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9922,24 +9792,24 @@
       </c>
       <c r="G8" s="79">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41899</v>
+        <v>41990</v>
       </c>
       <c r="H8" s="80">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41990</v>
+        <v>42080</v>
       </c>
       <c r="I8" s="63">
-        <v>0.99858289062815331</v>
+        <v>0.99800749148297807</v>
       </c>
       <c r="L8" s="68"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="66" t="str">
-        <v>USD_YC3MRH_FUT3MZ4</v>
+        <v>USD_YC3MRH_FUT3MH5</v>
       </c>
       <c r="E9" s="67">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>2.8249999999999664E-3</v>
+        <v>3.4250000000000114E-3</v>
       </c>
       <c r="F9" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9947,24 +9817,24 @@
       </c>
       <c r="G9" s="79">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41990</v>
+        <v>42081</v>
       </c>
       <c r="H9" s="80">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42080</v>
+        <v>42173</v>
       </c>
       <c r="I9" s="63">
-        <v>0.99787813919234869</v>
+        <v>0.99712666439057251</v>
       </c>
       <c r="L9" s="68"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="66" t="str">
-        <v>USD_YC3MRH_FUT3MH5</v>
+        <v>USD_YC3MRH_FUT3MM5</v>
       </c>
       <c r="E10" s="67">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>3.8249999999999673E-3</v>
+        <v>4.9250000000000682E-3</v>
       </c>
       <c r="F10" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9972,24 +9842,24 @@
       </c>
       <c r="G10" s="79">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42081</v>
+        <v>42172</v>
       </c>
       <c r="H10" s="80">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42173</v>
+        <v>42264</v>
       </c>
       <c r="I10" s="63">
-        <v>0.99689484391867111</v>
+        <v>0.99588450667874173</v>
       </c>
       <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="66" t="str">
-        <v>USD_YC3MRH_FUT3MM5</v>
+        <v>USD_YC3MRH_FUT3MU5</v>
       </c>
       <c r="E11" s="67">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>5.7249999999998691E-3</v>
+        <v>6.8749999999999645E-3</v>
       </c>
       <c r="F11" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9997,25 +9867,25 @@
       </c>
       <c r="G11" s="79">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="H11" s="80">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42264</v>
+        <v>42354</v>
       </c>
       <c r="I11" s="63">
-        <v>0.99545129535621613</v>
+        <v>0.99417292501465682</v>
       </c>
       <c r="L11" s="68"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="75"/>
       <c r="D12" s="66" t="str">
-        <v>USD_YC3MRH_FUT3MU5</v>
+        <v>USD_YC3MRH_FUT3MZ5</v>
       </c>
       <c r="E12" s="67">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>8.1250000000000488E-3</v>
+        <v>9.2250000000000387E-3</v>
       </c>
       <c r="F12" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -10023,25 +9893,25 @@
       </c>
       <c r="G12" s="79">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="H12" s="80">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="I12" s="63">
-        <v>0.99342995494788866</v>
+        <v>0.99186003140392687</v>
       </c>
       <c r="L12" s="68"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="75"/>
       <c r="D13" s="66" t="str">
-        <v>USD_YC3MRH_FUT3MZ5</v>
+        <v>USD_YC3MRH_FUT3MH6</v>
       </c>
       <c r="E13" s="67">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>1.0875000000000079E-2</v>
+        <v>1.1775000000000091E-2</v>
       </c>
       <c r="F13" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10049,24 +9919,24 @@
       </c>
       <c r="G13" s="79">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="H13" s="80">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
       <c r="I13" s="63">
-        <v>0.99070654393804236</v>
+        <v>0.98888431368998142</v>
       </c>
       <c r="L13" s="68"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="66" t="str">
-        <v>USD_YC3MRH_FUT3MH6</v>
+        <v>USD_YC3MRH_AM3L3Y</v>
       </c>
       <c r="E14" s="67">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>1.3824999999999976E-2</v>
+        <v>9.0299999999999998E-3</v>
       </c>
       <c r="F14" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10074,24 +9944,24 @@
       </c>
       <c r="G14" s="79">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42445</v>
+        <v>41780</v>
       </c>
       <c r="H14" s="80">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42537</v>
+        <v>42877</v>
       </c>
       <c r="I14" s="63">
-        <v>0.98721864561759509</v>
+        <v>0.97285974296791278</v>
       </c>
       <c r="L14" s="68"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="66" t="str">
-        <v>USD_YC3MRH_AM3L3Y</v>
+        <v>USD_YC3MRH_AM3L4Y</v>
       </c>
       <c r="E15" s="67">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>0.01</v>
+        <v>1.29E-2</v>
       </c>
       <c r="F15" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -10099,24 +9969,24 @@
       </c>
       <c r="G15" s="79">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H15" s="80">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42864</v>
+        <v>43241</v>
       </c>
       <c r="I15" s="63">
-        <v>0.97001149896060412</v>
+        <v>0.94887577258361233</v>
       </c>
       <c r="L15" s="68"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="66" t="str">
-        <v>USD_YC3MRH_AM3L4Y</v>
+        <v>USD_YC3MRH_AM3L5Y</v>
       </c>
       <c r="E16" s="67">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.4110000000000001E-2</v>
+        <v>1.6219999999999998E-2</v>
       </c>
       <c r="F16" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -10124,24 +9994,24 @@
       </c>
       <c r="G16" s="79">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H16" s="80">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43229</v>
+        <v>43606</v>
       </c>
       <c r="I16" s="63">
-        <v>0.9442049114748986</v>
+        <v>0.92061775217142439</v>
       </c>
       <c r="L16" s="68"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D17" s="66" t="str">
-        <v>USD_YC3MRH_AM3L5Y</v>
+        <v>USD_YC3MRH_AM3L6Y</v>
       </c>
       <c r="E17" s="67">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.7479999999999999E-2</v>
+        <v>1.8950000000000002E-2</v>
       </c>
       <c r="F17" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10149,24 +10019,24 @@
       </c>
       <c r="G17" s="79">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H17" s="80">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43594</v>
+        <v>43972</v>
       </c>
       <c r="I17" s="63">
-        <v>0.91470649208668942</v>
+        <v>0.89015611963652386</v>
       </c>
       <c r="L17" s="68"/>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D18" s="66" t="str">
-        <v>USD_YC3MRH_AM3L6Y</v>
+        <v>USD_YC3MRH_AM3L7Y</v>
       </c>
       <c r="E18" s="67">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>2.0240000000000001E-2</v>
+        <v>2.1170000000000001E-2</v>
       </c>
       <c r="F18" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -10174,24 +10044,24 @@
       </c>
       <c r="G18" s="79">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H18" s="80">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43962</v>
+        <v>44337</v>
       </c>
       <c r="I18" s="63">
-        <v>0.88301970664777185</v>
+        <v>0.85890780187134075</v>
       </c>
       <c r="L18" s="68"/>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D19" s="66" t="str">
-        <v>USD_YC3MRH_AM3L7Y</v>
+        <v>USD_YC3MRH_AM3L8Y</v>
       </c>
       <c r="E19" s="67">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>2.2450000000000001E-2</v>
+        <v>2.3010000000000003E-2</v>
       </c>
       <c r="F19" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10199,24 +10069,24 @@
       </c>
       <c r="G19" s="79">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H19" s="80">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44326</v>
+        <v>44704</v>
       </c>
       <c r="I19" s="63">
-        <v>0.85098959886004588</v>
+        <v>0.82730324731504812</v>
       </c>
       <c r="L19" s="68"/>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D20" s="66" t="str">
-        <v>USD_YC3MRH_AM3L8Y</v>
+        <v>USD_YC3MRH_AM3L9Y</v>
       </c>
       <c r="E20" s="67">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>2.4230000000000002E-2</v>
+        <v>2.4539999999999996E-2</v>
       </c>
       <c r="F20" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10224,24 +10094,24 @@
       </c>
       <c r="G20" s="79">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H20" s="80">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44690</v>
+        <v>45068</v>
       </c>
       <c r="I20" s="63">
-        <v>0.81917391776528858</v>
+        <v>0.7961451079136197</v>
       </c>
       <c r="L20" s="68"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D21" s="66" t="str">
-        <v>USD_YC3MRH_AM3L9Y</v>
+        <v>USD_YC3MRH_AM3L10Y</v>
       </c>
       <c r="E21" s="67">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.5690000000000001E-2</v>
+        <v>2.5830000000000002E-2</v>
       </c>
       <c r="F21" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10249,24 +10119,24 @@
       </c>
       <c r="G21" s="79">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H21" s="80">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>45055</v>
+        <v>45433</v>
       </c>
       <c r="I21" s="63">
-        <v>0.78783072695702738</v>
+        <v>0.76546196085579654</v>
       </c>
       <c r="L21" s="68"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D22" s="66" t="str">
-        <v>USD_YC3MRH_AM3L10Y</v>
+        <v>USD_YC3MRH_AM3L12Y</v>
       </c>
       <c r="E22" s="67">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.6920000000000003E-2</v>
+        <v>2.785E-2</v>
       </c>
       <c r="F22" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10274,24 +10144,24 @@
       </c>
       <c r="G22" s="79">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H22" s="80">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>45421</v>
+        <v>46163</v>
       </c>
       <c r="I22" s="63">
-        <v>0.75703488497620053</v>
+        <v>0.70657932578166371</v>
       </c>
       <c r="L22" s="68"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D23" s="66" t="str">
-        <v>USD_YC3MRH_AM3L12Y</v>
+        <v>USD_YC3MRH_AM3L15Y</v>
       </c>
       <c r="E23" s="67">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.8890000000000002E-2</v>
+        <v>2.9850000000000002E-2</v>
       </c>
       <c r="F23" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10299,24 +10169,24 @@
       </c>
       <c r="G23" s="79">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H23" s="80">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>46153</v>
+        <v>47259</v>
       </c>
       <c r="I23" s="63">
-        <v>0.69760669660739805</v>
+        <v>0.62647852759826672</v>
       </c>
       <c r="L23" s="68"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D24" s="66" t="str">
-        <v>USD_YC3MRH_AM3L15Y</v>
+        <v>USD_YC3MRH_AM3L20Y</v>
       </c>
       <c r="E24" s="67">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>3.0830000000000003E-2</v>
+        <v>3.1620000000000002E-2</v>
       </c>
       <c r="F24" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10324,24 +10194,24 @@
       </c>
       <c r="G24" s="79">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H24" s="80">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>47247</v>
+        <v>49086</v>
       </c>
       <c r="I24" s="63">
-        <v>0.61730614165405362</v>
+        <v>0.51523499717377086</v>
       </c>
       <c r="L24" s="68"/>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D25" s="66" t="str">
-        <v>USD_YC3MRH_AM3L20Y</v>
+        <v>USD_YC3MRH_AM3L25Y</v>
       </c>
       <c r="E25" s="67">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>3.2500000000000001E-2</v>
+        <v>3.2419999999999997E-2</v>
       </c>
       <c r="F25" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10349,24 +10219,24 @@
       </c>
       <c r="G25" s="79">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H25" s="80">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>49073</v>
+        <v>50913</v>
       </c>
       <c r="I25" s="63">
-        <v>0.50647002818655729</v>
+        <v>0.42737527688467308</v>
       </c>
       <c r="L25" s="68"/>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D26" s="66" t="str">
-        <v>USD_YC3MRH_AM3L25Y</v>
+        <v>USD_YC3MRH_AM3L30Y</v>
       </c>
       <c r="E26" s="67">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>3.3259999999999998E-2</v>
+        <v>3.279E-2</v>
       </c>
       <c r="F26" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10374,24 +10244,24 @@
       </c>
       <c r="G26" s="79">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H26" s="80">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>50899</v>
+        <v>52740</v>
       </c>
       <c r="I26" s="63">
-        <v>0.41887424076428148</v>
+        <v>0.35708788665618463</v>
       </c>
       <c r="L26" s="68"/>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D27" s="66" t="str">
-        <v>USD_YC3MRH_AM3L30Y</v>
+        <v>USD_YC3MRH_AM3L40Y</v>
       </c>
       <c r="E27" s="67">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>3.3600000000000005E-2</v>
+        <v>3.295E-2</v>
       </c>
       <c r="F27" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10399,24 +10269,24 @@
       </c>
       <c r="G27" s="79">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H27" s="80">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>52726</v>
+        <v>56390</v>
       </c>
       <c r="I27" s="63">
-        <v>0.34899780062809549</v>
+        <v>0.2547148334850286</v>
       </c>
       <c r="L27" s="68"/>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D28" s="66" t="str">
-        <v>USD_YC3MRH_AM3L40Y</v>
+        <v>USD_YC3MRH_AM3L50Y</v>
       </c>
       <c r="E28" s="67">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>3.3790000000000001E-2</v>
+        <v>3.279E-2</v>
       </c>
       <c r="F28" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10424,39 +10294,39 @@
       </c>
       <c r="G28" s="79">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41768</v>
+        <v>41780</v>
       </c>
       <c r="H28" s="80">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>56380</v>
+        <v>60043</v>
       </c>
       <c r="I28" s="63">
-        <v>0.24630554104305508</v>
+        <v>0.18646777501406983</v>
       </c>
       <c r="L28" s="68"/>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D29" s="66" t="str">
-        <v>USD_YC3MRH_AM3L50Y</v>
-      </c>
-      <c r="E29" s="67">
+      <c r="D29" s="66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="67" t="e">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>3.3600000000000005E-2</v>
-      </c>
-      <c r="F29" s="67">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="79">
+        <v>--</v>
+      </c>
+      <c r="G29" s="79" t="e">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41768</v>
-      </c>
-      <c r="H29" s="80">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29" s="80" t="e">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>60031</v>
-      </c>
-      <c r="I29" s="63">
-        <v>0.17948652820119723</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" s="63" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L29" s="68"/>
     </row>
@@ -12823,174 +12693,174 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="130" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="130" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="130" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="130" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="130" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="130" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="130" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="130" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="130"/>
+    <col min="1" max="1" width="3" style="125" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="125" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="125" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
       <c r="D1" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="128" t="str">
+      <c r="E1" s="123" t="str">
         <f>Currency&amp;"_YC"&amp;$D$1&amp;"RH"</f>
         <v>USD_YC3MRH</v>
       </c>
       <c r="F1" s="59"/>
       <c r="G1" s="59"/>
-      <c r="H1" s="129"/>
+      <c r="H1" s="124"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="131"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132" t="s">
+      <c r="A2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="133" t="str">
+      <c r="E2" s="128" t="str">
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>USD_YC3MRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="134" t="str">
+      <c r="F2" s="129" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F6,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="G2" s="135" t="str">
+      <c r="G2" s="130" t="str">
         <f>_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
-      <c r="H2" s="129"/>
+      <c r="H2" s="124"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="131"/>
-      <c r="B3" s="136" t="s">
+      <c r="A3" s="126"/>
+      <c r="B3" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="137" t="str">
+      <c r="C3" s="132" t="str">
         <f>_xll.qlLibor(,"USD",B3,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00386#0000</v>
-      </c>
-      <c r="D3" s="138" t="str">
+        <v>obj_003bc#0000</v>
+      </c>
+      <c r="D3" s="133" t="str">
         <f t="shared" ref="D3:D6" si="0">Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>USDSWD_SYNTH3M_Quote</v>
       </c>
-      <c r="E3" s="139" t="str">
+      <c r="E3" s="134" t="str">
         <f>$E$1&amp;"_"&amp;$B3&amp;"D"</f>
         <v>USD_YC3MRH_SWD</v>
       </c>
-      <c r="F3" s="140" t="str">
+      <c r="F3" s="135" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_SWD#0000</v>
       </c>
-      <c r="G3" s="141" t="str">
+      <c r="G3" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
         <v/>
       </c>
-      <c r="H3" s="129"/>
+      <c r="H3" s="124"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="131"/>
-      <c r="B4" s="136" t="s">
+      <c r="A4" s="126"/>
+      <c r="B4" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="137" t="str">
+      <c r="C4" s="132" t="str">
         <f>_xll.qlLibor(,"USD",B4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_003a9#0000</v>
-      </c>
-      <c r="D4" s="138" t="str">
+        <v>obj_003bf#0000</v>
+      </c>
+      <c r="D4" s="133" t="str">
         <f t="shared" si="0"/>
         <v>USD1MD_SYNTH3M_Quote</v>
       </c>
-      <c r="E4" s="139" t="str">
+      <c r="E4" s="134" t="str">
         <f>$E$1&amp;"_"&amp;$B4&amp;"D"</f>
         <v>USD_YC3MRH_1MD</v>
       </c>
-      <c r="F4" s="140" t="str">
+      <c r="F4" s="135" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_1MD#0000</v>
       </c>
-      <c r="G4" s="141" t="str">
+      <c r="G4" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
         <v/>
       </c>
-      <c r="H4" s="129"/>
+      <c r="H4" s="124"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="136" t="s">
+      <c r="A5" s="126"/>
+      <c r="B5" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="137" t="str">
+      <c r="C5" s="132" t="str">
         <f>_xll.qlLibor(,"USD",B5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00391#0000</v>
-      </c>
-      <c r="D5" s="138" t="str">
+        <v>obj_003f4#0000</v>
+      </c>
+      <c r="D5" s="133" t="str">
         <f t="shared" si="0"/>
         <v>USD2MD_SYNTH3M_Quote</v>
       </c>
-      <c r="E5" s="139" t="str">
+      <c r="E5" s="134" t="str">
         <f>$E$1&amp;"_"&amp;$B5&amp;"D"</f>
         <v>USD_YC3MRH_2MD</v>
       </c>
-      <c r="F5" s="140" t="str">
+      <c r="F5" s="135" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_2MD#0000</v>
       </c>
-      <c r="G5" s="141" t="str">
+      <c r="G5" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
         <v/>
       </c>
-      <c r="H5" s="129"/>
+      <c r="H5" s="124"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="131"/>
-      <c r="B6" s="136" t="s">
+      <c r="A6" s="126"/>
+      <c r="B6" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="137" t="str">
+      <c r="C6" s="132" t="str">
         <f>_xll.qlLibor(,"USD",B6,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_003af#0000</v>
-      </c>
-      <c r="D6" s="138" t="str">
+        <v>obj_003ba#0000</v>
+      </c>
+      <c r="D6" s="133" t="str">
         <f t="shared" si="0"/>
         <v>USD3MD_SYNTH3M_Quote</v>
       </c>
-      <c r="E6" s="139" t="str">
+      <c r="E6" s="134" t="str">
         <f>$E$1&amp;"_"&amp;$B6&amp;"D"</f>
         <v>USD_YC3MRH_3MD</v>
       </c>
-      <c r="F6" s="140" t="str">
+      <c r="F6" s="135" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_3MD#0000</v>
       </c>
-      <c r="G6" s="141" t="str">
+      <c r="G6" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
         <v/>
       </c>
-      <c r="H6" s="129"/>
+      <c r="H6" s="124"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="142"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="144"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="139"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13010,1679 +12880,1679 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="130" customWidth="1"/>
-    <col min="2" max="2" width="3" style="130" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="130" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="130" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="130" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="130" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="130" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" style="130" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="130" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="130" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" style="130" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="130"/>
+    <col min="1" max="1" width="2.28515625" style="125" customWidth="1"/>
+    <col min="2" max="2" width="3" style="125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" style="125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="125" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" style="125" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="121" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
       <c r="E1" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="147" t="str">
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="142" t="str">
         <f>Currency&amp;"_YC"&amp;$E$1&amp;"RH"</f>
         <v>USD_YC3MRH</v>
       </c>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="129"/>
-      <c r="M1" s="149"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="124"/>
+      <c r="M1" s="144"/>
     </row>
     <row r="2" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="126"/>
-      <c r="B2" s="150" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="151" t="s">
+      <c r="D2" s="146" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="132" t="s">
+      <c r="E2" s="127" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="132" t="s">
+      <c r="F2" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="150" t="s">
+      <c r="G2" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="133" t="str">
+      <c r="H2" s="128" t="str">
         <f>$H$1&amp;"_Futures"&amp;$E$1&amp;".xml"</f>
         <v>USD_YC3MRH_Futures3M.xml</v>
       </c>
-      <c r="I2" s="134" t="str">
+      <c r="I2" s="129" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(I3:I44,SerializationPath&amp;H2,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="J2" s="135" t="str">
+      <c r="J2" s="130" t="str">
         <f>_xll.ohRangeRetrieveError(I2)</f>
         <v/>
       </c>
-      <c r="K2" s="129"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153">
-        <v>1</v>
-      </c>
-      <c r="C3" s="154" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="154" t="str">
+      <c r="A3" s="147"/>
+      <c r="B3" s="148">
+        <v>1</v>
+      </c>
+      <c r="C3" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="149" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C44)</f>
         <v>K4</v>
       </c>
-      <c r="E3" s="154" t="str">
+      <c r="E3" s="149" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F3" s="155" t="str">
+      <c r="F3" s="150" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
         <v>USDFUT3MK4_Quote</v>
       </c>
-      <c r="G3" s="155" t="str">
+      <c r="G3" s="150" t="str">
         <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>USDFUT3MK4ConvAdj_Quote</v>
       </c>
-      <c r="H3" s="155" t="str">
+      <c r="H3" s="150" t="str">
         <f t="shared" ref="H3:H34" si="3">$H$1&amp;"_FUT"&amp;$E$1&amp;$D3</f>
         <v>USD_YC3MRH_FUT3MK4</v>
       </c>
-      <c r="I3" s="156" t="str">
+      <c r="I3" s="151" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MK4#0000</v>
       </c>
-      <c r="J3" s="157" t="str">
+      <c r="J3" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
         <v/>
       </c>
-      <c r="K3" s="129"/>
-      <c r="L3" s="158"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="153"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="152"/>
-      <c r="B4" s="136">
+      <c r="A4" s="147"/>
+      <c r="B4" s="131">
         <v>2</v>
       </c>
-      <c r="C4" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="159" t="str">
+      <c r="C4" s="154" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="154" t="str">
         <v>M4</v>
       </c>
-      <c r="E4" s="154" t="str">
+      <c r="E4" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F4" s="155" t="str">
+      <c r="F4" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MM4_Quote</v>
       </c>
-      <c r="G4" s="155" t="str">
+      <c r="G4" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MM4ConvAdj_Quote</v>
       </c>
-      <c r="H4" s="155" t="str">
+      <c r="H4" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MM4</v>
       </c>
-      <c r="I4" s="160" t="str">
+      <c r="I4" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MM4#0000</v>
       </c>
-      <c r="J4" s="141" t="str">
+      <c r="J4" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
         <v/>
       </c>
-      <c r="K4" s="129"/>
-      <c r="L4" s="158"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="153"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="152"/>
-      <c r="B5" s="136">
+      <c r="A5" s="147"/>
+      <c r="B5" s="131">
         <v>3</v>
       </c>
-      <c r="C5" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="159" t="str">
+      <c r="C5" s="154" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="154" t="str">
         <v>N4</v>
       </c>
-      <c r="E5" s="154" t="str">
+      <c r="E5" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F5" s="155" t="str">
+      <c r="F5" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MN4_Quote</v>
       </c>
-      <c r="G5" s="155" t="str">
+      <c r="G5" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MN4ConvAdj_Quote</v>
       </c>
-      <c r="H5" s="155" t="str">
+      <c r="H5" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MN4</v>
       </c>
-      <c r="I5" s="160" t="str">
+      <c r="I5" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MN4#0000</v>
       </c>
-      <c r="J5" s="141" t="str">
+      <c r="J5" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
         <v/>
       </c>
-      <c r="K5" s="129"/>
-      <c r="L5" s="158"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="153"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="152"/>
-      <c r="B6" s="136">
+      <c r="A6" s="147"/>
+      <c r="B6" s="131">
         <v>4</v>
       </c>
-      <c r="C6" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="159" t="str">
+      <c r="C6" s="154" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="154" t="str">
         <v>Q4</v>
       </c>
-      <c r="E6" s="154" t="str">
+      <c r="E6" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F6" s="155" t="str">
+      <c r="F6" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MQ4_Quote</v>
       </c>
-      <c r="G6" s="155" t="str">
+      <c r="G6" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MQ4ConvAdj_Quote</v>
       </c>
-      <c r="H6" s="155" t="str">
+      <c r="H6" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MQ4</v>
       </c>
-      <c r="I6" s="160" t="str">
+      <c r="I6" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MQ4#0000</v>
       </c>
-      <c r="J6" s="141" t="str">
+      <c r="J6" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
         <v/>
       </c>
-      <c r="K6" s="129"/>
-      <c r="L6" s="158"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="153"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="152"/>
-      <c r="B7" s="136">
+      <c r="A7" s="147"/>
+      <c r="B7" s="131">
         <v>5</v>
       </c>
-      <c r="C7" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="159" t="str">
+      <c r="C7" s="154" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="154" t="str">
         <v>U4</v>
       </c>
-      <c r="E7" s="154" t="str">
+      <c r="E7" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F7" s="155" t="str">
+      <c r="F7" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MU4_Quote</v>
       </c>
-      <c r="G7" s="155" t="str">
+      <c r="G7" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MU4ConvAdj_Quote</v>
       </c>
-      <c r="H7" s="155" t="str">
+      <c r="H7" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MU4</v>
       </c>
-      <c r="I7" s="160" t="str">
+      <c r="I7" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MU4#0000</v>
       </c>
-      <c r="J7" s="141" t="str">
+      <c r="J7" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
         <v/>
       </c>
-      <c r="K7" s="129"/>
-      <c r="L7" s="158"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="153"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="152"/>
-      <c r="B8" s="136">
+      <c r="A8" s="147"/>
+      <c r="B8" s="131">
         <v>6</v>
       </c>
-      <c r="C8" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="159" t="str">
+      <c r="C8" s="154" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="154" t="str">
         <v>V4</v>
       </c>
-      <c r="E8" s="154" t="str">
+      <c r="E8" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F8" s="155" t="str">
+      <c r="F8" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MV4_Quote</v>
       </c>
-      <c r="G8" s="155" t="str">
+      <c r="G8" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MV4ConvAdj_Quote</v>
       </c>
-      <c r="H8" s="155" t="str">
+      <c r="H8" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MV4</v>
       </c>
-      <c r="I8" s="160" t="str">
+      <c r="I8" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MV4#0000</v>
       </c>
-      <c r="J8" s="141" t="str">
+      <c r="J8" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
         <v/>
       </c>
-      <c r="K8" s="129"/>
-      <c r="L8" s="158"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="153"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="152"/>
-      <c r="B9" s="136">
+      <c r="A9" s="147"/>
+      <c r="B9" s="131">
         <v>7</v>
       </c>
-      <c r="C9" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="159" t="str">
+      <c r="C9" s="154" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="154" t="str">
         <v>X4</v>
       </c>
-      <c r="E9" s="154" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F9" s="155" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MX4_Quote</v>
       </c>
-      <c r="G9" s="155" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MX4ConvAdj_Quote</v>
       </c>
-      <c r="H9" s="155" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MX4</v>
       </c>
-      <c r="I9" s="160" t="str">
+      <c r="I9" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MX4#0000</v>
       </c>
-      <c r="J9" s="141" t="str">
+      <c r="J9" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
         <v/>
       </c>
-      <c r="K9" s="129"/>
-      <c r="L9" s="158"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="153"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="152"/>
-      <c r="B10" s="136">
+      <c r="A10" s="147"/>
+      <c r="B10" s="131">
         <v>8</v>
       </c>
-      <c r="C10" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="159" t="str">
+      <c r="C10" s="154" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="154" t="str">
         <v>Z4</v>
       </c>
-      <c r="E10" s="154" t="str">
+      <c r="E10" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F10" s="155" t="str">
+      <c r="F10" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MZ4_Quote</v>
       </c>
-      <c r="G10" s="155" t="str">
+      <c r="G10" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MZ4ConvAdj_Quote</v>
       </c>
-      <c r="H10" s="155" t="str">
+      <c r="H10" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MZ4</v>
       </c>
-      <c r="I10" s="160" t="str">
+      <c r="I10" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MZ4#0000</v>
       </c>
-      <c r="J10" s="141" t="str">
+      <c r="J10" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
         <v/>
       </c>
-      <c r="K10" s="129"/>
-      <c r="L10" s="158"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="153"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="152"/>
-      <c r="B11" s="136">
+      <c r="A11" s="147"/>
+      <c r="B11" s="131">
         <v>9</v>
       </c>
-      <c r="C11" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="159" t="str">
+      <c r="C11" s="154" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="154" t="str">
         <v>F5</v>
       </c>
-      <c r="E11" s="154" t="str">
+      <c r="E11" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F11" s="155" t="str">
+      <c r="F11" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MF5_Quote</v>
       </c>
-      <c r="G11" s="155" t="str">
+      <c r="G11" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MF5ConvAdj_Quote</v>
       </c>
-      <c r="H11" s="155" t="str">
+      <c r="H11" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MF5</v>
       </c>
-      <c r="I11" s="160" t="str">
+      <c r="I11" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MF5#0000</v>
       </c>
-      <c r="J11" s="141" t="str">
+      <c r="J11" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
         <v/>
       </c>
-      <c r="K11" s="129"/>
-      <c r="L11" s="158"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="153"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="152"/>
-      <c r="B12" s="136">
+      <c r="A12" s="147"/>
+      <c r="B12" s="131">
         <v>10</v>
       </c>
-      <c r="C12" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="159" t="str">
+      <c r="C12" s="154" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="154" t="str">
         <v>G5</v>
       </c>
-      <c r="E12" s="154" t="str">
+      <c r="E12" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F12" s="155" t="str">
+      <c r="F12" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MG5_Quote</v>
       </c>
-      <c r="G12" s="155" t="str">
+      <c r="G12" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MG5ConvAdj_Quote</v>
       </c>
-      <c r="H12" s="155" t="str">
+      <c r="H12" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MG5</v>
       </c>
-      <c r="I12" s="160" t="str">
+      <c r="I12" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MG5#0000</v>
       </c>
-      <c r="J12" s="141" t="str">
+      <c r="J12" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
         <v/>
       </c>
-      <c r="K12" s="129"/>
-      <c r="L12" s="158"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="153"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="152"/>
-      <c r="B13" s="136">
+      <c r="A13" s="147"/>
+      <c r="B13" s="131">
         <v>11</v>
       </c>
-      <c r="C13" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="159" t="str">
+      <c r="C13" s="154" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="154" t="str">
         <v>H5</v>
       </c>
-      <c r="E13" s="154" t="str">
+      <c r="E13" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F13" s="155" t="str">
+      <c r="F13" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MH5_Quote</v>
       </c>
-      <c r="G13" s="155" t="str">
+      <c r="G13" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MH5ConvAdj_Quote</v>
       </c>
-      <c r="H13" s="155" t="str">
+      <c r="H13" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MH5</v>
       </c>
-      <c r="I13" s="160" t="str">
+      <c r="I13" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MH5#0000</v>
       </c>
-      <c r="J13" s="141" t="str">
+      <c r="J13" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
         <v/>
       </c>
-      <c r="K13" s="129"/>
-      <c r="L13" s="158"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="153"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
-      <c r="B14" s="136">
+      <c r="A14" s="147"/>
+      <c r="B14" s="131">
         <v>12</v>
       </c>
-      <c r="C14" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="159" t="str">
+      <c r="C14" s="154" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="154" t="str">
         <v>J5</v>
       </c>
-      <c r="E14" s="154" t="str">
+      <c r="E14" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F14" s="155" t="str">
+      <c r="F14" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MJ5_Quote</v>
       </c>
-      <c r="G14" s="155" t="str">
+      <c r="G14" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MJ5ConvAdj_Quote</v>
       </c>
-      <c r="H14" s="155" t="str">
+      <c r="H14" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MJ5</v>
       </c>
-      <c r="I14" s="160" t="str">
+      <c r="I14" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MJ5#0000</v>
       </c>
-      <c r="J14" s="141" t="str">
+      <c r="J14" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
         <v/>
       </c>
-      <c r="K14" s="129"/>
-      <c r="L14" s="158"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="153"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="152"/>
-      <c r="B15" s="136">
+      <c r="A15" s="147"/>
+      <c r="B15" s="131">
         <v>13</v>
       </c>
-      <c r="C15" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="159" t="str">
+      <c r="C15" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="154" t="str">
         <v>M5</v>
       </c>
-      <c r="E15" s="154" t="str">
+      <c r="E15" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F15" s="155" t="str">
+      <c r="F15" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MM5_Quote</v>
       </c>
-      <c r="G15" s="155" t="str">
+      <c r="G15" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MM5ConvAdj_Quote</v>
       </c>
-      <c r="H15" s="155" t="str">
+      <c r="H15" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MM5</v>
       </c>
-      <c r="I15" s="160" t="str">
+      <c r="I15" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MM5#0000</v>
       </c>
-      <c r="J15" s="141" t="str">
+      <c r="J15" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
         <v/>
       </c>
-      <c r="K15" s="129"/>
-      <c r="L15" s="158"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="153"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="152"/>
-      <c r="B16" s="136">
+      <c r="A16" s="147"/>
+      <c r="B16" s="131">
         <v>14</v>
       </c>
-      <c r="C16" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="159" t="str">
+      <c r="C16" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="154" t="str">
         <v>U5</v>
       </c>
-      <c r="E16" s="154" t="str">
+      <c r="E16" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F16" s="155" t="str">
+      <c r="F16" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MU5_Quote</v>
       </c>
-      <c r="G16" s="155" t="str">
+      <c r="G16" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MU5ConvAdj_Quote</v>
       </c>
-      <c r="H16" s="155" t="str">
+      <c r="H16" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MU5</v>
       </c>
-      <c r="I16" s="160" t="str">
+      <c r="I16" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MU5#0000</v>
       </c>
-      <c r="J16" s="141" t="str">
+      <c r="J16" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
         <v/>
       </c>
-      <c r="K16" s="129"/>
-      <c r="L16" s="158"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="153"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="152"/>
-      <c r="B17" s="136">
+      <c r="A17" s="147"/>
+      <c r="B17" s="131">
         <v>15</v>
       </c>
-      <c r="C17" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="159" t="str">
+      <c r="C17" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="154" t="str">
         <v>Z5</v>
       </c>
-      <c r="E17" s="154" t="str">
+      <c r="E17" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F17" s="155" t="str">
+      <c r="F17" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MZ5_Quote</v>
       </c>
-      <c r="G17" s="155" t="str">
+      <c r="G17" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MZ5ConvAdj_Quote</v>
       </c>
-      <c r="H17" s="155" t="str">
+      <c r="H17" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MZ5</v>
       </c>
-      <c r="I17" s="160" t="str">
+      <c r="I17" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MZ5#0000</v>
       </c>
-      <c r="J17" s="141" t="str">
+      <c r="J17" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
         <v/>
       </c>
-      <c r="K17" s="129"/>
-      <c r="L17" s="158"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="153"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="152"/>
-      <c r="B18" s="136">
+      <c r="A18" s="147"/>
+      <c r="B18" s="131">
         <v>16</v>
       </c>
-      <c r="C18" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="159" t="str">
+      <c r="C18" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="154" t="str">
         <v>H6</v>
       </c>
-      <c r="E18" s="154" t="str">
+      <c r="E18" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F18" s="155" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MH6_Quote</v>
       </c>
-      <c r="G18" s="155" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MH6ConvAdj_Quote</v>
       </c>
-      <c r="H18" s="155" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MH6</v>
       </c>
-      <c r="I18" s="160" t="str">
+      <c r="I18" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MH6#0000</v>
       </c>
-      <c r="J18" s="141" t="str">
+      <c r="J18" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
         <v/>
       </c>
-      <c r="K18" s="129"/>
-      <c r="L18" s="158"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="153"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="152"/>
-      <c r="B19" s="136">
+      <c r="A19" s="147"/>
+      <c r="B19" s="131">
         <v>17</v>
       </c>
-      <c r="C19" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="159" t="str">
+      <c r="C19" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="154" t="str">
         <v>M6</v>
       </c>
-      <c r="E19" s="154" t="str">
+      <c r="E19" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F19" s="155" t="str">
+      <c r="F19" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MM6_Quote</v>
       </c>
-      <c r="G19" s="155" t="str">
+      <c r="G19" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MM6ConvAdj_Quote</v>
       </c>
-      <c r="H19" s="155" t="str">
+      <c r="H19" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MM6</v>
       </c>
-      <c r="I19" s="160" t="str">
+      <c r="I19" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MM6#0000</v>
       </c>
-      <c r="J19" s="141" t="str">
+      <c r="J19" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
         <v/>
       </c>
-      <c r="K19" s="129"/>
-      <c r="L19" s="158"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="153"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="152"/>
-      <c r="B20" s="136">
+      <c r="A20" s="147"/>
+      <c r="B20" s="131">
         <v>18</v>
       </c>
-      <c r="C20" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="159" t="str">
+      <c r="C20" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="154" t="str">
         <v>U6</v>
       </c>
-      <c r="E20" s="154" t="str">
+      <c r="E20" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F20" s="155" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MU6_Quote</v>
       </c>
-      <c r="G20" s="155" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MU6ConvAdj_Quote</v>
       </c>
-      <c r="H20" s="155" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MU6</v>
       </c>
-      <c r="I20" s="160" t="str">
+      <c r="I20" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MU6#0000</v>
       </c>
-      <c r="J20" s="141" t="str">
+      <c r="J20" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
         <v/>
       </c>
-      <c r="K20" s="129"/>
-      <c r="L20" s="158"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="153"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="152"/>
-      <c r="B21" s="136">
+      <c r="A21" s="147"/>
+      <c r="B21" s="131">
         <v>19</v>
       </c>
-      <c r="C21" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="159" t="str">
+      <c r="C21" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="154" t="str">
         <v>Z6</v>
       </c>
-      <c r="E21" s="154" t="str">
+      <c r="E21" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F21" s="155" t="str">
+      <c r="F21" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MZ6_Quote</v>
       </c>
-      <c r="G21" s="155" t="str">
+      <c r="G21" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MZ6ConvAdj_Quote</v>
       </c>
-      <c r="H21" s="155" t="str">
+      <c r="H21" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MZ6</v>
       </c>
-      <c r="I21" s="160" t="str">
+      <c r="I21" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MZ6#0000</v>
       </c>
-      <c r="J21" s="141" t="str">
+      <c r="J21" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
         <v/>
       </c>
-      <c r="K21" s="129"/>
-      <c r="L21" s="158"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="153"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="152"/>
-      <c r="B22" s="136">
+      <c r="A22" s="147"/>
+      <c r="B22" s="131">
         <v>20</v>
       </c>
-      <c r="C22" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="159" t="str">
+      <c r="C22" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="154" t="str">
         <v>H7</v>
       </c>
-      <c r="E22" s="154" t="str">
+      <c r="E22" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F22" s="155" t="str">
+      <c r="F22" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MH7_Quote</v>
       </c>
-      <c r="G22" s="155" t="str">
+      <c r="G22" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MH7ConvAdj_Quote</v>
       </c>
-      <c r="H22" s="155" t="str">
+      <c r="H22" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MH7</v>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MH7#0000</v>
       </c>
-      <c r="J22" s="141" t="str">
+      <c r="J22" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
         <v/>
       </c>
-      <c r="K22" s="129"/>
-      <c r="L22" s="158"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="153"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="152"/>
-      <c r="B23" s="136">
+      <c r="A23" s="147"/>
+      <c r="B23" s="131">
         <v>21</v>
       </c>
-      <c r="C23" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="159" t="str">
+      <c r="C23" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="154" t="str">
         <v>M7</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F23" s="155" t="str">
+      <c r="F23" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MM7_Quote</v>
       </c>
-      <c r="G23" s="155" t="str">
+      <c r="G23" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MM7ConvAdj_Quote</v>
       </c>
-      <c r="H23" s="155" t="str">
+      <c r="H23" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MM7</v>
       </c>
-      <c r="I23" s="160" t="str">
+      <c r="I23" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MM7#0000</v>
       </c>
-      <c r="J23" s="141" t="str">
+      <c r="J23" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
         <v/>
       </c>
-      <c r="K23" s="129"/>
-      <c r="L23" s="158"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="153"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="152"/>
-      <c r="B24" s="136">
+      <c r="A24" s="147"/>
+      <c r="B24" s="131">
         <v>22</v>
       </c>
-      <c r="C24" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" s="159" t="str">
+      <c r="C24" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="154" t="str">
         <v>U7</v>
       </c>
-      <c r="E24" s="154" t="str">
+      <c r="E24" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F24" s="155" t="str">
+      <c r="F24" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MU7_Quote</v>
       </c>
-      <c r="G24" s="155" t="str">
+      <c r="G24" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MU7ConvAdj_Quote</v>
       </c>
-      <c r="H24" s="155" t="str">
+      <c r="H24" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MU7</v>
       </c>
-      <c r="I24" s="160" t="str">
+      <c r="I24" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MU7#0000</v>
       </c>
-      <c r="J24" s="141" t="str">
+      <c r="J24" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
         <v/>
       </c>
-      <c r="K24" s="129"/>
-      <c r="L24" s="158"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="153"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="152"/>
-      <c r="B25" s="136">
+      <c r="A25" s="147"/>
+      <c r="B25" s="131">
         <v>23</v>
       </c>
-      <c r="C25" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="159" t="str">
+      <c r="C25" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="154" t="str">
         <v>Z7</v>
       </c>
-      <c r="E25" s="154" t="str">
+      <c r="E25" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F25" s="155" t="str">
+      <c r="F25" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MZ7_Quote</v>
       </c>
-      <c r="G25" s="155" t="str">
+      <c r="G25" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MZ7ConvAdj_Quote</v>
       </c>
-      <c r="H25" s="155" t="str">
+      <c r="H25" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MZ7</v>
       </c>
-      <c r="I25" s="160" t="str">
+      <c r="I25" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MZ7#0000</v>
       </c>
-      <c r="J25" s="141" t="str">
+      <c r="J25" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
         <v/>
       </c>
-      <c r="K25" s="129"/>
-      <c r="L25" s="158"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="153"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="152"/>
-      <c r="B26" s="136">
+      <c r="A26" s="147"/>
+      <c r="B26" s="131">
         <v>24</v>
       </c>
-      <c r="C26" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" s="159" t="str">
+      <c r="C26" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="154" t="str">
         <v>H8</v>
       </c>
-      <c r="E26" s="154" t="str">
+      <c r="E26" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F26" s="155" t="str">
+      <c r="F26" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MH8_Quote</v>
       </c>
-      <c r="G26" s="155" t="str">
+      <c r="G26" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MH8ConvAdj_Quote</v>
       </c>
-      <c r="H26" s="155" t="str">
+      <c r="H26" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MH8</v>
       </c>
-      <c r="I26" s="160" t="str">
+      <c r="I26" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MH8#0000</v>
       </c>
-      <c r="J26" s="141" t="str">
+      <c r="J26" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
         <v/>
       </c>
-      <c r="K26" s="129"/>
-      <c r="L26" s="158"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="153"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="152"/>
-      <c r="B27" s="136">
+      <c r="A27" s="147"/>
+      <c r="B27" s="131">
         <v>25</v>
       </c>
-      <c r="C27" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="159" t="str">
+      <c r="C27" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="154" t="str">
         <v>M8</v>
       </c>
-      <c r="E27" s="154" t="str">
+      <c r="E27" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F27" s="155" t="str">
+      <c r="F27" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MM8_Quote</v>
       </c>
-      <c r="G27" s="155" t="str">
+      <c r="G27" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MM8ConvAdj_Quote</v>
       </c>
-      <c r="H27" s="155" t="str">
+      <c r="H27" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MM8</v>
       </c>
-      <c r="I27" s="160" t="str">
+      <c r="I27" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MM8#0000</v>
       </c>
-      <c r="J27" s="141" t="str">
+      <c r="J27" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
         <v/>
       </c>
-      <c r="K27" s="129"/>
-      <c r="L27" s="158"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="153"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="152"/>
-      <c r="B28" s="136">
+      <c r="A28" s="147"/>
+      <c r="B28" s="131">
         <v>26</v>
       </c>
-      <c r="C28" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="159" t="str">
+      <c r="C28" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="154" t="str">
         <v>U8</v>
       </c>
-      <c r="E28" s="154" t="str">
+      <c r="E28" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F28" s="155" t="str">
+      <c r="F28" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MU8_Quote</v>
       </c>
-      <c r="G28" s="155" t="str">
+      <c r="G28" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MU8ConvAdj_Quote</v>
       </c>
-      <c r="H28" s="155" t="str">
+      <c r="H28" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MU8</v>
       </c>
-      <c r="I28" s="160" t="str">
+      <c r="I28" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MU8#0000</v>
       </c>
-      <c r="J28" s="141" t="str">
+      <c r="J28" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
         <v/>
       </c>
-      <c r="K28" s="129"/>
-      <c r="L28" s="158"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="153"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="152"/>
-      <c r="B29" s="136">
+      <c r="A29" s="147"/>
+      <c r="B29" s="131">
         <v>27</v>
       </c>
-      <c r="C29" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="159" t="str">
+      <c r="C29" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="154" t="str">
         <v>Z8</v>
       </c>
-      <c r="E29" s="154" t="str">
+      <c r="E29" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F29" s="155" t="str">
+      <c r="F29" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MZ8_Quote</v>
       </c>
-      <c r="G29" s="155" t="str">
+      <c r="G29" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MZ8ConvAdj_Quote</v>
       </c>
-      <c r="H29" s="155" t="str">
+      <c r="H29" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MZ8</v>
       </c>
-      <c r="I29" s="160" t="str">
+      <c r="I29" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MZ8#0000</v>
       </c>
-      <c r="J29" s="141" t="str">
+      <c r="J29" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
         <v/>
       </c>
-      <c r="K29" s="129"/>
-      <c r="L29" s="158"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="153"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="152"/>
-      <c r="B30" s="136">
+      <c r="A30" s="147"/>
+      <c r="B30" s="131">
         <v>28</v>
       </c>
-      <c r="C30" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" s="159" t="str">
+      <c r="C30" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="154" t="str">
         <v>H9</v>
       </c>
-      <c r="E30" s="154" t="str">
+      <c r="E30" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F30" s="155" t="str">
+      <c r="F30" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MH9_Quote</v>
       </c>
-      <c r="G30" s="155" t="str">
+      <c r="G30" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MH9ConvAdj_Quote</v>
       </c>
-      <c r="H30" s="155" t="str">
+      <c r="H30" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MH9</v>
       </c>
-      <c r="I30" s="160" t="str">
+      <c r="I30" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MH9#0000</v>
       </c>
-      <c r="J30" s="141" t="str">
+      <c r="J30" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
         <v/>
       </c>
-      <c r="K30" s="129"/>
-      <c r="L30" s="158"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="153"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="152"/>
-      <c r="B31" s="136">
+      <c r="A31" s="147"/>
+      <c r="B31" s="131">
         <v>29</v>
       </c>
-      <c r="C31" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="159" t="str">
+      <c r="C31" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="154" t="str">
         <v>M9</v>
       </c>
-      <c r="E31" s="154" t="str">
+      <c r="E31" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F31" s="155" t="str">
+      <c r="F31" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MM9_Quote</v>
       </c>
-      <c r="G31" s="155" t="str">
+      <c r="G31" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MM9ConvAdj_Quote</v>
       </c>
-      <c r="H31" s="155" t="str">
+      <c r="H31" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MM9</v>
       </c>
-      <c r="I31" s="160" t="str">
+      <c r="I31" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MM9#0000</v>
       </c>
-      <c r="J31" s="141" t="str">
+      <c r="J31" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
         <v/>
       </c>
-      <c r="K31" s="129"/>
-      <c r="L31" s="158"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="153"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="152"/>
-      <c r="B32" s="136">
+      <c r="A32" s="147"/>
+      <c r="B32" s="131">
         <v>30</v>
       </c>
-      <c r="C32" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="159" t="str">
+      <c r="C32" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="154" t="str">
         <v>U9</v>
       </c>
-      <c r="E32" s="154" t="str">
+      <c r="E32" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F32" s="155" t="str">
+      <c r="F32" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MU9_Quote</v>
       </c>
-      <c r="G32" s="155" t="str">
+      <c r="G32" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MU9ConvAdj_Quote</v>
       </c>
-      <c r="H32" s="155" t="str">
+      <c r="H32" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MU9</v>
       </c>
-      <c r="I32" s="160" t="str">
+      <c r="I32" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MU9#0000</v>
       </c>
-      <c r="J32" s="141" t="str">
+      <c r="J32" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
         <v/>
       </c>
-      <c r="K32" s="129"/>
-      <c r="L32" s="158"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="153"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="152"/>
-      <c r="B33" s="136">
+      <c r="A33" s="147"/>
+      <c r="B33" s="131">
         <v>31</v>
       </c>
-      <c r="C33" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" s="159" t="str">
+      <c r="C33" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="154" t="str">
         <v>Z9</v>
       </c>
-      <c r="E33" s="154" t="str">
+      <c r="E33" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F33" s="155" t="str">
+      <c r="F33" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MZ9_Quote</v>
       </c>
-      <c r="G33" s="155" t="str">
+      <c r="G33" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MZ9ConvAdj_Quote</v>
       </c>
-      <c r="H33" s="155" t="str">
+      <c r="H33" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MZ9</v>
       </c>
-      <c r="I33" s="160" t="str">
+      <c r="I33" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MZ9#0000</v>
       </c>
-      <c r="J33" s="141" t="str">
+      <c r="J33" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
         <v/>
       </c>
-      <c r="K33" s="129"/>
-      <c r="L33" s="158"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="153"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="152"/>
-      <c r="B34" s="136">
+      <c r="A34" s="147"/>
+      <c r="B34" s="131">
         <v>32</v>
       </c>
-      <c r="C34" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" s="159" t="str">
+      <c r="C34" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="154" t="str">
         <v>H0</v>
       </c>
-      <c r="E34" s="154" t="str">
+      <c r="E34" s="149" t="str">
         <f t="shared" si="0"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F34" s="155" t="str">
+      <c r="F34" s="150" t="str">
         <f t="shared" si="1"/>
         <v>USDFUT3MH0_Quote</v>
       </c>
-      <c r="G34" s="155" t="str">
+      <c r="G34" s="150" t="str">
         <f t="shared" si="2"/>
         <v>USDFUT3MH0ConvAdj_Quote</v>
       </c>
-      <c r="H34" s="155" t="str">
+      <c r="H34" s="150" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_FUT3MH0</v>
       </c>
-      <c r="I34" s="160" t="str">
+      <c r="I34" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MH0#0000</v>
       </c>
-      <c r="J34" s="141" t="str">
+      <c r="J34" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
         <v/>
       </c>
-      <c r="K34" s="129"/>
-      <c r="L34" s="158"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="153"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="152"/>
-      <c r="B35" s="136">
+      <c r="A35" s="147"/>
+      <c r="B35" s="131">
         <v>33</v>
       </c>
-      <c r="C35" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" s="159" t="str">
+      <c r="C35" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="154" t="str">
         <v>M0</v>
       </c>
-      <c r="E35" s="154" t="str">
+      <c r="E35" s="149" t="str">
         <f t="shared" ref="E35:E44" si="4">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F35" s="155" t="str">
+      <c r="F35" s="150" t="str">
         <f t="shared" ref="F35:F44" si="5">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
         <v>USDFUT3MM0_Quote</v>
       </c>
-      <c r="G35" s="155" t="str">
+      <c r="G35" s="150" t="str">
         <f t="shared" ref="G35:G44" si="6">Currency&amp;"FUT"&amp;$E$1&amp;$D35&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>USDFUT3MM0ConvAdj_Quote</v>
       </c>
-      <c r="H35" s="155" t="str">
+      <c r="H35" s="150" t="str">
         <f t="shared" ref="H35:H44" si="7">$H$1&amp;"_FUT"&amp;$E$1&amp;$D35</f>
         <v>USD_YC3MRH_FUT3MM0</v>
       </c>
-      <c r="I35" s="160" t="str">
+      <c r="I35" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MM0#0000</v>
       </c>
-      <c r="J35" s="141" t="str">
+      <c r="J35" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
         <v/>
       </c>
-      <c r="K35" s="129"/>
-      <c r="L35" s="158"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="153"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="152"/>
-      <c r="B36" s="136">
+      <c r="A36" s="147"/>
+      <c r="B36" s="131">
         <v>34</v>
       </c>
-      <c r="C36" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" s="159" t="str">
+      <c r="C36" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="154" t="str">
         <v>U0</v>
       </c>
-      <c r="E36" s="154" t="str">
+      <c r="E36" s="149" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F36" s="155" t="str">
+      <c r="F36" s="150" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MU0_Quote</v>
       </c>
-      <c r="G36" s="155" t="str">
+      <c r="G36" s="150" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MU0ConvAdj_Quote</v>
       </c>
-      <c r="H36" s="155" t="str">
+      <c r="H36" s="150" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MU0</v>
       </c>
-      <c r="I36" s="160" t="str">
+      <c r="I36" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MU0#0000</v>
       </c>
-      <c r="J36" s="141" t="str">
+      <c r="J36" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
         <v/>
       </c>
-      <c r="K36" s="129"/>
-      <c r="L36" s="158"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="153"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="152"/>
-      <c r="B37" s="136">
+      <c r="A37" s="147"/>
+      <c r="B37" s="131">
         <v>35</v>
       </c>
-      <c r="C37" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" s="159" t="str">
+      <c r="C37" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="154" t="str">
         <v>Z0</v>
       </c>
-      <c r="E37" s="154" t="str">
+      <c r="E37" s="149" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F37" s="155" t="str">
+      <c r="F37" s="150" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MZ0_Quote</v>
       </c>
-      <c r="G37" s="155" t="str">
+      <c r="G37" s="150" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MZ0ConvAdj_Quote</v>
       </c>
-      <c r="H37" s="155" t="str">
+      <c r="H37" s="150" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MZ0</v>
       </c>
-      <c r="I37" s="160" t="str">
+      <c r="I37" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MZ0#0000</v>
       </c>
-      <c r="J37" s="141" t="str">
+      <c r="J37" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
         <v/>
       </c>
-      <c r="K37" s="129"/>
-      <c r="L37" s="158"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="153"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="152"/>
-      <c r="B38" s="136">
+      <c r="A38" s="147"/>
+      <c r="B38" s="131">
         <v>36</v>
       </c>
-      <c r="C38" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" s="159" t="str">
+      <c r="C38" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="154" t="str">
         <v>H1</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="149" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="150" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MH1_Quote</v>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="150" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MH1ConvAdj_Quote</v>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="150" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MH1</v>
       </c>
-      <c r="I38" s="160" t="str">
+      <c r="I38" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MH1#0000</v>
       </c>
-      <c r="J38" s="141" t="str">
+      <c r="J38" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
         <v/>
       </c>
-      <c r="K38" s="129"/>
-      <c r="L38" s="158"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="153"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="152"/>
-      <c r="B39" s="136">
+      <c r="A39" s="147"/>
+      <c r="B39" s="131">
         <v>37</v>
       </c>
-      <c r="C39" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" s="159" t="str">
+      <c r="C39" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="154" t="str">
         <v>M1</v>
       </c>
-      <c r="E39" s="154" t="str">
+      <c r="E39" s="149" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F39" s="155" t="str">
+      <c r="F39" s="150" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MM1_Quote</v>
       </c>
-      <c r="G39" s="155" t="str">
+      <c r="G39" s="150" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MM1ConvAdj_Quote</v>
       </c>
-      <c r="H39" s="155" t="str">
+      <c r="H39" s="150" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MM1</v>
       </c>
-      <c r="I39" s="160" t="str">
+      <c r="I39" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MM1#0000</v>
       </c>
-      <c r="J39" s="141" t="str">
+      <c r="J39" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
         <v/>
       </c>
-      <c r="K39" s="129"/>
-      <c r="L39" s="158"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="153"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="152"/>
-      <c r="B40" s="136">
+      <c r="A40" s="147"/>
+      <c r="B40" s="131">
         <v>38</v>
       </c>
-      <c r="C40" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" s="159" t="str">
+      <c r="C40" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="154" t="str">
         <v>U1</v>
       </c>
-      <c r="E40" s="154" t="str">
+      <c r="E40" s="149" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="150" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MU1_Quote</v>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="150" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MU1ConvAdj_Quote</v>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="150" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MU1</v>
       </c>
-      <c r="I40" s="160" t="str">
+      <c r="I40" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MU1#0000</v>
       </c>
-      <c r="J40" s="141" t="str">
+      <c r="J40" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
         <v/>
       </c>
-      <c r="K40" s="129"/>
+      <c r="K40" s="124"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="152"/>
-      <c r="B41" s="136">
+      <c r="A41" s="147"/>
+      <c r="B41" s="131">
         <v>39</v>
       </c>
-      <c r="C41" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" s="159" t="str">
+      <c r="C41" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="154" t="str">
         <v>Z1</v>
       </c>
-      <c r="E41" s="154" t="str">
+      <c r="E41" s="149" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F41" s="155" t="str">
+      <c r="F41" s="150" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MZ1_Quote</v>
       </c>
-      <c r="G41" s="155" t="str">
+      <c r="G41" s="150" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MZ1ConvAdj_Quote</v>
       </c>
-      <c r="H41" s="155" t="str">
+      <c r="H41" s="150" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MZ1</v>
       </c>
-      <c r="I41" s="160" t="str">
+      <c r="I41" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MZ1#0000</v>
       </c>
-      <c r="J41" s="141" t="str">
+      <c r="J41" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
         <v/>
       </c>
-      <c r="K41" s="129"/>
+      <c r="K41" s="124"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="152"/>
-      <c r="B42" s="136">
+      <c r="A42" s="147"/>
+      <c r="B42" s="131">
         <v>40</v>
       </c>
-      <c r="C42" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" s="159" t="str">
+      <c r="C42" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" s="154" t="str">
         <v>H2</v>
       </c>
-      <c r="E42" s="154" t="str">
+      <c r="E42" s="149" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F42" s="155" t="str">
+      <c r="F42" s="150" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MH2_Quote</v>
       </c>
-      <c r="G42" s="155" t="str">
+      <c r="G42" s="150" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MH2ConvAdj_Quote</v>
       </c>
-      <c r="H42" s="155" t="str">
+      <c r="H42" s="150" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MH2</v>
       </c>
-      <c r="I42" s="160" t="str">
+      <c r="I42" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MH2#0000</v>
       </c>
-      <c r="J42" s="141" t="str">
+      <c r="J42" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
         <v/>
       </c>
-      <c r="K42" s="129"/>
+      <c r="K42" s="124"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="152"/>
-      <c r="B43" s="136">
+      <c r="A43" s="147"/>
+      <c r="B43" s="131">
         <v>41</v>
       </c>
-      <c r="C43" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" s="159" t="str">
+      <c r="C43" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="154" t="str">
         <v>M2</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="149" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F43" s="155" t="str">
+      <c r="F43" s="150" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MM2_Quote</v>
       </c>
-      <c r="G43" s="155" t="str">
+      <c r="G43" s="150" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MM2ConvAdj_Quote</v>
       </c>
-      <c r="H43" s="155" t="str">
+      <c r="H43" s="150" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MM2</v>
       </c>
-      <c r="I43" s="160" t="str">
+      <c r="I43" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MM2#0000</v>
       </c>
-      <c r="J43" s="141" t="str">
+      <c r="J43" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
         <v/>
       </c>
-      <c r="K43" s="129"/>
+      <c r="K43" s="124"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="152"/>
-      <c r="B44" s="136">
+      <c r="A44" s="147"/>
+      <c r="B44" s="131">
         <v>42</v>
       </c>
-      <c r="C44" s="159" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" s="159" t="str">
+      <c r="C44" s="154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="154" t="str">
         <v>U2</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="149" t="str">
         <f t="shared" si="4"/>
         <v>UsdLibor3M</v>
       </c>
-      <c r="F44" s="155" t="str">
+      <c r="F44" s="150" t="str">
         <f t="shared" si="5"/>
         <v>USDFUT3MU2_Quote</v>
       </c>
-      <c r="G44" s="155" t="str">
+      <c r="G44" s="150" t="str">
         <f t="shared" si="6"/>
         <v>USDFUT3MU2ConvAdj_Quote</v>
       </c>
-      <c r="H44" s="155" t="str">
+      <c r="H44" s="150" t="str">
         <f t="shared" si="7"/>
         <v>USD_YC3MRH_FUT3MU2</v>
       </c>
-      <c r="I44" s="160" t="str">
+      <c r="I44" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
         <v>USD_YC3MRH_FUT3MU2#0000</v>
       </c>
-      <c r="J44" s="141" t="str">
+      <c r="J44" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
         <v/>
       </c>
-      <c r="K44" s="129"/>
+      <c r="K44" s="124"/>
     </row>
     <row r="45" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="161"/>
-      <c r="B45" s="162"/>
-      <c r="C45" s="162"/>
-      <c r="D45" s="162"/>
-      <c r="E45" s="162"/>
-      <c r="F45" s="162"/>
-      <c r="G45" s="162"/>
-      <c r="H45" s="162"/>
-      <c r="I45" s="162"/>
-      <c r="J45" s="162"/>
-      <c r="K45" s="144"/>
+      <c r="A45" s="156"/>
+      <c r="B45" s="157"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="157"/>
+      <c r="I45" s="157"/>
+      <c r="J45" s="157"/>
+      <c r="K45" s="139"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14723,33 +14593,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="166"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="161"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="131"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
       <c r="J2" s="89" t="s">
         <v>105</v>
       </c>
@@ -14761,2185 +14631,2185 @@
         <f>Discounting</f>
         <v>USDON</v>
       </c>
-      <c r="M2" s="127"/>
-      <c r="N2" s="167"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="162"/>
     </row>
     <row r="3" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="131"/>
-      <c r="B3" s="132" t="s">
+      <c r="A3" s="126"/>
+      <c r="B3" s="127" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="132" t="s">
+      <c r="G3" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="132" t="s">
+      <c r="H3" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="132" t="s">
+      <c r="J3" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="K3" s="168" t="str">
+      <c r="K3" s="163" t="str">
         <f>K2&amp;"_Swaps.xml"</f>
         <v>USD_YC3MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="169" t="str">
+      <c r="L3" s="164" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="M3" s="170" t="str">
+      <c r="M3" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
-      <c r="N3" s="167"/>
+      <c r="N3" s="162"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="126"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="171" t="str">
+      <c r="A4" s="121"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="166" t="str">
         <f>$K$2&amp;"_"&amp;$D6&amp;$E6&amp;"_"&amp;FamilyName&amp;$J$2</f>
         <v>USD_YC3MRH_AM3L_Libor3M</v>
       </c>
-      <c r="L4" s="172" t="str">
+      <c r="L4" s="167" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
         <v>USD_YC3MRH_AM3L_Libor3M#0000</v>
       </c>
-      <c r="M4" s="173" t="str">
+      <c r="M4" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
         <v/>
       </c>
-      <c r="N4" s="167"/>
+      <c r="N4" s="162"/>
     </row>
     <row r="5" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="126"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="167"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="162"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="131"/>
-      <c r="B6" s="174" t="s">
+      <c r="A6" s="126"/>
+      <c r="B6" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="175" t="s">
+      <c r="C6" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="174" t="str">
+      <c r="D6" s="169" t="str">
         <f t="array" ref="D6:D42">VLOOKUP(Currency,Conventions,2)</f>
         <v>AM</v>
       </c>
-      <c r="E6" s="174" t="str">
+      <c r="E6" s="169" t="str">
         <f t="array" ref="E6:E42">VLOOKUP(Currency,Conventions,3)</f>
         <v>3L</v>
       </c>
-      <c r="F6" s="174" t="str">
+      <c r="F6" s="169" t="str">
         <f t="shared" ref="F6:F42" si="0">IF(UPPER(LEFT($D6))="A","Annual",IF(UPPER(LEFT($D6))="S","Semiannual","--"))</f>
         <v>Annual</v>
       </c>
-      <c r="G6" s="159" t="s">
+      <c r="G6" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="159" t="str">
+      <c r="H6" s="154" t="str">
         <f t="shared" ref="H6:H42" si="1">IF(UPPER(RIGHT($D6))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D6))="M",MoneyMarketDayCounter,"--"))</f>
         <v>Actual/360</v>
       </c>
-      <c r="I6" s="176">
-        <v>0</v>
-      </c>
-      <c r="J6" s="177" t="str">
+      <c r="I6" s="171">
+        <v>0</v>
+      </c>
+      <c r="J6" s="172" t="str">
         <f t="shared" ref="J6:J42" si="2">Currency&amp;$D6&amp;$E6&amp;$C6&amp;"_Quote"</f>
         <v>USDAM3L1Y_Quote</v>
       </c>
-      <c r="K6" s="178" t="str">
+      <c r="K6" s="173" t="str">
         <f t="shared" ref="K6:K42" si="3">$K$2&amp;"_"&amp;$D6&amp;$E6&amp;$C6</f>
         <v>USD_YC3MRH_AM3L1Y</v>
       </c>
-      <c r="L6" s="179" t="str">
+      <c r="L6" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L1Y#0000</v>
       </c>
-      <c r="M6" s="170" t="str">
+      <c r="M6" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
-      <c r="N6" s="167"/>
-      <c r="P6" s="180" t="s">
+      <c r="N6" s="162"/>
+      <c r="P6" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="Q6" s="181" t="s">
+      <c r="Q6" s="176" t="s">
         <v>99</v>
       </c>
-      <c r="R6" s="182" t="s">
+      <c r="R6" s="177" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="131"/>
-      <c r="B7" s="174" t="s">
+      <c r="A7" s="126"/>
+      <c r="B7" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="174" t="str">
+      <c r="D7" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E7" s="174" t="str">
+      <c r="E7" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F7" s="174" t="str">
+      <c r="F7" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="154" t="str">
+      <c r="H7" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I7" s="176">
-        <v>0</v>
-      </c>
-      <c r="J7" s="183" t="str">
+      <c r="I7" s="171">
+        <v>0</v>
+      </c>
+      <c r="J7" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L15M_Quote</v>
       </c>
-      <c r="K7" s="178" t="str">
+      <c r="K7" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L15M</v>
       </c>
-      <c r="L7" s="179" t="str">
+      <c r="L7" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L15M#0000</v>
       </c>
-      <c r="M7" s="170" t="str">
+      <c r="M7" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
-      <c r="N7" s="167"/>
-      <c r="P7" s="184" t="s">
+      <c r="N7" s="162"/>
+      <c r="P7" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="Q7" s="185" t="s">
+      <c r="Q7" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="R7" s="186" t="s">
+      <c r="R7" s="181" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="131"/>
-      <c r="B8" s="174" t="s">
+      <c r="A8" s="126"/>
+      <c r="B8" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="170" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="174" t="str">
+      <c r="D8" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E8" s="174" t="str">
+      <c r="E8" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F8" s="174" t="str">
+      <c r="F8" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G8" s="154" t="s">
+      <c r="G8" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="154" t="str">
+      <c r="H8" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I8" s="176">
-        <v>0</v>
-      </c>
-      <c r="J8" s="183" t="str">
+      <c r="I8" s="171">
+        <v>0</v>
+      </c>
+      <c r="J8" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L18M_Quote</v>
       </c>
-      <c r="K8" s="178" t="str">
+      <c r="K8" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L18M</v>
       </c>
-      <c r="L8" s="179" t="str">
+      <c r="L8" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L18M#0000</v>
       </c>
-      <c r="M8" s="170" t="str">
+      <c r="M8" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
-      <c r="N8" s="167"/>
-      <c r="P8" s="184" t="s">
+      <c r="N8" s="162"/>
+      <c r="P8" s="179" t="s">
         <v>97</v>
       </c>
-      <c r="Q8" s="185" t="s">
+      <c r="Q8" s="180" t="s">
         <v>91</v>
       </c>
-      <c r="R8" s="186" t="s">
+      <c r="R8" s="181" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="131"/>
-      <c r="B9" s="174" t="s">
+      <c r="A9" s="126"/>
+      <c r="B9" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="175" t="s">
+      <c r="C9" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="174" t="str">
+      <c r="D9" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E9" s="174" t="str">
+      <c r="E9" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F9" s="174" t="str">
+      <c r="F9" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G9" s="154" t="s">
+      <c r="G9" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H9" s="154" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I9" s="176">
-        <v>0</v>
-      </c>
-      <c r="J9" s="183" t="str">
+      <c r="I9" s="171">
+        <v>0</v>
+      </c>
+      <c r="J9" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L21M_Quote</v>
       </c>
-      <c r="K9" s="178" t="str">
+      <c r="K9" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L21M</v>
       </c>
-      <c r="L9" s="179" t="str">
+      <c r="L9" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L21M#0000</v>
       </c>
-      <c r="M9" s="170" t="str">
+      <c r="M9" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
-      <c r="N9" s="167"/>
-      <c r="P9" s="184" t="s">
+      <c r="N9" s="162"/>
+      <c r="P9" s="179" t="s">
         <v>94</v>
       </c>
-      <c r="Q9" s="185" t="s">
+      <c r="Q9" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="R9" s="186" t="s">
+      <c r="R9" s="181" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="131"/>
-      <c r="B10" s="174" t="s">
+      <c r="A10" s="126"/>
+      <c r="B10" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="187" t="s">
+      <c r="C10" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="174" t="str">
+      <c r="D10" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E10" s="174" t="str">
+      <c r="E10" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F10" s="174" t="str">
+      <c r="F10" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H10" s="154" t="str">
+      <c r="H10" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I10" s="176">
-        <v>0</v>
-      </c>
-      <c r="J10" s="183" t="str">
+      <c r="I10" s="171">
+        <v>0</v>
+      </c>
+      <c r="J10" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L2Y_Quote</v>
       </c>
-      <c r="K10" s="178" t="str">
+      <c r="K10" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L2Y</v>
       </c>
-      <c r="L10" s="179" t="str">
+      <c r="L10" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L2Y#0000</v>
       </c>
-      <c r="M10" s="170" t="str">
+      <c r="M10" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
-      <c r="N10" s="167"/>
-      <c r="P10" s="188" t="s">
+      <c r="N10" s="162"/>
+      <c r="P10" s="183" t="s">
         <v>92</v>
       </c>
-      <c r="Q10" s="189" t="s">
+      <c r="Q10" s="184" t="s">
         <v>91</v>
       </c>
-      <c r="R10" s="190" t="s">
+      <c r="R10" s="185" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="131"/>
-      <c r="B11" s="174" t="s">
+      <c r="A11" s="126"/>
+      <c r="B11" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="187" t="s">
+      <c r="C11" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="174" t="str">
+      <c r="D11" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E11" s="174" t="str">
+      <c r="E11" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F11" s="174" t="str">
+      <c r="F11" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G11" s="154" t="s">
+      <c r="G11" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="154" t="str">
+      <c r="H11" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I11" s="176">
-        <v>0</v>
-      </c>
-      <c r="J11" s="183" t="str">
+      <c r="I11" s="171">
+        <v>0</v>
+      </c>
+      <c r="J11" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L3Y_Quote</v>
       </c>
-      <c r="K11" s="178" t="str">
+      <c r="K11" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L3Y</v>
       </c>
-      <c r="L11" s="179" t="str">
+      <c r="L11" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L3Y#0000</v>
       </c>
-      <c r="M11" s="170" t="str">
+      <c r="M11" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
-      <c r="N11" s="167"/>
+      <c r="N11" s="162"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="131"/>
-      <c r="B12" s="174" t="s">
+      <c r="A12" s="126"/>
+      <c r="B12" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="187" t="s">
+      <c r="C12" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="174" t="str">
+      <c r="D12" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E12" s="174" t="str">
+      <c r="E12" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F12" s="174" t="str">
+      <c r="F12" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G12" s="154" t="s">
+      <c r="G12" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="154" t="str">
+      <c r="H12" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I12" s="176">
-        <v>0</v>
-      </c>
-      <c r="J12" s="183" t="str">
+      <c r="I12" s="171">
+        <v>0</v>
+      </c>
+      <c r="J12" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L4Y_Quote</v>
       </c>
-      <c r="K12" s="178" t="str">
+      <c r="K12" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L4Y</v>
       </c>
-      <c r="L12" s="179" t="str">
+      <c r="L12" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L4Y#0000</v>
       </c>
-      <c r="M12" s="170" t="str">
+      <c r="M12" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
-      <c r="N12" s="167"/>
+      <c r="N12" s="162"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="131"/>
-      <c r="B13" s="174" t="s">
+      <c r="A13" s="126"/>
+      <c r="B13" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="187" t="s">
+      <c r="C13" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="174" t="str">
+      <c r="D13" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E13" s="174" t="str">
+      <c r="E13" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F13" s="174" t="str">
+      <c r="F13" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G13" s="154" t="s">
+      <c r="G13" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="154" t="str">
+      <c r="H13" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I13" s="176">
-        <v>0</v>
-      </c>
-      <c r="J13" s="183" t="str">
+      <c r="I13" s="171">
+        <v>0</v>
+      </c>
+      <c r="J13" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L5Y_Quote</v>
       </c>
-      <c r="K13" s="178" t="str">
+      <c r="K13" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L5Y</v>
       </c>
-      <c r="L13" s="179" t="str">
+      <c r="L13" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L5Y#0000</v>
       </c>
-      <c r="M13" s="170" t="str">
+      <c r="M13" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
-      <c r="N13" s="167"/>
+      <c r="N13" s="162"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="131"/>
-      <c r="B14" s="174" t="s">
+      <c r="A14" s="126"/>
+      <c r="B14" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="187" t="s">
+      <c r="C14" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="174" t="str">
+      <c r="D14" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E14" s="174" t="str">
+      <c r="E14" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F14" s="174" t="str">
+      <c r="F14" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G14" s="154" t="s">
+      <c r="G14" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="154" t="str">
+      <c r="H14" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I14" s="176">
-        <v>0</v>
-      </c>
-      <c r="J14" s="183" t="str">
+      <c r="I14" s="171">
+        <v>0</v>
+      </c>
+      <c r="J14" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L6Y_Quote</v>
       </c>
-      <c r="K14" s="178" t="str">
+      <c r="K14" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L6Y</v>
       </c>
-      <c r="L14" s="179" t="str">
+      <c r="L14" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L6Y#0000</v>
       </c>
-      <c r="M14" s="170" t="str">
+      <c r="M14" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
-      <c r="N14" s="167"/>
+      <c r="N14" s="162"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="131"/>
-      <c r="B15" s="174" t="s">
+      <c r="A15" s="126"/>
+      <c r="B15" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="187" t="s">
+      <c r="C15" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="174" t="str">
+      <c r="D15" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E15" s="174" t="str">
+      <c r="E15" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F15" s="174" t="str">
+      <c r="F15" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G15" s="154" t="s">
+      <c r="G15" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H15" s="154" t="str">
+      <c r="H15" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I15" s="176">
-        <v>0</v>
-      </c>
-      <c r="J15" s="183" t="str">
+      <c r="I15" s="171">
+        <v>0</v>
+      </c>
+      <c r="J15" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L7Y_Quote</v>
       </c>
-      <c r="K15" s="178" t="str">
+      <c r="K15" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L7Y</v>
       </c>
-      <c r="L15" s="179" t="str">
+      <c r="L15" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L7Y#0000</v>
       </c>
-      <c r="M15" s="170" t="str">
+      <c r="M15" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
-      <c r="N15" s="167"/>
+      <c r="N15" s="162"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="131"/>
-      <c r="B16" s="174" t="s">
+      <c r="A16" s="126"/>
+      <c r="B16" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="187" t="s">
+      <c r="C16" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="174" t="str">
+      <c r="D16" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E16" s="174" t="str">
+      <c r="E16" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F16" s="174" t="str">
+      <c r="F16" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G16" s="154" t="s">
+      <c r="G16" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="154" t="str">
+      <c r="H16" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I16" s="176">
-        <v>0</v>
-      </c>
-      <c r="J16" s="183" t="str">
+      <c r="I16" s="171">
+        <v>0</v>
+      </c>
+      <c r="J16" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L8Y_Quote</v>
       </c>
-      <c r="K16" s="178" t="str">
+      <c r="K16" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L8Y</v>
       </c>
-      <c r="L16" s="179" t="str">
+      <c r="L16" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L8Y#0000</v>
       </c>
-      <c r="M16" s="170" t="str">
+      <c r="M16" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
-      <c r="N16" s="167"/>
+      <c r="N16" s="162"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="131"/>
-      <c r="B17" s="174" t="s">
+      <c r="A17" s="126"/>
+      <c r="B17" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="187" t="s">
+      <c r="C17" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="174" t="str">
+      <c r="D17" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E17" s="174" t="str">
+      <c r="E17" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F17" s="174" t="str">
+      <c r="F17" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G17" s="154" t="s">
+      <c r="G17" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="154" t="str">
+      <c r="H17" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I17" s="176">
-        <v>0</v>
-      </c>
-      <c r="J17" s="183" t="str">
+      <c r="I17" s="171">
+        <v>0</v>
+      </c>
+      <c r="J17" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L9Y_Quote</v>
       </c>
-      <c r="K17" s="178" t="str">
+      <c r="K17" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L9Y</v>
       </c>
-      <c r="L17" s="179" t="str">
+      <c r="L17" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L9Y#0000</v>
       </c>
-      <c r="M17" s="170" t="str">
+      <c r="M17" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
         <v/>
       </c>
-      <c r="N17" s="167"/>
+      <c r="N17" s="162"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="131"/>
-      <c r="B18" s="174" t="s">
+      <c r="A18" s="126"/>
+      <c r="B18" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="174" t="str">
+      <c r="D18" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E18" s="174" t="str">
+      <c r="E18" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F18" s="174" t="str">
+      <c r="F18" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G18" s="154" t="s">
+      <c r="G18" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="154" t="str">
+      <c r="H18" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I18" s="176">
-        <v>0</v>
-      </c>
-      <c r="J18" s="183" t="str">
+      <c r="I18" s="171">
+        <v>0</v>
+      </c>
+      <c r="J18" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L10Y_Quote</v>
       </c>
-      <c r="K18" s="178" t="str">
+      <c r="K18" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L10Y</v>
       </c>
-      <c r="L18" s="179" t="str">
+      <c r="L18" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L10Y#0000</v>
       </c>
-      <c r="M18" s="170" t="str">
+      <c r="M18" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
         <v/>
       </c>
-      <c r="N18" s="167"/>
+      <c r="N18" s="162"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="131"/>
-      <c r="B19" s="174" t="s">
+      <c r="A19" s="126"/>
+      <c r="B19" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="174" t="str">
+      <c r="D19" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E19" s="174" t="str">
+      <c r="E19" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F19" s="174" t="str">
+      <c r="F19" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G19" s="154" t="s">
+      <c r="G19" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="154" t="str">
+      <c r="H19" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I19" s="176">
-        <v>0</v>
-      </c>
-      <c r="J19" s="183" t="str">
+      <c r="I19" s="171">
+        <v>0</v>
+      </c>
+      <c r="J19" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L11Y_Quote</v>
       </c>
-      <c r="K19" s="178" t="str">
+      <c r="K19" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L11Y</v>
       </c>
-      <c r="L19" s="179" t="str">
+      <c r="L19" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L11Y#0000</v>
       </c>
-      <c r="M19" s="170" t="str">
+      <c r="M19" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
         <v/>
       </c>
-      <c r="N19" s="167"/>
+      <c r="N19" s="162"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="131"/>
-      <c r="B20" s="174" t="s">
+      <c r="A20" s="126"/>
+      <c r="B20" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="187" t="s">
+      <c r="C20" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="174" t="str">
+      <c r="D20" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E20" s="174" t="str">
+      <c r="E20" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F20" s="174" t="str">
+      <c r="F20" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G20" s="154" t="s">
+      <c r="G20" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H20" s="154" t="str">
+      <c r="H20" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I20" s="176">
-        <v>0</v>
-      </c>
-      <c r="J20" s="183" t="str">
+      <c r="I20" s="171">
+        <v>0</v>
+      </c>
+      <c r="J20" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L12Y_Quote</v>
       </c>
-      <c r="K20" s="178" t="str">
+      <c r="K20" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L12Y</v>
       </c>
-      <c r="L20" s="179" t="str">
+      <c r="L20" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L12Y#0000</v>
       </c>
-      <c r="M20" s="170" t="str">
+      <c r="M20" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
         <v/>
       </c>
-      <c r="N20" s="167"/>
+      <c r="N20" s="162"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="131"/>
-      <c r="B21" s="174" t="s">
+      <c r="A21" s="126"/>
+      <c r="B21" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="187" t="s">
+      <c r="C21" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="174" t="str">
+      <c r="D21" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E21" s="174" t="str">
+      <c r="E21" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F21" s="174" t="str">
+      <c r="F21" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G21" s="154" t="s">
+      <c r="G21" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H21" s="154" t="str">
+      <c r="H21" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I21" s="176">
-        <v>0</v>
-      </c>
-      <c r="J21" s="183" t="str">
+      <c r="I21" s="171">
+        <v>0</v>
+      </c>
+      <c r="J21" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L13Y_Quote</v>
       </c>
-      <c r="K21" s="178" t="str">
+      <c r="K21" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L13Y</v>
       </c>
-      <c r="L21" s="179" t="str">
+      <c r="L21" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L13Y#0000</v>
       </c>
-      <c r="M21" s="170" t="str">
+      <c r="M21" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
         <v/>
       </c>
-      <c r="N21" s="167"/>
+      <c r="N21" s="162"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="131"/>
-      <c r="B22" s="174" t="s">
+      <c r="A22" s="126"/>
+      <c r="B22" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="187" t="s">
+      <c r="C22" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="174" t="str">
+      <c r="D22" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E22" s="174" t="str">
+      <c r="E22" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F22" s="174" t="str">
+      <c r="F22" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G22" s="154" t="s">
+      <c r="G22" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="154" t="str">
+      <c r="H22" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I22" s="176">
-        <v>0</v>
-      </c>
-      <c r="J22" s="183" t="str">
+      <c r="I22" s="171">
+        <v>0</v>
+      </c>
+      <c r="J22" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L14Y_Quote</v>
       </c>
-      <c r="K22" s="178" t="str">
+      <c r="K22" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L14Y</v>
       </c>
-      <c r="L22" s="179" t="str">
+      <c r="L22" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L14Y#0000</v>
       </c>
-      <c r="M22" s="170" t="str">
+      <c r="M22" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
         <v/>
       </c>
-      <c r="N22" s="167"/>
+      <c r="N22" s="162"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="131"/>
-      <c r="B23" s="174" t="s">
+      <c r="A23" s="126"/>
+      <c r="B23" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="187" t="s">
+      <c r="C23" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="174" t="str">
+      <c r="D23" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E23" s="174" t="str">
+      <c r="E23" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F23" s="174" t="str">
+      <c r="F23" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G23" s="154" t="s">
+      <c r="G23" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I23" s="176">
-        <v>0</v>
-      </c>
-      <c r="J23" s="183" t="str">
+      <c r="I23" s="171">
+        <v>0</v>
+      </c>
+      <c r="J23" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L15Y_Quote</v>
       </c>
-      <c r="K23" s="178" t="str">
+      <c r="K23" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L15Y</v>
       </c>
-      <c r="L23" s="179" t="str">
+      <c r="L23" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L15Y#0000</v>
       </c>
-      <c r="M23" s="170" t="str">
+      <c r="M23" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
         <v/>
       </c>
-      <c r="N23" s="167"/>
+      <c r="N23" s="162"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="131"/>
-      <c r="B24" s="174" t="s">
+      <c r="A24" s="126"/>
+      <c r="B24" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="187" t="s">
+      <c r="C24" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="174" t="str">
+      <c r="D24" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E24" s="174" t="str">
+      <c r="E24" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F24" s="174" t="str">
+      <c r="F24" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G24" s="154" t="s">
+      <c r="G24" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="154" t="str">
+      <c r="H24" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I24" s="176">
-        <v>0</v>
-      </c>
-      <c r="J24" s="183" t="str">
+      <c r="I24" s="171">
+        <v>0</v>
+      </c>
+      <c r="J24" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L16Y_Quote</v>
       </c>
-      <c r="K24" s="178" t="str">
+      <c r="K24" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L16Y</v>
       </c>
-      <c r="L24" s="179" t="str">
+      <c r="L24" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L16Y#0000</v>
       </c>
-      <c r="M24" s="170" t="str">
+      <c r="M24" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
         <v/>
       </c>
-      <c r="N24" s="167"/>
+      <c r="N24" s="162"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="131"/>
-      <c r="B25" s="174" t="s">
+      <c r="A25" s="126"/>
+      <c r="B25" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="187" t="s">
+      <c r="C25" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="174" t="str">
+      <c r="D25" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E25" s="174" t="str">
+      <c r="E25" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F25" s="174" t="str">
+      <c r="F25" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G25" s="154" t="s">
+      <c r="G25" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H25" s="154" t="str">
+      <c r="H25" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I25" s="176">
-        <v>0</v>
-      </c>
-      <c r="J25" s="183" t="str">
+      <c r="I25" s="171">
+        <v>0</v>
+      </c>
+      <c r="J25" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L17Y_Quote</v>
       </c>
-      <c r="K25" s="178" t="str">
+      <c r="K25" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L17Y</v>
       </c>
-      <c r="L25" s="179" t="str">
+      <c r="L25" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L17Y#0000</v>
       </c>
-      <c r="M25" s="170" t="str">
+      <c r="M25" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
         <v/>
       </c>
-      <c r="N25" s="167"/>
+      <c r="N25" s="162"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="131"/>
-      <c r="B26" s="174" t="s">
+      <c r="A26" s="126"/>
+      <c r="B26" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="187" t="s">
+      <c r="C26" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="174" t="str">
+      <c r="D26" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E26" s="174" t="str">
+      <c r="E26" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F26" s="174" t="str">
+      <c r="F26" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G26" s="154" t="s">
+      <c r="G26" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="154" t="str">
+      <c r="H26" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I26" s="176">
-        <v>0</v>
-      </c>
-      <c r="J26" s="183" t="str">
+      <c r="I26" s="171">
+        <v>0</v>
+      </c>
+      <c r="J26" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L18Y_Quote</v>
       </c>
-      <c r="K26" s="178" t="str">
+      <c r="K26" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L18Y</v>
       </c>
-      <c r="L26" s="179" t="str">
+      <c r="L26" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L18Y#0000</v>
       </c>
-      <c r="M26" s="170" t="str">
+      <c r="M26" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
         <v/>
       </c>
-      <c r="N26" s="167"/>
+      <c r="N26" s="162"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="131"/>
-      <c r="B27" s="174" t="s">
+      <c r="A27" s="126"/>
+      <c r="B27" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="187" t="s">
+      <c r="C27" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="174" t="str">
+      <c r="D27" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E27" s="174" t="str">
+      <c r="E27" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F27" s="174" t="str">
+      <c r="F27" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G27" s="154" t="s">
+      <c r="G27" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H27" s="154" t="str">
+      <c r="H27" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I27" s="176">
-        <v>0</v>
-      </c>
-      <c r="J27" s="183" t="str">
+      <c r="I27" s="171">
+        <v>0</v>
+      </c>
+      <c r="J27" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L19Y_Quote</v>
       </c>
-      <c r="K27" s="178" t="str">
+      <c r="K27" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L19Y</v>
       </c>
-      <c r="L27" s="179" t="str">
+      <c r="L27" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L19Y#0000</v>
       </c>
-      <c r="M27" s="170" t="str">
+      <c r="M27" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
         <v/>
       </c>
-      <c r="N27" s="167"/>
+      <c r="N27" s="162"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="131"/>
-      <c r="B28" s="174" t="s">
+      <c r="A28" s="126"/>
+      <c r="B28" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="187" t="s">
+      <c r="C28" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="174" t="str">
+      <c r="D28" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E28" s="174" t="str">
+      <c r="E28" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F28" s="174" t="str">
+      <c r="F28" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G28" s="154" t="s">
+      <c r="G28" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H28" s="154" t="str">
+      <c r="H28" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I28" s="176">
-        <v>0</v>
-      </c>
-      <c r="J28" s="183" t="str">
+      <c r="I28" s="171">
+        <v>0</v>
+      </c>
+      <c r="J28" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L20Y_Quote</v>
       </c>
-      <c r="K28" s="178" t="str">
+      <c r="K28" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L20Y</v>
       </c>
-      <c r="L28" s="179" t="str">
+      <c r="L28" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L20Y#0000</v>
       </c>
-      <c r="M28" s="170" t="str">
+      <c r="M28" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
         <v/>
       </c>
-      <c r="N28" s="167"/>
+      <c r="N28" s="162"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="131"/>
-      <c r="B29" s="174" t="s">
+      <c r="A29" s="126"/>
+      <c r="B29" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="187" t="s">
+      <c r="C29" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="174" t="str">
+      <c r="D29" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E29" s="174" t="str">
+      <c r="E29" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F29" s="174" t="str">
+      <c r="F29" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G29" s="154" t="s">
+      <c r="G29" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H29" s="154" t="str">
+      <c r="H29" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I29" s="176">
-        <v>0</v>
-      </c>
-      <c r="J29" s="183" t="str">
+      <c r="I29" s="171">
+        <v>0</v>
+      </c>
+      <c r="J29" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L21Y_Quote</v>
       </c>
-      <c r="K29" s="178" t="str">
+      <c r="K29" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L21Y</v>
       </c>
-      <c r="L29" s="179" t="str">
+      <c r="L29" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L21Y#0000</v>
       </c>
-      <c r="M29" s="170" t="str">
+      <c r="M29" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
         <v/>
       </c>
-      <c r="N29" s="167"/>
+      <c r="N29" s="162"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="131"/>
-      <c r="B30" s="174" t="s">
+      <c r="A30" s="126"/>
+      <c r="B30" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="187" t="s">
+      <c r="C30" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="174" t="str">
+      <c r="D30" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E30" s="174" t="str">
+      <c r="E30" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F30" s="174" t="str">
+      <c r="F30" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G30" s="154" t="s">
+      <c r="G30" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="154" t="str">
+      <c r="H30" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I30" s="176">
-        <v>0</v>
-      </c>
-      <c r="J30" s="183" t="str">
+      <c r="I30" s="171">
+        <v>0</v>
+      </c>
+      <c r="J30" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L22Y_Quote</v>
       </c>
-      <c r="K30" s="178" t="str">
+      <c r="K30" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L22Y</v>
       </c>
-      <c r="L30" s="179" t="str">
+      <c r="L30" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L22Y#0000</v>
       </c>
-      <c r="M30" s="170" t="str">
+      <c r="M30" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
         <v/>
       </c>
-      <c r="N30" s="167"/>
+      <c r="N30" s="162"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="131"/>
-      <c r="B31" s="174" t="s">
+      <c r="A31" s="126"/>
+      <c r="B31" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="187" t="s">
+      <c r="C31" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="174" t="str">
+      <c r="D31" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E31" s="174" t="str">
+      <c r="E31" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F31" s="174" t="str">
+      <c r="F31" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G31" s="154" t="s">
+      <c r="G31" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="154" t="str">
+      <c r="H31" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I31" s="176">
-        <v>0</v>
-      </c>
-      <c r="J31" s="183" t="str">
+      <c r="I31" s="171">
+        <v>0</v>
+      </c>
+      <c r="J31" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L23Y_Quote</v>
       </c>
-      <c r="K31" s="178" t="str">
+      <c r="K31" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L23Y</v>
       </c>
-      <c r="L31" s="179" t="str">
+      <c r="L31" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L23Y#0000</v>
       </c>
-      <c r="M31" s="170" t="str">
+      <c r="M31" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
         <v/>
       </c>
-      <c r="N31" s="167"/>
+      <c r="N31" s="162"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="131"/>
-      <c r="B32" s="174" t="s">
+      <c r="A32" s="126"/>
+      <c r="B32" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="187" t="s">
+      <c r="C32" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="174" t="str">
+      <c r="D32" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E32" s="174" t="str">
+      <c r="E32" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F32" s="174" t="str">
+      <c r="F32" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G32" s="154" t="s">
+      <c r="G32" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="154" t="str">
+      <c r="H32" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I32" s="176">
-        <v>0</v>
-      </c>
-      <c r="J32" s="183" t="str">
+      <c r="I32" s="171">
+        <v>0</v>
+      </c>
+      <c r="J32" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L24Y_Quote</v>
       </c>
-      <c r="K32" s="178" t="str">
+      <c r="K32" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L24Y</v>
       </c>
-      <c r="L32" s="179" t="str">
+      <c r="L32" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L24Y#0000</v>
       </c>
-      <c r="M32" s="170" t="str">
+      <c r="M32" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
         <v/>
       </c>
-      <c r="N32" s="167"/>
+      <c r="N32" s="162"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="131"/>
-      <c r="B33" s="174" t="s">
+      <c r="A33" s="126"/>
+      <c r="B33" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="187" t="s">
+      <c r="C33" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="174" t="str">
+      <c r="D33" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E33" s="174" t="str">
+      <c r="E33" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F33" s="174" t="str">
+      <c r="F33" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G33" s="154" t="s">
+      <c r="G33" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H33" s="154" t="str">
+      <c r="H33" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I33" s="176">
-        <v>0</v>
-      </c>
-      <c r="J33" s="183" t="str">
+      <c r="I33" s="171">
+        <v>0</v>
+      </c>
+      <c r="J33" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L25Y_Quote</v>
       </c>
-      <c r="K33" s="178" t="str">
+      <c r="K33" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L25Y</v>
       </c>
-      <c r="L33" s="179" t="str">
+      <c r="L33" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L25Y#0000</v>
       </c>
-      <c r="M33" s="170" t="str">
+      <c r="M33" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
         <v/>
       </c>
-      <c r="N33" s="167"/>
+      <c r="N33" s="162"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="131"/>
-      <c r="B34" s="174" t="s">
+      <c r="A34" s="126"/>
+      <c r="B34" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="187" t="s">
+      <c r="C34" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="174" t="str">
+      <c r="D34" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E34" s="174" t="str">
+      <c r="E34" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F34" s="174" t="str">
+      <c r="F34" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G34" s="154" t="s">
+      <c r="G34" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H34" s="154" t="str">
+      <c r="H34" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I34" s="176">
-        <v>0</v>
-      </c>
-      <c r="J34" s="183" t="str">
+      <c r="I34" s="171">
+        <v>0</v>
+      </c>
+      <c r="J34" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L26Y_Quote</v>
       </c>
-      <c r="K34" s="178" t="str">
+      <c r="K34" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L26Y</v>
       </c>
-      <c r="L34" s="179" t="str">
+      <c r="L34" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L26Y#0000</v>
       </c>
-      <c r="M34" s="170" t="str">
+      <c r="M34" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
         <v/>
       </c>
-      <c r="N34" s="167"/>
+      <c r="N34" s="162"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="131"/>
-      <c r="B35" s="174" t="s">
+      <c r="A35" s="126"/>
+      <c r="B35" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="187" t="s">
+      <c r="C35" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="174" t="str">
+      <c r="D35" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E35" s="174" t="str">
+      <c r="E35" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F35" s="174" t="str">
+      <c r="F35" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G35" s="154" t="s">
+      <c r="G35" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H35" s="154" t="str">
+      <c r="H35" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I35" s="176">
-        <v>0</v>
-      </c>
-      <c r="J35" s="183" t="str">
+      <c r="I35" s="171">
+        <v>0</v>
+      </c>
+      <c r="J35" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L27Y_Quote</v>
       </c>
-      <c r="K35" s="178" t="str">
+      <c r="K35" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L27Y</v>
       </c>
-      <c r="L35" s="179" t="str">
+      <c r="L35" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L27Y#0000</v>
       </c>
-      <c r="M35" s="170" t="str">
+      <c r="M35" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
         <v/>
       </c>
-      <c r="N35" s="167"/>
+      <c r="N35" s="162"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="131"/>
-      <c r="B36" s="174" t="s">
+      <c r="A36" s="126"/>
+      <c r="B36" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="187" t="s">
+      <c r="C36" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="174" t="str">
+      <c r="D36" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E36" s="174" t="str">
+      <c r="E36" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F36" s="174" t="str">
+      <c r="F36" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G36" s="154" t="s">
+      <c r="G36" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H36" s="154" t="str">
+      <c r="H36" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I36" s="176">
-        <v>0</v>
-      </c>
-      <c r="J36" s="183" t="str">
+      <c r="I36" s="171">
+        <v>0</v>
+      </c>
+      <c r="J36" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L28Y_Quote</v>
       </c>
-      <c r="K36" s="178" t="str">
+      <c r="K36" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L28Y</v>
       </c>
-      <c r="L36" s="179" t="str">
+      <c r="L36" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L28Y#0000</v>
       </c>
-      <c r="M36" s="170" t="str">
+      <c r="M36" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
         <v/>
       </c>
-      <c r="N36" s="167"/>
+      <c r="N36" s="162"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="131"/>
-      <c r="B37" s="174" t="s">
+      <c r="A37" s="126"/>
+      <c r="B37" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="187" t="s">
+      <c r="C37" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="174" t="str">
+      <c r="D37" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E37" s="174" t="str">
+      <c r="E37" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F37" s="174" t="str">
+      <c r="F37" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G37" s="154" t="s">
+      <c r="G37" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H37" s="154" t="str">
+      <c r="H37" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I37" s="176">
-        <v>0</v>
-      </c>
-      <c r="J37" s="183" t="str">
+      <c r="I37" s="171">
+        <v>0</v>
+      </c>
+      <c r="J37" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L29Y_Quote</v>
       </c>
-      <c r="K37" s="178" t="str">
+      <c r="K37" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L29Y</v>
       </c>
-      <c r="L37" s="179" t="str">
+      <c r="L37" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L29Y#0000</v>
       </c>
-      <c r="M37" s="170" t="str">
+      <c r="M37" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
         <v/>
       </c>
-      <c r="N37" s="167"/>
+      <c r="N37" s="162"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="131"/>
-      <c r="B38" s="174" t="s">
+      <c r="A38" s="126"/>
+      <c r="B38" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="187" t="s">
+      <c r="C38" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="174" t="str">
+      <c r="D38" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E38" s="174" t="str">
+      <c r="E38" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F38" s="174" t="str">
+      <c r="F38" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G38" s="154" t="s">
+      <c r="G38" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I38" s="176">
-        <v>0</v>
-      </c>
-      <c r="J38" s="183" t="str">
+      <c r="I38" s="171">
+        <v>0</v>
+      </c>
+      <c r="J38" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L30Y_Quote</v>
       </c>
-      <c r="K38" s="178" t="str">
+      <c r="K38" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L30Y</v>
       </c>
-      <c r="L38" s="179" t="str">
+      <c r="L38" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L30Y#0000</v>
       </c>
-      <c r="M38" s="170" t="str">
+      <c r="M38" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
         <v/>
       </c>
-      <c r="N38" s="167"/>
+      <c r="N38" s="162"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="131"/>
-      <c r="B39" s="174" t="s">
+      <c r="A39" s="126"/>
+      <c r="B39" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="187" t="s">
+      <c r="C39" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="174" t="str">
+      <c r="D39" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E39" s="174" t="str">
+      <c r="E39" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F39" s="174" t="str">
+      <c r="F39" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G39" s="154" t="s">
+      <c r="G39" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H39" s="154" t="str">
+      <c r="H39" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I39" s="176">
-        <v>0</v>
-      </c>
-      <c r="J39" s="183" t="str">
+      <c r="I39" s="171">
+        <v>0</v>
+      </c>
+      <c r="J39" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L35Y_Quote</v>
       </c>
-      <c r="K39" s="178" t="str">
+      <c r="K39" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L35Y</v>
       </c>
-      <c r="L39" s="179" t="str">
+      <c r="L39" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L35Y#0000</v>
       </c>
-      <c r="M39" s="170" t="str">
+      <c r="M39" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
         <v/>
       </c>
-      <c r="N39" s="167"/>
+      <c r="N39" s="162"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="131"/>
-      <c r="B40" s="174" t="s">
+      <c r="A40" s="126"/>
+      <c r="B40" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="187" t="s">
+      <c r="C40" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="174" t="str">
+      <c r="D40" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E40" s="174" t="str">
+      <c r="E40" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F40" s="174" t="str">
+      <c r="F40" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G40" s="154" t="s">
+      <c r="G40" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H40" s="154" t="str">
+      <c r="H40" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I40" s="176">
-        <v>0</v>
-      </c>
-      <c r="J40" s="183" t="str">
+      <c r="I40" s="171">
+        <v>0</v>
+      </c>
+      <c r="J40" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L40Y_Quote</v>
       </c>
-      <c r="K40" s="178" t="str">
+      <c r="K40" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L40Y</v>
       </c>
-      <c r="L40" s="179" t="str">
+      <c r="L40" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L40Y#0000</v>
       </c>
-      <c r="M40" s="170" t="str">
+      <c r="M40" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
         <v/>
       </c>
-      <c r="N40" s="167"/>
+      <c r="N40" s="162"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="131"/>
-      <c r="B41" s="174" t="s">
+      <c r="A41" s="126"/>
+      <c r="B41" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="187" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="174" t="str">
+      <c r="C41" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E41" s="174" t="str">
+      <c r="E41" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F41" s="174" t="str">
+      <c r="F41" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G41" s="154" t="s">
+      <c r="G41" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="154" t="str">
+      <c r="H41" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I41" s="176">
-        <v>0</v>
-      </c>
-      <c r="J41" s="183" t="str">
+      <c r="I41" s="171">
+        <v>0</v>
+      </c>
+      <c r="J41" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L50Y_Quote</v>
       </c>
-      <c r="K41" s="178" t="str">
+      <c r="K41" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L50Y</v>
       </c>
-      <c r="L41" s="179" t="str">
+      <c r="L41" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L50Y#0000</v>
       </c>
-      <c r="M41" s="170" t="str">
+      <c r="M41" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
         <v/>
       </c>
-      <c r="N41" s="167"/>
+      <c r="N41" s="162"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="131"/>
-      <c r="B42" s="174" t="s">
+      <c r="A42" s="126"/>
+      <c r="B42" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="174" t="str">
+      <c r="C42" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="169" t="str">
         <v>AM</v>
       </c>
-      <c r="E42" s="174" t="str">
+      <c r="E42" s="169" t="str">
         <v>3L</v>
       </c>
-      <c r="F42" s="174" t="str">
+      <c r="F42" s="169" t="str">
         <f t="shared" si="0"/>
         <v>Annual</v>
       </c>
-      <c r="G42" s="154" t="s">
+      <c r="G42" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H42" s="154" t="str">
+      <c r="H42" s="149" t="str">
         <f t="shared" si="1"/>
         <v>Actual/360</v>
       </c>
-      <c r="I42" s="176">
-        <v>0</v>
-      </c>
-      <c r="J42" s="183" t="str">
+      <c r="I42" s="171">
+        <v>0</v>
+      </c>
+      <c r="J42" s="178" t="str">
         <f t="shared" si="2"/>
         <v>USDAM3L60Y_Quote</v>
       </c>
-      <c r="K42" s="178" t="str">
+      <c r="K42" s="173" t="str">
         <f t="shared" si="3"/>
         <v>USD_YC3MRH_AM3L60Y</v>
       </c>
-      <c r="L42" s="179" t="str">
+      <c r="L42" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_AM3L60Y#0000</v>
       </c>
-      <c r="M42" s="170" t="str">
+      <c r="M42" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
         <v/>
       </c>
-      <c r="N42" s="167"/>
+      <c r="N42" s="162"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="126"/>
-      <c r="B43" s="127"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="127"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="127"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="127"/>
-      <c r="J43" s="127"/>
-      <c r="K43" s="127"/>
-      <c r="L43" s="127"/>
-      <c r="M43" s="127"/>
-      <c r="N43" s="167"/>
+      <c r="A43" s="121"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="162"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="131"/>
-      <c r="B44" s="174" t="s">
+      <c r="A44" s="126"/>
+      <c r="B44" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="175"/>
-      <c r="D44" s="174" t="s">
+      <c r="C44" s="170"/>
+      <c r="D44" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="174">
+      <c r="E44" s="169">
         <v>12</v>
       </c>
-      <c r="F44" s="174" t="s">
+      <c r="F44" s="169" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="159" t="s">
+      <c r="G44" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="H44" s="159" t="s">
+      <c r="H44" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="I44" s="176">
-        <v>0</v>
-      </c>
-      <c r="J44" s="177" t="str">
+      <c r="I44" s="171">
+        <v>0</v>
+      </c>
+      <c r="J44" s="172" t="str">
         <f t="shared" ref="J44:J50" si="4">Currency&amp;$D44&amp;$E44&amp;QuoteSuffix</f>
         <v>USD1S12_Quote</v>
       </c>
-      <c r="K44" s="178" t="str">
+      <c r="K44" s="173" t="str">
         <f t="shared" ref="K44:K50" si="5">$K$2&amp;"_"&amp;$D44&amp;$E44&amp;$C44</f>
         <v>USD_YC3MRH_1S12</v>
       </c>
-      <c r="L44" s="179" t="str">
+      <c r="L44" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K44,$J44,$E44&amp;"M",Calendar,$F44,$G44,$H44,$L$4,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_1S12#0000</v>
       </c>
-      <c r="M44" s="170" t="str">
+      <c r="M44" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
         <v/>
       </c>
-      <c r="N44" s="167"/>
-      <c r="O44" s="191"/>
-      <c r="P44" s="191"/>
-      <c r="Q44" s="191"/>
+      <c r="N44" s="162"/>
+      <c r="O44" s="186"/>
+      <c r="P44" s="186"/>
+      <c r="Q44" s="186"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="131"/>
-      <c r="B45" s="174" t="s">
+      <c r="A45" s="126"/>
+      <c r="B45" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="187"/>
-      <c r="D45" s="174" t="s">
+      <c r="C45" s="182"/>
+      <c r="D45" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="174">
+      <c r="E45" s="169">
         <v>12</v>
       </c>
-      <c r="F45" s="174" t="s">
+      <c r="F45" s="169" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="154" t="s">
+      <c r="G45" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H45" s="154" t="s">
+      <c r="H45" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="I45" s="176">
-        <v>0</v>
-      </c>
-      <c r="J45" s="183" t="str">
+      <c r="I45" s="171">
+        <v>0</v>
+      </c>
+      <c r="J45" s="178" t="str">
         <f t="shared" si="4"/>
         <v>USD2S12_Quote</v>
       </c>
-      <c r="K45" s="178" t="str">
+      <c r="K45" s="173" t="str">
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_2S12</v>
       </c>
-      <c r="L45" s="179" t="str">
+      <c r="L45" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K45,$J45,$E45&amp;"M",Calendar,$F45,$G45,$H45,$L$4,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_2S12#0000</v>
       </c>
-      <c r="M45" s="170" t="str">
+      <c r="M45" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
         <v/>
       </c>
-      <c r="N45" s="167"/>
-      <c r="O45" s="191"/>
-      <c r="P45" s="191"/>
-      <c r="Q45" s="191"/>
+      <c r="N45" s="162"/>
+      <c r="O45" s="186"/>
+      <c r="P45" s="186"/>
+      <c r="Q45" s="186"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="131"/>
-      <c r="B46" s="174" t="s">
+      <c r="A46" s="126"/>
+      <c r="B46" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="187"/>
-      <c r="D46" s="174" t="s">
+      <c r="C46" s="182"/>
+      <c r="D46" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="174">
+      <c r="E46" s="169">
         <v>12</v>
       </c>
-      <c r="F46" s="174" t="s">
+      <c r="F46" s="169" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="154" t="s">
+      <c r="G46" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H46" s="154" t="s">
+      <c r="H46" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="I46" s="176">
-        <v>0</v>
-      </c>
-      <c r="J46" s="183" t="str">
+      <c r="I46" s="171">
+        <v>0</v>
+      </c>
+      <c r="J46" s="178" t="str">
         <f t="shared" si="4"/>
         <v>USD3S12_Quote</v>
       </c>
-      <c r="K46" s="178" t="str">
+      <c r="K46" s="173" t="str">
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_3S12</v>
       </c>
-      <c r="L46" s="179" t="str">
+      <c r="L46" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K46,$J46,$E46&amp;"M",Calendar,$F46,$G46,$H46,$L$4,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_3S12#0000</v>
       </c>
-      <c r="M46" s="170" t="str">
+      <c r="M46" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
         <v/>
       </c>
-      <c r="N46" s="167"/>
-      <c r="O46" s="191"/>
-      <c r="P46" s="191"/>
-      <c r="Q46" s="191"/>
+      <c r="N46" s="162"/>
+      <c r="O46" s="186"/>
+      <c r="P46" s="186"/>
+      <c r="Q46" s="186"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="131"/>
-      <c r="B47" s="174" t="s">
+      <c r="A47" s="126"/>
+      <c r="B47" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="187"/>
-      <c r="D47" s="174" t="s">
+      <c r="C47" s="182"/>
+      <c r="D47" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="174">
+      <c r="E47" s="169">
         <v>12</v>
       </c>
-      <c r="F47" s="174" t="s">
+      <c r="F47" s="169" t="s">
         <v>126</v>
       </c>
-      <c r="G47" s="154" t="s">
+      <c r="G47" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H47" s="154" t="s">
+      <c r="H47" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="I47" s="176">
-        <v>0</v>
-      </c>
-      <c r="J47" s="183" t="str">
+      <c r="I47" s="171">
+        <v>0</v>
+      </c>
+      <c r="J47" s="178" t="str">
         <f t="shared" si="4"/>
         <v>USD4S12_Quote</v>
       </c>
-      <c r="K47" s="178" t="str">
+      <c r="K47" s="173" t="str">
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_4S12</v>
       </c>
-      <c r="L47" s="179" t="str">
+      <c r="L47" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K47,$J47,$E47&amp;"M",Calendar,$F47,$G47,$H47,$L$4,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_4S12#0000</v>
       </c>
-      <c r="M47" s="170" t="str">
+      <c r="M47" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
         <v/>
       </c>
-      <c r="N47" s="167"/>
-      <c r="O47" s="191"/>
-      <c r="P47" s="191"/>
-      <c r="Q47" s="191"/>
+      <c r="N47" s="162"/>
+      <c r="O47" s="186"/>
+      <c r="P47" s="186"/>
+      <c r="Q47" s="186"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="131"/>
-      <c r="B48" s="174" t="s">
+      <c r="A48" s="126"/>
+      <c r="B48" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="187"/>
-      <c r="D48" s="174" t="s">
+      <c r="C48" s="182"/>
+      <c r="D48" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="174">
+      <c r="E48" s="169">
         <v>24</v>
       </c>
-      <c r="F48" s="174" t="s">
+      <c r="F48" s="169" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="154" t="s">
+      <c r="G48" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H48" s="154" t="s">
+      <c r="H48" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="I48" s="176">
-        <v>0</v>
-      </c>
-      <c r="J48" s="183" t="str">
+      <c r="I48" s="171">
+        <v>0</v>
+      </c>
+      <c r="J48" s="178" t="str">
         <f t="shared" si="4"/>
         <v>USD1S24_Quote</v>
       </c>
-      <c r="K48" s="178" t="str">
+      <c r="K48" s="173" t="str">
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_1S24</v>
       </c>
-      <c r="L48" s="179" t="str">
+      <c r="L48" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K48,$J48,$E48&amp;"M",Calendar,$F48,$G48,$H48,$L$4,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_1S24#0000</v>
       </c>
-      <c r="M48" s="170" t="str">
+      <c r="M48" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
         <v/>
       </c>
-      <c r="N48" s="167"/>
-      <c r="O48" s="191"/>
-      <c r="P48" s="191"/>
-      <c r="Q48" s="191"/>
+      <c r="N48" s="162"/>
+      <c r="O48" s="186"/>
+      <c r="P48" s="186"/>
+      <c r="Q48" s="186"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="131"/>
-      <c r="B49" s="174" t="s">
+      <c r="A49" s="126"/>
+      <c r="B49" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="187"/>
-      <c r="D49" s="174" t="s">
+      <c r="C49" s="182"/>
+      <c r="D49" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="174">
+      <c r="E49" s="169">
         <v>24</v>
       </c>
-      <c r="F49" s="174" t="s">
+      <c r="F49" s="169" t="s">
         <v>126</v>
       </c>
-      <c r="G49" s="154" t="s">
+      <c r="G49" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H49" s="154" t="s">
+      <c r="H49" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="I49" s="176">
-        <v>0</v>
-      </c>
-      <c r="J49" s="183" t="str">
+      <c r="I49" s="171">
+        <v>0</v>
+      </c>
+      <c r="J49" s="178" t="str">
         <f t="shared" si="4"/>
         <v>USD2S24_Quote</v>
       </c>
-      <c r="K49" s="178" t="str">
+      <c r="K49" s="173" t="str">
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_2S24</v>
       </c>
-      <c r="L49" s="179" t="str">
+      <c r="L49" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K49,$J49,$E49&amp;"M",Calendar,$F49,$G49,$H49,$L$4,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_2S24#0000</v>
       </c>
-      <c r="M49" s="170" t="str">
+      <c r="M49" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
         <v/>
       </c>
-      <c r="N49" s="167"/>
-      <c r="O49" s="191"/>
-      <c r="P49" s="191"/>
-      <c r="Q49" s="191"/>
+      <c r="N49" s="162"/>
+      <c r="O49" s="186"/>
+      <c r="P49" s="186"/>
+      <c r="Q49" s="186"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="131"/>
-      <c r="B50" s="174" t="s">
+      <c r="A50" s="126"/>
+      <c r="B50" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="187"/>
-      <c r="D50" s="174" t="s">
+      <c r="C50" s="182"/>
+      <c r="D50" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="174">
+      <c r="E50" s="169">
         <v>36</v>
       </c>
-      <c r="F50" s="174" t="s">
+      <c r="F50" s="169" t="s">
         <v>126</v>
       </c>
-      <c r="G50" s="154" t="s">
+      <c r="G50" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="H50" s="154" t="s">
+      <c r="H50" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="I50" s="176">
-        <v>0</v>
-      </c>
-      <c r="J50" s="183" t="str">
+      <c r="I50" s="171">
+        <v>0</v>
+      </c>
+      <c r="J50" s="178" t="str">
         <f t="shared" si="4"/>
         <v>USD1S36_Quote</v>
       </c>
-      <c r="K50" s="178" t="str">
+      <c r="K50" s="173" t="str">
         <f t="shared" si="5"/>
         <v>USD_YC3MRH_1S36</v>
       </c>
-      <c r="L50" s="179" t="str">
+      <c r="L50" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K50,$J50,$E50&amp;"M",Calendar,$F50,$G50,$H50,$L$4,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>USD_YC3MRH_1S36#0000</v>
       </c>
-      <c r="M50" s="170" t="str">
+      <c r="M50" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
         <v/>
       </c>
-      <c r="N50" s="167"/>
-      <c r="O50" s="191"/>
-      <c r="P50" s="191"/>
-      <c r="Q50" s="191"/>
+      <c r="N50" s="162"/>
+      <c r="O50" s="186"/>
+      <c r="P50" s="186"/>
+      <c r="Q50" s="186"/>
     </row>
     <row r="51" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="142"/>
-      <c r="B51" s="143"/>
-      <c r="C51" s="143"/>
-      <c r="D51" s="143"/>
-      <c r="E51" s="143"/>
-      <c r="F51" s="143"/>
-      <c r="G51" s="143"/>
-      <c r="H51" s="143"/>
-      <c r="I51" s="143"/>
-      <c r="J51" s="143"/>
-      <c r="K51" s="143"/>
-      <c r="L51" s="143"/>
-      <c r="M51" s="143"/>
-      <c r="N51" s="192"/>
-      <c r="O51" s="127"/>
-      <c r="P51" s="127"/>
-      <c r="Q51" s="127"/>
+      <c r="A51" s="137"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="138"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="138"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="138"/>
+      <c r="J51" s="138"/>
+      <c r="K51" s="138"/>
+      <c r="L51" s="138"/>
+      <c r="M51" s="138"/>
+      <c r="N51" s="187"/>
+      <c r="O51" s="122"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="122"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -16957,1463 +16827,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="2.7109375" style="214" customWidth="1"/>
-    <col min="3" max="3" width="4" style="214" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="214" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="214" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" style="214" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="214" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="214" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="214" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="214"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="193" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="193" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="194"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="197"/>
-    </row>
-    <row r="3" spans="1:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="200" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="201" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="199"/>
-      <c r="H3" s="202"/>
-    </row>
-    <row r="4" spans="1:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="198"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="200" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="201" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="199"/>
-      <c r="H4" s="202"/>
-    </row>
-    <row r="5" spans="1:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="198"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="200" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="203" t="str">
-        <f>Currency&amp;FamilyName&amp;IndexTenor</f>
-        <v>USDLibor3M</v>
-      </c>
-      <c r="G5" s="199"/>
-      <c r="H5" s="202"/>
-    </row>
-    <row r="6" spans="1:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="198"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="202"/>
-    </row>
-    <row r="7" spans="1:8" s="193" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B7" s="198"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="204" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="205" t="str">
-        <f>PROPER(Currency)&amp;FamilyName2&amp;FixingType&amp;".xml"</f>
-        <v>UsdLiborSwapForBasisCalc.xml</v>
-      </c>
-      <c r="F7" s="201" t="str">
-        <f>IF(Serialize,_xll.ohObjectSave(F8:F67,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
-        <v>---</v>
-      </c>
-      <c r="G7" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F7)</f>
-        <v/>
-      </c>
-      <c r="H7" s="202"/>
-    </row>
-    <row r="8" spans="1:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="198"/>
-      <c r="C8" s="207" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="208" t="str">
-        <f t="shared" ref="E8:E39" si="0">PROPER(Currency)&amp;FamilyName2&amp;FixingType&amp;$C8</f>
-        <v>UsdLiborSwapForBasisCalc1Y</v>
-      </c>
-      <c r="F8" s="209" t="str">
-        <f>_xll.qlSwapIndex($E8,FixingType,C8,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc1Y#0000</v>
-      </c>
-      <c r="G8" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F8)</f>
-        <v/>
-      </c>
-      <c r="H8" s="210"/>
-    </row>
-    <row r="9" spans="1:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="198"/>
-      <c r="C9" s="207" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc2Y</v>
-      </c>
-      <c r="F9" s="209" t="str">
-        <f>_xll.qlSwapIndex($E9,FixingType,C9,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc2Y#0000</v>
-      </c>
-      <c r="G9" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F9)</f>
-        <v/>
-      </c>
-      <c r="H9" s="210"/>
-    </row>
-    <row r="10" spans="1:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="198"/>
-      <c r="C10" s="207" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc3Y</v>
-      </c>
-      <c r="F10" s="209" t="str">
-        <f>_xll.qlSwapIndex($E10,FixingType,C10,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc3Y#0000</v>
-      </c>
-      <c r="G10" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F10)</f>
-        <v/>
-      </c>
-      <c r="H10" s="210"/>
-    </row>
-    <row r="11" spans="1:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="198"/>
-      <c r="C11" s="207" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc4Y</v>
-      </c>
-      <c r="F11" s="209" t="str">
-        <f>_xll.qlSwapIndex($E11,FixingType,C11,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc4Y#0000</v>
-      </c>
-      <c r="G11" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F11)</f>
-        <v/>
-      </c>
-      <c r="H11" s="210"/>
-    </row>
-    <row r="12" spans="1:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="198"/>
-      <c r="C12" s="207" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc5Y</v>
-      </c>
-      <c r="F12" s="209" t="str">
-        <f>_xll.qlSwapIndex($E12,FixingType,C12,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc5Y#0000</v>
-      </c>
-      <c r="G12" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F12)</f>
-        <v/>
-      </c>
-      <c r="H12" s="210"/>
-    </row>
-    <row r="13" spans="1:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="198"/>
-      <c r="C13" s="207" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc6Y</v>
-      </c>
-      <c r="F13" s="209" t="str">
-        <f>_xll.qlSwapIndex($E13,FixingType,C13,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc6Y#0000</v>
-      </c>
-      <c r="G13" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F13)</f>
-        <v/>
-      </c>
-      <c r="H13" s="210"/>
-    </row>
-    <row r="14" spans="1:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="198"/>
-      <c r="C14" s="207" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc7Y</v>
-      </c>
-      <c r="F14" s="209" t="str">
-        <f>_xll.qlSwapIndex($E14,FixingType,C14,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc7Y#0000</v>
-      </c>
-      <c r="G14" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F14)</f>
-        <v/>
-      </c>
-      <c r="H14" s="210"/>
-    </row>
-    <row r="15" spans="1:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="198"/>
-      <c r="C15" s="207" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc8Y</v>
-      </c>
-      <c r="F15" s="209" t="str">
-        <f>_xll.qlSwapIndex($E15,FixingType,C15,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc8Y#0000</v>
-      </c>
-      <c r="G15" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F15)</f>
-        <v/>
-      </c>
-      <c r="H15" s="210"/>
-    </row>
-    <row r="16" spans="1:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="198"/>
-      <c r="C16" s="207" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc9Y</v>
-      </c>
-      <c r="F16" s="209" t="str">
-        <f>_xll.qlSwapIndex($E16,FixingType,C16,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc9Y#0000</v>
-      </c>
-      <c r="G16" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F16)</f>
-        <v/>
-      </c>
-      <c r="H16" s="210"/>
-    </row>
-    <row r="17" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="198"/>
-      <c r="C17" s="207" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc10Y</v>
-      </c>
-      <c r="F17" s="209" t="str">
-        <f>_xll.qlSwapIndex($E17,FixingType,C17,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc10Y#0000</v>
-      </c>
-      <c r="G17" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F17)</f>
-        <v/>
-      </c>
-      <c r="H17" s="210"/>
-    </row>
-    <row r="18" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="198"/>
-      <c r="C18" s="207" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc11Y</v>
-      </c>
-      <c r="F18" s="209" t="str">
-        <f>_xll.qlSwapIndex($E18,FixingType,C18,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc11Y#0000</v>
-      </c>
-      <c r="G18" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F18)</f>
-        <v/>
-      </c>
-      <c r="H18" s="210"/>
-    </row>
-    <row r="19" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="198"/>
-      <c r="C19" s="207" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc12Y</v>
-      </c>
-      <c r="F19" s="209" t="str">
-        <f>_xll.qlSwapIndex($E19,FixingType,C19,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc12Y#0000</v>
-      </c>
-      <c r="G19" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F19)</f>
-        <v/>
-      </c>
-      <c r="H19" s="210"/>
-    </row>
-    <row r="20" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="198"/>
-      <c r="C20" s="207" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc13Y</v>
-      </c>
-      <c r="F20" s="209" t="str">
-        <f>_xll.qlSwapIndex($E20,FixingType,C20,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc13Y#0000</v>
-      </c>
-      <c r="G20" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F20)</f>
-        <v/>
-      </c>
-      <c r="H20" s="210"/>
-    </row>
-    <row r="21" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="198"/>
-      <c r="C21" s="207" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc14Y</v>
-      </c>
-      <c r="F21" s="209" t="str">
-        <f>_xll.qlSwapIndex($E21,FixingType,C21,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc14Y#0000</v>
-      </c>
-      <c r="G21" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F21)</f>
-        <v/>
-      </c>
-      <c r="H21" s="210"/>
-    </row>
-    <row r="22" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="198"/>
-      <c r="C22" s="207" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc15Y</v>
-      </c>
-      <c r="F22" s="209" t="str">
-        <f>_xll.qlSwapIndex($E22,FixingType,C22,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc15Y#0000</v>
-      </c>
-      <c r="G22" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F22)</f>
-        <v/>
-      </c>
-      <c r="H22" s="210"/>
-    </row>
-    <row r="23" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="198"/>
-      <c r="C23" s="207" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc16Y</v>
-      </c>
-      <c r="F23" s="209" t="str">
-        <f>_xll.qlSwapIndex($E23,FixingType,C23,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc16Y#0000</v>
-      </c>
-      <c r="G23" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F23)</f>
-        <v/>
-      </c>
-      <c r="H23" s="210"/>
-    </row>
-    <row r="24" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="198"/>
-      <c r="C24" s="207" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc17Y</v>
-      </c>
-      <c r="F24" s="209" t="str">
-        <f>_xll.qlSwapIndex($E24,FixingType,C24,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc17Y#0000</v>
-      </c>
-      <c r="G24" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F24)</f>
-        <v/>
-      </c>
-      <c r="H24" s="210"/>
-    </row>
-    <row r="25" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="198"/>
-      <c r="C25" s="207" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc18Y</v>
-      </c>
-      <c r="F25" s="209" t="str">
-        <f>_xll.qlSwapIndex($E25,FixingType,C25,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc18Y#0000</v>
-      </c>
-      <c r="G25" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F25)</f>
-        <v/>
-      </c>
-      <c r="H25" s="210"/>
-    </row>
-    <row r="26" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="198"/>
-      <c r="C26" s="207" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc19Y</v>
-      </c>
-      <c r="F26" s="209" t="str">
-        <f>_xll.qlSwapIndex($E26,FixingType,C26,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc19Y#0000</v>
-      </c>
-      <c r="G26" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F26)</f>
-        <v/>
-      </c>
-      <c r="H26" s="210"/>
-    </row>
-    <row r="27" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="198"/>
-      <c r="C27" s="207" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc20Y</v>
-      </c>
-      <c r="F27" s="209" t="str">
-        <f>_xll.qlSwapIndex($E27,FixingType,C27,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc20Y#0000</v>
-      </c>
-      <c r="G27" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F27)</f>
-        <v/>
-      </c>
-      <c r="H27" s="210"/>
-    </row>
-    <row r="28" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="198"/>
-      <c r="C28" s="207" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc21Y</v>
-      </c>
-      <c r="F28" s="209" t="str">
-        <f>_xll.qlSwapIndex($E28,FixingType,C28,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc21Y#0000</v>
-      </c>
-      <c r="G28" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F28)</f>
-        <v/>
-      </c>
-      <c r="H28" s="210"/>
-    </row>
-    <row r="29" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="198"/>
-      <c r="C29" s="207" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc22Y</v>
-      </c>
-      <c r="F29" s="209" t="str">
-        <f>_xll.qlSwapIndex($E29,FixingType,C29,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc22Y#0000</v>
-      </c>
-      <c r="G29" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F29)</f>
-        <v/>
-      </c>
-      <c r="H29" s="210"/>
-    </row>
-    <row r="30" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="198"/>
-      <c r="C30" s="207" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc23Y</v>
-      </c>
-      <c r="F30" s="209" t="str">
-        <f>_xll.qlSwapIndex($E30,FixingType,C30,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc23Y#0000</v>
-      </c>
-      <c r="G30" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F30)</f>
-        <v/>
-      </c>
-      <c r="H30" s="210"/>
-    </row>
-    <row r="31" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="198"/>
-      <c r="C31" s="207" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc24Y</v>
-      </c>
-      <c r="F31" s="209" t="str">
-        <f>_xll.qlSwapIndex($E31,FixingType,C31,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc24Y#0000</v>
-      </c>
-      <c r="G31" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F31)</f>
-        <v/>
-      </c>
-      <c r="H31" s="210"/>
-    </row>
-    <row r="32" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="198"/>
-      <c r="C32" s="207" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc25Y</v>
-      </c>
-      <c r="F32" s="209" t="str">
-        <f>_xll.qlSwapIndex($E32,FixingType,C32,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc25Y#0000</v>
-      </c>
-      <c r="G32" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F32)</f>
-        <v/>
-      </c>
-      <c r="H32" s="210"/>
-    </row>
-    <row r="33" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="198"/>
-      <c r="C33" s="207" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc26Y</v>
-      </c>
-      <c r="F33" s="209" t="str">
-        <f>_xll.qlSwapIndex($E33,FixingType,C33,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc26Y#0000</v>
-      </c>
-      <c r="G33" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F33)</f>
-        <v/>
-      </c>
-      <c r="H33" s="210"/>
-    </row>
-    <row r="34" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="198"/>
-      <c r="C34" s="207" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc27Y</v>
-      </c>
-      <c r="F34" s="209" t="str">
-        <f>_xll.qlSwapIndex($E34,FixingType,C34,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc27Y#0000</v>
-      </c>
-      <c r="G34" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F34)</f>
-        <v/>
-      </c>
-      <c r="H34" s="210"/>
-    </row>
-    <row r="35" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="198"/>
-      <c r="C35" s="207" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc28Y</v>
-      </c>
-      <c r="F35" s="209" t="str">
-        <f>_xll.qlSwapIndex($E35,FixingType,C35,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc28Y#0000</v>
-      </c>
-      <c r="G35" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F35)</f>
-        <v/>
-      </c>
-      <c r="H35" s="210"/>
-    </row>
-    <row r="36" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="198"/>
-      <c r="C36" s="207" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc29Y</v>
-      </c>
-      <c r="F36" s="209" t="str">
-        <f>_xll.qlSwapIndex($E36,FixingType,C36,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc29Y#0000</v>
-      </c>
-      <c r="G36" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F36)</f>
-        <v/>
-      </c>
-      <c r="H36" s="210"/>
-    </row>
-    <row r="37" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="198"/>
-      <c r="C37" s="207" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc30Y</v>
-      </c>
-      <c r="F37" s="209" t="str">
-        <f>_xll.qlSwapIndex($E37,FixingType,C37,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc30Y#0000</v>
-      </c>
-      <c r="G37" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F37)</f>
-        <v/>
-      </c>
-      <c r="H37" s="210"/>
-    </row>
-    <row r="38" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="198"/>
-      <c r="C38" s="207" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc31Y</v>
-      </c>
-      <c r="F38" s="209" t="str">
-        <f>_xll.qlSwapIndex($E38,FixingType,C38,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc31Y#0000</v>
-      </c>
-      <c r="G38" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F38)</f>
-        <v/>
-      </c>
-      <c r="H38" s="210"/>
-    </row>
-    <row r="39" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="198"/>
-      <c r="C39" s="207" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="208" t="str">
-        <f t="shared" si="0"/>
-        <v>UsdLiborSwapForBasisCalc32Y</v>
-      </c>
-      <c r="F39" s="209" t="str">
-        <f>_xll.qlSwapIndex($E39,FixingType,C39,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc32Y#0000</v>
-      </c>
-      <c r="G39" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F39)</f>
-        <v/>
-      </c>
-      <c r="H39" s="210"/>
-    </row>
-    <row r="40" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="198"/>
-      <c r="C40" s="207" t="s">
-        <v>154</v>
-      </c>
-      <c r="D40" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="208" t="str">
-        <f t="shared" ref="E40:E67" si="1">PROPER(Currency)&amp;FamilyName2&amp;FixingType&amp;$C40</f>
-        <v>UsdLiborSwapForBasisCalc33Y</v>
-      </c>
-      <c r="F40" s="209" t="str">
-        <f>_xll.qlSwapIndex($E40,FixingType,C40,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc33Y#0000</v>
-      </c>
-      <c r="G40" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F40)</f>
-        <v/>
-      </c>
-      <c r="H40" s="210"/>
-    </row>
-    <row r="41" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="198"/>
-      <c r="C41" s="207" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc34Y</v>
-      </c>
-      <c r="F41" s="209" t="str">
-        <f>_xll.qlSwapIndex($E41,FixingType,C41,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc34Y#0000</v>
-      </c>
-      <c r="G41" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F41)</f>
-        <v/>
-      </c>
-      <c r="H41" s="210"/>
-    </row>
-    <row r="42" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="198"/>
-      <c r="C42" s="207" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc35Y</v>
-      </c>
-      <c r="F42" s="209" t="str">
-        <f>_xll.qlSwapIndex($E42,FixingType,C42,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc35Y#0000</v>
-      </c>
-      <c r="G42" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F42)</f>
-        <v/>
-      </c>
-      <c r="H42" s="210"/>
-    </row>
-    <row r="43" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="198"/>
-      <c r="C43" s="207" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc36Y</v>
-      </c>
-      <c r="F43" s="209" t="str">
-        <f>_xll.qlSwapIndex($E43,FixingType,C43,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc36Y#0000</v>
-      </c>
-      <c r="G43" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F43)</f>
-        <v/>
-      </c>
-      <c r="H43" s="210"/>
-    </row>
-    <row r="44" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="198"/>
-      <c r="C44" s="207" t="s">
-        <v>157</v>
-      </c>
-      <c r="D44" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc37Y</v>
-      </c>
-      <c r="F44" s="209" t="str">
-        <f>_xll.qlSwapIndex($E44,FixingType,C44,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc37Y#0000</v>
-      </c>
-      <c r="G44" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F44)</f>
-        <v/>
-      </c>
-      <c r="H44" s="210"/>
-    </row>
-    <row r="45" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="198"/>
-      <c r="C45" s="207" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc38Y</v>
-      </c>
-      <c r="F45" s="209" t="str">
-        <f>_xll.qlSwapIndex($E45,FixingType,C45,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc38Y#0000</v>
-      </c>
-      <c r="G45" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F45)</f>
-        <v/>
-      </c>
-      <c r="H45" s="210"/>
-    </row>
-    <row r="46" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="198"/>
-      <c r="C46" s="207" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc39Y</v>
-      </c>
-      <c r="F46" s="209" t="str">
-        <f>_xll.qlSwapIndex($E46,FixingType,C46,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc39Y#0000</v>
-      </c>
-      <c r="G46" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F46)</f>
-        <v/>
-      </c>
-      <c r="H46" s="210"/>
-    </row>
-    <row r="47" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="198"/>
-      <c r="C47" s="207" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc40Y</v>
-      </c>
-      <c r="F47" s="209" t="str">
-        <f>_xll.qlSwapIndex($E47,FixingType,C47,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc40Y#0000</v>
-      </c>
-      <c r="G47" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F47)</f>
-        <v/>
-      </c>
-      <c r="H47" s="210"/>
-    </row>
-    <row r="48" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="198"/>
-      <c r="C48" s="207" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc41Y</v>
-      </c>
-      <c r="F48" s="209" t="str">
-        <f>_xll.qlSwapIndex($E48,FixingType,C48,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc41Y#0000</v>
-      </c>
-      <c r="G48" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F48)</f>
-        <v/>
-      </c>
-      <c r="H48" s="210"/>
-    </row>
-    <row r="49" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="198"/>
-      <c r="C49" s="207" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc42Y</v>
-      </c>
-      <c r="F49" s="209" t="str">
-        <f>_xll.qlSwapIndex($E49,FixingType,C49,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc42Y#0000</v>
-      </c>
-      <c r="G49" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F49)</f>
-        <v/>
-      </c>
-      <c r="H49" s="210"/>
-    </row>
-    <row r="50" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="198"/>
-      <c r="C50" s="207" t="s">
-        <v>162</v>
-      </c>
-      <c r="D50" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc43Y</v>
-      </c>
-      <c r="F50" s="209" t="str">
-        <f>_xll.qlSwapIndex($E50,FixingType,C50,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc43Y#0000</v>
-      </c>
-      <c r="G50" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F50)</f>
-        <v/>
-      </c>
-      <c r="H50" s="210"/>
-    </row>
-    <row r="51" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="198"/>
-      <c r="C51" s="207" t="s">
-        <v>163</v>
-      </c>
-      <c r="D51" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc44Y</v>
-      </c>
-      <c r="F51" s="209" t="str">
-        <f>_xll.qlSwapIndex($E51,FixingType,C51,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc44Y#0000</v>
-      </c>
-      <c r="G51" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F51)</f>
-        <v/>
-      </c>
-      <c r="H51" s="210"/>
-    </row>
-    <row r="52" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="198"/>
-      <c r="C52" s="207" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc45Y</v>
-      </c>
-      <c r="F52" s="209" t="str">
-        <f>_xll.qlSwapIndex($E52,FixingType,C52,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc45Y#0000</v>
-      </c>
-      <c r="G52" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F52)</f>
-        <v/>
-      </c>
-      <c r="H52" s="210"/>
-    </row>
-    <row r="53" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="198"/>
-      <c r="C53" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc46Y</v>
-      </c>
-      <c r="F53" s="209" t="str">
-        <f>_xll.qlSwapIndex($E53,FixingType,C53,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc46Y#0000</v>
-      </c>
-      <c r="G53" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F53)</f>
-        <v/>
-      </c>
-      <c r="H53" s="210"/>
-    </row>
-    <row r="54" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="198"/>
-      <c r="C54" s="207" t="s">
-        <v>166</v>
-      </c>
-      <c r="D54" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E54" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc47Y</v>
-      </c>
-      <c r="F54" s="209" t="str">
-        <f>_xll.qlSwapIndex($E54,FixingType,C54,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc47Y#0000</v>
-      </c>
-      <c r="G54" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F54)</f>
-        <v/>
-      </c>
-      <c r="H54" s="210"/>
-    </row>
-    <row r="55" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="198"/>
-      <c r="C55" s="207" t="s">
-        <v>167</v>
-      </c>
-      <c r="D55" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc48Y</v>
-      </c>
-      <c r="F55" s="209" t="str">
-        <f>_xll.qlSwapIndex($E55,FixingType,C55,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc48Y#0000</v>
-      </c>
-      <c r="G55" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F55)</f>
-        <v/>
-      </c>
-      <c r="H55" s="210"/>
-    </row>
-    <row r="56" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="198"/>
-      <c r="C56" s="207" t="s">
-        <v>168</v>
-      </c>
-      <c r="D56" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc49Y</v>
-      </c>
-      <c r="F56" s="209" t="str">
-        <f>_xll.qlSwapIndex($E56,FixingType,C56,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc49Y#0000</v>
-      </c>
-      <c r="G56" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F56)</f>
-        <v/>
-      </c>
-      <c r="H56" s="210"/>
-    </row>
-    <row r="57" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="198"/>
-      <c r="C57" s="207" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc50Y</v>
-      </c>
-      <c r="F57" s="209" t="str">
-        <f>_xll.qlSwapIndex($E57,FixingType,C57,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc50Y#0000</v>
-      </c>
-      <c r="G57" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F57)</f>
-        <v/>
-      </c>
-      <c r="H57" s="210"/>
-    </row>
-    <row r="58" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="198"/>
-      <c r="C58" s="207" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc51Y</v>
-      </c>
-      <c r="F58" s="209" t="str">
-        <f>_xll.qlSwapIndex($E58,FixingType,C58,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc51Y#0000</v>
-      </c>
-      <c r="G58" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F58)</f>
-        <v/>
-      </c>
-      <c r="H58" s="210"/>
-    </row>
-    <row r="59" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="198"/>
-      <c r="C59" s="207" t="s">
-        <v>170</v>
-      </c>
-      <c r="D59" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc52Y</v>
-      </c>
-      <c r="F59" s="209" t="str">
-        <f>_xll.qlSwapIndex($E59,FixingType,C59,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc52Y#0000</v>
-      </c>
-      <c r="G59" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F59)</f>
-        <v/>
-      </c>
-      <c r="H59" s="210"/>
-    </row>
-    <row r="60" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="198"/>
-      <c r="C60" s="207" t="s">
-        <v>171</v>
-      </c>
-      <c r="D60" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc53Y</v>
-      </c>
-      <c r="F60" s="209" t="str">
-        <f>_xll.qlSwapIndex($E60,FixingType,C60,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc53Y#0000</v>
-      </c>
-      <c r="G60" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F60)</f>
-        <v/>
-      </c>
-      <c r="H60" s="210"/>
-    </row>
-    <row r="61" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="198"/>
-      <c r="C61" s="207" t="s">
-        <v>172</v>
-      </c>
-      <c r="D61" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc54Y</v>
-      </c>
-      <c r="F61" s="209" t="str">
-        <f>_xll.qlSwapIndex($E61,FixingType,C61,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc54Y#0000</v>
-      </c>
-      <c r="G61" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F61)</f>
-        <v/>
-      </c>
-      <c r="H61" s="210"/>
-    </row>
-    <row r="62" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="198"/>
-      <c r="C62" s="207" t="s">
-        <v>173</v>
-      </c>
-      <c r="D62" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E62" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc55Y</v>
-      </c>
-      <c r="F62" s="209" t="str">
-        <f>_xll.qlSwapIndex($E62,FixingType,C62,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc55Y#0000</v>
-      </c>
-      <c r="G62" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F62)</f>
-        <v/>
-      </c>
-      <c r="H62" s="210"/>
-    </row>
-    <row r="63" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="198"/>
-      <c r="C63" s="207" t="s">
-        <v>174</v>
-      </c>
-      <c r="D63" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc56Y</v>
-      </c>
-      <c r="F63" s="209" t="str">
-        <f>_xll.qlSwapIndex($E63,FixingType,C63,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc56Y#0000</v>
-      </c>
-      <c r="G63" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F63)</f>
-        <v/>
-      </c>
-      <c r="H63" s="210"/>
-    </row>
-    <row r="64" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="198"/>
-      <c r="C64" s="207" t="s">
-        <v>175</v>
-      </c>
-      <c r="D64" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc57Y</v>
-      </c>
-      <c r="F64" s="209" t="str">
-        <f>_xll.qlSwapIndex($E64,FixingType,C64,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc57Y#0000</v>
-      </c>
-      <c r="G64" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F64)</f>
-        <v/>
-      </c>
-      <c r="H64" s="210"/>
-    </row>
-    <row r="65" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="198"/>
-      <c r="C65" s="207" t="s">
-        <v>176</v>
-      </c>
-      <c r="D65" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E65" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc58Y</v>
-      </c>
-      <c r="F65" s="209" t="str">
-        <f>_xll.qlSwapIndex($E65,FixingType,C65,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc58Y#0000</v>
-      </c>
-      <c r="G65" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F65)</f>
-        <v/>
-      </c>
-      <c r="H65" s="210"/>
-    </row>
-    <row r="66" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="198"/>
-      <c r="C66" s="207" t="s">
-        <v>177</v>
-      </c>
-      <c r="D66" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E66" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc59Y</v>
-      </c>
-      <c r="F66" s="209" t="str">
-        <f>_xll.qlSwapIndex($E66,FixingType,C66,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc59Y#0000</v>
-      </c>
-      <c r="G66" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F66)</f>
-        <v/>
-      </c>
-      <c r="H66" s="210"/>
-    </row>
-    <row r="67" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="198"/>
-      <c r="C67" s="207" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67" s="208" t="str">
-        <f t="shared" si="1"/>
-        <v>UsdLiborSwapForBasisCalc60Y</v>
-      </c>
-      <c r="F67" s="209" t="str">
-        <f>_xll.qlSwapIndex($E67,FixingType,C67,2,Currency,Calendar,"1Y","f",MoneyMarketDayCounter,$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc60Y#0000</v>
-      </c>
-      <c r="G67" s="206" t="str">
-        <f>_xll.ohRangeRetrieveError(F67)</f>
-        <v/>
-      </c>
-      <c r="H67" s="210"/>
-    </row>
-    <row r="68" spans="2:8" s="193" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="211"/>
-      <c r="C68" s="212"/>
-      <c r="D68" s="212"/>
-      <c r="E68" s="212"/>
-      <c r="F68" s="212"/>
-      <c r="G68" s="212"/>
-      <c r="H68" s="213"/>
-    </row>
-    <row r="69" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="214"/>
-      <c r="C70" s="214"/>
-      <c r="D70" s="214"/>
-      <c r="E70" s="214"/>
-      <c r="F70" s="214"/>
-      <c r="G70" s="214"/>
-      <c r="H70" s="214"/>
-    </row>
-    <row r="71" spans="2:8" s="193" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="214"/>
-      <c r="C71" s="214"/>
-      <c r="D71" s="214"/>
-      <c r="E71" s="214"/>
-      <c r="F71" s="214"/>
-      <c r="G71" s="214"/>
-      <c r="H71" s="214"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/QuantLibXL/Data2/XLS/USD_YC3MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD_YC3MBootstrapping.xlsx
@@ -2301,9 +2301,7 @@
       <c r="C11" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="27">
-        <v>41778.497314814813</v>
-      </c>
+      <c r="D11" s="27"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="119"/>
@@ -2322,7 +2320,7 @@
         <v>87</v>
       </c>
       <c r="D12" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2359,7 +2357,7 @@
       </c>
       <c r="D14" s="24" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYC3M#0000</v>
+        <v>_USDYC3M#0002</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2547,7 +2545,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="6">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="D27" s="5">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2561,11 +2559,11 @@
       <c r="B28" s="2"/>
       <c r="C28" s="4">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>60043</v>
+        <v>60062</v>
       </c>
       <c r="D28" s="3">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.18646777501406983</v>
+        <v>0.17352870374147814</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2814,7 +2812,7 @@
       </c>
       <c r="F4" s="88">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>2.4580000000000001E-3</v>
+        <v>2.3410000000000002E-3</v>
       </c>
       <c r="G4" s="88"/>
       <c r="H4" s="89" t="b">
@@ -2828,11 +2826,11 @@
       </c>
       <c r="K4" s="90">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L4" s="91">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>41787</v>
+        <v>41806</v>
       </c>
       <c r="M4" s="59">
         <v>40</v>
@@ -2853,7 +2851,7 @@
       </c>
       <c r="F5" s="88">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>2.372E-3</v>
+        <v>2.3180000000000002E-3</v>
       </c>
       <c r="G5" s="88"/>
       <c r="H5" s="89" t="b">
@@ -2867,11 +2865,11 @@
       </c>
       <c r="K5" s="90">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L5" s="91">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41813</v>
+        <v>41829</v>
       </c>
       <c r="M5" s="59">
         <v>70</v>
@@ -2892,7 +2890,7 @@
       </c>
       <c r="F6" s="88">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>2.31E-3</v>
+        <v>2.2959999999999999E-3</v>
       </c>
       <c r="G6" s="88"/>
       <c r="H6" s="89" t="b">
@@ -2906,11 +2904,11 @@
       </c>
       <c r="K6" s="90">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L6" s="91">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41841</v>
+        <v>41862</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -2939,11 +2937,11 @@
       </c>
       <c r="K7" s="90">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L7" s="91">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41872</v>
+        <v>41891</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -3707,15 +3705,15 @@
       </c>
       <c r="D28" s="87" t="str">
         <f t="array" ref="D28:D69">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A28:$A69)</f>
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E28" s="87" t="str">
         <f>'3M_Futures'!I3</f>
-        <v>USD_YC3MRH_FUT3MK4#0000</v>
+        <v>USD_YC3MRH_FUT3MM4#0002</v>
       </c>
       <c r="F28" s="102">
         <f>_xll.qlRateHelperQuoteValue($E28,Trigger)</f>
-        <v>99.772500000000008</v>
+        <v>99.773750000000007</v>
       </c>
       <c r="G28" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E28,Trigger)</f>
@@ -3732,11 +3730,11 @@
       </c>
       <c r="K28" s="90">
         <f>_xll.qlRateHelperEarliestDate($E28,Trigger)</f>
-        <v>41780</v>
+        <v>41808</v>
       </c>
       <c r="L28" s="91">
         <f>_xll.qlRateHelperLatestDate($E28,Trigger)</f>
-        <v>41872</v>
+        <v>41900</v>
       </c>
       <c r="N28" s="59">
         <v>1</v>
@@ -3752,15 +3750,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D29" s="87" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E29" s="87" t="str">
         <f>'3M_Futures'!I4</f>
-        <v>USD_YC3MRH_FUT3MM4#0000</v>
+        <v>USD_YC3MRH_FUT3MN4#0002</v>
       </c>
       <c r="F29" s="102">
         <f>_xll.qlRateHelperQuoteValue($E29,Trigger)</f>
-        <v>99.776250000000005</v>
+        <v>99.772500000000008</v>
       </c>
       <c r="G29" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E29,Trigger)</f>
@@ -3777,11 +3775,11 @@
       </c>
       <c r="K29" s="90">
         <f>_xll.qlRateHelperEarliestDate($E29,Trigger)</f>
-        <v>41808</v>
+        <v>41836</v>
       </c>
       <c r="L29" s="91">
         <f>_xll.qlRateHelperLatestDate($E29,Trigger)</f>
-        <v>41900</v>
+        <v>41928</v>
       </c>
       <c r="N29" s="59">
         <v>2</v>
@@ -3797,15 +3795,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D30" s="87" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E30" s="87" t="str">
         <f>'3M_Futures'!I5</f>
-        <v>USD_YC3MRH_FUT3MN4#0000</v>
+        <v>USD_YC3MRH_FUT3MQ4#0002</v>
       </c>
       <c r="F30" s="102">
         <f>_xll.qlRateHelperQuoteValue($E30,Trigger)</f>
-        <v>99.777500000000003</v>
+        <v>99.77000000000001</v>
       </c>
       <c r="G30" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E30,Trigger)</f>
@@ -3822,11 +3820,11 @@
       </c>
       <c r="K30" s="90">
         <f>_xll.qlRateHelperEarliestDate($E30,Trigger)</f>
-        <v>41836</v>
+        <v>41871</v>
       </c>
       <c r="L30" s="91">
         <f>_xll.qlRateHelperLatestDate($E30,Trigger)</f>
-        <v>41928</v>
+        <v>41963</v>
       </c>
       <c r="N30" s="59">
         <v>3</v>
@@ -3842,15 +3840,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D31" s="87" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E31" s="87" t="str">
         <f>'3M_Futures'!I6</f>
-        <v>USD_YC3MRH_FUT3MQ4#0000</v>
+        <v>USD_YC3MRH_FUT3MU4#0002</v>
       </c>
       <c r="F31" s="102">
         <f>_xll.qlRateHelperQuoteValue($E31,Trigger)</f>
-        <v>99.772500000000008</v>
+        <v>99.767499999999998</v>
       </c>
       <c r="G31" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E31,Trigger)</f>
@@ -3867,11 +3865,11 @@
       </c>
       <c r="K31" s="90">
         <f>_xll.qlRateHelperEarliestDate($E31,Trigger)</f>
-        <v>41871</v>
+        <v>41899</v>
       </c>
       <c r="L31" s="91">
         <f>_xll.qlRateHelperLatestDate($E31,Trigger)</f>
-        <v>41963</v>
+        <v>41990</v>
       </c>
       <c r="N31" s="59">
         <v>4</v>
@@ -3887,15 +3885,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D32" s="87" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E32" s="87" t="str">
         <f>'3M_Futures'!I7</f>
-        <v>USD_YC3MRH_FUT3MU4#0000</v>
+        <v>USD_YC3MRH_FUT3MV4#0002</v>
       </c>
       <c r="F32" s="102">
         <f>_xll.qlRateHelperQuoteValue($E32,Trigger)</f>
-        <v>99.767499999999998</v>
+        <v>99.762499999999989</v>
       </c>
       <c r="G32" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E32,Trigger)</f>
@@ -3912,11 +3910,11 @@
       </c>
       <c r="K32" s="90">
         <f>_xll.qlRateHelperEarliestDate($E32,Trigger)</f>
-        <v>41899</v>
+        <v>41927</v>
       </c>
       <c r="L32" s="91">
         <f>_xll.qlRateHelperLatestDate($E32,Trigger)</f>
-        <v>41990</v>
+        <v>42019</v>
       </c>
       <c r="N32" s="59">
         <v>5</v>
@@ -3932,15 +3930,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D33" s="87" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E33" s="87" t="str">
         <f>'3M_Futures'!I8</f>
-        <v>USD_YC3MRH_FUT3MV4#0000</v>
+        <v>USD_YC3MRH_FUT3MX4#0002</v>
       </c>
       <c r="F33" s="102">
         <f>_xll.qlRateHelperQuoteValue($E33,Trigger)</f>
-        <v>99.76</v>
+        <v>99.754999999999995</v>
       </c>
       <c r="G33" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E33,Trigger)</f>
@@ -3957,11 +3955,11 @@
       </c>
       <c r="K33" s="90">
         <f>_xll.qlRateHelperEarliestDate($E33,Trigger)</f>
-        <v>41927</v>
+        <v>41962</v>
       </c>
       <c r="L33" s="91">
         <f>_xll.qlRateHelperLatestDate($E33,Trigger)</f>
-        <v>42019</v>
+        <v>42054</v>
       </c>
       <c r="N33" s="59">
         <v>6</v>
@@ -3977,19 +3975,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D34" s="87" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E34" s="87" t="str">
         <f>'3M_Futures'!I9</f>
-        <v>USD_YC3MRH_FUT3MX4#0000</v>
-      </c>
-      <c r="F34" s="102" t="e">
+        <v>USD_YC3MRH_FUT3MZ4#0002</v>
+      </c>
+      <c r="F34" s="102">
         <f>_xll.qlRateHelperQuoteValue($E34,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G34" s="88" t="e">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="G34" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E34,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H34" s="89" t="b">
         <v>1</v>
@@ -4002,11 +4000,11 @@
       </c>
       <c r="K34" s="90">
         <f>_xll.qlRateHelperEarliestDate($E34,Trigger)</f>
-        <v>41962</v>
+        <v>41990</v>
       </c>
       <c r="L34" s="91">
         <f>_xll.qlRateHelperLatestDate($E34,Trigger)</f>
-        <v>42054</v>
+        <v>42080</v>
       </c>
       <c r="N34" s="59">
         <v>7</v>
@@ -4022,11 +4020,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D35" s="87" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E35" s="87" t="str">
         <f>'3M_Futures'!I10</f>
-        <v>USD_YC3MRH_FUT3MZ4#0000</v>
+        <v>USD_YC3MRH_FUT3MF5#0002</v>
       </c>
       <c r="F35" s="102">
         <f>_xll.qlRateHelperQuoteValue($E35,Trigger)</f>
@@ -4047,11 +4045,11 @@
       </c>
       <c r="K35" s="90">
         <f>_xll.qlRateHelperEarliestDate($E35,Trigger)</f>
-        <v>41990</v>
+        <v>42025</v>
       </c>
       <c r="L35" s="91">
         <f>_xll.qlRateHelperLatestDate($E35,Trigger)</f>
-        <v>42080</v>
+        <v>42115</v>
       </c>
       <c r="N35" s="59">
         <v>8</v>
@@ -4067,11 +4065,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D36" s="87" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E36" s="87" t="str">
         <f>'3M_Futures'!I11</f>
-        <v>USD_YC3MRH_FUT3MF5#0000</v>
+        <v>USD_YC3MRH_FUT3MG5#0002</v>
       </c>
       <c r="F36" s="102" t="e">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4092,11 +4090,11 @@
       </c>
       <c r="K36" s="90">
         <f>_xll.qlRateHelperEarliestDate($E36,Trigger)</f>
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="L36" s="91">
         <f>_xll.qlRateHelperLatestDate($E36,Trigger)</f>
-        <v>42115</v>
+        <v>42142</v>
       </c>
       <c r="N36" s="59">
         <v>9</v>
@@ -4112,19 +4110,19 @@
         <v>FUT3M</v>
       </c>
       <c r="D37" s="87" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E37" s="87" t="str">
         <f>'3M_Futures'!I12</f>
-        <v>USD_YC3MRH_FUT3MG5#0000</v>
-      </c>
-      <c r="F37" s="102" t="e">
+        <v>USD_YC3MRH_FUT3MH5#0002</v>
+      </c>
+      <c r="F37" s="102">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G37" s="88" t="e">
+        <v>99.667500000000004</v>
+      </c>
+      <c r="G37" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E37,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H37" s="89" t="b">
         <v>1</v>
@@ -4137,11 +4135,11 @@
       </c>
       <c r="K37" s="90">
         <f>_xll.qlRateHelperEarliestDate($E37,Trigger)</f>
-        <v>42053</v>
+        <v>42081</v>
       </c>
       <c r="L37" s="91">
         <f>_xll.qlRateHelperLatestDate($E37,Trigger)</f>
-        <v>42142</v>
+        <v>42173</v>
       </c>
       <c r="N37" s="59">
         <v>10</v>
@@ -4157,15 +4155,15 @@
         <v>FUT3M</v>
       </c>
       <c r="D38" s="87" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E38" s="87" t="str">
         <f>'3M_Futures'!I13</f>
-        <v>USD_YC3MRH_FUT3MH5#0000</v>
+        <v>USD_YC3MRH_FUT3MJ5#0002</v>
       </c>
       <c r="F38" s="102">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
-        <v>99.657499999999999</v>
+        <v>99.667500000000004</v>
       </c>
       <c r="G38" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E38,Trigger)</f>
@@ -4182,11 +4180,11 @@
       </c>
       <c r="K38" s="90">
         <f>_xll.qlRateHelperEarliestDate($E38,Trigger)</f>
-        <v>42081</v>
+        <v>42109</v>
       </c>
       <c r="L38" s="91">
         <f>_xll.qlRateHelperLatestDate($E38,Trigger)</f>
-        <v>42173</v>
+        <v>42200</v>
       </c>
       <c r="N38" s="59">
         <v>11</v>
@@ -4202,11 +4200,11 @@
         <v>FUT3M</v>
       </c>
       <c r="D39" s="87" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="E39" s="87" t="str">
         <f>'3M_Futures'!I14</f>
-        <v>USD_YC3MRH_FUT3MJ5#0000</v>
+        <v>USD_YC3MRH_FUT3MK5#0002</v>
       </c>
       <c r="F39" s="102" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4227,11 +4225,11 @@
       </c>
       <c r="K39" s="90">
         <f>_xll.qlRateHelperEarliestDate($E39,Trigger)</f>
-        <v>42109</v>
+        <v>42144</v>
       </c>
       <c r="L39" s="91">
         <f>_xll.qlRateHelperLatestDate($E39,Trigger)</f>
-        <v>42200</v>
+        <v>42236</v>
       </c>
       <c r="N39" s="59">
         <v>12</v>
@@ -4251,11 +4249,11 @@
       </c>
       <c r="E40" s="87" t="str">
         <f>'3M_Futures'!I15</f>
-        <v>USD_YC3MRH_FUT3MM5#0000</v>
+        <v>USD_YC3MRH_FUT3MM5#0002</v>
       </c>
       <c r="F40" s="102">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
-        <v>99.507499999999993</v>
+        <v>99.517499999999998</v>
       </c>
       <c r="G40" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E40,Trigger)</f>
@@ -4296,11 +4294,11 @@
       </c>
       <c r="E41" s="87" t="str">
         <f>'3M_Futures'!I16</f>
-        <v>USD_YC3MRH_FUT3MU5#0000</v>
+        <v>USD_YC3MRH_FUT3MU5#0002</v>
       </c>
       <c r="F41" s="102">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
-        <v>99.3125</v>
+        <v>99.317499999999995</v>
       </c>
       <c r="G41" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E41,Trigger)</f>
@@ -4341,11 +4339,11 @@
       </c>
       <c r="E42" s="87" t="str">
         <f>'3M_Futures'!I17</f>
-        <v>USD_YC3MRH_FUT3MZ5#0000</v>
+        <v>USD_YC3MRH_FUT3MZ5#0002</v>
       </c>
       <c r="F42" s="102">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
-        <v>99.077500000000001</v>
+        <v>99.087500000000006</v>
       </c>
       <c r="G42" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E42,Trigger)</f>
@@ -4386,11 +4384,11 @@
       </c>
       <c r="E43" s="87" t="str">
         <f>'3M_Futures'!I18</f>
-        <v>USD_YC3MRH_FUT3MH6#0000</v>
+        <v>USD_YC3MRH_FUT3MH6#0002</v>
       </c>
       <c r="F43" s="102">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
-        <v>98.822499999999991</v>
+        <v>98.837500000000006</v>
       </c>
       <c r="G43" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E43,Trigger)</f>
@@ -4431,11 +4429,11 @@
       </c>
       <c r="E44" s="87" t="str">
         <f>'3M_Futures'!I19</f>
-        <v>USD_YC3MRH_FUT3MM6#0000</v>
+        <v>USD_YC3MRH_FUT3MM6#0002</v>
       </c>
       <c r="F44" s="102">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
-        <v>98.537499999999994</v>
+        <v>98.557500000000005</v>
       </c>
       <c r="G44" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E44,Trigger)</f>
@@ -4476,11 +4474,11 @@
       </c>
       <c r="E45" s="87" t="str">
         <f>'3M_Futures'!I20</f>
-        <v>USD_YC3MRH_FUT3MU6#0000</v>
+        <v>USD_YC3MRH_FUT3MU6#0002</v>
       </c>
       <c r="F45" s="102">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
-        <v>98.262500000000003</v>
+        <v>98.272500000000008</v>
       </c>
       <c r="G45" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E45,Trigger)</f>
@@ -4521,11 +4519,11 @@
       </c>
       <c r="E46" s="87" t="str">
         <f>'3M_Futures'!I21</f>
-        <v>USD_YC3MRH_FUT3MZ6#0000</v>
+        <v>USD_YC3MRH_FUT3MZ6#0002</v>
       </c>
       <c r="F46" s="102">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
-        <v>98.007499999999993</v>
+        <v>97.997500000000002</v>
       </c>
       <c r="G46" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E46,Trigger)</f>
@@ -4566,11 +4564,11 @@
       </c>
       <c r="E47" s="87" t="str">
         <f>'3M_Futures'!I22</f>
-        <v>USD_YC3MRH_FUT3MH7#0000</v>
+        <v>USD_YC3MRH_FUT3MH7#0002</v>
       </c>
       <c r="F47" s="102">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
-        <v>97.797499999999999</v>
+        <v>97.767499999999998</v>
       </c>
       <c r="G47" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E47,Trigger)</f>
@@ -4611,11 +4609,11 @@
       </c>
       <c r="E48" s="87" t="str">
         <f>'3M_Futures'!I23</f>
-        <v>USD_YC3MRH_FUT3MM7#0000</v>
+        <v>USD_YC3MRH_FUT3MM7#0002</v>
       </c>
       <c r="F48" s="102">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
-        <v>97.597499999999997</v>
+        <v>97.532499999999999</v>
       </c>
       <c r="G48" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E48,Trigger)</f>
@@ -4656,11 +4654,11 @@
       </c>
       <c r="E49" s="87" t="str">
         <f>'3M_Futures'!I24</f>
-        <v>USD_YC3MRH_FUT3MU7#0000</v>
+        <v>USD_YC3MRH_FUT3MU7#0002</v>
       </c>
       <c r="F49" s="102">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
-        <v>97.417500000000004</v>
+        <v>97.337500000000006</v>
       </c>
       <c r="G49" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E49,Trigger)</f>
@@ -4701,11 +4699,11 @@
       </c>
       <c r="E50" s="87" t="str">
         <f>'3M_Futures'!I25</f>
-        <v>USD_YC3MRH_FUT3MZ7#0000</v>
+        <v>USD_YC3MRH_FUT3MZ7#0002</v>
       </c>
       <c r="F50" s="102">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
-        <v>97.247500000000002</v>
+        <v>97.147500000000008</v>
       </c>
       <c r="G50" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E50,Trigger)</f>
@@ -4746,11 +4744,11 @@
       </c>
       <c r="E51" s="87" t="str">
         <f>'3M_Futures'!I26</f>
-        <v>USD_YC3MRH_FUT3MH8#0000</v>
+        <v>USD_YC3MRH_FUT3MH8#0002</v>
       </c>
       <c r="F51" s="102">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
-        <v>97.097499999999997</v>
+        <v>96.987499999999997</v>
       </c>
       <c r="G51" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E51,Trigger)</f>
@@ -4791,11 +4789,11 @@
       </c>
       <c r="E52" s="87" t="str">
         <f>'3M_Futures'!I27</f>
-        <v>USD_YC3MRH_FUT3MM8#0000</v>
+        <v>USD_YC3MRH_FUT3MM8#0002</v>
       </c>
       <c r="F52" s="102">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
-        <v>96.957499999999996</v>
+        <v>96.832499999999996</v>
       </c>
       <c r="G52" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E52,Trigger)</f>
@@ -4836,11 +4834,11 @@
       </c>
       <c r="E53" s="87" t="str">
         <f>'3M_Futures'!I28</f>
-        <v>USD_YC3MRH_FUT3MU8#0000</v>
+        <v>USD_YC3MRH_FUT3MU8#0002</v>
       </c>
       <c r="F53" s="102">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
-        <v>96.827500000000001</v>
+        <v>96.692499999999995</v>
       </c>
       <c r="G53" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E53,Trigger)</f>
@@ -4881,11 +4879,11 @@
       </c>
       <c r="E54" s="87" t="str">
         <f>'3M_Futures'!I29</f>
-        <v>USD_YC3MRH_FUT3MZ8#0000</v>
+        <v>USD_YC3MRH_FUT3MZ8#0002</v>
       </c>
       <c r="F54" s="102">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
-        <v>96.707499999999996</v>
+        <v>96.5625</v>
       </c>
       <c r="G54" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E54,Trigger)</f>
@@ -4926,11 +4924,11 @@
       </c>
       <c r="E55" s="87" t="str">
         <f>'3M_Futures'!I30</f>
-        <v>USD_YC3MRH_FUT3MH9#0000</v>
+        <v>USD_YC3MRH_FUT3MH9#0002</v>
       </c>
       <c r="F55" s="102">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
-        <v>96.602499999999992</v>
+        <v>96.452500000000001</v>
       </c>
       <c r="G55" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E55,Trigger)</f>
@@ -4971,11 +4969,11 @@
       </c>
       <c r="E56" s="87" t="str">
         <f>'3M_Futures'!I31</f>
-        <v>USD_YC3MRH_FUT3MM9#0000</v>
+        <v>USD_YC3MRH_FUT3MM9#0002</v>
       </c>
       <c r="F56" s="102">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
-        <v>96.502499999999998</v>
+        <v>96.344999999999999</v>
       </c>
       <c r="G56" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E56,Trigger)</f>
@@ -5016,11 +5014,11 @@
       </c>
       <c r="E57" s="87" t="str">
         <f>'3M_Futures'!I32</f>
-        <v>USD_YC3MRH_FUT3MU9#0000</v>
+        <v>USD_YC3MRH_FUT3MU9#0002</v>
       </c>
       <c r="F57" s="102">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
-        <v>96.412499999999994</v>
+        <v>96.25</v>
       </c>
       <c r="G57" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E57,Trigger)</f>
@@ -5061,11 +5059,11 @@
       </c>
       <c r="E58" s="87" t="str">
         <f>'3M_Futures'!I33</f>
-        <v>USD_YC3MRH_FUT3MZ9#0000</v>
+        <v>USD_YC3MRH_FUT3MZ9#0002</v>
       </c>
       <c r="F58" s="102">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
-        <v>96.322499999999991</v>
+        <v>96.157499999999999</v>
       </c>
       <c r="G58" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E58,Trigger)</f>
@@ -5106,11 +5104,11 @@
       </c>
       <c r="E59" s="87" t="str">
         <f>'3M_Futures'!I34</f>
-        <v>USD_YC3MRH_FUT3MH0#0000</v>
+        <v>USD_YC3MRH_FUT3MH0#0002</v>
       </c>
       <c r="F59" s="102">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
-        <v>96.25</v>
+        <v>96.08</v>
       </c>
       <c r="G59" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E59,Trigger)</f>
@@ -5151,11 +5149,11 @@
       </c>
       <c r="E60" s="87" t="str">
         <f>'3M_Futures'!I35</f>
-        <v>USD_YC3MRH_FUT3MM0#0000</v>
+        <v>USD_YC3MRH_FUT3MM0#0002</v>
       </c>
       <c r="F60" s="102">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
-        <v>96.175000000000011</v>
+        <v>96.004999999999995</v>
       </c>
       <c r="G60" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E60,Trigger)</f>
@@ -5196,11 +5194,11 @@
       </c>
       <c r="E61" s="87" t="str">
         <f>'3M_Futures'!I36</f>
-        <v>USD_YC3MRH_FUT3MU0#0000</v>
+        <v>USD_YC3MRH_FUT3MU0#0002</v>
       </c>
       <c r="F61" s="102">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
-        <v>96.112500000000011</v>
+        <v>95.944999999999993</v>
       </c>
       <c r="G61" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E61,Trigger)</f>
@@ -5241,11 +5239,11 @@
       </c>
       <c r="E62" s="87" t="str">
         <f>'3M_Futures'!I37</f>
-        <v>USD_YC3MRH_FUT3MZ0#0000</v>
+        <v>USD_YC3MRH_FUT3MZ0#0002</v>
       </c>
       <c r="F62" s="102">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
-        <v>96.047500000000014</v>
+        <v>95.875</v>
       </c>
       <c r="G62" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E62,Trigger)</f>
@@ -5286,11 +5284,11 @@
       </c>
       <c r="E63" s="87" t="str">
         <f>'3M_Futures'!I38</f>
-        <v>USD_YC3MRH_FUT3MH1#0000</v>
+        <v>USD_YC3MRH_FUT3MH1#0002</v>
       </c>
       <c r="F63" s="102">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
-        <v>95.997500000000002</v>
+        <v>95.835000000000008</v>
       </c>
       <c r="G63" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E63,Trigger)</f>
@@ -5331,11 +5329,11 @@
       </c>
       <c r="E64" s="87" t="str">
         <f>'3M_Futures'!I39</f>
-        <v>USD_YC3MRH_FUT3MM1#0000</v>
+        <v>USD_YC3MRH_FUT3MM1#0002</v>
       </c>
       <c r="F64" s="102">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
-        <v>95.95</v>
+        <v>95.784999999999997</v>
       </c>
       <c r="G64" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E64,Trigger)</f>
@@ -5376,11 +5374,11 @@
       </c>
       <c r="E65" s="87" t="str">
         <f>'3M_Futures'!I40</f>
-        <v>USD_YC3MRH_FUT3MU1#0000</v>
+        <v>USD_YC3MRH_FUT3MU1#0002</v>
       </c>
       <c r="F65" s="102">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
-        <v>95.912499999999994</v>
+        <v>95.75</v>
       </c>
       <c r="G65" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E65,Trigger)</f>
@@ -5421,11 +5419,11 @@
       </c>
       <c r="E66" s="87" t="str">
         <f>'3M_Futures'!I41</f>
-        <v>USD_YC3MRH_FUT3MZ1#0000</v>
+        <v>USD_YC3MRH_FUT3MZ1#0002</v>
       </c>
       <c r="F66" s="102">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
-        <v>95.875</v>
+        <v>95.712500000000006</v>
       </c>
       <c r="G66" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E66,Trigger)</f>
@@ -5466,11 +5464,11 @@
       </c>
       <c r="E67" s="87" t="str">
         <f>'3M_Futures'!I42</f>
-        <v>USD_YC3MRH_FUT3MH2#0000</v>
+        <v>USD_YC3MRH_FUT3MH2#0002</v>
       </c>
       <c r="F67" s="102">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
-        <v>95.847499999999997</v>
+        <v>95.685000000000002</v>
       </c>
       <c r="G67" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E67,Trigger)</f>
@@ -5511,11 +5509,11 @@
       </c>
       <c r="E68" s="87" t="str">
         <f>'3M_Futures'!I43</f>
-        <v>USD_YC3MRH_FUT3MM2#0000</v>
+        <v>USD_YC3MRH_FUT3MM2#0002</v>
       </c>
       <c r="F68" s="102">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
-        <v>95.814999999999998</v>
+        <v>95.66</v>
       </c>
       <c r="G68" s="88">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E68,Trigger)</f>
@@ -5556,11 +5554,11 @@
       </c>
       <c r="E69" s="94" t="str">
         <f>'3M_Futures'!I44</f>
-        <v>USD_YC3MRH_FUT3MU2#0000</v>
+        <v>USD_YC3MRH_FUT3MU2#0002</v>
       </c>
       <c r="F69" s="103">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
-        <v>95.782499999999999</v>
+        <v>95.63</v>
       </c>
       <c r="G69" s="95">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($E69,Trigger)</f>
@@ -6020,13 +6018,13 @@
         <f t="shared" si="4"/>
         <v>USD_YC3MRH_1S12</v>
       </c>
-      <c r="F81" s="106" t="e">
+      <c r="F81" s="106">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G81" s="106" t="e">
+        <v>2.6199999999999999E-3</v>
+      </c>
+      <c r="G81" s="106">
         <f>_xll.qlSwapRateHelperSpread($E81,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H81" s="107" t="b">
         <v>0</v>
@@ -6037,13 +6035,13 @@
       <c r="J81" s="107">
         <v>1</v>
       </c>
-      <c r="K81" s="108" t="e">
+      <c r="K81" s="108">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L81" s="109" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L81" s="109">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42164</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.2">
@@ -6058,13 +6056,13 @@
         <f t="shared" si="4"/>
         <v>USD_YC3MRH_2S12</v>
       </c>
-      <c r="F82" s="88" t="e">
+      <c r="F82" s="88">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G82" s="88" t="e">
+        <v>3.2699999999999995E-3</v>
+      </c>
+      <c r="G82" s="88">
         <f>_xll.qlSwapRateHelperSpread($E82,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H82" s="89" t="b">
         <v>0</v>
@@ -6075,13 +6073,13 @@
       <c r="J82" s="89">
         <v>1</v>
       </c>
-      <c r="K82" s="90" t="e">
+      <c r="K82" s="90">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L82" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L82" s="91">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42164</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
@@ -6098,7 +6096,7 @@
       </c>
       <c r="F83" s="88">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
-        <v>4.4499999999999991E-3</v>
+        <v>4.3899999999999998E-3</v>
       </c>
       <c r="G83" s="88">
         <f>_xll.qlSwapRateHelperSpread($E83,Trigger)</f>
@@ -6115,11 +6113,11 @@
       </c>
       <c r="K83" s="90">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L83" s="91">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>42145</v>
+        <v>42164</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
@@ -6134,13 +6132,13 @@
         <f t="shared" si="4"/>
         <v>USD_YC3MRH_4S12</v>
       </c>
-      <c r="F84" s="88" t="e">
+      <c r="F84" s="88">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G84" s="88" t="e">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G84" s="88">
         <f>_xll.qlSwapRateHelperSpread($E84,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H84" s="89" t="b">
         <v>0</v>
@@ -6153,11 +6151,11 @@
       </c>
       <c r="K84" s="90">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41780</v>
-      </c>
-      <c r="L84" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L84" s="91">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42164</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.2">
@@ -6189,13 +6187,13 @@
       <c r="J85" s="89">
         <v>1</v>
       </c>
-      <c r="K85" s="90" t="e">
+      <c r="K85" s="90">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L85" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L85" s="91">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42530</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
@@ -6214,9 +6212,9 @@
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G86" s="88" t="e">
+      <c r="G86" s="88">
         <f>_xll.qlSwapRateHelperSpread($E86,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H86" s="89" t="b">
         <v>0</v>
@@ -6229,11 +6227,11 @@
       </c>
       <c r="K86" s="90">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L86" s="91">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>42513</v>
+        <v>42530</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
@@ -6267,11 +6265,11 @@
       </c>
       <c r="K87" s="97">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L87" s="98">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>42877</v>
+        <v>42895</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.2">
@@ -6290,13 +6288,13 @@
         <f t="shared" si="4"/>
         <v>USD_YC3MRH_AM3L1Y</v>
       </c>
-      <c r="F88" s="88" t="e">
+      <c r="F88" s="88">
         <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G88" s="88" t="e">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="G88" s="88">
         <f>_xll.qlSwapRateHelperSpread($E88,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H88" s="89" t="b">
         <v>0</v>
@@ -6307,13 +6305,13 @@
       <c r="J88" s="89">
         <v>1</v>
       </c>
-      <c r="K88" s="90" t="e">
+      <c r="K88" s="90">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L88" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L88" s="91">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42164</v>
       </c>
       <c r="N88" s="110" t="e">
         <f t="shared" ref="N88:N124" si="7">IF(G88=G125,F88-F125,"--")</f>
@@ -6340,9 +6338,9 @@
         <f>_xll.qlRateHelperQuoteValue($E89,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G89" s="88" t="e">
+      <c r="G89" s="88">
         <f>_xll.qlSwapRateHelperSpread($E89,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H89" s="89" t="b">
         <v>0</v>
@@ -6353,13 +6351,13 @@
       <c r="J89" s="89">
         <v>1</v>
       </c>
-      <c r="K89" s="90" t="e">
+      <c r="K89" s="90">
         <f>_xll.qlRateHelperEarliestDate($E89,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41799</v>
       </c>
       <c r="L89" s="91">
         <f>_xll.qlRateHelperLatestDate($E89,Trigger)</f>
-        <v>42237</v>
+        <v>42256</v>
       </c>
       <c r="N89" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6386,9 +6384,9 @@
         <f>_xll.qlRateHelperQuoteValue($E90,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G90" s="88" t="e">
+      <c r="G90" s="88">
         <f>_xll.qlSwapRateHelperSpread($E90,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H90" s="89" t="b">
         <v>0</v>
@@ -6401,11 +6399,11 @@
       </c>
       <c r="K90" s="90">
         <f>_xll.qlRateHelperEarliestDate($E90,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L90" s="91">
         <f>_xll.qlRateHelperLatestDate($E90,Trigger)</f>
-        <v>42331</v>
+        <v>42347</v>
       </c>
       <c r="N90" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6432,9 +6430,9 @@
         <f>_xll.qlRateHelperQuoteValue($E91,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G91" s="88" t="e">
+      <c r="G91" s="88">
         <f>_xll.qlSwapRateHelperSpread($E91,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H91" s="89" t="b">
         <v>0</v>
@@ -6447,11 +6445,11 @@
       </c>
       <c r="K91" s="90">
         <f>_xll.qlRateHelperEarliestDate($E91,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L91" s="91">
         <f>_xll.qlRateHelperLatestDate($E91,Trigger)</f>
-        <v>42422</v>
+        <v>42438</v>
       </c>
       <c r="N91" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6476,7 +6474,7 @@
       </c>
       <c r="F92" s="88">
         <f>_xll.qlRateHelperQuoteValue($E92,Trigger)</f>
-        <v>5.0299999999999997E-3</v>
+        <v>5.2199999999999998E-3</v>
       </c>
       <c r="G92" s="88">
         <f>_xll.qlSwapRateHelperSpread($E92,Trigger)</f>
@@ -6493,11 +6491,11 @@
       </c>
       <c r="K92" s="90">
         <f>_xll.qlRateHelperEarliestDate($E92,Trigger)</f>
-        <v>41780</v>
-      </c>
-      <c r="L92" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L92" s="91">
         <f>_xll.qlRateHelperLatestDate($E92,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42530</v>
       </c>
       <c r="N92" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6520,13 +6518,13 @@
         <f t="shared" si="8"/>
         <v>USD_YC3MRH_AM3L3Y</v>
       </c>
-      <c r="F93" s="88" t="e">
+      <c r="F93" s="88">
         <f>_xll.qlRateHelperQuoteValue($E93,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G93" s="88" t="e">
+        <v>9.3100000000000006E-3</v>
+      </c>
+      <c r="G93" s="88">
         <f>_xll.qlSwapRateHelperSpread($E93,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H93" s="89" t="b">
         <v>1</v>
@@ -6537,13 +6535,13 @@
       <c r="J93" s="89">
         <v>1</v>
       </c>
-      <c r="K93" s="90" t="e">
+      <c r="K93" s="90">
         <f>_xll.qlRateHelperEarliestDate($E93,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L93" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L93" s="91">
         <f>_xll.qlRateHelperLatestDate($E93,Trigger)</f>
-        <v>#NUM!</v>
+        <v>42895</v>
       </c>
       <c r="N93" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6568,7 +6566,7 @@
       </c>
       <c r="F94" s="88">
         <f>_xll.qlRateHelperQuoteValue($E94,Trigger)</f>
-        <v>1.29E-2</v>
+        <v>1.3429999999999999E-2</v>
       </c>
       <c r="G94" s="88">
         <f>_xll.qlSwapRateHelperSpread($E94,Trigger)</f>
@@ -6583,13 +6581,13 @@
       <c r="J94" s="89">
         <v>1</v>
       </c>
-      <c r="K94" s="90" t="e">
+      <c r="K94" s="90">
         <f>_xll.qlRateHelperEarliestDate($E94,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L94" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L94" s="91">
         <f>_xll.qlRateHelperLatestDate($E94,Trigger)</f>
-        <v>#NUM!</v>
+        <v>43262</v>
       </c>
       <c r="N94" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6612,9 +6610,9 @@
         <f t="shared" si="8"/>
         <v>USD_YC3MRH_AM3L5Y</v>
       </c>
-      <c r="F95" s="88" t="e">
+      <c r="F95" s="88">
         <f>_xll.qlRateHelperQuoteValue($E95,Trigger)</f>
-        <v>#NUM!</v>
+        <v>1.6930000000000001E-2</v>
       </c>
       <c r="G95" s="88">
         <f>_xll.qlSwapRateHelperSpread($E95,Trigger)</f>
@@ -6631,11 +6629,11 @@
       </c>
       <c r="K95" s="90">
         <f>_xll.qlRateHelperEarliestDate($E95,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L95" s="91">
         <f>_xll.qlRateHelperLatestDate($E95,Trigger)</f>
-        <v>43606</v>
+        <v>43626</v>
       </c>
       <c r="N95" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6658,13 +6656,13 @@
         <f t="shared" si="8"/>
         <v>USD_YC3MRH_AM3L6Y</v>
       </c>
-      <c r="F96" s="88" t="e">
+      <c r="F96" s="88">
         <f>_xll.qlRateHelperQuoteValue($E96,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G96" s="88" t="e">
+        <v>1.9820000000000001E-2</v>
+      </c>
+      <c r="G96" s="88">
         <f>_xll.qlSwapRateHelperSpread($E96,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H96" s="89" t="b">
         <v>1</v>
@@ -6675,13 +6673,13 @@
       <c r="J96" s="89">
         <v>1</v>
       </c>
-      <c r="K96" s="90" t="e">
+      <c r="K96" s="90">
         <f>_xll.qlRateHelperEarliestDate($E96,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L96" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L96" s="91">
         <f>_xll.qlRateHelperLatestDate($E96,Trigger)</f>
-        <v>#NUM!</v>
+        <v>43991</v>
       </c>
       <c r="N96" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6706,11 +6704,11 @@
       </c>
       <c r="F97" s="88">
         <f>_xll.qlRateHelperQuoteValue($E97,Trigger)</f>
-        <v>2.1170000000000001E-2</v>
-      </c>
-      <c r="G97" s="88" t="e">
+        <v>2.2170000000000002E-2</v>
+      </c>
+      <c r="G97" s="88">
         <f>_xll.qlSwapRateHelperSpread($E97,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H97" s="89" t="b">
         <v>1</v>
@@ -6721,13 +6719,13 @@
       <c r="J97" s="89">
         <v>1</v>
       </c>
-      <c r="K97" s="90" t="e">
+      <c r="K97" s="90">
         <f>_xll.qlRateHelperEarliestDate($E97,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41799</v>
       </c>
       <c r="L97" s="91">
         <f>_xll.qlRateHelperLatestDate($E97,Trigger)</f>
-        <v>44337</v>
+        <v>44356</v>
       </c>
       <c r="N97" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6752,7 +6750,7 @@
       </c>
       <c r="F98" s="88">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>2.3010000000000003E-2</v>
+        <v>2.4070000000000001E-2</v>
       </c>
       <c r="G98" s="88">
         <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
@@ -6769,11 +6767,11 @@
       </c>
       <c r="K98" s="90">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L98" s="91">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>44704</v>
+        <v>44721</v>
       </c>
       <c r="N98" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6796,13 +6794,13 @@
         <f t="shared" si="8"/>
         <v>USD_YC3MRH_AM3L9Y</v>
       </c>
-      <c r="F99" s="88" t="e">
+      <c r="F99" s="88">
         <f>_xll.qlRateHelperQuoteValue($E99,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G99" s="88" t="e">
+        <v>2.564E-2</v>
+      </c>
+      <c r="G99" s="88">
         <f>_xll.qlSwapRateHelperSpread($E99,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H99" s="89" t="b">
         <v>1</v>
@@ -6815,11 +6813,11 @@
       </c>
       <c r="K99" s="90">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L99" s="91">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
-        <v>45068</v>
+        <v>45086</v>
       </c>
       <c r="N99" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6844,7 +6842,7 @@
       </c>
       <c r="F100" s="88">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>2.5830000000000002E-2</v>
+        <v>2.6959999999999998E-2</v>
       </c>
       <c r="G100" s="88">
         <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
@@ -6861,11 +6859,11 @@
       </c>
       <c r="K100" s="90">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L100" s="91">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>45433</v>
+        <v>45453</v>
       </c>
       <c r="N100" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6905,13 +6903,13 @@
       <c r="J101" s="89">
         <v>1</v>
       </c>
-      <c r="K101" s="90" t="e">
+      <c r="K101" s="90">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L101" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L101" s="91">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>#NUM!</v>
+        <v>45817</v>
       </c>
       <c r="N101" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6934,13 +6932,13 @@
         <f t="shared" si="8"/>
         <v>USD_YC3MRH_AM3L12Y</v>
       </c>
-      <c r="F102" s="88" t="e">
+      <c r="F102" s="88">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G102" s="88" t="e">
+        <v>2.9059999999999996E-2</v>
+      </c>
+      <c r="G102" s="88">
         <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H102" s="89" t="b">
         <v>1</v>
@@ -6951,13 +6949,13 @@
       <c r="J102" s="89">
         <v>1</v>
       </c>
-      <c r="K102" s="90" t="e">
+      <c r="K102" s="90">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41799</v>
       </c>
       <c r="L102" s="91">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
-        <v>46163</v>
+        <v>46182</v>
       </c>
       <c r="N102" s="110" t="e">
         <f t="shared" si="7"/>
@@ -6984,9 +6982,9 @@
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G103" s="88" t="e">
+      <c r="G103" s="88">
         <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H103" s="89" t="b">
         <v>0</v>
@@ -6999,11 +6997,11 @@
       </c>
       <c r="K103" s="90">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L103" s="91">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>46528</v>
+        <v>46547</v>
       </c>
       <c r="N103" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7045,11 +7043,11 @@
       </c>
       <c r="K104" s="90">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L104" s="91">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>46895</v>
+        <v>46913</v>
       </c>
       <c r="N104" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7074,7 +7072,7 @@
       </c>
       <c r="F105" s="88">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>2.9850000000000002E-2</v>
+        <v>3.117E-2</v>
       </c>
       <c r="G105" s="88">
         <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
@@ -7091,11 +7089,11 @@
       </c>
       <c r="K105" s="90">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L105" s="91">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>47259</v>
+        <v>47280</v>
       </c>
       <c r="N105" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7122,9 +7120,9 @@
         <f>_xll.qlRateHelperQuoteValue($E106,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G106" s="88" t="e">
+      <c r="G106" s="88">
         <f>_xll.qlSwapRateHelperSpread($E106,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H106" s="89" t="b">
         <v>0</v>
@@ -7135,13 +7133,13 @@
       <c r="J106" s="89">
         <v>1</v>
       </c>
-      <c r="K106" s="90" t="e">
+      <c r="K106" s="90">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L106" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L106" s="91">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>#NUM!</v>
+        <v>47644</v>
       </c>
       <c r="N106" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7181,13 +7179,13 @@
       <c r="J107" s="89">
         <v>1</v>
       </c>
-      <c r="K107" s="90" t="e">
+      <c r="K107" s="90">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41799</v>
       </c>
       <c r="L107" s="91">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
-        <v>47989</v>
+        <v>48008</v>
       </c>
       <c r="N107" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7227,13 +7225,13 @@
       <c r="J108" s="89">
         <v>1</v>
       </c>
-      <c r="K108" s="90" t="e">
+      <c r="K108" s="90">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L108" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L108" s="91">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
-        <v>#NUM!</v>
+        <v>48374</v>
       </c>
       <c r="N108" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7260,9 +7258,9 @@
         <f>_xll.qlRateHelperQuoteValue($E109,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G109" s="88" t="e">
+      <c r="G109" s="88">
         <f>_xll.qlSwapRateHelperSpread($E109,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H109" s="89" t="b">
         <v>0</v>
@@ -7275,11 +7273,11 @@
       </c>
       <c r="K109" s="90">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L109" s="91">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>48722</v>
+        <v>48739</v>
       </c>
       <c r="N109" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7304,11 +7302,11 @@
       </c>
       <c r="F110" s="88">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
-        <v>3.1620000000000002E-2</v>
-      </c>
-      <c r="G110" s="88" t="e">
+        <v>3.3010000000000005E-2</v>
+      </c>
+      <c r="G110" s="88">
         <f>_xll.qlSwapRateHelperSpread($E110,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H110" s="89" t="b">
         <v>1</v>
@@ -7319,13 +7317,13 @@
       <c r="J110" s="89">
         <v>1</v>
       </c>
-      <c r="K110" s="90" t="e">
+      <c r="K110" s="90">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L110" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L110" s="91">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>#NUM!</v>
+        <v>49104</v>
       </c>
       <c r="N110" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7367,11 +7365,11 @@
       </c>
       <c r="K111" s="90">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L111" s="91">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>49450</v>
+        <v>49471</v>
       </c>
       <c r="N111" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7398,9 +7396,9 @@
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G112" s="88" t="e">
+      <c r="G112" s="88">
         <f>_xll.qlSwapRateHelperSpread($E112,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H112" s="89" t="b">
         <v>0</v>
@@ -7411,13 +7409,13 @@
       <c r="J112" s="89">
         <v>1</v>
       </c>
-      <c r="K112" s="90" t="e">
+      <c r="K112" s="90">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L112" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L112" s="91">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>#NUM!</v>
+        <v>49835</v>
       </c>
       <c r="N112" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7457,13 +7455,13 @@
       <c r="J113" s="89">
         <v>1</v>
       </c>
-      <c r="K113" s="90" t="e">
+      <c r="K113" s="90">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L113" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L113" s="91">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
-        <v>#NUM!</v>
+        <v>50200</v>
       </c>
       <c r="N113" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7490,9 +7488,9 @@
         <f>_xll.qlRateHelperQuoteValue($E114,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G114" s="88" t="e">
+      <c r="G114" s="88">
         <f>_xll.qlSwapRateHelperSpread($E114,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H114" s="89" t="b">
         <v>0</v>
@@ -7503,13 +7501,13 @@
       <c r="J114" s="89">
         <v>1</v>
       </c>
-      <c r="K114" s="90" t="e">
+      <c r="K114" s="90">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L114" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L114" s="91">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
-        <v>#NUM!</v>
+        <v>50565</v>
       </c>
       <c r="N114" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7534,7 +7532,7 @@
       </c>
       <c r="F115" s="88">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
-        <v>3.2419999999999997E-2</v>
+        <v>3.3829999999999999E-2</v>
       </c>
       <c r="G115" s="88">
         <f>_xll.qlSwapRateHelperSpread($E115,Trigger)</f>
@@ -7549,13 +7547,13 @@
       <c r="J115" s="89">
         <v>1</v>
       </c>
-      <c r="K115" s="90" t="e">
+      <c r="K115" s="90">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41799</v>
       </c>
       <c r="L115" s="91">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>50913</v>
+        <v>50930</v>
       </c>
       <c r="N115" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7582,9 +7580,9 @@
         <f>_xll.qlRateHelperQuoteValue($E116,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G116" s="88" t="e">
+      <c r="G116" s="88">
         <f>_xll.qlSwapRateHelperSpread($E116,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H116" s="89" t="b">
         <v>0</v>
@@ -7597,11 +7595,11 @@
       </c>
       <c r="K116" s="90">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L116" s="91">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>51277</v>
+        <v>51298</v>
       </c>
       <c r="N116" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7641,13 +7639,13 @@
       <c r="J117" s="89">
         <v>1</v>
       </c>
-      <c r="K117" s="90" t="e">
+      <c r="K117" s="90">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L117" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L117" s="91">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>#NUM!</v>
+        <v>51662</v>
       </c>
       <c r="N117" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7689,11 +7687,11 @@
       </c>
       <c r="K118" s="90">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L118" s="91">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>52007</v>
+        <v>52026</v>
       </c>
       <c r="N118" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7720,9 +7718,9 @@
         <f>_xll.qlRateHelperQuoteValue($E119,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G119" s="88" t="e">
+      <c r="G119" s="88">
         <f>_xll.qlSwapRateHelperSpread($E119,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H119" s="89" t="b">
         <v>0</v>
@@ -7733,13 +7731,13 @@
       <c r="J119" s="89">
         <v>1</v>
       </c>
-      <c r="K119" s="90" t="e">
+      <c r="K119" s="90">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L119" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L119" s="91">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
-        <v>#NUM!</v>
+        <v>52391</v>
       </c>
       <c r="N119" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7762,13 +7760,13 @@
         <f t="shared" si="8"/>
         <v>USD_YC3MRH_AM3L30Y</v>
       </c>
-      <c r="F120" s="88" t="e">
+      <c r="F120" s="88">
         <f>_xll.qlRateHelperQuoteValue($E120,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G120" s="88" t="e">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="G120" s="88">
         <f>_xll.qlSwapRateHelperSpread($E120,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H120" s="89" t="b">
         <v>1</v>
@@ -7779,13 +7777,13 @@
       <c r="J120" s="89">
         <v>1</v>
       </c>
-      <c r="K120" s="90" t="e">
+      <c r="K120" s="90">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41799</v>
       </c>
       <c r="L120" s="91">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>52740</v>
+        <v>52757</v>
       </c>
       <c r="N120" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7812,9 +7810,9 @@
         <f>_xll.qlRateHelperQuoteValue($E121,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G121" s="88" t="e">
+      <c r="G121" s="88">
         <f>_xll.qlSwapRateHelperSpread($E121,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H121" s="89" t="b">
         <v>0</v>
@@ -7827,11 +7825,11 @@
       </c>
       <c r="K121" s="90">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="L121" s="91">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>54564</v>
+        <v>54583</v>
       </c>
       <c r="N121" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7854,13 +7852,13 @@
         <f t="shared" ref="E122:E153" si="10">RateHelperPrefix&amp;"_"&amp;$B122&amp;$C122&amp;$D122</f>
         <v>USD_YC3MRH_AM3L40Y</v>
       </c>
-      <c r="F122" s="88" t="e">
+      <c r="F122" s="88">
         <f>_xll.qlRateHelperQuoteValue($E122,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G122" s="88" t="e">
+        <v>3.44E-2</v>
+      </c>
+      <c r="G122" s="88">
         <f>_xll.qlSwapRateHelperSpread($E122,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="H122" s="89" t="b">
         <v>1</v>
@@ -7871,13 +7869,13 @@
       <c r="J122" s="89">
         <v>1</v>
       </c>
-      <c r="K122" s="90" t="e">
+      <c r="K122" s="90">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L122" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L122" s="91">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>#NUM!</v>
+        <v>56409</v>
       </c>
       <c r="N122" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7902,7 +7900,7 @@
       </c>
       <c r="F123" s="88">
         <f>_xll.qlRateHelperQuoteValue($E123,Trigger)</f>
-        <v>3.279E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="G123" s="88">
         <f>_xll.qlSwapRateHelperSpread($E123,Trigger)</f>
@@ -7917,13 +7915,13 @@
       <c r="J123" s="89">
         <v>1</v>
       </c>
-      <c r="K123" s="90" t="e">
+      <c r="K123" s="90">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L123" s="91" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L123" s="91">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>#NUM!</v>
+        <v>60062</v>
       </c>
       <c r="N123" s="110" t="e">
         <f t="shared" si="7"/>
@@ -7965,11 +7963,11 @@
       </c>
       <c r="K124" s="97">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41780</v>
-      </c>
-      <c r="L124" s="98" t="e">
+        <v>41799</v>
+      </c>
+      <c r="L124" s="98">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
-        <v>#NUM!</v>
+        <v>63716</v>
       </c>
       <c r="N124" s="110" t="e">
         <f t="shared" si="7"/>
@@ -9601,7 +9599,7 @@
       </c>
       <c r="E2" s="67">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>2.4580000000000001E-3</v>
+        <v>2.3410000000000002E-3</v>
       </c>
       <c r="F2" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9609,14 +9607,14 @@
       </c>
       <c r="G2" s="79">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H2" s="80">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41787</v>
+        <v>41806</v>
       </c>
       <c r="I2" s="63">
-        <v>0.99995220783975503</v>
+        <v>0.99995448262748077</v>
       </c>
       <c r="L2" s="68"/>
     </row>
@@ -9632,7 +9630,7 @@
       </c>
       <c r="E3" s="67">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>2.372E-3</v>
+        <v>2.3180000000000002E-3</v>
       </c>
       <c r="F3" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9640,14 +9638,14 @@
       </c>
       <c r="G3" s="79">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H3" s="80">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41813</v>
+        <v>41829</v>
       </c>
       <c r="I3" s="63">
-        <v>0.99978261393364365</v>
+        <v>0.99980687063973106</v>
       </c>
       <c r="L3" s="68"/>
     </row>
@@ -9663,7 +9661,7 @@
       </c>
       <c r="E4" s="67">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>2.31E-3</v>
+        <v>2.2959999999999999E-3</v>
       </c>
       <c r="F4" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9671,14 +9669,14 @@
       </c>
       <c r="G4" s="79">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H4" s="80">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41841</v>
+        <v>41862</v>
       </c>
       <c r="I4" s="63">
-        <v>0.99960873648039594</v>
+        <v>0.99959836137839808</v>
       </c>
       <c r="L4" s="68"/>
     </row>
@@ -9690,23 +9688,23 @@
         <v>65</v>
       </c>
       <c r="D5" s="66" t="str">
-        <v>USD_YC3MRH_FUT3MK4</v>
+        <v>USD_YC3MRH_3MD</v>
       </c>
       <c r="E5" s="67">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>2.274999999999916E-3</v>
-      </c>
-      <c r="F5" s="67">
+        <v>2.2750000000000001E-3</v>
+      </c>
+      <c r="F5" s="67" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
-        <v>0</v>
+        <v>--</v>
       </c>
       <c r="G5" s="79">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H5" s="80">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41872</v>
+        <v>41891</v>
       </c>
       <c r="I5" s="63">
         <v>0.99941894892774852</v>
@@ -9726,7 +9724,7 @@
       </c>
       <c r="E6" s="67">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>2.2375000000000034E-3</v>
+        <v>2.2624999999999451E-3</v>
       </c>
       <c r="F6" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9741,25 +9739,25 @@
         <v>41900</v>
       </c>
       <c r="I6" s="63">
-        <v>0.99924302995938974</v>
+        <v>0.99936370076308501</v>
       </c>
       <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="73" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_RateHelpersSelected#0000</v>
+        <v>USD_YC3MRH_RateHelpersSelected#0002</v>
       </c>
       <c r="B7" s="74" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="66" t="str">
-        <v>USD_YC3MRH_FUT3MU4</v>
+        <v>USD_YC3MRH_FUT3MN4</v>
       </c>
       <c r="E7" s="67">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>2.3250000000000215E-3</v>
+        <v>2.274999999999916E-3</v>
       </c>
       <c r="F7" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9767,24 +9765,24 @@
       </c>
       <c r="G7" s="79">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41899</v>
+        <v>41836</v>
       </c>
       <c r="H7" s="80">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41990</v>
+        <v>41928</v>
       </c>
       <c r="I7" s="63">
-        <v>0.99866243389926368</v>
+        <v>0.99918143519586344</v>
       </c>
       <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="66" t="str">
-        <v>USD_YC3MRH_FUT3MZ4</v>
+        <v>USD_YC3MRH_FUT3MU4</v>
       </c>
       <c r="E8" s="67">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>2.6249999999999885E-3</v>
+        <v>2.3250000000000215E-3</v>
       </c>
       <c r="F8" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9792,24 +9790,24 @@
       </c>
       <c r="G8" s="79">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41990</v>
+        <v>41899</v>
       </c>
       <c r="H8" s="80">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42080</v>
+        <v>41990</v>
       </c>
       <c r="I8" s="63">
-        <v>0.99800749148297807</v>
+        <v>0.99878292607766861</v>
       </c>
       <c r="L8" s="68"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="66" t="str">
-        <v>USD_YC3MRH_FUT3MH5</v>
+        <v>USD_YC3MRH_FUT3MZ4</v>
       </c>
       <c r="E9" s="67">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>3.4250000000000114E-3</v>
+        <v>2.5749999999998829E-3</v>
       </c>
       <c r="F9" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -9817,24 +9815,24 @@
       </c>
       <c r="G9" s="79">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42081</v>
+        <v>41990</v>
       </c>
       <c r="H9" s="80">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42173</v>
+        <v>42080</v>
       </c>
       <c r="I9" s="63">
-        <v>0.99712666439057251</v>
+        <v>0.998140373212413</v>
       </c>
       <c r="L9" s="68"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="66" t="str">
-        <v>USD_YC3MRH_FUT3MM5</v>
+        <v>USD_YC3MRH_FUT3MH5</v>
       </c>
       <c r="E10" s="67">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>4.9250000000000682E-3</v>
+        <v>3.3249999999999114E-3</v>
       </c>
       <c r="F10" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -9842,24 +9840,24 @@
       </c>
       <c r="G10" s="79">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42172</v>
+        <v>42081</v>
       </c>
       <c r="H10" s="80">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42264</v>
+        <v>42173</v>
       </c>
       <c r="I10" s="63">
-        <v>0.99588450667874173</v>
+        <v>0.99728508046731301</v>
       </c>
       <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="66" t="str">
-        <v>USD_YC3MRH_FUT3MU5</v>
+        <v>USD_YC3MRH_FUT3MM5</v>
       </c>
       <c r="E11" s="67">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>6.8749999999999645E-3</v>
+        <v>4.8249999999999682E-3</v>
       </c>
       <c r="F11" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -9867,25 +9865,25 @@
       </c>
       <c r="G11" s="79">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42263</v>
+        <v>42172</v>
       </c>
       <c r="H11" s="80">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42354</v>
+        <v>42264</v>
       </c>
       <c r="I11" s="63">
-        <v>0.99417292501465682</v>
+        <v>0.99606782807402339</v>
       </c>
       <c r="L11" s="68"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="75"/>
       <c r="D12" s="66" t="str">
-        <v>USD_YC3MRH_FUT3MZ5</v>
+        <v>USD_YC3MRH_FUT3MU5</v>
       </c>
       <c r="E12" s="67">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>9.2250000000000387E-3</v>
+        <v>6.825000000000081E-3</v>
       </c>
       <c r="F12" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -9893,25 +9891,25 @@
       </c>
       <c r="G12" s="79">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42354</v>
+        <v>42263</v>
       </c>
       <c r="H12" s="80">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42445</v>
+        <v>42354</v>
       </c>
       <c r="I12" s="63">
-        <v>0.99186003140392687</v>
+        <v>0.99436828982417735</v>
       </c>
       <c r="L12" s="68"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="75"/>
       <c r="D13" s="66" t="str">
-        <v>USD_YC3MRH_FUT3MH6</v>
+        <v>USD_YC3MRH_FUT3MZ5</v>
       </c>
       <c r="E13" s="67">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>1.1775000000000091E-2</v>
+        <v>9.1249999999999387E-3</v>
       </c>
       <c r="F13" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -9919,24 +9917,24 @@
       </c>
       <c r="G13" s="79">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42445</v>
+        <v>42354</v>
       </c>
       <c r="H13" s="80">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42537</v>
+        <v>42445</v>
       </c>
       <c r="I13" s="63">
-        <v>0.98888431368998142</v>
+        <v>0.99207996094204609</v>
       </c>
       <c r="L13" s="68"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="66" t="str">
-        <v>USD_YC3MRH_AM3L3Y</v>
+        <v>USD_YC3MRH_FUT3MH6</v>
       </c>
       <c r="E14" s="67">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>9.0299999999999998E-3</v>
+        <v>1.1624999999999996E-2</v>
       </c>
       <c r="F14" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -9944,24 +9942,24 @@
       </c>
       <c r="G14" s="79">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41780</v>
+        <v>42445</v>
       </c>
       <c r="H14" s="80">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42877</v>
+        <v>42537</v>
       </c>
       <c r="I14" s="63">
-        <v>0.97285974296791278</v>
+        <v>0.98914138673894247</v>
       </c>
       <c r="L14" s="68"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="66" t="str">
-        <v>USD_YC3MRH_AM3L4Y</v>
+        <v>USD_YC3MRH_AM3L3Y</v>
       </c>
       <c r="E15" s="67">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>1.29E-2</v>
+        <v>9.3100000000000006E-3</v>
       </c>
       <c r="F15" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -9969,24 +9967,24 @@
       </c>
       <c r="G15" s="79">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H15" s="80">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>43241</v>
+        <v>42895</v>
       </c>
       <c r="I15" s="63">
-        <v>0.94887577258361233</v>
+        <v>0.97206380236840118</v>
       </c>
       <c r="L15" s="68"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="66" t="str">
-        <v>USD_YC3MRH_AM3L5Y</v>
+        <v>USD_YC3MRH_AM3L4Y</v>
       </c>
       <c r="E16" s="67">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.6219999999999998E-2</v>
+        <v>1.3429999999999999E-2</v>
       </c>
       <c r="F16" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -9994,24 +9992,24 @@
       </c>
       <c r="G16" s="79">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H16" s="80">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43606</v>
+        <v>43262</v>
       </c>
       <c r="I16" s="63">
-        <v>0.92061775217142439</v>
+        <v>0.9467604267246611</v>
       </c>
       <c r="L16" s="68"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D17" s="66" t="str">
-        <v>USD_YC3MRH_AM3L6Y</v>
+        <v>USD_YC3MRH_AM3L5Y</v>
       </c>
       <c r="E17" s="67">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.8950000000000002E-2</v>
+        <v>1.6930000000000001E-2</v>
       </c>
       <c r="F17" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -10019,24 +10017,24 @@
       </c>
       <c r="G17" s="79">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H17" s="80">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43972</v>
+        <v>43626</v>
       </c>
       <c r="I17" s="63">
-        <v>0.89015611963652386</v>
+        <v>0.91722097506321354</v>
       </c>
       <c r="L17" s="68"/>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D18" s="66" t="str">
-        <v>USD_YC3MRH_AM3L7Y</v>
+        <v>USD_YC3MRH_AM3L6Y</v>
       </c>
       <c r="E18" s="67">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>2.1170000000000001E-2</v>
+        <v>1.9820000000000001E-2</v>
       </c>
       <c r="F18" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -10044,24 +10042,24 @@
       </c>
       <c r="G18" s="79">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H18" s="80">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>44337</v>
+        <v>43991</v>
       </c>
       <c r="I18" s="63">
-        <v>0.85890780187134075</v>
+        <v>0.88534733824271583</v>
       </c>
       <c r="L18" s="68"/>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D19" s="66" t="str">
-        <v>USD_YC3MRH_AM3L8Y</v>
+        <v>USD_YC3MRH_AM3L7Y</v>
       </c>
       <c r="E19" s="67">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>2.3010000000000003E-2</v>
+        <v>2.2170000000000002E-2</v>
       </c>
       <c r="F19" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -10069,24 +10067,24 @@
       </c>
       <c r="G19" s="79">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H19" s="80">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44704</v>
+        <v>44356</v>
       </c>
       <c r="I19" s="63">
-        <v>0.82730324731504812</v>
+        <v>0.85264691028822248</v>
       </c>
       <c r="L19" s="68"/>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D20" s="66" t="str">
-        <v>USD_YC3MRH_AM3L9Y</v>
+        <v>USD_YC3MRH_AM3L8Y</v>
       </c>
       <c r="E20" s="67">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>2.4539999999999996E-2</v>
+        <v>2.4070000000000001E-2</v>
       </c>
       <c r="F20" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -10094,24 +10092,24 @@
       </c>
       <c r="G20" s="79">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H20" s="80">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>45068</v>
+        <v>44721</v>
       </c>
       <c r="I20" s="63">
-        <v>0.7961451079136197</v>
+        <v>0.82007186272046273</v>
       </c>
       <c r="L20" s="68"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D21" s="66" t="str">
-        <v>USD_YC3MRH_AM3L10Y</v>
+        <v>USD_YC3MRH_AM3L9Y</v>
       </c>
       <c r="E21" s="67">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.5830000000000002E-2</v>
+        <v>2.564E-2</v>
       </c>
       <c r="F21" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -10119,24 +10117,24 @@
       </c>
       <c r="G21" s="79">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H21" s="80">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>45433</v>
+        <v>45086</v>
       </c>
       <c r="I21" s="63">
-        <v>0.76546196085579654</v>
+        <v>0.78792903910759982</v>
       </c>
       <c r="L21" s="68"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D22" s="66" t="str">
-        <v>USD_YC3MRH_AM3L12Y</v>
+        <v>USD_YC3MRH_AM3L10Y</v>
       </c>
       <c r="E22" s="67">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.785E-2</v>
+        <v>2.6959999999999998E-2</v>
       </c>
       <c r="F22" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -10144,24 +10142,24 @@
       </c>
       <c r="G22" s="79">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H22" s="80">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>46163</v>
+        <v>45453</v>
       </c>
       <c r="I22" s="63">
-        <v>0.70657932578166371</v>
+        <v>0.75630825110052791</v>
       </c>
       <c r="L22" s="68"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D23" s="66" t="str">
-        <v>USD_YC3MRH_AM3L15Y</v>
+        <v>USD_YC3MRH_AM3L12Y</v>
       </c>
       <c r="E23" s="67">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.9850000000000002E-2</v>
+        <v>2.9059999999999996E-2</v>
       </c>
       <c r="F23" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -10169,24 +10167,24 @@
       </c>
       <c r="G23" s="79">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H23" s="80">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>47259</v>
+        <v>46182</v>
       </c>
       <c r="I23" s="63">
-        <v>0.62647852759826672</v>
+        <v>0.69568269296173701</v>
       </c>
       <c r="L23" s="68"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D24" s="66" t="str">
-        <v>USD_YC3MRH_AM3L20Y</v>
+        <v>USD_YC3MRH_AM3L15Y</v>
       </c>
       <c r="E24" s="67">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>3.1620000000000002E-2</v>
+        <v>3.117E-2</v>
       </c>
       <c r="F24" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -10194,24 +10192,24 @@
       </c>
       <c r="G24" s="79">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H24" s="80">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>49086</v>
+        <v>47280</v>
       </c>
       <c r="I24" s="63">
-        <v>0.51523499717377086</v>
+        <v>0.61303802237991589</v>
       </c>
       <c r="L24" s="68"/>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D25" s="66" t="str">
-        <v>USD_YC3MRH_AM3L25Y</v>
+        <v>USD_YC3MRH_AM3L20Y</v>
       </c>
       <c r="E25" s="67">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>3.2419999999999997E-2</v>
+        <v>3.3010000000000005E-2</v>
       </c>
       <c r="F25" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -10219,24 +10217,24 @@
       </c>
       <c r="G25" s="79">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H25" s="80">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>50913</v>
+        <v>49104</v>
       </c>
       <c r="I25" s="63">
-        <v>0.42737527688467308</v>
+        <v>0.49977532083886994</v>
       </c>
       <c r="L25" s="68"/>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D26" s="66" t="str">
-        <v>USD_YC3MRH_AM3L30Y</v>
+        <v>USD_YC3MRH_AM3L25Y</v>
       </c>
       <c r="E26" s="67">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>3.279E-2</v>
+        <v>3.3829999999999999E-2</v>
       </c>
       <c r="F26" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -10244,24 +10242,24 @@
       </c>
       <c r="G26" s="79">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H26" s="80">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>52740</v>
+        <v>50930</v>
       </c>
       <c r="I26" s="63">
-        <v>0.35708788665618463</v>
+        <v>0.41125206591647151</v>
       </c>
       <c r="L26" s="68"/>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D27" s="66" t="str">
-        <v>USD_YC3MRH_AM3L40Y</v>
+        <v>USD_YC3MRH_AM3L30Y</v>
       </c>
       <c r="E27" s="67">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>3.295E-2</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="F27" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -10269,24 +10267,24 @@
       </c>
       <c r="G27" s="79">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H27" s="80">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>56390</v>
+        <v>52757</v>
       </c>
       <c r="I27" s="63">
-        <v>0.2547148334850286</v>
+        <v>0.34110824700795606</v>
       </c>
       <c r="L27" s="68"/>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D28" s="66" t="str">
-        <v>USD_YC3MRH_AM3L50Y</v>
+        <v>USD_YC3MRH_AM3L40Y</v>
       </c>
       <c r="E28" s="67">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>3.279E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="F28" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -10294,39 +10292,39 @@
       </c>
       <c r="G28" s="79">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41780</v>
+        <v>41799</v>
       </c>
       <c r="H28" s="80">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>60043</v>
+        <v>56409</v>
       </c>
       <c r="I28" s="63">
-        <v>0.18646777501406983</v>
+        <v>0.23914655574260579</v>
       </c>
       <c r="L28" s="68"/>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D29" s="66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E29" s="67" t="e">
+      <c r="D29" s="66" t="str">
+        <v>USD_YC3MRH_AM3L50Y</v>
+      </c>
+      <c r="E29" s="67">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" s="67" t="str">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="F29" s="67">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
-        <v>--</v>
-      </c>
-      <c r="G29" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="G29" s="79">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H29" s="80" t="e">
+        <v>41799</v>
+      </c>
+      <c r="H29" s="80">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="63" t="e">
-        <v>#N/A</v>
+        <v>60062</v>
+      </c>
+      <c r="I29" s="63">
+        <v>0.17352870374147814</v>
       </c>
       <c r="L29" s="68"/>
     </row>
@@ -12751,7 +12749,7 @@
       </c>
       <c r="C3" s="132" t="str">
         <f>_xll.qlLibor(,"USD",B3,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_003bc#0000</v>
+        <v>obj_004c4#0002</v>
       </c>
       <c r="D3" s="133" t="str">
         <f t="shared" ref="D3:D6" si="0">Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
@@ -12763,7 +12761,7 @@
       </c>
       <c r="F3" s="135" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_SWD#0000</v>
+        <v>USD_YC3MRH_SWD#0002</v>
       </c>
       <c r="G3" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -12778,7 +12776,7 @@
       </c>
       <c r="C4" s="132" t="str">
         <f>_xll.qlLibor(,"USD",B4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_003bf#0000</v>
+        <v>obj_004c5#0002</v>
       </c>
       <c r="D4" s="133" t="str">
         <f t="shared" si="0"/>
@@ -12790,7 +12788,7 @@
       </c>
       <c r="F4" s="135" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_1MD#0000</v>
+        <v>USD_YC3MRH_1MD#0002</v>
       </c>
       <c r="G4" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -12805,7 +12803,7 @@
       </c>
       <c r="C5" s="132" t="str">
         <f>_xll.qlLibor(,"USD",B5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_003f4#0000</v>
+        <v>obj_004c6#0002</v>
       </c>
       <c r="D5" s="133" t="str">
         <f t="shared" si="0"/>
@@ -12817,7 +12815,7 @@
       </c>
       <c r="F5" s="135" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_2MD#0000</v>
+        <v>USD_YC3MRH_2MD#0002</v>
       </c>
       <c r="G5" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -12832,7 +12830,7 @@
       </c>
       <c r="C6" s="132" t="str">
         <f>_xll.qlLibor(,"USD",B6,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ba#0000</v>
+        <v>obj_004c3#0002</v>
       </c>
       <c r="D6" s="133" t="str">
         <f t="shared" si="0"/>
@@ -12844,7 +12842,7 @@
       </c>
       <c r="F6" s="135" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_3MD#0000</v>
+        <v>USD_YC3MRH_3MD#0002</v>
       </c>
       <c r="G6" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -12959,7 +12957,7 @@
       </c>
       <c r="D3" s="149" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C44)</f>
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E3" s="149" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -12967,19 +12965,19 @@
       </c>
       <c r="F3" s="150" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>USDFUT3MK4_Quote</v>
+        <v>USDFUT3MM4_Quote</v>
       </c>
       <c r="G3" s="150" t="str">
         <f t="shared" ref="G3:G34" si="2">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>USDFUT3MK4ConvAdj_Quote</v>
+        <v>USDFUT3MM4ConvAdj_Quote</v>
       </c>
       <c r="H3" s="150" t="str">
         <f t="shared" ref="H3:H34" si="3">$H$1&amp;"_FUT"&amp;$E$1&amp;$D3</f>
-        <v>USD_YC3MRH_FUT3MK4</v>
+        <v>USD_YC3MRH_FUT3MM4</v>
       </c>
       <c r="I3" s="151" t="str">
         <f>_xll.qlFuturesRateHelper(H3,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MK4#0000</v>
+        <v>USD_YC3MRH_FUT3MM4#0002</v>
       </c>
       <c r="J3" s="152" t="str">
         <f>_xll.ohRangeRetrieveError(I3)</f>
@@ -12997,7 +12995,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="154" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E4" s="149" t="str">
         <f t="shared" si="0"/>
@@ -13005,19 +13003,19 @@
       </c>
       <c r="F4" s="150" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MM4_Quote</v>
+        <v>USDFUT3MN4_Quote</v>
       </c>
       <c r="G4" s="150" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MM4ConvAdj_Quote</v>
+        <v>USDFUT3MN4ConvAdj_Quote</v>
       </c>
       <c r="H4" s="150" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MM4</v>
+        <v>USD_YC3MRH_FUT3MN4</v>
       </c>
       <c r="I4" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H4,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM4#0000</v>
+        <v>USD_YC3MRH_FUT3MN4#0002</v>
       </c>
       <c r="J4" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I4)</f>
@@ -13035,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="154" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E5" s="149" t="str">
         <f t="shared" si="0"/>
@@ -13043,19 +13041,19 @@
       </c>
       <c r="F5" s="150" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MN4_Quote</v>
+        <v>USDFUT3MQ4_Quote</v>
       </c>
       <c r="G5" s="150" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MN4ConvAdj_Quote</v>
+        <v>USDFUT3MQ4ConvAdj_Quote</v>
       </c>
       <c r="H5" s="150" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MN4</v>
+        <v>USD_YC3MRH_FUT3MQ4</v>
       </c>
       <c r="I5" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H5,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MN4#0000</v>
+        <v>USD_YC3MRH_FUT3MQ4#0002</v>
       </c>
       <c r="J5" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I5)</f>
@@ -13073,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="154" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E6" s="149" t="str">
         <f t="shared" si="0"/>
@@ -13081,19 +13079,19 @@
       </c>
       <c r="F6" s="150" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MQ4_Quote</v>
+        <v>USDFUT3MU4_Quote</v>
       </c>
       <c r="G6" s="150" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MQ4ConvAdj_Quote</v>
+        <v>USDFUT3MU4ConvAdj_Quote</v>
       </c>
       <c r="H6" s="150" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MQ4</v>
+        <v>USD_YC3MRH_FUT3MU4</v>
       </c>
       <c r="I6" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H6,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MQ4#0000</v>
+        <v>USD_YC3MRH_FUT3MU4#0002</v>
       </c>
       <c r="J6" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I6)</f>
@@ -13111,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="154" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E7" s="149" t="str">
         <f t="shared" si="0"/>
@@ -13119,19 +13117,19 @@
       </c>
       <c r="F7" s="150" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MU4_Quote</v>
+        <v>USDFUT3MV4_Quote</v>
       </c>
       <c r="G7" s="150" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MU4ConvAdj_Quote</v>
+        <v>USDFUT3MV4ConvAdj_Quote</v>
       </c>
       <c r="H7" s="150" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MU4</v>
+        <v>USD_YC3MRH_FUT3MV4</v>
       </c>
       <c r="I7" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H7,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU4#0000</v>
+        <v>USD_YC3MRH_FUT3MV4#0002</v>
       </c>
       <c r="J7" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I7)</f>
@@ -13149,7 +13147,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="154" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E8" s="149" t="str">
         <f t="shared" si="0"/>
@@ -13157,19 +13155,19 @@
       </c>
       <c r="F8" s="150" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MV4_Quote</v>
+        <v>USDFUT3MX4_Quote</v>
       </c>
       <c r="G8" s="150" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MV4ConvAdj_Quote</v>
+        <v>USDFUT3MX4ConvAdj_Quote</v>
       </c>
       <c r="H8" s="150" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MV4</v>
+        <v>USD_YC3MRH_FUT3MX4</v>
       </c>
       <c r="I8" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H8,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MV4#0000</v>
+        <v>USD_YC3MRH_FUT3MX4#0002</v>
       </c>
       <c r="J8" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I8)</f>
@@ -13187,7 +13185,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="154" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E9" s="149" t="str">
         <f t="shared" si="0"/>
@@ -13195,19 +13193,19 @@
       </c>
       <c r="F9" s="150" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MX4_Quote</v>
+        <v>USDFUT3MZ4_Quote</v>
       </c>
       <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MX4ConvAdj_Quote</v>
+        <v>USDFUT3MZ4ConvAdj_Quote</v>
       </c>
       <c r="H9" s="150" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MX4</v>
+        <v>USD_YC3MRH_FUT3MZ4</v>
       </c>
       <c r="I9" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H9,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MX4#0000</v>
+        <v>USD_YC3MRH_FUT3MZ4#0002</v>
       </c>
       <c r="J9" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I9)</f>
@@ -13225,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="154" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E10" s="149" t="str">
         <f t="shared" si="0"/>
@@ -13233,19 +13231,19 @@
       </c>
       <c r="F10" s="150" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MZ4_Quote</v>
+        <v>USDFUT3MF5_Quote</v>
       </c>
       <c r="G10" s="150" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MZ4ConvAdj_Quote</v>
+        <v>USDFUT3MF5ConvAdj_Quote</v>
       </c>
       <c r="H10" s="150" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MZ4</v>
+        <v>USD_YC3MRH_FUT3MF5</v>
       </c>
       <c r="I10" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H10,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ4#0000</v>
+        <v>USD_YC3MRH_FUT3MF5#0002</v>
       </c>
       <c r="J10" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I10)</f>
@@ -13263,7 +13261,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="154" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E11" s="149" t="str">
         <f t="shared" si="0"/>
@@ -13271,19 +13269,19 @@
       </c>
       <c r="F11" s="150" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MF5_Quote</v>
+        <v>USDFUT3MG5_Quote</v>
       </c>
       <c r="G11" s="150" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MF5ConvAdj_Quote</v>
+        <v>USDFUT3MG5ConvAdj_Quote</v>
       </c>
       <c r="H11" s="150" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MF5</v>
+        <v>USD_YC3MRH_FUT3MG5</v>
       </c>
       <c r="I11" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H11,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MF5#0000</v>
+        <v>USD_YC3MRH_FUT3MG5#0002</v>
       </c>
       <c r="J11" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I11)</f>
@@ -13301,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="154" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E12" s="149" t="str">
         <f t="shared" si="0"/>
@@ -13309,19 +13307,19 @@
       </c>
       <c r="F12" s="150" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MG5_Quote</v>
+        <v>USDFUT3MH5_Quote</v>
       </c>
       <c r="G12" s="150" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MG5ConvAdj_Quote</v>
+        <v>USDFUT3MH5ConvAdj_Quote</v>
       </c>
       <c r="H12" s="150" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MG5</v>
+        <v>USD_YC3MRH_FUT3MH5</v>
       </c>
       <c r="I12" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H12,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MG5#0000</v>
+        <v>USD_YC3MRH_FUT3MH5#0002</v>
       </c>
       <c r="J12" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I12)</f>
@@ -13339,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="154" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E13" s="149" t="str">
         <f t="shared" si="0"/>
@@ -13347,19 +13345,19 @@
       </c>
       <c r="F13" s="150" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MH5_Quote</v>
+        <v>USDFUT3MJ5_Quote</v>
       </c>
       <c r="G13" s="150" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MH5ConvAdj_Quote</v>
+        <v>USDFUT3MJ5ConvAdj_Quote</v>
       </c>
       <c r="H13" s="150" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MH5</v>
+        <v>USD_YC3MRH_FUT3MJ5</v>
       </c>
       <c r="I13" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H13,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH5#0000</v>
+        <v>USD_YC3MRH_FUT3MJ5#0002</v>
       </c>
       <c r="J13" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I13)</f>
@@ -13377,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="154" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="E14" s="149" t="str">
         <f t="shared" si="0"/>
@@ -13385,19 +13383,19 @@
       </c>
       <c r="F14" s="150" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MJ5_Quote</v>
+        <v>USDFUT3MK5_Quote</v>
       </c>
       <c r="G14" s="150" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MJ5ConvAdj_Quote</v>
+        <v>USDFUT3MK5ConvAdj_Quote</v>
       </c>
       <c r="H14" s="150" t="str">
         <f t="shared" si="3"/>
-        <v>USD_YC3MRH_FUT3MJ5</v>
+        <v>USD_YC3MRH_FUT3MK5</v>
       </c>
       <c r="I14" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H14,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MJ5#0000</v>
+        <v>USD_YC3MRH_FUT3MK5#0002</v>
       </c>
       <c r="J14" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I14)</f>
@@ -13435,7 +13433,7 @@
       </c>
       <c r="I15" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H15,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM5#0000</v>
+        <v>USD_YC3MRH_FUT3MM5#0002</v>
       </c>
       <c r="J15" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I15)</f>
@@ -13473,7 +13471,7 @@
       </c>
       <c r="I16" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H16,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU5#0000</v>
+        <v>USD_YC3MRH_FUT3MU5#0002</v>
       </c>
       <c r="J16" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I16)</f>
@@ -13511,7 +13509,7 @@
       </c>
       <c r="I17" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H17,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ5#0000</v>
+        <v>USD_YC3MRH_FUT3MZ5#0002</v>
       </c>
       <c r="J17" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I17)</f>
@@ -13549,7 +13547,7 @@
       </c>
       <c r="I18" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H18,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH6#0000</v>
+        <v>USD_YC3MRH_FUT3MH6#0002</v>
       </c>
       <c r="J18" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I18)</f>
@@ -13587,7 +13585,7 @@
       </c>
       <c r="I19" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H19,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM6#0000</v>
+        <v>USD_YC3MRH_FUT3MM6#0002</v>
       </c>
       <c r="J19" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I19)</f>
@@ -13625,7 +13623,7 @@
       </c>
       <c r="I20" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H20,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU6#0000</v>
+        <v>USD_YC3MRH_FUT3MU6#0002</v>
       </c>
       <c r="J20" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I20)</f>
@@ -13663,7 +13661,7 @@
       </c>
       <c r="I21" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H21,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ6#0000</v>
+        <v>USD_YC3MRH_FUT3MZ6#0002</v>
       </c>
       <c r="J21" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I21)</f>
@@ -13701,7 +13699,7 @@
       </c>
       <c r="I22" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H22,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH7#0000</v>
+        <v>USD_YC3MRH_FUT3MH7#0002</v>
       </c>
       <c r="J22" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I22)</f>
@@ -13739,7 +13737,7 @@
       </c>
       <c r="I23" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H23,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM7#0000</v>
+        <v>USD_YC3MRH_FUT3MM7#0002</v>
       </c>
       <c r="J23" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I23)</f>
@@ -13777,7 +13775,7 @@
       </c>
       <c r="I24" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H24,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU7#0000</v>
+        <v>USD_YC3MRH_FUT3MU7#0002</v>
       </c>
       <c r="J24" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I24)</f>
@@ -13815,7 +13813,7 @@
       </c>
       <c r="I25" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H25,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ7#0000</v>
+        <v>USD_YC3MRH_FUT3MZ7#0002</v>
       </c>
       <c r="J25" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I25)</f>
@@ -13853,7 +13851,7 @@
       </c>
       <c r="I26" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H26,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH8#0000</v>
+        <v>USD_YC3MRH_FUT3MH8#0002</v>
       </c>
       <c r="J26" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I26)</f>
@@ -13891,7 +13889,7 @@
       </c>
       <c r="I27" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H27,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM8#0000</v>
+        <v>USD_YC3MRH_FUT3MM8#0002</v>
       </c>
       <c r="J27" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I27)</f>
@@ -13929,7 +13927,7 @@
       </c>
       <c r="I28" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H28,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU8#0000</v>
+        <v>USD_YC3MRH_FUT3MU8#0002</v>
       </c>
       <c r="J28" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I28)</f>
@@ -13967,7 +13965,7 @@
       </c>
       <c r="I29" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H29,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ8#0000</v>
+        <v>USD_YC3MRH_FUT3MZ8#0002</v>
       </c>
       <c r="J29" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I29)</f>
@@ -14005,7 +14003,7 @@
       </c>
       <c r="I30" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H30,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH9#0000</v>
+        <v>USD_YC3MRH_FUT3MH9#0002</v>
       </c>
       <c r="J30" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I30)</f>
@@ -14043,7 +14041,7 @@
       </c>
       <c r="I31" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H31,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM9#0000</v>
+        <v>USD_YC3MRH_FUT3MM9#0002</v>
       </c>
       <c r="J31" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I31)</f>
@@ -14081,7 +14079,7 @@
       </c>
       <c r="I32" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H32,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU9#0000</v>
+        <v>USD_YC3MRH_FUT3MU9#0002</v>
       </c>
       <c r="J32" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I32)</f>
@@ -14119,7 +14117,7 @@
       </c>
       <c r="I33" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H33,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ9#0000</v>
+        <v>USD_YC3MRH_FUT3MZ9#0002</v>
       </c>
       <c r="J33" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I33)</f>
@@ -14157,7 +14155,7 @@
       </c>
       <c r="I34" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H34,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH0#0000</v>
+        <v>USD_YC3MRH_FUT3MH0#0002</v>
       </c>
       <c r="J34" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I34)</f>
@@ -14195,7 +14193,7 @@
       </c>
       <c r="I35" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H35,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM0#0000</v>
+        <v>USD_YC3MRH_FUT3MM0#0002</v>
       </c>
       <c r="J35" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I35)</f>
@@ -14233,7 +14231,7 @@
       </c>
       <c r="I36" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H36,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU0#0000</v>
+        <v>USD_YC3MRH_FUT3MU0#0002</v>
       </c>
       <c r="J36" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I36)</f>
@@ -14271,7 +14269,7 @@
       </c>
       <c r="I37" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H37,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ0#0000</v>
+        <v>USD_YC3MRH_FUT3MZ0#0002</v>
       </c>
       <c r="J37" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I37)</f>
@@ -14309,7 +14307,7 @@
       </c>
       <c r="I38" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H38,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH1#0000</v>
+        <v>USD_YC3MRH_FUT3MH1#0002</v>
       </c>
       <c r="J38" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I38)</f>
@@ -14347,7 +14345,7 @@
       </c>
       <c r="I39" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H39,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM1#0000</v>
+        <v>USD_YC3MRH_FUT3MM1#0002</v>
       </c>
       <c r="J39" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I39)</f>
@@ -14385,7 +14383,7 @@
       </c>
       <c r="I40" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H40,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU1#0000</v>
+        <v>USD_YC3MRH_FUT3MU1#0002</v>
       </c>
       <c r="J40" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I40)</f>
@@ -14422,7 +14420,7 @@
       </c>
       <c r="I41" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H41,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MZ1#0000</v>
+        <v>USD_YC3MRH_FUT3MZ1#0002</v>
       </c>
       <c r="J41" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I41)</f>
@@ -14459,7 +14457,7 @@
       </c>
       <c r="I42" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H42,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MH2#0000</v>
+        <v>USD_YC3MRH_FUT3MH2#0002</v>
       </c>
       <c r="J42" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I42)</f>
@@ -14496,7 +14494,7 @@
       </c>
       <c r="I43" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H43,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MM2#0000</v>
+        <v>USD_YC3MRH_FUT3MM2#0002</v>
       </c>
       <c r="J43" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I43)</f>
@@ -14533,7 +14531,7 @@
       </c>
       <c r="I44" s="155" t="str">
         <f>_xll.qlFuturesRateHelper(H44,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_FUT3MU2#0000</v>
+        <v>USD_YC3MRH_FUT3MU2#0002</v>
       </c>
       <c r="J44" s="136" t="str">
         <f>_xll.ohRangeRetrieveError(I44)</f>
@@ -14688,7 +14686,7 @@
       </c>
       <c r="L4" s="167" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>USD_YC3MRH_AM3L_Libor3M#0000</v>
+        <v>USD_YC3MRH_AM3L_Libor3M#0002</v>
       </c>
       <c r="M4" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -14752,7 +14750,7 @@
       </c>
       <c r="L6" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L1Y#0000</v>
+        <v>USD_YC3MRH_AM3L1Y#0002</v>
       </c>
       <c r="M6" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -14807,7 +14805,7 @@
       </c>
       <c r="L7" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L15M#0000</v>
+        <v>USD_YC3MRH_AM3L15M#0002</v>
       </c>
       <c r="M7" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -14862,7 +14860,7 @@
       </c>
       <c r="L8" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L18M#0000</v>
+        <v>USD_YC3MRH_AM3L18M#0002</v>
       </c>
       <c r="M8" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -14917,7 +14915,7 @@
       </c>
       <c r="L9" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L21M#0000</v>
+        <v>USD_YC3MRH_AM3L21M#0002</v>
       </c>
       <c r="M9" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -14972,7 +14970,7 @@
       </c>
       <c r="L10" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L2Y#0000</v>
+        <v>USD_YC3MRH_AM3L2Y#0002</v>
       </c>
       <c r="M10" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -15027,7 +15025,7 @@
       </c>
       <c r="L11" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L3Y#0000</v>
+        <v>USD_YC3MRH_AM3L3Y#0002</v>
       </c>
       <c r="M11" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -15073,7 +15071,7 @@
       </c>
       <c r="L12" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L4Y#0000</v>
+        <v>USD_YC3MRH_AM3L4Y#0002</v>
       </c>
       <c r="M12" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -15119,7 +15117,7 @@
       </c>
       <c r="L13" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L5Y#0000</v>
+        <v>USD_YC3MRH_AM3L5Y#0002</v>
       </c>
       <c r="M13" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -15165,7 +15163,7 @@
       </c>
       <c r="L14" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L6Y#0000</v>
+        <v>USD_YC3MRH_AM3L6Y#0002</v>
       </c>
       <c r="M14" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -15211,7 +15209,7 @@
       </c>
       <c r="L15" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L7Y#0000</v>
+        <v>USD_YC3MRH_AM3L7Y#0002</v>
       </c>
       <c r="M15" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -15257,7 +15255,7 @@
       </c>
       <c r="L16" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L8Y#0000</v>
+        <v>USD_YC3MRH_AM3L8Y#0002</v>
       </c>
       <c r="M16" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -15303,7 +15301,7 @@
       </c>
       <c r="L17" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L9Y#0000</v>
+        <v>USD_YC3MRH_AM3L9Y#0002</v>
       </c>
       <c r="M17" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -15349,7 +15347,7 @@
       </c>
       <c r="L18" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L10Y#0000</v>
+        <v>USD_YC3MRH_AM3L10Y#0002</v>
       </c>
       <c r="M18" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -15395,7 +15393,7 @@
       </c>
       <c r="L19" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L11Y#0000</v>
+        <v>USD_YC3MRH_AM3L11Y#0002</v>
       </c>
       <c r="M19" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -15441,7 +15439,7 @@
       </c>
       <c r="L20" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L12Y#0000</v>
+        <v>USD_YC3MRH_AM3L12Y#0002</v>
       </c>
       <c r="M20" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -15487,7 +15485,7 @@
       </c>
       <c r="L21" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L13Y#0000</v>
+        <v>USD_YC3MRH_AM3L13Y#0002</v>
       </c>
       <c r="M21" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -15533,7 +15531,7 @@
       </c>
       <c r="L22" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L14Y#0000</v>
+        <v>USD_YC3MRH_AM3L14Y#0002</v>
       </c>
       <c r="M22" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -15579,7 +15577,7 @@
       </c>
       <c r="L23" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L15Y#0000</v>
+        <v>USD_YC3MRH_AM3L15Y#0002</v>
       </c>
       <c r="M23" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -15625,7 +15623,7 @@
       </c>
       <c r="L24" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L16Y#0000</v>
+        <v>USD_YC3MRH_AM3L16Y#0002</v>
       </c>
       <c r="M24" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -15671,7 +15669,7 @@
       </c>
       <c r="L25" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L17Y#0000</v>
+        <v>USD_YC3MRH_AM3L17Y#0002</v>
       </c>
       <c r="M25" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -15717,7 +15715,7 @@
       </c>
       <c r="L26" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L18Y#0000</v>
+        <v>USD_YC3MRH_AM3L18Y#0002</v>
       </c>
       <c r="M26" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -15763,7 +15761,7 @@
       </c>
       <c r="L27" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L19Y#0000</v>
+        <v>USD_YC3MRH_AM3L19Y#0002</v>
       </c>
       <c r="M27" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -15809,7 +15807,7 @@
       </c>
       <c r="L28" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L20Y#0000</v>
+        <v>USD_YC3MRH_AM3L20Y#0002</v>
       </c>
       <c r="M28" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -15855,7 +15853,7 @@
       </c>
       <c r="L29" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L21Y#0000</v>
+        <v>USD_YC3MRH_AM3L21Y#0002</v>
       </c>
       <c r="M29" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -15901,7 +15899,7 @@
       </c>
       <c r="L30" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L22Y#0000</v>
+        <v>USD_YC3MRH_AM3L22Y#0002</v>
       </c>
       <c r="M30" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -15947,7 +15945,7 @@
       </c>
       <c r="L31" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L23Y#0000</v>
+        <v>USD_YC3MRH_AM3L23Y#0002</v>
       </c>
       <c r="M31" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -15993,7 +15991,7 @@
       </c>
       <c r="L32" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L24Y#0000</v>
+        <v>USD_YC3MRH_AM3L24Y#0002</v>
       </c>
       <c r="M32" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -16039,7 +16037,7 @@
       </c>
       <c r="L33" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L25Y#0000</v>
+        <v>USD_YC3MRH_AM3L25Y#0002</v>
       </c>
       <c r="M33" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -16085,7 +16083,7 @@
       </c>
       <c r="L34" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L26Y#0000</v>
+        <v>USD_YC3MRH_AM3L26Y#0002</v>
       </c>
       <c r="M34" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -16131,7 +16129,7 @@
       </c>
       <c r="L35" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L27Y#0000</v>
+        <v>USD_YC3MRH_AM3L27Y#0002</v>
       </c>
       <c r="M35" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -16177,7 +16175,7 @@
       </c>
       <c r="L36" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L28Y#0000</v>
+        <v>USD_YC3MRH_AM3L28Y#0002</v>
       </c>
       <c r="M36" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -16223,7 +16221,7 @@
       </c>
       <c r="L37" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L29Y#0000</v>
+        <v>USD_YC3MRH_AM3L29Y#0002</v>
       </c>
       <c r="M37" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -16269,7 +16267,7 @@
       </c>
       <c r="L38" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L30Y#0000</v>
+        <v>USD_YC3MRH_AM3L30Y#0002</v>
       </c>
       <c r="M38" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -16315,7 +16313,7 @@
       </c>
       <c r="L39" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L35Y#0000</v>
+        <v>USD_YC3MRH_AM3L35Y#0002</v>
       </c>
       <c r="M39" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -16361,7 +16359,7 @@
       </c>
       <c r="L40" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L40Y#0000</v>
+        <v>USD_YC3MRH_AM3L40Y#0002</v>
       </c>
       <c r="M40" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -16407,7 +16405,7 @@
       </c>
       <c r="L41" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L50Y#0000</v>
+        <v>USD_YC3MRH_AM3L50Y#0002</v>
       </c>
       <c r="M41" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -16453,7 +16451,7 @@
       </c>
       <c r="L42" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_AM3L60Y#0000</v>
+        <v>USD_YC3MRH_AM3L60Y#0002</v>
       </c>
       <c r="M42" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -16511,7 +16509,7 @@
       </c>
       <c r="L44" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K44,$J44,$E44&amp;"M",Calendar,$F44,$G44,$H44,$L$4,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_1S12#0000</v>
+        <v>USD_YC3MRH_1S12#0002</v>
       </c>
       <c r="M44" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -16556,7 +16554,7 @@
       </c>
       <c r="L45" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K45,$J45,$E45&amp;"M",Calendar,$F45,$G45,$H45,$L$4,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_2S12#0000</v>
+        <v>USD_YC3MRH_2S12#0002</v>
       </c>
       <c r="M45" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -16601,7 +16599,7 @@
       </c>
       <c r="L46" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K46,$J46,$E46&amp;"M",Calendar,$F46,$G46,$H46,$L$4,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_3S12#0000</v>
+        <v>USD_YC3MRH_3S12#0002</v>
       </c>
       <c r="M46" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -16646,7 +16644,7 @@
       </c>
       <c r="L47" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K47,$J47,$E47&amp;"M",Calendar,$F47,$G47,$H47,$L$4,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_4S12#0000</v>
+        <v>USD_YC3MRH_4S12#0002</v>
       </c>
       <c r="M47" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -16691,7 +16689,7 @@
       </c>
       <c r="L48" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K48,$J48,$E48&amp;"M",Calendar,$F48,$G48,$H48,$L$4,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_1S24#0000</v>
+        <v>USD_YC3MRH_1S24#0002</v>
       </c>
       <c r="M48" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -16736,7 +16734,7 @@
       </c>
       <c r="L49" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K49,$J49,$E49&amp;"M",Calendar,$F49,$G49,$H49,$L$4,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_2S24#0000</v>
+        <v>USD_YC3MRH_2S24#0002</v>
       </c>
       <c r="M49" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -16781,7 +16779,7 @@
       </c>
       <c r="L50" s="174" t="str">
         <f>_xll.qlSwapRateHelper2(K50,$J50,$E50&amp;"M",Calendar,$F50,$G50,$H50,$L$4,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>USD_YC3MRH_1S36#0000</v>
+        <v>USD_YC3MRH_1S36#0002</v>
       </c>
       <c r="M50" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
